--- a/Supplementary/Supplementary_file_6.xlsx
+++ b/Supplementary/Supplementary_file_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/HYBRID_READS-ZWA/RESULTS/PAPER/ORIGINAL/ZWA2_COMPANION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B26D1A-699E-C34B-AE6B-EB882C5AC4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE5587-0F9A-AF4B-A001-FEB08FDA76B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1A9DF13C-39FD-8D42-A3FB-5F0FC33523B0}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Supplementary/Supplementary_file_6.xlsx
+++ b/Supplementary/Supplementary_file_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/HYBRID_READS-ZWA/RESULTS/PAPER/ORIGINAL/ZWA2_COMPANION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE5587-0F9A-AF4B-A001-FEB08FDA76B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0CBCF-3E2D-084C-BB18-C9899B6A1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1A9DF13C-39FD-8D42-A3FB-5F0FC33523B0}"/>
   </bookViews>
@@ -384,12 +384,6 @@
 identity (%)</t>
   </si>
   <si>
-    <t>ZWA2 improvement</t>
-  </si>
-  <si>
-    <t>Database information</t>
-  </si>
-  <si>
     <t>Hubei virga-like virus 2 strain mosHB235832 RdRp and putative coat protein genes, complete cds</t>
   </si>
   <si>
@@ -428,6 +422,12 @@
   </si>
   <si>
     <t>Contig length / accession length (%)</t>
+  </si>
+  <si>
+    <t>ZWA2 improvement section</t>
+  </si>
+  <si>
+    <t>Database information section</t>
   </si>
 </sst>
 </file>
@@ -515,13 +515,13 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,10 +839,10 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,23 +863,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -901,10 +901,10 @@
         <v>76</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>112</v>
@@ -919,7 +919,7 @@
         <v>115</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -959,7 +959,7 @@
       <c r="L3" s="10">
         <v>97.65</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="14">
         <v>297.54353233830841</v>
       </c>
     </row>
@@ -989,10 +989,10 @@
         <v>80</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K4" s="10">
         <v>95</v>
@@ -1000,7 +1000,7 @@
       <c r="L4" s="10">
         <v>88.63</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="14">
         <v>354.27905427905426</v>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       <c r="L5" s="10">
         <v>98.04</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <v>117.12995135510771</v>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       <c r="L6" s="10">
         <v>97.3</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="14">
         <v>143.90001983733387</v>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       <c r="L7" s="10">
         <v>95.88</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <v>380.22657054582902</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       <c r="L8" s="10">
         <v>96.56</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="14">
         <v>148.01710730948679</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="L9" s="10">
         <v>95.05</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <v>140.2820355610055</v>
       </c>
     </row>
@@ -1235,10 +1235,10 @@
         <v>96</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10" s="10">
         <v>89</v>
@@ -1246,7 +1246,7 @@
       <c r="L10" s="10">
         <v>85.56</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="14">
         <v>167.95707167497125</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="L11" s="10">
         <v>99.86</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="14">
         <v>366.6396432914471</v>
       </c>
     </row>
@@ -1317,10 +1317,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K12" s="10">
         <v>98</v>
@@ -1328,7 +1328,7 @@
       <c r="L12" s="10">
         <v>84.04</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="14">
         <v>132.21462606173606</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       <c r="L13" s="10">
         <v>89.8</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="14">
         <v>145.12652296157452</v>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="L14" s="10">
         <v>98.37</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="14">
         <v>207.13673381911701</v>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="L15" s="10">
         <v>96.14</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="14">
         <v>171.29678907220151</v>
       </c>
     </row>
@@ -1481,10 +1481,10 @@
         <v>110</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K16" s="10">
         <v>91</v>
@@ -1492,7 +1492,7 @@
       <c r="L16" s="10">
         <v>87.93</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="14">
         <v>143.68102527589889</v>
       </c>
     </row>
@@ -1522,10 +1522,10 @@
         <v>111</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K17" s="10">
         <v>99</v>
@@ -1533,7 +1533,7 @@
       <c r="L17" s="10">
         <v>93.49</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="14">
         <v>222.9269560696647</v>
       </c>
     </row>

--- a/Supplementary/Supplementary_file_6.xlsx
+++ b/Supplementary/Supplementary_file_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FD797-5A70-794D-818C-DF0428A16B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B76770-5084-0F4D-98C3-76FDB5498EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1A9DF13C-39FD-8D42-A3FB-5F0FC33523B0}"/>
   </bookViews>
@@ -165,108 +165,52 @@
     <t>CATTATTTTAATTTTTTTTTTATTTTTTTTATTTTATCTTTTTTCTTTTTTTTGCCAATTATGGTAAAAGAGAAAGAAGTAAAGGGAGTGAATATAGAAAAATTTAAGAGTTTTCCAAGAAATTACTTGACGCGGCGGCAAATCGCAGCGATGCTCGGAAGGAGCTTGAAGTGGTTACGTCTCCATGAGGAGTTCACCAGAGTTTCACATCAAAGTGATGTGAGGTTGTCGTATGGACAGGCTACATCTCCAGAAGGGAGTTCACCAATTGCACAAAGTGTGCAGACTACGTCTCCTGTGGAGTTCGTCTAAGCGGAAGTTGTGTTCGGCGCGAGCGCGCCGGGTGTTGAGGGGGGGCTAAGGGTGATGTGCCCGAAAAAGTAGAGCACTCCGACAGCCATGAGGATGAAAATGCGGGAGTTCTGCAGTTGCACACGGAAATAAGTGTGAAGTGCGAGGGCCTGGATGACATATTCATAAATTGAGACAGCGGGAATGAGCATCACCCAGAAGCATGATGAGAGAGCGACGGCAATGCGGACATTATCGGGTGTGTCGAGGACAGCAGGAAGAAAAACGGCGAGCCCTAGGAAACGCACTTGGTTCTGGTGAACCCAGAGCGCGAGAGAGTTGGAGGCGGATTTTTCGGCGATCCACTTGCCGACAACTCCGGAAGAGAAGTCAGCGTTGTGGGTAACGACGAGAGCAACGACACAAACGACACTCAGCAGGACCAGAGGTCGGTTAAGACCTTTAGTGAATGTTGACGAGATGTCGGAGATGACGGAGTTAAGATCGAACATAGTGTTCGATCGGTTCCGCTTCGCCGGGGTTGATTTCTTCGAAGCAGTAGGGACAGCAACCTTCTGGGAAGTGGTGGAACGGGCGGCAGCCACAGTCTTGCCTGCAGATCGCTTTCGGGGGGCAGCAGACATTGTACAAAAAGTAAATCAGTACGATTAGGATAAGAAGATGAATACACATTATATGGAAGAATCTGAATAGATTTTTACACAATAAACAGCAACGAGAACGGCCAAAGAAATGACGAGGTCGCGCAACATTAAATAAGTGAAAAAACATACAAAAAGCGCACTGTAAAAGTGAGAATTGTACGGAACAAAAGACATGATAATGTCGAAAACTTCGCTTATGACTTTGAACAAGATAAATGCAAGGTCAGCGGCGATTTCTTTTAAAAATTCAAGAAGATATCCCAATTCGTTACGAAAAAACTTGGATACGTTGGAAAGGATGCTTGATAGAGGAGAGGTGTAATGAGTGGTGAGGTGAAAGCAGTAGGGCTTGTCAGTTGGGAGGTACCCATGACTGCGGACAATGAACAGAGGTCCGGAGTATCCCAGCACGTCGTAGGTCACCATGTACGATCCTCCGACTTTATCAATAACTCGGGGAGTGCGTGTAAGGTTGTTTGTAGAGTAAGCATCCGCTCCCATAACTCTGTTGTTAGTGGAAGCGAATGAACCTTGCGAAAATGGTACTCCATCGAATTCGATAGGGAAGTCGTGAACAGTGAAGAGCACGGGCAGACTGGGGTAAAGGACGGGATCACATTGAAGGGAGTCGTGTGTGAGTTCAACGAAACAAACGTCGTCACCTCGATGCTCGATACGCACGGTTTTGGGAAGACGTGAAGAGTGATGGAAGAGTTCGTCACAAATACGTGGTACGATTCCAAACCTGTTATCGTCAGACTTCACGATATAGTACCACTCAAAGAAAGACACTGGTTTCATGTTCTTAAGCTGAGTGAACACTTTACCGTAGAGAGTGATAGGTTCGCGGAGTGCGACAGGTCTGGGCGTAAATGAGACATTAAAGAACTCGAATTCACTTGATTTGTCGATTCGGGAAGACGAATGACAGACGACGGTTTCCTGGCCGTAAAATGTTTTATCGAGTTTGACGACAGATGGTTCGGTACAGTTGGAAGGGAGGGTACATTCACCGAACAAATAATCGTTCGTGCGGTAAACATTGAGGCACGACCGATCGAACATGTACGGAGAAATACGATGACGACCGAGAGAATTCAAAACAGGATGGAACTTCTGATAAAAGGCGAGTTTCTCACGCCGCGTTGAGAGCTGGTTAACAACATCACTGCTGAAAACCGCACACTCAGCGGTGAAGAAAAGGCAAACGAACAAAAACGGAAGGCGCATGATGGTATACAATGGAAGAATAGTGATTAGATTAGAAATCACGACTGAACACAACTGTATGGTCGATACGGTCTCCTATTTCAGAATAGAACAGTTGGCTGAAATTGCGTTCGTCGGTCATGTTCGGAAGTGAAGCCAAGAAGTTCGTAAAGTCTTTGAACACACCGTACCGTTCACGCAGTGCGTCAGCGACGGCGATGCAGACTGCATAATTCTTGTAATTCTTGACGGTGTCGACAAAGGAAATGCGATATTCTTCGACGTGTAGGGAGTTGACGAGGTCATGTCGACCAAGTTTGGTGACGAATTTCAAGGGGTCAGGGGTGAATGTCCAATGGTCATTGACGACAAGCAAAAATTTTGAGCAAAAGTACGATTTATCAAATTCGAAGAACTTGATTTCGAGGTTGAACTTGAGTCCAAAATGCTGGGCGTTCTTGAACTGCGAGAGAGAGTGTCCGTAGAGCAGTGAGTCATCACCGGAGAATAGAGCGAGTTCCAACTGAGAAACAGGAATAAGATCGCAGACGACGGCCATCAAGAACAGTGTGTTCCCGATGAAGGTAGAAGCGTCTCCTGATTTGCGCTGGTACGAGACCAGTGCTTTCAGTTTGGTGGTTTTGTCGTATACGCGTGTGAGCACGTGCGCATTGAACCACAACTCGACAATATCCGGGGCGACTCCGAAACGCAGCATGAGTTTACACTCGAACTCAAGAGCCAATTCGCGCTGACTTTTGTCGTATTTGCTGATGTCGATCTCCAGCTTGTCGCAGAGGGCGGACAATTTGGAAGGGGGAATGTCACGTTGAAGCACTTCTTCGAAATCTTCAGACGACATGTCACAGAAGATTTTTACATGAGGCAGAAGTGAAGAAGTGACACGTTTCTTGATTTCACGAAAAACGGAGCAAAACATAGCGTTGACAGACTTCTCGTGATAGACGATAGTTTGCAACGCAAGGTACGATGCTGTGGCATCAACAGTGAGGTTAGGTTTCGGCTTGCGCTTGATGGAAAAATTGTATTCATTAAGAGCAAGACAATGCAATGCGAAGTCGGGGACTATCATGGTTCTGACTGAAAGGGGTTGACCGCTCAACCATTCACCTACTGAGTTCGACGAGATAGTGATCGGATCGGTGAGATGGAAACGCAAAAGCGCAGGATCAAAACATTCTTCGAGCAAGGAGTCGAGCATTTCAGAAGATGAGACTTCAATGTCGACAACTCCGTTCATGGAAGGCACGTTGCGGTTCCGTTTCTCGAGAGCCAGCATAAGTTCGCGAGTGTTGTAGTCACGAATGTGAGGCATGGGTGTTCGCAAGATCGGACGCATTGTGTCGTACAACTTACCCAGTTGCACGCAACCAACAGGCGAGAATGATATTTCACCGACCTCAATGTTGAGATCACTATTGCGCACGTCCCAGCCGTCGAACGACTGATCGGTAAATGCACAAGGACCGAAAAAACTGGTAATGAAGGTTTGAGCGGTGCATACAGAAAAGATGTGAGGGACCTCGTGAACGGGTATGTAATCAGCGGTGGAGAATTTGGAAGTTTGAAACTGACAATTGGGAAGTGGATTCATGCCGTTGCGTGTGAGGAGTTCAAAGACTTCGGAAGGTACATCGTACACATCGTTGGTAGAGCAAAGATATGATTTTGCTCTCAAGGATTTGTACATGGTGTAACCGAGTGCAGCGCGGTCGATGTCAGATTCAACAGCACCAGAAACAAAGATACGTCCGACACCTCGTTCGTGAAGAACGGGCGCGCATTCGCGCAAATTCCTGGTGATTGTGGTGAGGTTGTGTTTCTGATTCTGCGACACAGATGAAACCACATAGACATTGAGCTGACCACGTGAACTATCGACGACTACGTTGGAACGCATGACAAGCGGTTTATGCTTACAATCAGACTTCTTTCCAAACTGTGGCACAAAGTAAAGGCGGGGTTCAGTAATAGTGGCGATGGAGGACTTGACGACACTCATAGTGGTGTACGTTGCGACAGGAAGGTTTTCGGCGACCCGAAACACTTCGGTGTCAGCGACACCAGCAGCTATGTGGTGGACACGACGACACTCATCTTCAGAAACGGCGACATGACAAGTAACACCATCGACCTTGATAAGCTTTGAAAGAGCGTCGGTGGTGACACGAGTGTAGTAGGTGAGTTGCTCGGTATGGCGGGTGAGAGCGACAAGAGCGTAATTGAAGCGCAGAAACAGTTCCTCCTGAGGGAAGGGATTAAGTCTGACGACACGTATGACCTTCGCCTCTTTACCCTGAAACTCGTGAATTGTGGAGACACGAAGGTGCATCAGTTCGAGTTTCTTCTTTTCGTTCTGGGTGAAGGTGAGGTACTGCACATTCTTGTCGTGAGGGAAGTTCTCGTTGCTAAGTCGCACGACTTTGCAGGTGTTGGTAGAGAACTTGACAGATTTCATCCCACAACCGTTGTTATTGAGTTCGGCGTAGTGTGAGTCGAGTCTAGCAGCGACGTCAGTAGGACATCGATAGGAAATGTAAAGAGTATCGATGATGGGAACGAAATCGGCGAGGCGGTGGTATTTCGTAGTGTAAGCGGGAGTGCGGTTGACATATGGGATTTGCAAGACATCACCGAGAAGTTTAACTTCGGTGGCACCGGAAAGGGCTATGGCATAAAAGATTTGACCTGGATGTGACATGAGCGCCTCGTCGATGAACAATGTATCGCTTTTGATGTTACGCTTGTAATTGACAATAAAACTGGCGAGTGTGCGAATGTGAATCCGGTGTTCTGGTGTCAGTTCAACCCTGTATTCCTTCTCAATTCTTCTCGCGAAATCTTCTTTTCCTTCGACAGTGGAAAGAAGAACATTACTTGCGCAAGGCATGTGAGCAGGAACACAATTTTTGACAACGAAGTATGTCTTTCCGCAACCTGCAGCAGCCTGAACAATGCCAGTTCCTCGTGGAATTTCGAATTTCGACACATCGACGGATTCGCACGCGGTGATCATCTCCTCTTCAATAGCGATAGTGCAATATTCGGAAAACAGGAACGAGTCTCCAACACTCAGGATACGTTTGATGTCGGCGACACGATGAAACTTTCCGTTGAAGAAGAATTTGTTGTACTTGCGTTCTTCCTTATTTCCGAATCTGTGACGGATCTCGTGGCCAATAGCGACGGTGCAATATGTGTACTTTCCATTCTCCTCCTCGGTGAATGTCTTCGCGAGAGGGAGGGTGGAGATTCGTTGCAAAACACGTGCGTGGTTCGAAATCTCGCAGGACAGAGTCAGCTTCTGGAGTTCGACGAATTCATTCATGGCTGCCCTGCAGATGTCACGTTCGACGGTGATTTCTTCCACGATAGCAGGTGTGGGGGGTTTTTCAGGTTTCAATGTGGATGTGTGGGTTTTCGGTTTAACATTGAAGGGAGTGCTTTTAAACACGAGTGGAGGTGGTGCGGTTATTCCCAGGGATTTACACTGTCCTATTTCTGTGAAGGTGCGGTCAGGTTCAGTAGAGATGAGAAACTTGTCAATCTTAGGTTTCTTCATGTACTCGACGAATCGCGTGACGACACCAGGTGCTGGTTCGGCGACGAGCAGTTCAAGAGGTTCTTCAGCTTCGGTGGGGCTTGAGGGAAAAACAGGAGGGATGACGGCAGGCGGGGCTGTGGTGACTGGTTTGGCTTCGACGGGGACATCGTACACGAAGTCTCGCAGTTCAGCGACGAAGTCACGTTTAGGGCCGGCGATGGTGTAGATGTTGCGAAACGTACGTTTGACAGCATCAGTGAGACCACCGGCGGTGACTCGGGATGCCATGCATAAGACGTTACGATATCCTTCAATCTTTTCTTCAGGAAATCGGTTGACGTGTTCGTTATTTTCACCAGCGGTGTTGAAGCATTTGCGATATTCACGAAGTCCAGAGATTATGTGTGCATCGAACATCTTCTGTGCGTGCATCAAGTTCATCATTGTAGAGTCGACGACGTCGTGAGATTCACCAAGGATGAGTTTCTCGTAGCAAGCAACTGGCAACTCGTTGGTGAGTTTGAACCCACGACAAATGAGATGTAGTTCGGTGGAGGCGGCGCGTGAGGTTTCGAGCTTCACGATTTCGACGGACTCGAAGGAGGCATTGAGAAATTCGATGTTATGAGGCATTTGGTCGCTAAGCAGGTCGAGGACTTTGAAGTAAGCATCACCACCGTTCTTGAGAACAGTGGTGCACAGGACGATCTCCCAAGCGACCAACTTCGCAAGTGCAGGAAAGTTGTGGTTGCTGTCACTTTCAGAAGTGGCAACATCACCACCAAAGAAACAGACGCCGGATGAGTAGCAGTTACGAATAGAGTCGCGGAAGGCGACGACATTGCATTCTTTAGTAATGTCACCGTCGTAGGTATCGCCGATGAGCTGAGTGAAGAGGTGATGTTTGACGGAGGGCGAAAAGTCGATCAGATCGGTTTTTGTGACACCGAAAACGCGTATGCCTTTGTTAGTAAGAAACTGAACTTCACCACCGGGACCACCGATGGATACGGCGGACTCGTATTCGCGGGTGGAAAAATAGCGAACGAACATTTCAGCAGTTTTCATACCGGATCTGCAAACGTAATTTCCGTCCCCCAGTTCACTGAGAGGGCAGTAGTTATGTTTGGCGGCGATGAGTCGTTTGTTGAACTGGCTACGCGAATACTGACTGCGGAGACCGAAGAATTGGTCGAATTGTTTGTCACGAGAAGCAGTGGAATATTCGATAGCCGGCACATCTTCGGAGAATTTGTATGTGGGGACGGCGTCGAAGTTGTGAGTGGGTCTGAGGTAGGAGCAGTGATTGTCGCGAATAAGAAAGTGTTTGAAAGGTGCGGCACCAAACCGCAAAGAGATTCCATTGACGTGAATACAAACGCCCTGTTGCAATTCTAAGGAGTACAGAATAAAAGTTGAGAGGTCTCCGTAACCATCGGGAGAACCGTCAGTGCATTCGAGCAAGCGACGTTGTGAAGCGACATCGCGTAGGTTGTGAAAGTAGGTACTCGTGAGAAGTCTGTTGCGAATCTGACGCGGTTCGAAGTCGTGCAATTCAGAAGCGTCAATCATGGATTGGAAGACGCAATCTCCGTTGGAATTGTTTTCGACAATAGCAAGGTCAGACGCGCATGCAGTAGTGACAAAAGAAGAGGTGTCATAGACGGTTTCGGTCACTTTCACATCTTCAAGTGAGCTGATGACAGCTTCGCGGACCATTTCAGGGTCAATGTAATCGCAGACGGGGGAGTCGGAAGTAAATCCGCGGTCGCACGGGATAACACCGGCGGACAAACAGTCGAGTTCTTCTTCGACAGTGAGGAAGTTGCACATTTTGTCGAGGGTGATATCAAATCGGCGGTTAACGACGGCGAATGATTTGACTCCGTTGATGATGGTCTTGACATTACTGGTAGTAAGGTCTTCGTCTTCGGTGAGTTGTGGTTCGAATGACTTCATCTCGTCGATGAGTCTGTCCATTTTTTGTTGGAATTTCTGGACACGGTGATTCCACGGAAGTCGGATGTGCAAACGAAACAAGCGGGAAAAGAAACCGCTGCTGGATTCTTCGCGAACTCGGTCTTCGTCGGCGATCATAGTGGACAAGGACTTGGTACATTCATAGTTAGAAATGTAAGTGAGGACGTAGATACAGACAGCAAGCATCTTGAGTTCAGCGGGTTCGATTGGGTCAACGACACCGATGGACTGTCCGGAGATAACTTCACGGGTGTTGAAACTGGTGCCGGCGATAAGGATGTTTTTGACAGTGAACTTGGAATCAGGGAGGGTATCAGCGAAAGCGCACATCTTGTAGAAGAGCTTGCGAGGAACGATGATACGCTGGGGGCGCATTCGGGAGATGACACTAGACGAAATATTACCAGGATTTATCGTGTCCCAATGCCATGAATAGACGATCATCTTGTCAGCGAGTGCGTCATTAGTGAACACGCGGAAGGGGTGGGAACGGGGAATGGTTCCGCTTATGGATTGTCTTATCACGAAAAAGGCTGTGTCGTCATCGGTGGTGTCAAACTGAACGTTGTAGTAGCGAGTGTCTTTCGAAGTCGATGCGATTCTGAATGTACGAAGTAGAGCGACGTAGTTGAGGAAATCGTGTTCGTAACCTTCTTGACTGTCGTTTGTGTACCAAAATCTGATTCGCATACGACCATTGACGACGCGTTTCTCAAAGTTCATACCATTGAGGAGCTTGCCTTTCTTTTCGTACAGCACGCAGGGGTTGAAGTGCATGACACCATAAGCGGTTCTGGCATCTGCACGGTGCATGGCGTCAGCAATGTCGGAGAGAGACATGTCGTAAGTGGAGTGAAGGAAGATGAGAACTTCAGCCTTCACGGAACAATTTTGAGACATTCTGTTGCAAATGACGCGGGAGTCCTGAGAGAGGTGCAAATTGAAGCAGGGAGAATGTTTGTGTGTGGAGTAACGGCGAAGTCTTTCTTTGTAAGCGGAATGACGCTTGTCGTCATTGTTAGAAAGAAGAGGCATACAGGTGTGGCAGTAACACTCACCTCGAGTGAGGTGCGTGATGGGGTTACCACCGACGTCCTTGTACACAGCGTCGTAGCCTTTGGCGGGACGGGATCCTGGAGTGATTCCCGCTTGGCGGAGCATTTTGCGTTCAGAAAGAGTACGATAAGCACGCCAGAATGGATGACCGGCGCAATCGTAGGCTTTGGAGAAGTCGAGATTGAACATGCAAAATGTTTTTCGGAGGCGGTCTTGGTCCTCCTTGCTCAGTCTTTGATAGACTGGGACTTTCGTCAATCGACTCTTGGCATTAAGAGCGTCGACGGTATCGTTAAGCATAGCAGAAACGATGATCTCCTGAGTCTGCGGAGACGTCAGGAGTTGTTTGAGAATGTTACTATTAACATTCTTAGAGATGTCCTCGTAATCGAGGGCAGTGTTTTGTCTGAGCTGATCAAGAACGCAATTACGCGAAAAATCATCAATGCCGAGGGTTTTTCCTGTAGCAGCAGACGAGGGTAGTGCGTCGGGTGAGGATGCACTGATGGTGGCGGTTGCGGATGAGGCAAGGCCGAATTTGTCTTGTAGAGAAGACATGGTTGTTTAACGGTTTTACACAGTTAAACTGGAGTACACAACTGATGAAGTTGTGTGTGTTGTTTCCGACCCTGGTGAGGGGTAGGAGTTTGGTGGAATTCGGGTGAGGAATTCCTGTTTAAGACTCCGGGTTAGGAAGTCTAATTTGTTCCACCGGGTGAGGATGGAATGACGATAGCACAAGATACTTAGACCGGGTGCAAGGACGTCGGTGGAGTAACGGCGAAGTCTTTCTTTGTAAGCGG</t>
   </si>
   <si>
-    <t>HF913429.2</t>
-  </si>
-  <si>
     <t>CGACTCTGCCCGCGACACCACGCGCGCGCTAGTCATGGCGTCTCTTGTCTCTGGAGGCAAGTTGACTGCTGAGACAGCGCTCAAATACACTGACCGCCGGATTGGAAATTGGTGATCGTTTTGTTGACAATTGCCAATCCGGCGGTAGCTGTATTGTTACTCTATCGCATCTTTTTGCTCTCGTGAAGCCACGTGAACAACCATGCCGACGTTTTCGAACCAACGCAAAACCCTGGCATCTGCCAACCCGTCGAGGACGCCCCGAGACGGTAACAAAGTCACAGAGAAACGCGGGTATTGTTACCTCGCGCTCTTTGAGGCTTTCAACGCGACGTCTGAGAAGAAGTTAGACGTCACGTCCATCAAGGCCCGTTTAGGAGCCTTTCCCCTCGTGAGACGCGTCGTTGGGGAGCTGTACGCCCATGTGACATTTGACTTGTTCGTACCTTGCGTGCGCAGGGTGAGCAACACGATGTTTCACGTTGACGAGTGGCGCCCCCCGATGCTGTTCTCTGAGGTACTCGCGATGACGATCTTTTCGAGTGCGAGAATCGGTGCGGATGACCGCGCCCACTTGCAGCAGCAACAGCTAGTTAGGGTGCAGGACTTATGCAAGACTGCAGGCCTAGACCGCAACACTGTCCTTGCTGATGCTGCTAAAAAGTGTCTCTCCCGCGCGCTTGCTGCGCCGGACTCTGAACTGAACGTCATTTTTGAGTCTATCTTGCCTAAGGCTAAAGCGGGCTTCGTTAGCCCGTACTACTTAGACGTCCAACAGCTCGCCTCTTTGCAGGCGGACTACCCCGAACTCGGTGTGGCTGGAGGTGGAACGATCCACCATCCTCACGCCTACGCTGCTGTCGCGACGCTGTGTCAAGAGGCCATCATACTCAAGCGCATGAATCACGAATCCACCGCGGTTCCTGCTCGTGGCTATGATGCTTGCGTTGTTGATGTTGGTGCGAATTACCCGCGGCACGCTAAAGCAGGACGATTTAACGTCCACAGCTGCTGCCCCATCATCACTGCGCGCGACTCTGCCCGCGACACCACGCGCGCGCTAGTCATGGCGTCTCTTGTCTCTGGAGGCAAGTTGACTGCTGAGACAGCGCTCAAATACACTGACCCCGCTGCGGTCCCCGGTAAGAAATTGCTGAGATGTGCGAATCGCGCAGAACAATGCACCGTTAGCGCCCCATACATGATGTTCGTCCATTCACAGTACGATATCACGTTGGAGCAGCTCGGTGCCATGTTCGACGCTCATCGCACCATTAAAGCGTACAGCGTGATGAATTTCGTGCCAGATATCTTCATCGCCTCACAGGGAACCGTTGCATCTCTCGGATTGACTTACCACAAGGAAGGTGAGGACGTGGTCTTCTCTTTCGTCGGAGATTCGTCCATGAACTATCGTCATAATCTCAACACACTACTCAAGACCTACACCTCGCAGTACCTCATCTCTCCCATGGGCGTGATGTACGTTTGCGAACGTGTCGTTCGGGGAGGTGCTCTATTCGTAGAGTACACCCGGTGCACTATGGCTCCTGAGGTGCAGGAGGAGTATTTTGATTTTAGTTTCTGGGACGCCGCCGCGGAGGACGTTGTGTACCTCACTACCTGGCAGTACGACCACACGAGGTACGCTGGAAGCAAGTTGGCGGTCAAGGGTCCTGCTGGATTCCACAGACTGATCATTGGTGTCGATCGCGCGTTCTTCGAACGTGTGTACGTCCACTGCTTGCGTTCTGGTGACACCTCGTTCATCATCAACCATGTGGTCTCCGCTGCTTCCACCTTCAACACCAAGATGAGCATCAACGGCGCTAACATCCGTGCCGTCAATCGTGTGGGTATGGACGTGTTCTTTGACGCGGTGATTGCGATATACATGATCGCTTATCGCACCCGCTGGATGGGGACAAAAACTCTGCACCACATGATTGAGTCGGAGAAGGGTGTACGTAACGACAATAAGCTTGGATTCACCAGCGCGTTCAAAGCGCTGTGGAGGCTTGTTGCTTCGCTAACGCCCGGAAAGCTCTTCGAGTCTGTTGCCGAGGTCTGGAACAAGTTCGTCAGCAAGTGCAGCGAACTTAACTCTGCTGGTGACCTGGACGTCGAACTGCTGCAGTCCGTTCGCCGGTTGCATTTCTCGGAACTGCTGCAATTCAACGCCAAGTACGATGGCGCGTACCCGGCTCTACACGACGTACACGTTGACTCGCTTAAGATCGACGTCAAAGACGGTATGTTGCAAGCCATCGCCGAAGTGGTACGGTCTAAGTACGCGAGCGAGTCTGCCGAACCGTTGAAACAACCCGCTCGCGCGGCCGGTCAACCTGGAGACGAACCCAAAGACCTGAGCAACACTACCTGCAGTACGGACTCTTCATCGGAGAGTTCACAACCATGCCCGCCCCCTGTCTTGGGCGCGAAAAGGGTCGTAGGCGTACCCGCCGCACCGATGAGTAACAAGACCCGAAATACAGTGATAACGGAGTTCCACCGCACTCAGTCGATAAAGTCTGAGGAGAACAGTCGCAGACTGCGCGTTGGCCGGCATGAGGCGTACGCGTGCACTTCGGTGCTCGTGGTGAAGCCCACGCCACCTGATGGAAACTGTCTATTCACGTCATTGGGCTACTTCGTCGGCTTGACCGCTAACGAAATGCGCGCTGATCTATGCGGCGCTGTCGGAGACACCGCGTTGCGGTACAACAATCTCGGAAAGAGTACCTGGGGCAACACAGACTGCGTCACAACGTTCTCGTCTTTGTACCAGAAACGTGTGTGCTTGCACATGACTGTTACTGACAAGAAGACGCACCCCACCGTTACTTCTGAAATGTACTCCGCAGTCGAAACCACCGACTTGGTGCACATAGACTGGCGCGTCATTGGCGACGTAAAGACGAACGAATACTCTGGCCACGTCGAAGTACTCACGCATCCCAACGACAAGCGCGACTTGCCGCGTGAGGCCCCTACGTGGAAGAGCGTATCACATCTTTTCGGTGCCACGCGTCGCCTCCGCCACGACACCACCGACGAATACCATGGCTTCCCTCGCCACCAGGAGCTTAAGGCTCTCAGCCTGCTCGAAGCCGCCGACGCTTCTGCCATTCGCCCCACTACCATCTTGGAGCTTGGCGCGGCGCCGGGTACTTGGACTAAACTGCTGTTGACCTACGCTAGTGCCCGTGGGGCTACTATTGAGGTTGTCAGCTCACCGACTGGATTAGAGATGGCGGAAGAGGTGTTGGCCGAAATTGAATCCGACGATGCATACACTCTGCACCAGCAAGACGCTATGGCGTACTTAACGGCATCTGTTAAGAAATACGACTTTGTTGTATCTGACGTAGCCACTGCAGACAGCTGGGCCACCAATTCGCCGCAACTCGACGTGCTTTGTGCCGTCGTGGCGCGATTGAATTTGGGAGCGACGCTGGTGTTGAAATTGTCTAACGTGTTTCTGGACAACTCCCTGGATGCTATCGCGAACTGTCGTAGACTGTTCGCTTCTGTCGACGTGGTTAAGCCGGCTGGATCGCGCCTACGCAACACTGAGGTTTACCTCGTGTGCAAGGCTTACGGCAAACCAGCGGGATTGACCAACCCGTACGCTCAGAGGCGGCAGATAGCTACAGACATTCTCGCACACCTGGACAGACTAAAAGCGGGCGAGACAGTGACGCGGGACGTCGCCGACGAGTACTCTCGTTTGAGCTTCGCTTTCATAGAGTGCACCCGAGACGTGACGCTGGAGTGGGACGACCCTAGCGACGGTGAGGCGGCATCACAGCCTGACACGCTGCCTCCCGCACCGCTCTCGCTCACGCCAGTGCAGGAGTTGTACACTCTCACCTTTGTGGAGGCTCAAGCTGCCGCTGCAGACAGTCGACTTGCGGAGGGCGATGATCGCCCCGCATCTTCAGCGGAAGCGCGACCGGCTACGCCCACCCCTAGCTGCGCTCTCTCGGACGTCAGTGTGGAGAAGACCGGCGCCCCGCTGAATACTGCAGGAAGCTCGGCTCCAGACGCTGGCGCTGAAAGTACTGGCCCCGCGACACCAAACCCCGACGAACCCAAACCGGATCCGCCCTGCACCTTGCCGAACGCTGCAGGGGTTTCGAATCCTCAACCGACCCTCGCCCGTAGCACCGTGGATTGTCTTCAACAGGGACGATCTAAACGGCCTATTTCGTCTTTCGTATTCACCCCTTCTGTGAAAACCCCACTCGAACCGCGCCCTTCTCTTCTCTCCGTCGGAGAGGATGCGAAGGTTCAGGTTTCGAACGTCCTTGGCTCAAATGCGTCTCCCGCTCTATCCGCCTCTTTCCTCGCTGAAAGTGGACTGGTTATGAACTTGGACGATGCGTTGTTTGACGCCGAACATCCGTGGCAGAGCGTAGCTCACCACATGCGGGTCAATCACAGCGGCAGCGGTCTTTACGAACGAATAATGGAGTTAGGGGTTTACTCCGACCGCTTGCACTACGAATTCGACGAGATAATTTCGTTACTGGGCCCAACCGCGTGCGATTTCGTGTTGCCTGAACCGCTTGCTTTCCTCATTCGACCTGAGGCTCCTGCGTGTCTAACAAAGGCACACAGCGTAAGCAAATTGGTGGACGGTAAAACGATAGCCGTACGAGTGTCGGATCCGGGCGTGCCTCACCTCACTGCTCCGGGCTGGCACGTGCAGGTACATCGATGTCGGTCGACTCCGCCTACGGACGTGGCTGTGTATTACGTCTACTCTCAACTACCTTCTCGAGTGGTTGCGGGTAGCTGGAAGCACACCATGTCGCAGACTATCAACGCAGCGGTTAAAGGCGCCACCCCGTACGATCCAGCCCTCCTGAAGGCTGTCATGCGCACGACTGCTGCCGGTGGCTGTTTGACGGATTTGGAAGCGACATCGAAGTGTGACGAGCACACCGAGTTTGACGACGCGTGCTTGTGCTGCATCTACGTGACTACTGGTGAAGTCCAACCACCCATGGTCGTCTCGTGGATGCGTCGTAAGTACCACCAGGTAACGGCTAACGTCAAGCGTGGTTTTCTGGAGACTGGAGGCGCGGAAATCCTCTCTCTGGATCAAGCGTTGCCCGTTTACATGCAGCGCGAACGCAGGGACATAGCTGCGTCGGGCATGCGTGTAGATGGGTCAGCGATTACGCTGAAGTCGTACAAGCCGAACCCGTTTATCCCAGCCTTCACCACCGGTGGTCAGGTGATTGACGCGATGAAACCGGGAACGCACAAAGTGTCTGCCGGGGATCAAGTTGCTCACGTGACCACATATGGCGCCGTCTCTAAGCAGACTGTGGACTTCTGGGGATCGAAGGGACGAACGGTGGCTGCGGTGACGGACGCTAAAGGAAGACACACCACACTAAAGGAAGTGGTGGGTACTTCCAGTCGTGTTACATCCACCGTAACCAGTATCGCCTCCCTTCCTCGCCTAGAGGACCGCACTGTCCGCGACGTGGCTGTCAACGTTTCTGACGCCAAGTTCGGTTGCGTGTCTGTTTGCGCTAGTGTACCACGTGCGGCCAATATAGCCATATGTCGCAAGCTGGTCACCTACAAGGTCGCTGGAACTCAGACTGCTGGGACAGGCTCTGCAGCGTACACCGTCTGTGGAAAGAAACCGACGCCGGACCTGCCGAGTACGTTAGAGAGTGGAAAGAAACCGACGCCGGACTTGCCGGGCACGTCGGCGAGCGGTACCACTACGCTTACCAGTACCACCTCGACCTCTGTGTCGATGACTGAGCGTAGTGACGATTTCACCTCTACAACGTCCACACCGTCTGGCATGTCGCAGATCGCTGACACCGGTCCGGTTGCCTTCACCGCCGCTTTCAAGGCTCGGGCTGAGGCCGCTCAACGTGCCAAGCGCGAAGCCGAGGCCTTCCAGCCTCAAGCAACATCTTCGACGATTAGCGGTCTGGACGCGTCGGAATCGGTCTCCACGGTCGGCACGGAGGTGACTGCTCCTACGTCTAGGAAGAGTTCGGCTAGTAGGACTGCGTCGCTCATGGCGAAGCTCGGACTTGACGACTCTTCTTCGGTGTCTACTGGCTCTGAGGTTACATCTCTCGGACAGGCTAGTACTGGAGCGCTGCTACCGGACAAGACTAAACGTTCTAAACTCCAAGCGTGTAAATCCGCGTTAAAGGCGGTCATGCAGCCTGTTAAACAGGTTGCTTCGCGTCGACCTGCCGCGGAAGTGTGTCAGTCGCTGCCTCGAGGTTGCAAGGACACACTAGCTGTTGGTGGAACTTGGACTGCTTACCCACACGACTGTAAGCTTGTAGTGCACCTGCTTGCCTCGTGTGGCAAAGAGTATCTTGCCACTGACAGTCTCGCTAAACGCTTGAAGAAGGAACGCGTCACCGAAGTTGACCTGGCGAAACGCGGGTACTCACGTCTGGAACACACGCTGGATTTGCTTCATCACCACGACGATGTTCACGAGTTTATTCTTGTGACACCGGCCGTCGGTGCTGAAGGCAACCTCAAGCGGTTCTTGACGTGGTTGCCTGAAGACGTTTCTCGAGTTGCGATCGAGAGCTCTGCGGACCTAGCAGACAGCGCGCTGACGGAACTCCTGCGCGAGTGTGCCAGACCGGTCACCTTAGTCGATGGTCGCACGCGCAGGTGGTCCGGCGTTTTACACCTTCTGGAACCGTCTAAGCGACTGCTTCCGCCGGTGAAACGCCCGTTGGCATTCCCCAAGCTCTCCCAGGTCGAGATGGGTTACATACCCAACCCACCCTGGATCGCAGCTAACACCAATTTGGACCGATACCGAAACGCCATGATCGAGTACCGCTACACCACTGCTCACGCTGACCAGTTTAATAAACTGCATTTCCAAAAGTTACAGTTGGATGCAAAAAACGGGATACCCGCGGGAAAGACGGCCGAGATTCTCGCAGCGGGATACGGAGTGTACGACCAACAGACAAAGTCCTATCTGGGACAGAAGGTGTCGCGCACGTATTCGCACGGGTATTCGGTCAGCAAGCAGGAGTACGTTGCATGGAACGAGACCGCGCGCCAGTTCAACAGTCCCGACCGGTTCATTCTGGTTGGGAGAAACACCGAACTTATGTTGAACTCGCAGATTTCGGCGCAGATTGCCGGCGTGGACGTGGCGAGTCAGGAGCTACCGGAAATCGAGTGGATAAACGGCCCACCTGGGTGCGGCAAGACCCATGCGATAGTACACTCCGCCAACGTCTCTATCGATCCGCTGGTAGGTCGCGACTTGATCTTGAGCATGACGTCCGAGGGGAAAACCTCGATACGAGCCGGACTGAAGAAACGGCTGCCTTCATTGACGGACAGAGCGCTACAAGCACACGTGCGTACAGTCGCGTCTCTGTTGGTGAATGGATCGGCCGTAAAATACGATCGTGTACTGATGGACGAAGCCCTGATGGCGCACGCGGGTACCATAGGCTTCGCAGCTGCCTTAACTGGTACGAAGAAGGTATTGATAATAGGGGACATACATCAGATTCCTTATGTTGATCGCGAGCACATGTGTAAGCTCCAGTACGAAACGCCTGCCGTATTCGCTGACGTAACGTCAGTGAAGGAAATAACGTACCGGTGTCCCATGGATGTGACTTACGCGATCTCGGATCTTTACCCGAACCTGTGCACCATGAGTCTTGTGACTGTGTCTGTCAACCAGAAGCCTTGGTCATCCAACAACACACACGTTCCGAAGACGGTTGAGGGTTGCTTGTACCTCACGCATACCCAACCAGACAAGGACGCGTTGCTCAAGGCCGGTTACGGAAAAGGAGCTGGGTCTGCGGTCATGACGATTCATGAAGCGCAAGGCCTAACGTATGCACACGTAATTTGCGTACGCAGTCAACCGAAAGCGCTCGCAATATACTCACGCTCCGAGTACGCCCTGGTTGCCATCTCTAGGCACACTAAGACCTTCGTCTACTACACCGACACCGACGACGCGTTGACGAAGCTCATACGCAAAGCGCAGTCTAAAGACCCGGCTGCCCTGCAGACGTGGAACGCTCCGCGCCTTGCTGCGGCTAAGAAGAAGTTGAATCCGCTTGCGGCGGGTGGTTTGCTTTGGGAGGCTGACACGGTGTTGGCCCCACTCGCCAATCCTACCACTGGGGACTACACCGCGGGTTTGCCCGACGTGTCACACGCTCCATTAATGCCACTCGCGCCCGATCGAATCGCGGAATCCTCCTTCAGAAAGCTGCCGAAGTACAGGCCTAACGTTGACACGGACGTTGCGTTTCTGCAGACTTTTTACGACGATGTCATGGCTGAGGCGATAACCGTTGAGTACAAATACGATCAAATGATGATGGAGATGGAAGACACGTACCTCGTGTCCACACCCATCACAATCGACCCGTTGTTGGGTTTGCCTGTTGATCGTAAGTACGGTAAATTGCGCCCATTGCTTAGGACTAACATGCGTGCGGAGAAGCAACCCTCTCAGAAGGAGTCCATACTGGGCGCGATAAAACGCAACCTGAATGCTCCTTTGTTGCGTAACGCTGCTTTGTCTGAAGAAGCGATTGGTGACCTGCTCTTTAAGAACTTCGAGCGGTCGGCCATAGACGAAACGAAAACCACCATATACGAGTCCTACGCCGACGATCCGATCAACATCAACTCCCAAGTTGTATCTGCATGGCTGGAAAAACAGCCTCCTGCCCGCCGGAAGCAGATCATATCGGATTTGCCATTACACCTGCGCCCCTTCAACAAGTTTGAGTTCATGGTTAAGAAAGATGTCAAACCACAGTTGACGCCAGATTCCATGTACTCGTACCCCAGCGTGCAGACCATCGTTTATAACGATGCCTCTGTCAACGCTGTGAGTTGTCCGATATACAACTTGTTGTGGGAGCGTTTGTTAGCCGTGTTGGATTCCCGTATTTTGGTGATGACTGGGATGTCTCCGGTTGAGTTCGAGGCTGAGTTCAACGCTAGGTTGTGTCCAGAGGTGGCGTCGGTACTGCGTACGCTGGAGAATGACTTCAGTAAGTACGACAAGGCGCAGGCTGGCGCTCTACGTCGCTTGGAACACCTGGTGTGGACGAAGCTCGGATTGGACCCGGAGATCGCTCTAATTTGGGACAGGTCTCGCCGAACGAGCGATGTGCGTGACAGAAAGAACGGGGTCAGTTTTGTGACAGAATACCAGCGTAAGTCTGGTGAGGCGACCACATTTAGCGGCAATACGTTAGTCGCGATGTGTGTGATGCTAGCGGTTATAGACATCGACGACATTGTACTGATGTTGGCTGCTGGCGACGACACCCTCATATACTTACGTCCTGGGACTGAATTCTCCGATTCCTCTGCCCTGGTCGCTGACCTGTTCAACTTAGAGTGCAAGCTCTTGGAGTGTTACGAGGTACCATACTTTTGCTCCAAGTTCTTGGTCTCCACCCCCGACTGGACGTACTTCGTTCACGATTTGCTGAAATTCGTGACGAAGCTGGGGAGACACGACATGTCGAATTACACTCACGTGGAGAATTACCGTGTTTCGTGTGTCGACACCATGAGATCGTTGTTCAACCCCGTGGTGGCACCTGGACTGACTGTTGGAATACAGGAACGTTACCACAGCACACTCTGTGATGTAACGAAAGTATTAGCCGTCCTACGTACTCTTTGTCATGACCCGAAGAAATTCGCGGCCTTGTATCTTCATGACAAAGGGGTTATTCTCTGTAATGACCCCAGTGCGAGTAGGTTACAATAATCATCCTGTCCAACGGATGGCGTTAAGTTTAGTGGACATTTACAATGTTTTCTCCGAACTTTTATCGAGTCTTTGAAGTTGACTTGCGAACGCTGTTCAGTCCTCTGCACCCATCTCGGTCTCCGTCTCTCCTATCCCTCGAATCAGACGACGACGTCCCAGCCGCTATGCAGTACGTTAACTGGAACAACTGCCAACACCGACCGGCTCTCACTGCCGCCGCTCGTCGCCACAAGTGGTGCTCACTTGTGGACCTGTGCAATTTTGTGGAAGCCCACAAGATGAACGGGTTTCACACCCACGCATCACGCAACGTAGTCGTTGCAGCGATCGCCCGCCTCCGGACTCACGCCCCATTCTCTCGCACCGAGAGATTTCCGGAGGACGTGGAGTTCGTCGACTTGGACGCCACTTCGGTGCTTCCTTACATCGACCAGCTCCACCAAGCGTGCGACCTCAACGACCGTGCCGTCAACGTTGGCAATGCGCAGCCCAACGGTTCCACCAACGACGCAAAGCGCGCTTTTGACGTCGCTTTCACGAAAATTCGTGACTTCGCCACCGCCGTGGACTACCCAGATGGTTCCGGTGTGTGGACTCGCGAGACTTTCGAGGCTCGCTACGGTCTGGTCTGGGGCAACCCGCCAGCCGACAATGCCTAGGTATGTGTAATGTTGCACTAGCTAGCCCCTTTCTCTTCCCTACCCCCACTGGGGTTATTCTCTGTAATGACCCCAGTGCGAGTAGGTTACAATAATCATCCTGTCCAACGGAGGTAGGGAAGAGAAAGGGGCTAGCTAGTGCAACATTACACATACCTAGGCATTGTCGGCTGGCGGGTTGCCC</t>
   </si>
   <si>
     <t>ACCAAGAGACGAAGATAATCAAACATAAGGAGGGAGTTAGTCTTACGATGGAATTAGACTTCAGTATACTGAAAAGCGCATCTGGAGTTAAACTGAGGAAAAAATACTGTGTTACGTTGGATGATTCGCCCTGTTCTTTTGACTCAAACTCGTTTGATTGTAGCTTTGGTTTTGGGCGTTTAGGATCAACTAGCTTCACCATGTTGTCAGACAGATACAAGGCTGTGGAAATACCCGGGTTGTATGCTATCGTTATACCAGCGGGTGGAGGTAAAACAACATTAGCCAATTTCTTCAAGCAGCTGGACGTAGACAAGGTGCTGCCTTCGGCTTTCGAAAGTGAGTTGAGGAAGATAAGGATGAATACCTTTAACTCTGTTTTTGGTGGTGGTACGCGCGCATCCTGGCTGAGGCACAATTCTATTTGGGCCAGGTACCTGAGCTTGTCGCTCGGCAACTTCGATTTTAGTGAGACACCGAGGATACTATTCATTCATTCGCACGAGATAGCCACAGTAATAGGGGCCAAGGTGGTGGGTATCCTTCTGCCGGAGGAGGAGCTGCATCAGAGGTGGACCTCAGACAGGGACTATGAGGCGAAGGCGCTTAGCCATGAGAATAGGGAATTCTTGTTAAAATACGCGAGTGACATGCCAAACATGTTCACGTATGGCAGTAGCTTGGAATTATATAGGTTGGCGGCTAATATCATAGCGAACACCATAGGATACGCTCCCGGCATCTCCGAGTATCTAAACGTCTCTGAGATCGATATGGTGATGTTAAAACAAGGGTATGATATTACTATACCGACGCGAATAAAAGTGGGTAAATTTGATTATGACGACTTGGACAGCATCATTGAATGGTGTAAAACTACAAGGTGCCCGTGGTGGTATGTCAGTATGTGGTGTGAAAAACATTCACCAGGTCTGATGGCCGACGGTGCGTACTCCTTGGAGTCGTATCCCTGGTTACATTTGTGCCATACGATCAACACTATACTTAGGAATCGGAGAGTGTCCTGCAACATATCGAGGTCTATGGTTAAAACAAACTTGGATTGGTTCGGTTTCTTCCCGCATGTTGATACATTAACCGAGTCGCGGGCGGGAGTTTCTCTTAGATCTGTGTTTAAGTACTTGGACCCTGCGTACATAGATGACTATCTAATACTATTACTCAATTGTCACGTTGGTAGTCACCACTCGTTTGTCACGTCCCTAGTGGTGTACTATCTTGGTGTGGTACAACCAATGCGAGAGAAGCTGAAGGAAAAAGTGTTGGATTGTGGTATGTTACTAATACCCGAAGAACACTGGGTGGCTGTGCACGGTGACATACATAAACTGGTCCGTGCTAGTCAATCATTTTTTGGTGTGAGCCTGAAGGATAAGGAGTATGCATGCCTGCAGTACACTGCGTCGTTGTACGGTAGGAGGAATTATTCACTTGACCCTGAGGCAGAGATAGTCAAGAGGCAGCAGACACGGTTAGATAGTAAGTGCGCACAATTGCACGATGGTGCTAATGCGGAAGCGTACATAGAGGACTTCAAGACAGGGGTGCGATTGGCGTATTCAAGGCTGGGTAAGAGAAGTGGTTTGCGCTGGACAAATTTTGGTGAGTTCTACCATCAAAGGTACCAGTGGGCCGCTGCGGGAAGTGTGACTAATGTGCCCGCGGATATGCGCAAGTTCAAGGAGGTAATAGAAGTGGTGGCCGAGGTCAAGGACCAGATAGTCAAACTTTCTATGGATAGTAACAAGAAAAGAGCAATGGAGAAATTGGCGGGGCCAGCGGAGTTAGCGAGATATCTTAGTGATAATTGGGCTTACAATGTAACGTCACTTGCCCCCAAACCTAATGAGCCAGCTAAGAACAGGGTGCTAATGCCGGGCTCCTTTCTGCACTATGTGGCGATGTCATATATACTAGGAATGGTAGAGAGAACCGGTGATGTAGGTGCTGTGAGGGTAGGCGATCCGGATGACAATAATCTTAGCCACTTTGATCTGCGTTTAACATCGGGCACGTACAATTTCATGCTTGATTTTGCCGATCATAACGCCCAACACTCAAGCCTAGAAATGGGTCTGATAATTGCTTTACTGGAGGAGAAATTTGCTAGCAAATCTGATTCGTCGGATTTGAATTTCTTTATCAATTGGGTTGTAGACTCGTTTGCCAACATGCAGATAAGAGTTGGTCTTGATAATCACAAAGTGATATCGGGATTGTTCACAGGTTGGAGAGGCACTACCTGGATAAATTCGGTCGCGTGCCAAGCGTATGTCTATGTTGGGACACAGGCATGTAAGAGGAAATATGGCTCAATAGGTGTGGAGTACTTCGAGGGCGCAGGTGACGATGTACTGATGAAGTTCAATTCGGCAAAGGACGCTTTCAGGTTCTATGGTGCGATGCAGTCTTGCGGCTTTGATATGCAGTCAGTCAAGCAAATGGCTTCCCACCGTCGAACTGAATTCCTGAGGACAATAAGCAGTGACGGCCACTTAGTGTGTTGTGTCAACAGGGTATTACCAAACTTTGTGTGTGGTGACTTGGAGAGATCTAGCGATGGCATGATCGATAGGTTAGGAGGTTGTTATGCTACAGTTAAGATGCTGTTCCGCCGTGGCTTAGCTGAGCACATAACAAAGGTAATCTACAAAAGTTATCTGGACAAGTGGGCCAGGATTAAGGATGGGGATATTTATAAGGATATCGACAGAACATACTTACATGCACCGACTGAACAAGGTGGAATAGGGCTTCCTGATGCGGATGATAACCTATGGTACTTAGATAGGGCAATAGATTTACGCGCGCGCAAGACCCGGATTGTGAGTGGCCCGAATAATGCATCGGTGGACTACGCTAGGCATCTAAGGGATGACCTATCAAATAAGGGGATACATGTACATGAGGGCAGGTTAGTCGAGCGACTAATGGCCGATGTCTATAGTACAGAGGACAGGGTGGAGGCAAGTGATCTACTTAATGTTAAGAGTAAGGTGTTGGCGTTAATAAGACCAACAACTAAGATAGATAAGGCGGTCTTAGATGAGGTATTGGCTAACGTAGACGATGAGAAGGTGAGATCTTACAAGAGGCAATGGGGATTGTATAATAAATACAAACAGTGCATCAGTTGTGTTGAAGAGAGCCTGGAAATCGTACTGGACAAGCTGGGAGTCAACATTGATGTGGCGGCACTGGAGGAGCTTAGGTTTGCTAGTAATCATTGCTTCCTAGTACCGGAATACTTATTATACAATATTGGAACGTACTACAGGTCGCGGGTGGCATTCAGGATGATGTCGATTACGGAGGCACAGTACTACTTTAATATAGCATGCAGCACAGCA</t>
   </si>
   <si>
-    <t>MW520400.1</t>
-  </si>
-  <si>
     <t>TTACCTTCATGCCTTAGCTGTCTCACTAAGACAAGATGTTGCAAGGCATTCTGAACTGCGTGCACAAATAGAAAGACAAGGTGTACAAAAATATAATTCAACAAAGATATCAAGATGGATGATATAGATAAAGAATTTAGGGCCATAGTTCGAGAAATAAATAGTTTATCACAGGATGAAGGCTTGACTGCTGCTGAGCTTCACAATAGATTAATGTGCCTTAGACATGATGCTTTTGGCGTGGTTGTGTGCGAAGCCCTTAAAATAGAATATAGGAATGATGTGGTGCTGAGTGATGTGATAGAGATTGTATACAACAATGAAGTGAGCACAAGTGGTATCCCATTTTGTACACCAGATAATTACATATTTGATGAGAGGGAGCAGAAATTATACATCTTAGACTACAAAGTTTCAGGAGATGATCGAAATGCCCTAAAGGCACGCCTTAAATATGATGCTGCGTTGAAGGTAGTAGCTAGTGAGATTCAGTACGAAATTGTTACCATTAGATATGACCCATATCGGCAAAATATAATCATAAGTAGTCCAGTCTTCCAACAGAAATTCCCTTTAGTTCATGCTGTTGAATTCAACGCTGATGCTTATAATGAAAAGCTGGCAGAGCTTGAATACAGATTTAGAAATGATGATGAGTTTAATGCTAACATTAGAGACCCAGATGTTAAAATGACTGCTCGATGGACGCTGGAACGTTGTGACAAACTTTATGATAATGAAGATTTTGTTACTTTTTTAAGCTCATTACCAGATGAAGAAGAAGAACTCTTTCTAGAGCTATTGGGTAGTGATCCTAGGACTGAAAGAGATAAGTGGTCAAACAAGCTTGAAAGAATTGAGAAAAAATATGCAACAGACTACAACATGTTTATAAATAGAAATGCTAGTAGAATCTTTGAACCAAATACAGATTTTACTATACCAGATGAAAATGCCATTAATTCTGGATGGCAGGAGATGGTAAAGAGAACAAGAGAAGCTAGAGATATGATTACAGATACAACAAAGGCCAAGCCAAGTGTTCACTTGATCTGGTCTCCACCTGATCCGAAGGAGCCTGTTGACAATGATGAAAAAATTCTAAATCTAGCTGCAAATCTAATGTTAATACAAGAAACAGATCCAACATCAAGAATGCTAAAGCAAATAGGGAGATCAATGAATTACAGAAGCCAACTGATGGACTACAAAATACACACAAGCAATTTGAAAGAGCATGCCAGGGCAATGAATCACAAAAAGCCCCAAAAAGCTAAGGAACCAAAGCAGTTTGGTGATGCTATTGTTTATTGGGAGCAACAATTCAAGATGCAAGACACAACTGAGGGCGATAGGAAGACATTCCTAAAGGAATTTTGCGGTATCGGAAATCACAAAACATTCAAGTATAAGACAGATGAAGATGTGGTTAGAGAGAAACCAAAAATGCTAGATTTTGAGGATCCTAAAGTTCAAGAAAAATCATCGTTATTCTTCGCCAGCAAAACAGAATTTCTAAACAGAGAGAGCAATATAAGATTTAAGCACGTTCTGGATGATTATGAGGATCAAATCAAGAATGCAAACCCAGAGACTCTTGAGACAGTAAATAATATTAGATCCAAGTATGCATGGCACATCACAAATGATTTCAGCACATTGATGAGAAATATGCTAGCATCCTCTCAATACAATAAGCACAACACTTTTAGAGTGGTTTGTTGTGGAAACAATATGACGTTCGGAATAGTTCTTCCTGCATCAGACATTAAAACAAAAAGATCACAGCTGTGTTACATGATTGTAACTTTGCACAAGGATGAAAATGATGTCTTTGATGCTGATTCGTTGTACAGGACATATAAAGTATCCAAGTCAATGAACGTATCTGTGTCTAGATGCATGAGGCTAGACAAGGAGAGATGTCAAAGATTAGTCACATCACCTGGCATCTTTCTCATGGCTTCAGTAACATTCTATAATAACAACAAATCAATTGATCTGGACCAAGTTGTATTTTTTTGCTTTTTTACTGCACTATCAGTCACAAAAAGCATCTTATCTCTTACTGAGCCAGCAAGATATATGATAATGAATTCTCTAGCTCTTCTATCCAACGTAAAAGGATACTTGGAGGAAAAGTTCACACCATATACCAAAACAATGTTTTCTGTCTGGATGATAAATAGGATGAAGAAAGCAATGACAGAAGCAAACAGACAAAGAGATAAGATTCAAATGAGAGAAATAATTCTTGCAGAAGATGATATAGTACAAAAAGGACTTGACACTAGTAAGCGTGATCTGACATCAATTTGGTTTCAAGGGATGGTAAACATCAAAGAGTACATCCACCAGATCTACCAACCATTTTATTTGAATGCAAAGGGACTCCATGAGAAAAATCATGTAATGATGGATTTAGTCCAGACAGTCTTGCAATTGGAACAAGATTCTTTAAATAGAAAGACATTCGAAAATCCCTGGTCTGAAACCCCTAGGAAACAGACAGTTAATCTGAAAGTTTACCTTCATGCCTTAGCTGTCTCACTAAGACAAGATGTTGCAAGGCATTCTGAACTGCGTGCACAAATAGAAAGACAAGGTAATTTTTTACGAACACCTTTTACTATTTCAACTTTGACAAGTTCTAAATCATGTATCAAAATTGGAGATTGGGAGCACCTCAAATCTACAAGTAATACAACATTTCAGAAAATGGCATCCAATTTCCAGCAAAACTTAAGACTGGCTAATCCAGAATTTGTGGAAGATCAATCTAGCAAAGATCTACACAGGAGGGCAACATATGAGGACCTCAAAAACAGATTTGGAAGCAATTTTATTGATGTTATGAGCACAAAAGTCTTTGATGAACTCTACACTATGGTAACAAAAGGTAAGGTTGACAATACTCCTACTATCTCACAAATTTTTAAGATTATTCGAGATATGAAGGATCTTTATATAACACTCTTTGATAAAGGCCAGAAAACATTTAAAGATAGAGAAATCTTCATTGTTGAGATGGAAACTAAAATGGCCTTATATGCCTTAGAGAGAGTTATGAGGCCTTTGTGTAAATCTAACCCAGAAGAAATGATTAGTGAACCTGGGGACAAAAAAATGATGAAGATGGAACACATCAGCACAAATTCTATAAAGAATATAATCTTCAAAACAAAACAATATAACAGAGAGGCCTACGGGAAAATATCCAAATTGTTAGGAGTTGTATCAAAAACAAAAGAAGAGGAAAAAGATCCAACCAAATCAAGCCCTCTCAAATTATCAGAACTAGGACATAGCTTGATTGAGACTTTTAGATCTGATATAAGGAAAGGTTACAATTTTGAAATAAATGCAGATATGTCAAAATGGAGCGCGGAAGATGTAATTCAAAAATATTTCTGGCTGATTGTAATGCACCCCTGCCTTTATCGTGAAGAAAAAGAACATTTCATTTATTTCCTATGCAAATACACTTCAAAGAGACTTGTCATACCAGACCAAGTAATGTATACAATAATGAATCAGAAAATACCAAGAGAGGAAGACCTTTTGAGGGCTATGACAGATGAATACAAAAAGAACTGGGTTACAATCAAGACAAATTGGCTGCAAGGGAATTTGAACTACACCAGTAGTTATGTACATACTATCAGTATGAAGATTTTCAGGGACATCATGTCTAGATCATCCAAACTTGTAGAAGGAGAGGTTCACACAAACTCTCTAGTACACTCAGATGATAATCAAACAAGTGTCTATTACATTCAAAACAAAATACCAGAAATCCAGCTTGGGAAGTTTATCATGGATGCATTCTCCACATCATTGTACACCACAGGCAACCAATTAAATTCCAAGAAGACATATGTTACAAAGAATATTAAGGAATTTGTTTCATTCTTTGTCCTAGCAGGTGAGCCTTTCAGTGTGCCTGCAAGATACTTGTTACCCACAGTTGGAGATTGTGCATTCATAGGTCCATATGAAGATTATGCTAGCAGGCTAGGGGGCACTCAAACAGCCATAAAGCATGGCTGCCCTCCAAGCCAGGCCTGGGTATCCATTGCATTAAACACGTGGGTGACATACATGATATATAGCATGCTACCTGGTCAGGCAAATGATCCATCAAAATGTTTAAAATTCCAAGATCGTAGGGATATTCCAATTGAGATGGGTGGATTTCTGACAACAGATCTTTCCACACTTGCACTACTAGGCCCTGAAGCCCATAACATACATAAACTCATTCATATTTTAAAGAAGATTGTCCCGGTTAGAATGCAAAACAGCACAATTCAGGAGATGGTTCAAAATATCAATAACTGGGACATAGAAAAGTTGAATGATGTTGACAAATTTTGGCTGAAATCACTTCGGTATATATACCTAGAGAATGAAGTTGGAGCAGACTCTGAACTGGGTGCAACAACTGAAATGAGGAAAAGGACAATTCTCACACCAAGAAAGTTTACCACTTTTAAATCCATAAAGAAATTAAATAGTTATAATGATTTTGATGTTGGTCAAAAAACAGGTGCAGCATACGAGGAAACCATTCTAGAATACATGGCTGAACACCCGGAATTATTAGTGTCAAAATGCGAAACTAGTGAGGAATATTTGAATGTGATCCAATTTAGGTACTTCTCTAAAAAGTTTAGAGAGTCCCTTTCTGTCCAGACTACATGCCAACTTTTTATAGAACAAATATTATTTTCGAGGAAGCCCACCATTGAATACAGGTATATAAAAGAAAGATTTGCTGAAAAAACTACTTTAGTTGATGAAAATATACCACCTCAGGGTAATGTCACAATATGTGAAGCTCTTGATCTAATCAAGAGAGACTTGGACCATCTCCAGTTGACAACCCATGATATAGGCGTTGTTTTTAAATATATTGTTCTCAATGACCCGATCATTGTTGCTGCAGTGAATGGGCAAATGCTTCAAAGAGTTACCAGCACTATGAAGAAAACTGATGCAACCTGTTCTATGTTTCCAGATTTCAAAAATGTTCGAGTGACTGAAAACGTACCTGCCATAGTGATAAGGAAATACATTCATGGAGATAGGTACACTGCACCCTCGGTGATAGATCCATCAGGGCTGTCACGAGATGTCAACTACCTGAAGGCATTTATCACTGAGTTAAAATTAAAAGAGACTATGGAGGCTAATATTGCAAGAAATGCCATGATTGCTGGGCCAAATACAAAATTTAAAGTTATGGAACTTACAAGATTCTATCAGATGTGTTATGATTATCTAAAGTCAACTGATCACAAAATTAAAGTTTACATCTTACCAAGAAAAGCCTATACACCCACTGAATTTTGCTCAATTACTATGGGAGCATTACAATCTGACGACAGCTTTAAAAACATCATCTTCCACAAACCCATTCTGAGTACAACCCATAAAGCGCAATTTGCTACCCCTCTTGACTACAATGTTGTAGTAGGTGATATGGTTTTAAGAATGATCGTGCACTTTGCAGACACTTTCTTAATTGACTATGAGCGAGAAGGATTTATAAAAACAATAATAGAGAATTTCAGTTATGATGGAGTTCAGATTATGGACTTATACAATGCTGTCATGAACTCAAATAGAAGACAAAATTTCTTGCCTCTCATCTATAGGTTTGAGGGAATCACAGAAAAGTTAATAGAAGACGTCAATCAGAAGAGGAAATCTACAGAAGCCTTTTGGTTGGCTAGACAAGACATTCCTAAAATGAATGAAGGCCCACTTGAGGTTTTAATTACCATGAACAATGCAGATCTACTGCTGAAGGGGCAAGATGCAAAGATTGAATATGCAGAACTTCGAACAAAGAACAGGTATGCAAAGCTAGCAAAAATTGGGAAAGACATGTTCAAAAGCTGGAGAGGTATCCATTTTGATAAATTCAAAACATTAAATTGGGAAACTGTTAAGAATACAACAGTATATCTTACATATAAAAGAATGCCTGGATCCAATAGATCAAGAGATTTTCTCTCATTTATGGAAGGGAGGTTAATACTGACCAAAAATCAAGAGATAAAACAAAGAGTTTCGGAATACAAATCTTTTTATATGCCACTTGCTGAGGTCACAGTTGCAAAACTTGACGAGAGAGATGAAATCACTAGGGAAGACCTGGAAGTATACAATGAAGAAAATATGCAAATGGCAAAATTGATACTTTCTCAAGAAGAAACAATATTTATGAGGAGATCCTACTTCTCTAAAATGACAGGAATTCAGGGACCCGAGCTCAAATTTGGTTCTATAAGTATGAACAAATTCTTTAACAATCAAATCATGCTCATAGAAAATTACGAGTCCTTGCTAAAGTGCTCTGTCCTGGATATTGCTGATATAATAGAATGTACAGGAGATCAGAAGGGTGATATCTTCAAATTCGCAACTGAAGATCCTATGATCACTAATATTCCAGACACTGTAGACATGGTTCCAGCACTAGTTATCCAGAAACAAGTTAGGGCTAAAGAGGGAAGATCATACAAACAAGGCTTAAACAAAATTCTTGAAAAAGACTTAGCTACCTTTGAATTGGAGTTTAAAGCAAAGAAAGGAGAGTTTAGAAATCCGTCCAATCTTGGATTTTGGAGAGTCCTAATCAGCATTGCACGATTAGATATGGAGAAAGAAACAAAACTGCAAAAAATATTTCATATTTATGCTATAATGCATAATTTTGACCATCATTACCATATGTACAGGATGCCAGATTTTTATGTTAAGCAGGCAATTGGGGAAATCTATGATTATGACAAACTGCATGAAATAGTTGACATGTGCCCCCAACCCAAGATAGAACCATGGAAAACCATATCCAAGGAGTTTGTAATGCACTGTCACAATGCTCTTCAAAAAGACCAAAAATCAAAATCAGAATTTATTATCAAAGAAGAAGCAAGAGAAGATTTCTTTGCACAATTTGGCCATTCAGCAAAATTAGATTTTAGCTATGATTAAATTATACTAACCAAGTTGAGCAGTCTTATTTAGTGGTGTATATATTAACATGGTTGGTGGATGTGTGTGTTGTGTGTGCAGTGACGTGTTGAGATGTACATGATTAGCATATGTATATATGCAATGGCGTGTGTGTGAATTGTGTGTGTTGCTTGTATTGTGTGTAGACTTATCTGCTTGTATTGTGTGTAGACTTATCTGCTAGAATTGTGTACTTGAATCGATGAAAGAATGAATGTTTACGTTTCT</t>
   </si>
   <si>
-    <t>MK440651.1</t>
-  </si>
-  <si>
     <t>TTTACCTTCGACAATGATCCTAGTATCGGTTACGATCAAGATTATGAGACATACGTTGAACTTCTAACTAAGTCTGTAATCGTCCAAAATGGTCGTATCGCACTAATCGAACGAAAGGTAATTACTCATGGGTCGCACATACCGAATATCTCTCTTTGTAAAGGTATTCACCCATTTTTATGGGCATGGACGTACTAAAACAAGAACTCACGGCCCTGGCCCTCGATGACACCCGTAAAGGTGCTATCGTCCAGCGGCTACAACCAAAACTCAAAACCAAAGCACAGAAAGACCTTTCAAAATTTGACCCTGTGAGGACAGATGTAAAGATCTCCTGCTGCTTAACACCCTCTGACCAAGTGTTGCTTGAACGCGGTTATCCTGAACTGCGTCTCGAGTTTACCCAGAGATCGTCGGAAGCGCATGCTTTCGCGCACGCATCCCGTACCTGTGAAATGTTCAGAATAAAAAATTTCATACGTAGGAACGGGCATGAAGTGCTTCCTGACGGTAGTTTTTCCTTCATAGACGTGGGCGGTAATGAGGTCACACACGCTCTTCATAGCGGACCGAATACGCACACGTGTTATCCCGAAAACGACATCCGTAATCTTGCACGTTCTATGGAGCGTCAAGAACTCATAAAGGATCTCATTATGAACAGTGACTCTGCGGAGACTGCTGCTCACCTTCGAAAATATCTGCAACCCACTCGCAACATCTGCAGCAAATACTCCGAACGCTGCGATGCTCAATCGTATTATTCGATATCTATCCATGCTATTCAAGACTTTTGGAAAGATCTCATACCTATCATGGTTGCTCACGGCAACACAGTGCATTATGCGTCGTTTATGTACACGCCTAACGCCCTTTTTGAAAAACGTGGAGTTATCCGACACCACGAACACGACAACCCTGATGCTAAAGGCGGACTTAACGCGCGCTGGCAACGCCATATGGATGGCGACAGGGAAATGATATCATTTACCTTCGACAATGATCCTAGTATCGGTTACGATCAAGATTATGAGACATACGTTGAACTTCTAACTAAGTCTGTAATCGTCCAAAATGGTCGTATCGCACTAATCGAACGAAAGGTAATTACTCATGGGATATGTTTTATGAAAATCACGCTTTTGGAAAACTCACCCCAACTCGACCAACACATCAAGATCGTGTCTGGACTTCCGATGGGTGAGTTAAGCGAGATGTATTTAATCTTAGGTTATCATACCGACGACGCTGGGAAATTGCGTCCCAGATCTCTAATTGCGCCTAAGATCTTAGTAGATAAGTTAACTGATTACTGTGCTAGAATAGATAATGTAAATTTTAATCTTACTAATCTATTCCACATTGCATGTTCTCTGAACAGGCAGCTAGTAATTAGCGGACATCTAGTTTTAATACGTAGCGATTTAAACACAGAGGAACTCTACTTCCTCTGTCTATGTATATATGTATATATGTATAATCTTAAGTATGAAGCAGGTCTTACACTAAAAAATTTAGTTAACCTAATCAACGAAACAAGAGCACTCCGTACACAAAACATAGCGATTGCTCTTAGTAAGAAGGTAATGCACAAAATTACCTTTGGATTATTTAAAAATAGGAAACAATCGGTAGACACCATAGAAGAATTGGTACAGTCTCTCGATTTTAACCCCGAAGTCTCTTTCGCGACTCGTTATTCGAAGTCCGCGATTACCAACTTCATACATAATACCTATGCGAATATCCGTAAGCAAACTAACCCTATGGAAGTAAGCATAAAGGATGCCTTCACCGGTGTCCTATTAACTAATTACATAGATCTTAGCGATAAGTATCGAATTCGCACTAACCTACTACGTGAAGCTAACCAAGTGAAGAATAGGTCAAACCTAATTGATTTGATGGTTAAGAAAATGTCTGATGAACTAAATGATACATTACAAGTTGAAGACATTAATGATGACAACGTAGAAAAGTATCTACCGTTGCCCGACAACTTCTCTTTAGTTGTATCAGTACCAGACCCTAAACCAACTGCGCCCGTTCAACCACCAGGCGTTTTAACTGCTGTACCCAGCGATGGTTTTTGCGGATTCTGGTCTTTACTAGCTATACTCAAGGAACACCTGGGTATTACAAAAACGGTGAACCAACTGCGCTCGGAACTCTTGTTCGCGCTCGGTGGTTTGCCCGATGGACTCGTCAAAGACGAGCTACTTCTATTATTGACTACAACTCCCGTAGACAATCATTTGCCAGAGGCAGGATGGTGTACTGAAACTGTTATCGCACTGACTGCCGCTCTTTACAAAATAAATCTGACAATACATTGTCCGAACGTGAAGAACTACGTCTACGATGTGGGATCTAGCAGCACTGCTTATCTACACTTCGCAAATCGTCACTATCAGTACTACTCGTCTCTACAGGGCGGCGGTGTTTTAAACATCACGTCAATGACAAAAGACACTCCGATACGTGGTCGTACACCATGGCTACGCCTAGGTCACCCTTTCCACTGTGACCAGTACCACATCGTCTGGATTGGTACTAAAGACAAAGACGAGTTTAAAAATTTACTCCTGGAATCAATCAGAGACCATACTATGTGTGTTCACATGGTAAAAAGATACGTCACTCTCTTCCGACCGAAAGAATGTGCGTATAAATGTATCTTTGGTGAAAAATTTAGGAATAAACCATGTCTATGCCTCGGGTACCAATTGCCCACATGCGAATGCTGCAAAGCCACTGTGCCACTTGTTGAGGTGTACGGGCATAAACTTTGCAAGAGGTGTAAGACACTCCCACGCTACAGACCTCGACGGGTAGTTGTGCAGACACAGATTGGTACGAAGCTTTTCTACTATTTCGCAAAACTTAAACCCGACTTTAAATTTAACACCGTACTTACACCGGACTCAAGTCTACATTTGATCAAGTTTAAAACTTATCAGATCAAGGACTTGAGTACAACTATCGGTGTCGACGACTATTCGTATTACTTTGTAGACTGGTTTTACTTAGAAAATAACTATACGTTCAGTCGCGTGTTCGGCAAATCAGTGGATTCCCCGTGCGCTTTCGTAGACAGGAAATACTGCGAGTATTACCCAGCGAATTGCGAGAAGATCATCGATATGGTACACGATGGTGTGGATGCTAATGTTATCGTCCGTAAGAACATAAAGAAGATATACGTACGTACGTATCAGAATATGTTGACGAAGATAACGGCATTGGCTCAAGTACATAACGAGTTAGAAACACACTTTAACACTGATTACCTACGCACGCCGCTACGCAGTGGATCGATATCTTCGTACTCTGACAAGAAACTCAGCGATTTTTATAAAATCAGCGGTCATGTTAACGAAGCTTACACCAAATCAATCGTATCAACAACTACCAGTACTACGTCAGCATCGACACAATCTTCAGAAGAATCGTCGACACCAGGTATTTCCAACGTCTTCGCGGACATGTACAATTACTTCACTAAAGATGACGAACTCCAGTCCAATAGCTCGACTCGGAAACTCATCCCTAGCGAAGCACAATCAGCACCGATCAGAAGATCACAATTCAAAATTCCTTTCATCAAAAGATCCAAATCTGAAGCATCACTACCAGTGTTGCCTTATCAAACTTTTCTTGATGACGAAGATTATGAGGAAAGCATTTGCACTAACTCTACTAGTGTTCCAGAAGCACCTCAAGTCGACGAGGAATCAGCATTTGAGAAGAGTCGCAGATTGCTACAGCAACGCATAGAGCGGGCGAGGCGCGATAACGACAACAAGAATATTGAAGATGCATTCTTTGAGGAGCCTCTGACAACCATTACTGAAGAATCCGATCGGACATCGTTTTCGTCGAAAACTTGTAGTGATCTACCAGAGGATTGCCTGTTCGACACTGAAGGTAACCTCATTCTCGGCACATGTGGCGGTGGCAATCGCTTCAAGAAACTCAACGACCTTAAAGAAGAACTAGGAAAATACGACGATTGGTACCAATTCAAGAAGACTATCTTTCTCAAGGATGGTGGTGCTATACAAAAGCTGGAGTACCTTGTGCGGAATATCGATTACCAAGATCACTTCATCCTGGAAATCGGCGGCGCACCTGGGACTTGGACGCGGCATTTAGCTAGTACAAATAAGGTGCACTCCATTTCACCACCCGATTTGCAGTATTACAAGGATGTCCGCTGTGAAGAAATATTCAAAATGACTTTTGAAGAATTCGACGCACCCCGGATGTACGATAGTGTGTTCAGTGACGCTGCGTTCGCCACTGAGAACGAGAGCTTACAAGCCGAAGAACACTATGATCTTTTCGCGAAGATCGTAACACGACTACCGAAATTGCTCCGTAAAGGTGGTAACTTTATTCTTAAGGTTTACGCTTCTGATCATTCACCAACGGTCTCACTCCTTGAATACATTGCAAAATCATTCCGACACTGTGAGATGGTTAAACCACCTACCTCGATGGTCACGAATTCCGAAAGCTATCTGGTAGGTATGGGCTATCTGGAAGGTTCCACTACACTAGACGTTTCGTCGTATTTCCTAGATCTGCTGAATCGACAGACAAAATTTTTACAAGCTTTCATCTTTTTCTACAGGGTGACTCGTGAGAATCGTATTGGCGTCGTTAAGCGAAAAAGACCGATCGGTGTATTTACATACACTGATAGTAAAAATATCGAATTGAACGTTGTTACGCTAGTACCCGAACTCCTGCGCTCTATGTCCGAGCACATACCCGCTTTGCTCGAAGGAATCAGCAGAGTAGCGTTCAATCACATTGAATTCGAATTTAAATTAACGAATCCTTCCTTATCGATGTTCTATAAGCATATTGTCAACCGCGACGATGCAGAGATACCAGGTAAATTCAACCCTCTTTCGAAGACAATCTTCGTTTATCTCAATTCCACAGATCGTGACTATGTCAAACGTTGTAAACTTATAGAGAAGAAATGCGCTATAATTTACAAGATAACTCTCAGTCATCACACGTCTGTATTCGTTCGCGAGGATTTCGCAGTTTTGATTGTGACAACTACCGACCACACGTGTTTGGACAGTCTGTGCGATGATTTGAAAATTCCTAGCGATTTGACAATCTATGTGGCATGTATGGGCAAACAAACTGTACGTGAAGAGATACTCAACAAATGCAAGCGCAAGTATCTGTGTTCCGATTATGGCAAAGTCGATATAGTTAACCCAGTACACAACGTGTTGGGGTTATATCCACCTATGTCTGTGCCTGAATCGAAAGGAAAAATCGGAGGATACTTGCGTTGCATCACCGAGAAACGCGACATAGAAGTGCTGAACATCGAAAACACCGAAAGGGAAGCGAAGAATCTTTGGAACCTCACCGTCGAGAGAAATTGTTATAATCTTAACAAATCACTCATACAGACACAAGGGTTATGGCTTTGGAAGAAAACTGGTGAATCAGAACAATTCATTGGGCGGCCCCGTAAACCCTCGTACATGTACGCTTACACGAACAAAGGTTTAACCAAAGTGTGCATCTCCGTAGGTGAAGAAGGCGGTAGTGTAAAATTGTTCTCACAAACCGGTACCGAGAAACAGGACTTCTTGACTATTGCCGATGACGGTTACTACCTGTTCTACGACGAATTGCACATCCTACTATCACCTAATCTGGTTAAGCAATACGACACCATACTAAAAGTCTTCAACGACGATAACTATATGGAGAGCGAAGTCGTTTCGCGGTTGCTTAATTGTGAGATTAAATTAGTACAAGGTTGCCCTGGGTGCGGTAAGACCACCTACATCATTGAACATCACGCGTTCGGTGATGATTGTATTTGCACTCAAACTAAGGAAGCACGTCAGGACGTCGTCAACCGTGTTGTCAAAAAATTCAACTTGGATACTAAGGCTGTGTACAACGTGAAGAAATTGAAAGAATTGTACAGAACATTGGACTCTCTCATCGTTAATCCGGTGGAACTAACCGGCGTGCGGTTGTTTGCTGATGAAGCGATGATGGCTCACGCCGCGGACCTGCTTGTGGCAGTCGCGCTGACGGGTTGCAAGGAAGTTATTTGTGTGGGCGATTTGCAACAAATCCCTTACATAAATAGAGTCGCAGGTTATAACGCCAAACACTTTAAGCTTAAGGTTAACGTACACAGTAGGCTCGATGTTACGCATCGTTGCCCGAAAGACGTGGTAAGACTTCTGAATCCACACTACGAGCGTAAACTTACTGGTACTAACCCACGAGACGACACCATGAGTACCACTGCACTTGATAATATTGAAATGCTGCCGATTAAACCTGGCTATCAATATCTCGTCTTTACACAAGATGAGAAAAACAAATTAATTGAGTATTTCAAGAAGAAAAATATCAAGGCTAACGTCATGAGCGTACACGAGTCTCAAGGAAGTCAGTTTAGTGACGTGATCATCGTCCGGACTAACATTATTAAGTCTACATCGACGTTCTCGTCGTTGCATCACATCATTGTCGCGGTTTCTCGTCATACAACGAGTATGCAGTACATTCTGGTTGGCATTAAGACTGACATGTTATCGACGATGATTAAGAACAACTTAAGATCAAACATGAAATCCGAGGGTATACCTAAACTGTCAGGTGGAGCTTCCTCCGAAGTACACGCTTCTTTACCGGTAGTGAACCACGGTGGGCATAAGTACGCGACGTTGCTCGAACAGAACTTTCCAATGGGGGGTGCACACGTCAGCAGTCACTGAAGTGGCAAAGTTGATGGTGAGTGCACCCCCGCCGATTGACTCCGTACTTGAAACACCCCATTACGCAATCATCCAAGAATTTCTCGACACCGCTTTTCCCGGCGGAGCTATCGTAGATATCGAAGCCATTGCTTACCAAAGCTCGATATCTGATCTTCAATACGACTTACCTAACGGATCTACATTTTCACCAGACAAACACGTTGAACTGAAACTAAACAAATCAACCGGTTTTTACGAAACCATAAAACCCAAACCCGTATCTGTGAAACCCGTCTTGGTCACCAACATCCAACCCAATCGGGAAAGGAATCAGCAGAATTCTGTGGAAGCACTATTAGGTAGAAATGCCGACGTGCCACAAAATTCTGTGGCTGTTAATAACAAGCGAGTCGCCGAACTATCAGTACTTAAGTTCTTTGATTCCTACGTACGACCCGATGCTGTTGACGCCATAAAGAGTTTCACAGAGTTGCCGATATCCATCAATCAGCAAGACCTTTATGATTGGTCTCAACGATCTGGAAAAAATGTAACAGATTGGTCTATAGACAACATCGGTATCCACGAACGTCTACCTAAAGACGCTATGAATGTCTATTCTTTTCAGATCAAGCCAGAAGTTAAACCGAAATTGGACTCCACTTCACATATGACTGTACAAGTACTTCAGACCATTGCATGCCATCCTCAAACTGTAACTCAAATAATGTCACCCATTTTCAAAGTGGTTGCCAAGAGAATAAACTCCGTACTTAAAAGTAATGTTTTAATATTTTCTGACGCCTCACCTGACGAACTGATACAACAGATCAACGATCATAAGCAGGTCAAGTTTGGCGAGGAATTATACGTTACTGAGATCGACATAAGTAAGTACGATAAATCTCAAGGTGAACTTGCTCTAGAGATCGATTTACTCCTGCTCAAATTATTCGGTGTCGACGACTTTTTCTTAGAACTGTGGAGGACAGCCCACGTCAAAGCACGACTTGTCGGCACTGCAGCAGGTATTTCATCACCGACTCTATATCAACGCAAATCTGGTGACGCTTGGACATTTGGCGGTAACACATGCTTGACTATGTGTGTAGTTGCAGCAACCTTAGATCTGGCTTCAGACGATTTTTATTCAAGACAGTCGCAACGCCTTTGGGGTATTACTCGAGGTGTCTCCGTCCCGACTAAACCTTTTGTTTCCTACGCAATGTTTGCTGGCGATGATAGTTTAATTATGTCATCAGTCAAAATGACAGACGATTCGCAGAAGATGATGTCCGACTTTTTCAATTTCGAAACTAAGGTGTTTTCGTTCGTTAACTCCTATTACTTCTGCTCGAAATTCATCATTGATATTTGCGAACAAATGTACATCGTCGCTGATCCGATTAAAACTTTCTTCAAACTTGGACGCACTTCTATGCAAGACTTCAGTCATGTCGAGGAGTATCGCGTATCCTTGTACGACCTCTTCAAAAGGTTACAAGATCCTAACATACGGCGCTATGTTGCAGCCGCTTGCGTCGACCGTTATTCTCTGAAAGTAGATCCGGAAGCTGCTATAGCAGCGCTTTCGTATTTGGTCTGCAATCCCCGTAAGTTTTCCGAACTCTTCGTTTACCCGGAGAAAGTAAATAAAGTGTACGCTGTCGATAGTGCCGTTTATGGTAAAGTTCCTTCTTTACATCGCGGGTATTTCAAGAAAAACAAAATACCCATAAATCCTCGAAAAGGTGATTATATCTATAAATATTCTTACGAAGAACTCCCTAACCGTATCTGTCTCTACGCAGAATACCCATTGGTTGTAGTCCCTACAGCCGGTAGGGAACTCCGTTACAAATTGGCCAATGTTTCTTAATTCTATATTACTTTTAAAGTATAAATGGATATTCGTAGGTACCTACTCCGGGAGTTTTCAACCCTCTCCTGGATTGCTATCGTAATCTTCATTAACGTTATTATTCTGGTTATAAACTATCCCTCCCCACAGTACATAGGCGAAGGTCGCATTACTTGGCGTGGTATAGTTTACACCCAGCAGGATATTACTTTTGTCTGTCGCACTAGTACCACCGTTTGCGTTTTTCAATCGCTCATTTCGCTAATCATCGCTCTGGGTTACCCTTTGTACCCAATTGGAATTGTTGCTGCTTTTATTTATCTGCTTAATAAGTGGATTTATTTCCTAAAGCTTCGTTATGCAGTCGATAACGATCCTTCTTTGCCTACTTATTACTCCACACGCGACACTAGCGGTACTTCGGGAAATCTTTCCCAGGTACAGTGTAGCTAAAGGAGACTTCGACGAAGAATCACTTGCAAATCTTTATGACCGCGGCTCTGTTGTTAACGAAGCCGATCTCAATGCAACCTGTAATGATAACGGATGTTCGGCTGAATTTTCCCACTCATTCAATTTCAACGCTGCTCGAGCTTCAGGAGTTAAACTAACTCTTGAGAACAATGGACTACAAAATTCAACTATCGTCTTGTCCGTTGCTGAACCATCGTACACTATCAAGCTCGATTACATCTACACTATCTACCCCGCCTATCTTTTTGTTGGTTGGGCTTCGTATAATTATGAGGAAGACAATTACAACCAGTGTATGAATCAACCAAATTGGTACGACATGATTAACGCCCGTCACGAACCTATCAGGTCGTACACTGATGCCTATCGTAGGTATCAGATTGTAACCTCCCAAGCAAAGCGTATTGACTATTCTGCTTGGGGCCACACTGCCACATCGGTTTGCAACCATCATTGGGCCACGACTTACGTCATGTGCGAGCGTCGTTCACTTGTTGTCGATTACGCACAAGGCATCGCCGTATTTTCGATAGCACCCGAGTCCGAATTGTCTATGACTATGAATTTAGCTATCAACGACGATGTAAAAAATTTTGTCGTTCAACCATCTATTGATGTGCCCTTCGAAATTGATCTAGACAAGATCACATTTTCTGTATCACCCGCGGGCACTATTATTTCACCATTGGCTGGAAAATACTACCTCGCCCGCTTTCAAAGGGAAGACATGTTTTCTAACATTAATGTCACTAATTGGTATAAGGCAAACACTATGCCCACGATTTCTTCTGTCACTGAGACTGCGACAAAGTATCACTCCTATCAGTTGTTCCCGCCAATCGCTTACGAACCTGATACTGGTAAATACCTCCCATTCTACAATGACCCTAATGACATGAAATTTATGAATGTTGTTAAATGCGGTAGCGGTTATGTCAACGAGAAAGCGGTCCGTACTCCTACGCAACGCCGAATTGACGCTCTTAGAGCACAAACTGCTACTGATGACCTACTTGACAGGACGAATCTTGACTCTCTTCTTGAATTTTTACCCGTATTCAACAATCCTTATCCGAAGGATTCGTTGAGTTACTTCCCAGACCCTTTGGATCAATATTCGAATTTTACCTCCAGACGTGATCAGGATTGTTGTGTCCCGATCACAACAGCGTCGCGTAACTATCTCGAAACTTATCTTAAAAGTTACGATTTAGTCTCTAAACGTGATGGTCAGTATGAAATCGATCTCCCTGACACTCTTGATCGCAGTCCTGGAAACGTTTACCCAGCACCTGTTGTGATGAATTCCCATAATCTTCTAAAAGTTTCACTATCGGGAGTCATCTCATCGAATAATCTTCGTATACCCTACGGTGCCGCTGACGGTTCGGTTTCCTCTGCTTCCATTAGTATGATGCAAATTGCTACCGCCTCGACTGGGTCGTACTTCAATTACGAAATTGATTACGTTGGATTGCCTAACCTCATCCCCATAACCTCTAAGTCGCTCTATTTGCTTAAGAAGACAATCTCGGTAACAGGCACAGGAACTTTTAAAGGTTCCGTCGCTTTCCAATCGCCGAAAGACCCGGGTACGTCTCGTACGATTTGTTTTGGTTCTAATAACATTTGCGTGGAACCTAAAACCGTTGATTTCTTGGCACCACCCGAAGGTGCAGTGCAAGACCCTGACACCACCGATTGCGCTGGTGTTACTCCGTCATTTTTCTCGATTTTACTCAGCAATATTGGTTTGTTTGCTATTGCGATCATAATGATAATTTTGGATATTATCATTGGAGTGGCCATTTTACTCGTCATAATTCGCACTGTACCTAAGATCTTCGTACTTTTCATGGTATTGTTCACTACGAAAGACGTAAACGCGCTAAGTTACACCGCCGCGCCACTTAAAAATCTTTCCGCAATACCTATTCGTGATCTCGCACGTTTCACCTATTCTGAAGTCTACCCCATTGTTTATTCGGACGTTTCAATCCCCGCTCCCATCGAACAGGATCCCACGGACCCGCTAATTTCTGAGTTTTACACACAAAACGCCCGGGTTTTCTCTATCTGTCACGATTTCGTAAATCCGACCAACTCATTTCTCCCCAAAGATGTAGATACTACGTCAAAGGTAAAATTTCAACTTGGTTGGTACACCTACGTTTACAACATCAGTGCAGTGAAATATCAACTGTCCCTTCCTGCTTACCTACCGGCGATGCAACCATCATCGCTGTTAGACACGACGTTGTATTCGCGGGTCTCGGTCAATAATGTTTATGTGCAGGAAATCAATTATTCCTTCCAGGATCCCATCTTCATTTACGCTTTTGACTCACCCGTTACCGCTACTAAGGGAAAGGACACGTACGCTGTTCTTGCTATAGCCACCACTTACAACGACATGGTACAATGTCCGTCTGTGACGGGGGTTACAGGCAAAAGCACTCGTCTTTTCCTGATCGTACCCAATTCGACAACTTATTCAGAAGCTCCAATCATCCTTTCGGACAAACAAATTTACGTCGCTAAAAGTACTTATCGAGTAATCGATTTTGCATCCCGTGAGCCTATCACTTACACCGGACTAGCGTCAGTTCTCCAACGGCTATACACCGGTAATATTGATGCTAACACTTTTATTTGCAACGGTCCGGACGTGACCCTCTTTCGCGCCACTACAGTTCTGTCCTGTGATGGAGCTTGCGTCTCCAAATCACAGCGCTCTGCTATTTCTAAAGTTGCTTACAAACACGACGCTCGCACGCAAATTGGTAATATCTTTTTCCACACACACAATGCATATTACACGCGTCAAGGTGTGTACGTGCCTTCTCTCATTGGCCCGCTTCAAGCAACTCCCTATTATTCTGGTAATTGTACCGTTTCCGTTGATTCGAACGGTGCTCTTCTCCTTATGGACTACGAGCCTACCAACGTAGAATACACTCATTTCAAATTTGATGATGTGTCGTACAAATCTTCTGTCTCTAAGGATTCTTTCACATTTAAACCAACTCTTACCACTTGCACCGGGTCAACTTGGATCAGTGACGATAATGCGTTGTTGACTTGTAACAACGACTGTTGTCTCTCAACATTTGATGATTACCAATCTTTTAATCTGTTGCAGACTGGTGATGTTATTCGTATCCCGCATTCTTCTGATGCACTCCCCTTCGCTCAATACACGCCTACCGGTAATCAACGAAATTTCTTTTGCCCTGCATCTGGTTGCTCTTTCAACACGATGCAGCAGGTTTATGATTGTGCACTAGATAAGCATCCGGCATCTACGGTAATGTTATTCTATTTCATACCTATATTCATTGGCTTTTACCTTCTAATTGTTGTAGTACGCTATACTTTGAAAGGATTTGCTTACGGTTTTAAAAGCGTAAAATTCTTAAATCCAAAATTCTACGCCGATAAGATAATCGCACCCACCAAGACCTTCACCAAGAAAATAATCCAAAAACCTCTTAGATTTAAGTACACAAAAAATGCTTAAATTTCTTCCCTTAATTTTCTTACCCCTGGTTCTGTCGGTCAACCTTAGAATTTTGGGCGGACATGACTCTACCAATCCCGCCGTCTTGCCACTTTTTTACAAAGGGATTTTTACATGTACCGCTGTCGCAATATCAGCTAATAGGGCGTTGACCGCTGCACATTGCACTTTTGGCTATCAAAATTACTACACGCTTGGAATTCTCACCGTGACGAAAGTTATCACGCACCCTGATTTTCAAACCGACACACTTAGGAACGACATTACACTTCTTGTCGTTCCAACTATTGGTTCTTTTCTTCCAATATCGTACTCACTTCCAGCCACAGAATCACCGACGCAGATAATTGGTTACGGGCAGACTTGCTTCAAATGTCCTACCACCTCTGGCCAACAGTTAATCGCTGACATTCAAATCATGGTATGTCCTTCCACATACTCCGTCACAGCGGAAAATTTTTGCGCAGGACTTGTTGACGGTTCAGCTGATTCATGTCAAGGTGACAGTGGCGGTCCAATTATCAGTGACAACGAACTAATCGGATTGGTAAGCTGGGGTATTGGATGCGGGCGCCCTAATTCACCGGGCGTCTACACATCACTATCTGCTTTTAAAACATTTATTTGGCAAGATTTCGTTTCATCGTCTTCTTGCATGTTTTTCTATAGTAAAATTTGTTTTATAACCGTTCTAACAAGATGGCTTACGTTGTAGACTCAAACTTCAAATTCACCGCCGACGTTTCCAGTGTGGTTGGTAACGATGTGCAGGTGTTCTTCGTGCTCAACATCTTTGGTAACAACAAAGATCAACGCAATACACTCGGACATCATGACTATTATGTCCAGCCACTGAATTTGTCTAGAAGGAAGAACGCGGCCATGGTTACGGTGATTACCTCTATCAAATCTGAATTTAAAGACAAAACTTCCCACAAGACCAATGAACGTAAATTTGAGTATAAACTTGACTCACCTGATGTCATGGTTCTCCACTCTCTTGAAAATTTTATCAATGAGATGCTACTCAATAGTGGTTTCGACGTCTCTCAACAAGTCGTTGATTACGTAACTACTAAATTCTTCAATTACCTCTCAGCAGCGACTCATTCAAAGTATTTTAATAATTACCCTGATGAAGTTGATGATCATTCCCCGGATTATCCGTCCGGTGAAAGATCTCACTAAGTTATTGTTCGTCTATTTCCGCCCACGATGAACAGACAAAATAATCGCTCACGCTCTATGAACCGCGGTAACGGTCCGCGATCTAGTTCTGCTGGTCCTAGATTCTCCGACTACTCTAGGAATTATAAACCGCAGCAACAGTTCGCTGACTACAGGCCTTCCGCCCCTAGACGTCGTAATAACAACAACTCTAACGTCAAGGTTATTAATGAACCTACCGCACAAATCCGTACGAGTTTTCGGGGTTACCAAAACAATCCCATTCTTTTTATGAAGTTGACATATTTGATCAACATCGTTGTTAATACCTACCGTATTTTCAAATCCCAAGTGACACGTAAGATGATCTTGCCCTTGTTGAACATGTTTGACAGGACAGATCGTCTTCCCAATCAATGTAACTGTATCTTTGACATTTACACCAAAGATAAGTCTGCCGCTAAACGCGTATATGTTGCACTTTCCATCCCTAACAAGATTGACGACAAAGGCGAATGTCTACTTGTTAGCCTCAGCGAGGTCTCTGAAGCCTTCACCCTTCTTGCAGACCGCGAAATCATAGCCCAAACCCTATACGCTGGCAAATATTTCCACACTAAAGTGGACATGACAAGTGGTGAGATTACTCCTTTCAAGGATACTCCCACCCTACTTATGGGCAAAACAGTAAAACTGGATGGTGTTGATGAATCCAGTTCTTAATATATTTAAGTAATCTTTGTAACTTAACTTTTTCTATCGGTCCGGATGAGCCCTAATAGCTCTTGACCGGCCAGGCAAACTAAGCCTGGTGTTGGTGTTCGACTCCCCGAAAACTCGCACAAATCCGTACGAGTTTTCGGGGTTACCAAAACAATCCCATTCTTTTTATGAAGTTGACATATTTGATCAACATCGTTGTTAAGTTACAAAGATTACTTAAATATATTAAGAACTGGATTCATCAACACCATCCAGTTTTACT</t>
   </si>
   <si>
-    <t>MK440650.1</t>
-  </si>
-  <si>
     <t>TGCTCTACTGAAGATTGAACTTCTTGAAGATGGTTTCCAATCCCGTTGATGTGTCGCCCGATTGAGTCGACCGCATTTTCGAGATGCTCTTCGAAATGTAAGAGCGTCCCGGCGCAAAGGTCGAACTTCGGGCACTCACGAAAAACTCGCCCAATGCATTACCTGCAAATTCGAGCGGGTTAACGGGCTCTAGCATGTCGCCCTGCATGAGAACTATGTCCACAGCTGTGGCCCATTTGATCTCATCCGCCTTAGTGGACGGACGGTGGCAGAGGCGCCCTACTAGTTTGCCATCTTCAAGTACGAGCTGCATGAATCTGACGACCAGAACGTAGTGGTCATCCTCAGCATTAGTCTGATCGATTGCCATTGGATGTGGCAGCCGATAGAATTTAGCCGAGGTGAAGTCAGTGTTCTCGACATTGCCGAGACTATGAAACAGATCATCAGGATCCTGAAGAACCGTTTCTGTATCCGTACTGGGGTCCCAGTTACGGCCATGCAGCTTGTCTTGAGAGTTTACCCCAGACAGAATGTAGGAGCAGGTTACAACTGGCTGTTCAACCTGCTTTTGGGGGGCATTGCGCCCCGGTTTGGACAGCTCCACAGTCCAATCACAGTACAGTGACAGTGGAGAGTCTTTGTCAACAGGCCCACTCGTCATGACGACGAATTTTCCTGGGCTATAAAGACGGAGGTCGGAACCAGGCGTAACATAGAATTGTTCCGGGGAGTTAGTGGAGATTACAAGTTCTTGCCACGCTTTGGTGGCTTTAGCTCCAGCCTGTGTCATGAGGTTCGTGAGCCCCGCGTCACCATCAACCACCTGAGAATAAGCATCCTTATAGAAGGCTGCAGCAATTCCACCGGTGACGTTGGTGCCGGACTCGGACACTAGCTTGAAAACGAGCTTCGAGTACTTGATGCGCTGAAAAGTGCGCGCCCTCTCAGACAAGCTCGGGAACATCTGAGCGTCAATAAAGCGCTCATAAAGGATGGTTCCCGGGGAAGTGCTTGCTTTGAAGGTCAACCCCGCTAGACGGTCAGATCCCGTCATCCGCATGGTTTTCTTGGCCTGAGACCTAACCGTGGCACCAGTGTTGACAATAGCTGGTGCGTCGATAGTCCCGCCCCTCCTACGCTGCTTCACACGCTGTTTGCGTGGCTTGGCGGCCTGTTTAAGGCCTCGTCTGGTGTTGCTTTTGTTCACCATTGTAGAACACCCGGAGCGAAGTGCTCCTCGGGCTCTACCAGACCGGTCTGTTCAATCAGCAGTTGGTCGGCGATTGACAGTCCCCAAGCTCTTTCATAGCTCTCACGAACACCACCCATGGGCTCTATAGGTTGGAGTTTTCCAGGTTTCATCTTCTCCAACCACGCCCGATGTCTGATGCGAACCATCTTTCCACCTCGCTCGCACATTCGCTGGCCGATGAACTGGCCAATGGGCAGGCCTAAGCCCTGAGCGATCTCACACTGTCCTGTAGAGAACACAATGTCTTGGGCGCGGCTGTCCTCGATAGGTCCTACTATCCAAGGCAACCGTGCCAGCATTCTCTCGGGATTGCGCACCATAGTGTGTCCAACACCATCAAACACAGGTCTACACTGGCAGAAATCAACGTGTTCGAGGGTGTAGGCCACACTCTCCAGCTTCGTAGACATGCCGAAGAGTGAGTATGCGCTTGGGTCAATCAGTGGGACGTGTCTCTTCTCAATGAAGATCAGAAAATCGTCACCATCGATGTACAGATCGTACCCAATCCCTAACTTGCTAAGCAATTGTTTGGTCATCATGTAGTTAATCAAACAATTACCCAGCCCAGTGTTTTGATCGCCTGACATTCGAGTGGCCCTTGTTGTGTACCTAGTTCCATTCTTAGTCATGCCCTTATTGCGAACCTGAAGTTCTAGCAAGAATTCCAACTCCTCCGAGCCATAGCACTGGTTATAAAACCAATGTTCAGCACGCAGTAGAGACTCATTAACATGGCAATCAAACTTGCTGTGGTCAAGCGACACTACAGCGCATTCCTCATACCTGTTAAACTTGTGCGCGATGTCTCTACCGCGCTGCTTCATGTTCCTCCCCTTGGCAAAGATGTACGTGCCATTGCGGGTCCAGGACATGACGTATCGCTCAAGTGGGTGTAGGTAGGTAGCCAAGCGCAGTCCATACCGCTTATTACGGTATTGAATGCACCTGGGGTCCTTCAACTCCCCATGATACTTGTCGTCCTTGAGAAACATCTTGATGGCTCCATCGGATGCAGTCAGGGAATACTTAGAGAGTGATTCCCTAGCTGACATAAGGAGCTTCTTCTTGCTTGGTATGGCATGTTCAATGACCATATCCTCACTCCAGGGGTACATAGGTTTTACACGGCGTCTAACCCACTTAGTTAGATCGCCCTTGAACGTGTACCTTGCACCATCGTCGAGCTGGTGACGGTTCTTCAATGCGAGAACTTCGTTACATACACATGAAAGGTGTGTCTTCACCACGGAACCACTACCTCCAAAGTCTGTGTCGTAATCAAACATCTTGCGCGTGTACCGCTTGCAGCTGTGTCCACACTCCCCCGTGCGAAGGGAACTGCCAGGTAGTTGGCTACTGGATATGGCCCTACCTTTCATACAGATCCCCTGGAGAATGTGGCTGCCCTACTTAGGTGTAGGGCGCAACCCAACCCGCGACTGCAGGAGGGAAGAGAACGCTGATGCCGTAGCGCTCCCCGGTCTACAGACCGACCCTGCATCGCCTTTGTCAGCAAACTTGTTGTACTTCTCCATCTGGGAAGCCTCTTGCTGAATAAGCTTCCTCGTCAACAGCTCCTCCGCTGGTGGTAGTAGCGCTGCCCTGACCGTTGATTGCTTCAACTTGTAAAGCTCCTTAGCCGTGTACAACCTGCAGTCGTACTGGGCTAGAACGGTGTTAAGATGGTGAAACATCTTACGCGCTAAGTCAGCTGTCCTTACTGCGAAGGGAAACCGACTGACGAGCTCATAGTAGAGGAACTCGTCCACCACGAGCGACTTAGCCGCATCGATGGTGATGCCAAAAGTGTCCTTCCAAGATGACATGGGGACAGTGGCATCTTTGTACAACTCGGCCATGCTCACCTCCTTAGTGGTGAGCAACTTAGCCAAGTTTGCCCGTGTGGTTCCGACACCACACTCTACATCCCGCCTCAGTGACGCCTTGTGAACAAACACCGGGTTGGTGTTTTCCACAAGCTCACCCTTCTTAGCACTCACCTCGAGGCACACACCGGCAGATCGGGGACTCACAACAGTTGGTGAGTGAAAAACGCCGGGTGGACCGGCGCCCTTCCAACCATGATCTCCAGGCTTCATACGAAGTCGAGGTTGCGGGACTCGGTCGGACCCAGCTGGGTTCGGGGCAACCTTCGGCTCCGCAGTAGCGGCGCGGTGCTGTGAAGACGAACCCTGAGTTGGTGTAGAGTTCGTCTTTGACGCTGGTGAGCGTCGTCGTCCTTCGGCACGTGGGGCAGGGCGTCGGACGCTGAGCTCCGGCGATGAGTTCGCTCTCCGCGTGGAACGCAGCGAGTGTCCGCCTGTCAAAGCTTCTGCCGGCACACCATTCGCGATTGTCGCGGTGGGCGTGCATACGCCTGATAAGCCTGCAGAAACCGCCAAGGCTAAAGTGCCTCGGCTGAGGTGCGGGAACTCCTCCCCTAGCAGCTGGAACGAGTTCTTCGTCCCCACCGCTGGTAAGTGGGAACTCGATAGAGTCCGGTTCCCTGGGCCACGTACCGGTGGCTTCCTCGGGCCCTTGGGCCTTTG</t>
   </si>
   <si>
-    <t>MW434930.1</t>
-  </si>
-  <si>
     <t>ATTTGAATTCTGGCTCCGATAATGGATTGAATTGGAGATTAGAATGTAGGTCTATGTGTAGTGGAAAATTGCATTACTCTACAATTGGAAATCCCGACGTATTTGGTCGATGTCAACGTTCAGTTGTTTTGAAAGTTTTGACACTACGAGTCCTGTTAAGCTGCAACCCCTTAATATGGCTCTCAACTCGCAACAAGTTGACAACGGAGTAGCAACCAACTCCATTCTTTTTGTGTCCGAACTTTCTAAACAACTGAACGTTGACATCGACCAAATACGTTCAGATCTCGCTGTCAAACTGCTTACTCGCTCTGCGGCTGTAACCTCCGCATACGAGAATCATGTGGTTGATAGCGTCACCGACACTATCGCACAATTTAAAAATTTGAACAAAGAAATTCATTTGAATCAACGTCTTTCTGATAGTGAAAAAACGAAATTGATGCAATTGTTTTCCCCTCCATATAAACTAGTCTTCTCCCGTAATCCTACTGATATCGGTGCCCATCTATTTTATCGGTCTTTGAACGAAATCGCCACTTATCGTTGTTACGATCTACTTGGCGTAGATGAACCTGTGCCCATTGGGTATGATGTATTGATCAAAGAAGTAGGTGCATCTGTCGCCAAACTTGTGAAATATTGTCGTCCTAATGTTCATGCTTGTACCCCTAATCTGAACTATGATGACACCCTCCGTTTGGCCAATACAGTTAGCACTCTAGATCGCTATATCAACCCTACCGGCCAATTTTGCCGAAAACGCCAACATTTGGCGAGATTGTATTCTACTGATCCGATCTTTAGATGTTATAATAAATCAGAACATTGTTTTATTAAAGCCAAATACTTGGTTTTTGCCCATTCTAGTTATGATTGTACACTAACCAGTATGGCTAATATGATGGATTCAGCTCTGGCTTTTCGAGCCATGGGTTTTATTCATTATAGTCCTAAAATTCTGTCTAATTTGAATTCTGGCTCCGATAATGGATTGAATTGGAGATTAGAATGTAGGTCTATGTGTAGTGGAAAATTGCATTACTCTACAATTGGAAATCCCGACGATATATCTGACAAATATTACATCACATTTTGGTTTGATAATGATTATCAAAATTCATATGTGCACGAATTAGATACGTACTTGGGTATCATACGCAGTTCTATTTGCACTTCTCGCAAAGGAAATAGTTATATGATTCGTCGTCTGGAAGAAATAGGAGGATTGCTATTTTATGAAATTATCAAACCTTTTCACTCAATACCTTCATCATTGATTATTCGTAATATCCCCTTATCCGATCCAGATTCCGTTATTATACACTATTATAGTCTGCAAAATGACCCGAGCAAGTATCATTATCATGATTTAATTCCTGCTAGATTAGTTCTCCCGAGAAAATTTTTCGAAAAGCTATATTATTACTTGCAAAGTCTTCCAGAAGGAAAGTTTACTACCCAGAATGCTATTATCATGGCATCTACAATGGCGAGTCGTACGGTCGTTAACGGCGCCTACGTATCCCAACCTTATGATTTATCTGTTGAAGAAATAGATATGGCCGCTTACGCCGTTTACTTCATCGTTTATTGTAGACGTTATGATTTCATGGAAGTGTTAAAGAAGTTGAAGAATTTTGAAGATTTAAAACGTAATCCCACACTGTTTAATCGCCTCGCGTGTCTGTTCCGCGGAATTAAAAACTACATATTATCTTCTACGTTTGAGGAATTTAAAGAAGAAGTCGAATTAGAAGATGTCACTGATAATGCTAAAGCTCAGATTCGTAATGACATACATACGAAAATGACTTATAACATCTTTCAATGGATAATGCGCTTATTTCGCATTAAAAATAGATATAATGTTAGATTCATTCCCGTAACACGTGTCGTTACTATTGAAGAAGACATAGACGCTATTAAAGCGATGAATACGACTCTTCCTAAAATTGTTTCTATTCCGAATCCGGCCGAACTCAGAGAAACGGTAGCTGAAAAATTGAAGATTACTCGAGTTGATGCTGACGTTTGCGAATTGCGTGAAGATTATTGTTGTAAAGCTAATCTCTATGAGTCCCGGAACAATTACGATAAATCTTGTGTGTTATTATGTTTCTGTAATCGTCGTAATATGACATTACATGATTTGAAGCATACTCTTCTGAATTCTACTTATTTCAACAATTTGTTTGTCACTGCTAAAATAGCTATGAAGGATAGTATTGAAAATGCTCGTGCCGATTCGAAGATATTTGAATTACTAGCTTGCGAGTTTCATGTAAATATTTGCGTACACTATGAAACCACTTGTACTTTTCATGATGTAAAATCTGTCACAACATATCATTTTTCTGTTAAAGATAACCATTGCGTAGAAATGCGTGAGAAGTTAACTATTGCACCATTTGAATTTCCTCACATGCCAGACTTACCCGCAATCACCGATGATTCGCCTCTTACTCAAGCGTATCAACAACCTGCTGCTAATAAATATAAGATGCATAAAGTAACTGTAGATAGTTATAGTCCATTCGTCTGTCGCTCCGCTTTGAAATTACACGAAATGGATTCAACCTACGGTGTTATTATTCCCGGTAATGTTTGTGAGTTGTCATGTGCCCCAGGTTCCTGGATGCAATATGTACATATGAATTTCTCTCAGTCTAAATTGTTTTATTCTCACTATGCGGATGGTCTTGAGTTGAAATATGATCATGAGGACATGACCTGTCTTAATACAATCACAGACGGTGATTTAACCGACTTTGATTGTATTACTGAAGTCACCCACATGATTGAACGCAATGATCGTATGGATGTTGTTCTTTCTGATGCCGCAATATTAAAAGCTGACGAAGATTGTGTTGACACCGTTAAGTTTTTTGAATATCAAAGGATGTTTTTTGCTAACATATCGAACTGGTTAAATGATAAGGGAAACGTAGTGTTCAAGTCATTTGCTGACGTGAAAGTGTGCTCGGAGATGAATTGGGCTTTAAATCATTTTGAAAATGTGATTTTCTGTAAGCCAAATTTTTCTTCTCCGATTTCTACTGAATATTACGTTGTGGCTTTGAATTTTGATGCCAACAAGGAAGTTATCGTTCCAGTCTCTTATTATAATTATCCTGTTCTTGTTAAAAATAAAACGATTCAAACTTGTAAATCGTTTTTAAGAAAACAATTTCCTCCACAAACAAAATATGTGTTACCACAACCAGCTTCCATACATCCCGGCGTTACTCAACCTCCTCCTAGTGTTAATATTCCGGTCACCCCGATACCTAGTTCAGATGATGATGAACTTCCTGTAGTTATTCTTCCGATAGACACTTTCGAGACTCGTATTATCAAAAAATTATCGACATTAGAACTTCACGACGTTACTGTTCCGCCATCGTGTACCGTAGTACATGAACACTCTGATGTTAATCCTGATGTGTTCATTCAAATTTCTGACACACCTTTGATAGCGGATGAAATTTCTAATGCTATAGTTTATGATCTCCCTATGTTGAGAGTTGACCTTAGCATTGTTCAACGTCGAAATGCTTTCTCATACATATCTTTTATTGCTACTAAGATCGCTACGTTCAAACTTCGTATTGTAGTTGATTTGACCGCGATTCAAGATGTTGATGAGATAAAGAAAGTTCAATCGCATGTCGCTACTGAATTTGGTAAACACGAACTCATCATTGTGTCTAATTACACGGATTGTGCGTATCCCATACATCTCTATGAAAAATCAATTAATGAGTATGTAGCTTATAATCGCTCGCTCCGCGCTTCGAATTCGAATAACTACAATTACGTATATCGTTCTCTATGTAACAATAATTTCCAGGTTACGCAATCATTCTTAGCCAATGTCGCCGTTAACAAACAAAATATGTCCATTTTAATGGGTAATGTCTACAAATATAAGCACCCTAACAGAAAAGATGAGTATACACATGCCTATGATGGTGCAGCTGGTAAGTTCCTACCATTCGATCAATGTACGGATATTACCAAACACTATCTCGTCGGTGATTATACTCACCTTATGTTTGATGAACCGACTGTTGAAGCTGTTTCTCAGATTGATATTGAACAATTGAAGAATGTTCAATTCGTTTTGGTTCAAGGAGTTGCAGGTCACGGTAAAACTCGTGAAATTGTAGAAAAACATAAACCTAGTTTGAGAATGGGCGGCAGAGGTGATTTGATTGTGGCTCCTACGAAAGCTGGTATTAATGTGTTGTGGGAAAGAACCTTGGCTCACCATAAGTTGGACGTCAACAATCTTGACGTCAAATGTTATCGCACTGTTTCATCATATTTGCTCAACAACAAAACGGCCAAACAACATGATACCGTATTTGTTGATGAAGCGATTATGATGCATGTTGCCCAGGTTTTAGCTGTGGCTTACTATAGCGGTGCTAAAACAGTTTATATGTATGGTGATTCAGCTCAGATTCCGGCTCACAGCGCTCTTGGTGACTTTGAATTTTTCTATCATTCTCCGCAATCGTTATTTACTGCCAAAGCCATTAGAGATAAGTCGTATCGTATTCCAGCTGATGTTGCAGCGGCGTTGGACCCGGAGTATAGAGCCTGTCACGCCCGATTTGGCTCTAACACCGGTATCAAGACCGCTAGCACTGTCATTCGTTCTCTAAAAATAGTTCGCATTAATGACGTTTCACAGATGAAGAATTTTTATAATGAAGATGTTAAGTATCTTACTTTTACTCATAGTACTTGTAGTGAACTCAAGAAACTGGACCCTAAATTTGATCCTAAAACTGTTGCTGCGTATCAAGGCTCTGAACATCCTAGAATTGCTATTGTACGCACCTCTGTTTCAGAAGCAGATCAGATATATAATAATGCTAATTTGTGTGTTACCGCTCTTACTCGGCACACTAAAGAACTCACATATTACACAATGTGTGATAAAGATGATTACTTGTCCCGAGTCATCAAACACGCATTATCATGTACTGATTTAAATATCAAATCGTTCAGTACCAGTGAAAATATTGGATCCACCATCGTCCCTACTTTTGGTTCAGCAACTGTGAATAGGTTCTTTAAATCTAGACAGAAGTTGACTTCAAGTTTTACGATGGTTGATCATAAGCATATGGTCACTGAAAAAGAATTCGCTACAAGTTTGGTGGGTATCAGAAATGATATATTCGTTGATAAATCAGTCTTTAAGAAATTCGATATGGGTGAGATGATTCGATGGATTAAGAAGTTAGCTCCGCAAGTTAAAGAAGTTTTTGTGAGAGTACGTAGTGAACCATTTGAATCAAATTCATCCGTTATCGATTTGGTAGAGGAATATAAATGCGCTAATACAATATCGACTACAGTTACTGAGAAATTGGTAGCTGTTGTTGAACCTTATATTCCTGAACCGATACAATTGACTAATTTTATTCGAATCTCTCCTAACATCGAATTATTGCAAACTTTTATGAGTCATTTGTTTCCTAATTCTGTATATATTTCTAACCAATTTGATGCATATTTTGTGCATACCAACGATATTCACTACACATTGAAAGATGTATCGTTTTCCCCCCTATGGGATAGATACACTCCTTCTTCGTATGCTTGTTTGAGACCAGTTTTGAGCACTCCTGCTCCAGCTGTTCGAGATGTGTCTCAACGTGAGATATTGTTGGGTATTCAGAAACGTAATTTGAATCCACCTGAACTTATTGAAAATGTATGTTCGGAAGACGTTGCTGATCATTTGATACAAAATTTTGCAAAAATGTTGGTTCCTGGATATAGAAAAGTGATACACGAAATGGAACCTATTCTTCCTACCACGAATTCTATTGTTTCGTGGTTGGAGAGACAAGACAGGTCGGTATTAAAGAATATTCGAAACGATATTCCTATCTGTCTTCAAAGTTTGTCTAATTGTTCTTTGTCTCTGAAACGTAATCCCAAGGTTCGTATCTCTCCAACAGCTATCGACATCTATGATTCAGTTCAGACTATCACGTGTCATCCCAAATTTATTAACGCCTACTTTTGTTCTATAGTTGAAATGGCGCAGGATCGTCTCATGAAGCTTATGTTGCCGTATTTCAAATTTTTCACCAAATGTACCACTGAGAAATTTGGCGAAGAGTGTTATGAAATATGGAGCAAATATGGTAAATTATATTTGTTCTCTGGTGACGATTCTTTGCTTATTAATGGGAACACATTCAAGGAAATGGATATGAGTAAATTTGATAAATCTCAACTTATTTTTGCTCTCTCTTTCCTGTGCAAGGTTTTCGTTAATTTGGGTGTACCTAGTTATGTGGCTCAATTATATTATGAAATGATGTACTATCGTATTTGTACGGATGTTCATAATAAAGTTACTATGGTCCTAACTCCTCAAATGGAATCCGGATCTGCTGCCACGTACTTTGGTAACACGTGTTTTTGTGCTGCAGTCGTTCTGTCTACGTTGGATATGGGTGATTTTTCTTATACGCCTAGATTTGAAAAGTTTTCATTGATGTTCAATCTTGAAGTCAAAGAATTTTCTTACGTTAATCCGTATTTTTGTTCGAAATTCTTGGTCATTGATGAAAACCGTATGAAATTTTACCCTGATCCTGTGAAAATACTGATAAAATTAGGTCGTGCCGATTTGAAGAATTATAAACACCTTCAAGAATTTCACACTAGTTTGAAAGATTTAGTTTCTCAGTATAATTCTCTGTTGGACATTGATATGATTTCTGCCGCTATTCGTGAACGTTATGGTTTTCCGTATGACTGTTCTTTTTTGATTCAAAATTTAATTTCACTAATTCAAGACGATAAATTATTTCCTACTTTGTTTTATACATTGCCAGGAGATCGACTGGATTTTTCTGCTGTAAGATTTGTGAATGAATAAGTTAAATATGCTTTAGTCAATTTATCATCATGTTTGCGTTTTTGCTATTTTTGTCTGTTGCTTCAGCTGTCCCTGAAAAATATTTTTTGGGTTCATTATCTGCTTTGCTGGAACCGTTGCTTATACCTAACGATCAACCTGGATATGGTCCTATCAATGAGAAACCGTTGTATGAACTCGTTTTGGATCGTTACGTATACGGTGAACTACATCAACCGGATTTTCAGATTTATTCAGCTAATGCTTGGAATAAATTTACCGGAATCAAGTGTCCTGAACATTATCATCATTATGCGCTTGATCATCACTTGTTCACCGAAATGTACGTATGTGTCCGTGTGCCGTCACCTCTACCTAAACCTCATTCAGTTTATAAAATATCACAACTCGGAAAAGTTTTTAGTACGATTTGTGACCGTTTGAAATCATCATTTCAAGTTAAACTGATTGAGTTTGAGCATTTGAGAGTGATTAATCACAATAACGGCTCTTGGTTTCTTTCATCTGACTATTGTTTAAGCACTATGTTCAGCGTTGATTCTAAAGGTGTTGAAATGTTTCCAGTTAATTATACCATATCAGACAATAATGTATTTGTCCACATGCCTCCAGCCGAATGTTATCCTTGGATAGAAATCACACCGAATCCATCAGATCCTTTCATCGGTTTGTATTTGCCGTTGATAGGTGAAATAGAAGCTGGTCGTCGATTACACGATTGTATTACAAAAGTACATTCGTATACTCCATATGACACTTCGGTTGGTATAGCTGTACATGAATTGCCCCTTTCCGATAATATGAATATGCTTTGGAAGGTAGATATTGGTAATCATATATTTACATCTAAATTGTATTCATTTTGGGATAGGAAAATCAATGCAACATACATTTGGTCTTCAGTTAATTATGTGCAGTATTCTGAACCTGTTGTATATCATGCAGCTGCGGCCGCCTCATCTAGCCCATTTCGCATTATATCTACTATAATTGTCGCCGTTATTCGGCCCATAATTGACGTTATATTGGATAGTCTGATGTATATATTTGACAGCATGCTTGACATATTTCATTCACCCGAATTTTTAGAATTGTTCGATCGATTTTTGAATTTTGTTGTTCTAATTTTTAAATCCATATTATCATTTATTCGATTAATATTGATTCCAAAATTAATACAAGGCTTTATGTCTGTACCATTTAAATATAAGTTTCTCTTTTTTGTTTGTCTTTTTTTGTATTTGCGCACTACAAAATTCTTGTTCTCCGTGTGCGTTTGTGCTATTTTAAGCACATTTTTAAAAGATAAGTAAATTATAGCCTTGGTCAATTTAAAATATAAATGATTTTCACACTTTGTGTCGTTGTATTCTTTTTGTATCTTTTTGTGGATTATTACCATACCTATCTCCTTCAGAAAAATGGTTATGCGTCGTACTGGTACGGCTGTGAGGCCAAAAACTACGGTGACGAAGGCTGTGTCTGCCCCAGTAACAAAAACCCCCCGTGTTAGATCTCTTTCTAACGGTGTTGGTAAACTCGACTTCGGTCGGTTTTTCAGCTATGCTACTGGCGTTCTCACTGATACCACGTTTGTCTTGTTCTTCATTCTTTCCGCCTACTTGTGTTATGACTATAACACCGGCGGAGACCAGTCCCATATCGTGAAGTTCGTGACAAACTTCGTCACTCAGTTTTCGTCCTTTAGGTCTAGTAAGTGCACCATTCTCAGTTTGATCCTCGTTATTGTGCCGTTTATACCTGCGATATTTACCGTTACACCTAAAAATCGTTTCGGTGCTATCGCGTGTACGTTTTTGTATTATGTATTCGTACCTGAACGCACTGTATATGAGTATCTAATTCATGGTGCTATTATCTACCTTATTCTCCGTACTAATGTCCGTCAGTATCGTATGATCGGAATAGTTCTTCTATTTTTGTCATACGTTATGCAATTTACTCTCCCCCTTCCAACAGGAGCTATGTATAAGTGTAACTCCACTCTCTCCGATTCAACTGTTGCAGACTCGTGATCGCATTTGCGTGAAAGTAGCGCCTGATTCTCAGGAAAACTCAACAGTTGTCGGAGTTTCTTCACACAGGTTTCTTCCTCGTTCTTCCTGTGTTGTTCTTTGAACGAGAATCGGTTATTTCTTGCCCTTATAACCCGGGTTTTATTATTTTTACCTAAATTTCTATTCCTATAATTTCTTTATTTTCTTATTTTACCTCA</t>
   </si>
   <si>
-    <t>JQ675604.1</t>
-  </si>
-  <si>
     <t>TACTTGAGGAACTATCTGATTGAAAAAGATGCAATTCTTTTGCAGTCGAATAACCCAACAGACGTTACGGAATTTCAGAAAGACAACTAAGATTAGTGATAAAAGAGTGGTTGAAAATATTCTTTCAACTATATCACAGGCCGACAAAGATAAGGTAGATATCGTCACCGCCTATGACGAAATCTGTACTTACCTGAGTGCCGGGCCAGGTGATGAAGCCCTTGATCTTAGTAAGATTGCGTTACTAGATAATGCCTCGAAAGCATTGTATATGAACTCGAACCAAATATTATTATACTTAAAATTTATAGAGCCTCACGAAACATGGAAATTACCGGAGGGATTTTTCAGTCAGATAGTTCCTCAAGTATTCGAGAAGCCACAGAGACTAAATTTAAGATTGTTCGGTTATGACGTTTATTCAGGAAAGTTCATTCGTCCTAAAAACAGATATATAGCTAATTCTTCGGCTCACGAAGCGATGAATTATTTGTTAGATAAAGAAGATTCAAAAATTGATCCATTAACTGGACATTTAAAGGAAAGAGATGTTGTATTAGGAGGGCATTCACGGATGTTCAAACTATTATGTAGTCAAGAGAGAATAGGTTCAGCAGAGATCCAGATTTTAACTGTACTGTTCTCAAAACAAAGTAAGAATGAAGAAACTTTGGCTAATTCTCAGTTTTCCAAAGGTCGTCAAGGGCCGAGGAAACGGGGATGTGACCTAGTAGGAATGCAAGCAATTGCATATTTACTTAGAGATAGAGAAATTTTTCCATATACTACAGCAGCAAGACGAATGCATGTAGTAGATATGTCAAATGATTTCTCTTGTACATTACCACAAGTTATAATTGTACTATTAAATATTAGTGTAATGGAACTTCTTGGAGTATACACCCATGAATACGCTAAATTAGTTGTTGAGTATATGTTCGATAAAACATCAGTATCGATATGTCAGGCTTACTTAGAACAAGGTAGTACATTGAGAGATTTAGGCCCTGCGCTTTATCTTGATATACCCCACTGCCACACAGTTCTAAGAGAGCCAGATGGGGTACCTTCAGGTAAAACTTCTTTAAATAATTTCAGAGATTGGGATTATGAGAATAAGAAGAAAATGTATACTAAACAGATATCGGAACTGAGAGGTATAGATAGAAAGGTTTGGAAGTATGTGTCATCCCTGGTGACGGGAACAGGTAGTGAACGGTCTGTAAGGATCAGACATGCTATCATGTTACTAAATGGTATTACTTCCCCTGCGATATTTAATAAAACTAGTTTAATCTTAGAATACGAGAAATCAGCCGCACCAGTTCAGAATATTACAGTGCCTTATCCGTCGATTAAACAGAGAATGTATGATATCGATGGACATGGACAGGCAATAACCTGGAATTGGGACGATTTACCTGATTTAGTTAAAGGAGTTCATCGAGTTTTTAAAAGGAAATATCATCAAAGAATTGTTGAAGTTTTAAAAACGAAGGACTTCGAGAAGGAATTTGCTGAAGCAATGACTAATCGGAGTGAAGGTATTAAAGTTGAAGATCCTGATCTTCCAAAAAGATTACAGAATATATCAAATACTAGAGTGATTAGTCTAGCATTAAATCCAGACGATTTAAATGACTATGTTAAATGTCTGAATAAGTTGAGATCTGGAGGATTTTGTGCAATCAGATTTCAAATTAGAAGACGTGCTCGAGTAGTAGTGATGGTAATCAAACAGAAACAGGCACAACAAATAGTTGTGTTAAGAGGATTCGAACAGTTGAAAAAGATGTGTGATGTAATTGATGTTGGACAACAGAAAGGAGACATCCGAAATTGTTCATCAATGTTACACGGATCTAGCGGCATATATGGAATTAATAATTCTAGTGATCTGAAAGGACAAGATGCCCATACAATGCCGGTAATGTCAGACTTTGTTAATTCACTATATACTGATACAGTGTTTGAAAATGAACCCGAAAGATATTATTGTCATAATACATCTGAAAAGTTAATATCGACGGGAGATAAAGAACCTGTTAAGAAGAAAGTATCAGCAGTCTTCCAATACTGTGCTATGGTTACAAGAGAAGGAAGACCTTCGAAATACATTCTAAAAGATGAATGTTTCAAATTATTAACAGACTTCGTAGTTAGTGACACTACTTACGAAAGTGGCTTATATGGAACTACAGCCCAACATACTACTCTATTTTCTTTAGAGCATGAGGCTAAGGTTGAAGAATTTAACCAATTACTTGGAAATAAAAGTAAGCTAATAAGTCATGGAAAATCAGTTGGTGATGATTACTGGGAACTTATAAGAGCTGATGAAGAAGATATTATCAAGTATCTCGATTTTTGTAAAAAGAGACTAGAAGCGGTAAACTTTGAATTAGAAGCTAGTGTATCTAAGATATTCTCAACTTTTCTTCAAAACGACTGTTTACTAGGTATGTATGTACCTAAACCAGACCGTATGTCCCTGTTTTGCGAGGAAAAACACGAAGTAAGGAATAGGGAGAGACTCGATGTGGCTAAGATCTTAGCTTCATTAGGTAAAATTTTCTCTCAAAGAACGATTAGTAATGATAATTTAAGAGGACTGGTTATGTCAGGGTGGAATGCCCTGAGACATACTGGTTATTTAGTCGGTAAAGAGGAATCCAAATTAGCTTATATTTTAGAAAAGAAGAAACATTTGAGTAAATGGATTACATACAATAAGAATATAGGGAGATTAGAATTAATGTTACCTTATATTACAATGTGTTTACCTCCAATTTCCTTCTCTTTACCCCCAATTAAGTGGGGAACAGATAATGAAGGTGGGGAGATAAAGGGTACATCCATGACATCACCAAACGGTGATGTCAACTGGATCCACTTGGCCAATTTATTCGATAATAATAAGGATTTTGATCTAGAGAGTAATGTGATTGGACAGGATATTGAAAATCCAAGAAGATTAGATCAAATACTTAAGAGACCGTCAAAGACTATGAACTATGATGCAATGAGTCAATTCGGAGTACAGTTTGGATTTCATATGCTCAGGTTTAACAGGGATCAAACTCTATCAGAAAGAAGAGATGACGAGTTAACTACTGTTTACAAACAAAGTTTGGTAAACTTCTACGAAAAACACCAAGACCAGACAAAAAGATATGCAAGTATATTAGCTTTTCAACGTTTGAGAGATTTGGACGTTAAAGTTAGTAGTAGGCTTGCTTATTTCGCACGACCTGAGAAGAAAATTGATGATGCCTTAATGGCTAAGGAACAGAATTTAAATGAAAGATCCTATGTTGATAGGGTTTTGTTCATGTATTTATCTAAATTTAGGGGTAGTTTACCGTTTTCGGTATTAGAGATATTTGACTCTTTCTCCCTAAGGATAGTTGAAGATATGGATTCAACTCTGCCATATAGTGACGATTTTCAAGCTACAACAATTATGCCAACTTTACCTTCTTATCATGAACATGATGACTTCGGAAAATTGTTTATGAGAGTAGGAGGAATTTGCAGAAATAATCAATACCAAAATTATAAAGAATACCAAACGATAGTGTCTACTCTAGACGGTATTGGAGGAACGGAGATAATAATAAAGGAGAGTAGATCTGTCTTATCCCGTTTAAAGGATAAGGCATATGGAATTTCTTTATTAATGGATCTATTTGCCATACCACAGAATATGTTAGGAGGTTTTACAAAGATATTGACTGATAATGCTAGGATGTTTTTCTATACAGCCTATCAATCATACGTTGAAAACCAATCTTTTATGGATATCGATACAACGTTAGGACAGGTTAAACAACAGATATCTGTGTTGTCCTATTTGTATAATCGATCAGCACATAAATTACCTCAATTTTTTGATGCAATTTTAACACACGTACGAGACTTAATTAACTCTTCGGTGAGTTATTTATCACACTCACCTATTAGGAAGGTTATACTACAGTTCAAACCATACTCATATGGTAGATGGGCTCATTTCACTAGAATTGATGCCCGTTTTTCAACGAGGGTGTTGTCTAACCTATAGGAAGCTATAGGACCTAGGGAACGATTCGGGTTGGCATTAGTCTTCCATGGACATAGCGCCATTGTCTAAATCGAATGTTGTCAATGTCCATGGAGGAACAGAGATAATAATAAAGGAGAGTAGATCTGTCTTATCCCGTTTAAAGGATAAGGCATATGGAATTTCTTTATTAATGGATCTATATGCCAACCCGAATCGTTCCCTAGGTCCTATAGCTTCCTATAGGTTAGACAACACCCTCGTTGAAAACCAATCTTTTATGGATATCGATACAACGTTAGGACAGGTTAAACAACAGATATCTGTGTTGTCCTCTTTG</t>
   </si>
   <si>
     <t>GGTGAAAATAGAAGAAACAAAGAAAATTATGTAATAGTTGTGTAGGTGAAAAAAGAAACCCTACGCCAGAAGGGCAAGAAATGACGTATCCGCATGTTCAAATTAAGACACAGGAAGAACATACAAGAAACCTGTGAATTATTAATAGTGCTGTTGGGATTAACGTCCCAAGATAATAATAGTTGTATACAGCTTTAACAACTCCGTTTTGTGTGATGTTAAGAAATCACGTAATTACTGTTGGGATGTACCGTCCCAAAACCAATAAATTGGTGAACATATACAGTTTTAATGTTCTCGGTTGTTGTGGTGTTAAGAAACCACTAAGGGTCCGTTACAGCAGAGGCTGTAGCGTTCTTACAATTATAATCTACCGATGAAGTCAACGGTAGTGTAAATTGAGTAATATAAATAAGTAGGGCAGCACCAAAGATTACGAATTTATACTGTTTGTTTGTTGTTTTAACAAAACAGTATGCACACAATCCATGAAGTGCATATTCAAAAACGGTTCGCTCGGGGACAAAAAGATAGTAGGCCACGGCAAGGAAAATGACTAGGGGTCTACGTTTCTTAGGTGAAACGATGATGGAAGGAAGAAACGGAACCGCTACAATAAGCAGTTCGACAATAGGGCAAACCGCTGGAAGTAGTGCAGGGAACCGTTTAGACATAGAGGTGGCAAAGGAAACCAGCTTAGAGTCAGCACCGGAAAGAGCATAGTCGAAGCACAGGAACATAGAAAGACCGAAGAGAACCAAAAACGTTGTGTCAGAGACACAACGGACAATAAACTCAAAAAATGAGTTTATGTCAAATGATTCCTCACGAGGTTTCCGCGGAGGAAGTGGTGGCGGAACGGTCATTACCGTTGTAGTGCGAGGCCTCGGCGTCGGCGAGTTGTTGTAGTAACCAGGCGGTGCTTGGGCAGATACAACCTTCCGCGCCGTAGGTAGAGGCGGTACAACCATACTTTTCCTTGGCTGGGACATAACTGGGCTTTGACGGATAAAGAAGGTAGACGATAAAACAAACCAAAAGGATAAGACAATAGAACATAATGTGAGACAAGATTACCCAAGGCTTTAATTTATTTATTTAATACAAAAGTGCACCAACGCGGTGATACAAAAAGAAAAAAGCAGTTTGGTTGTTTTGAGATACAAAACAAACATCAAACCGAACAAAAATTTGTACCGAGTTGGAATTCGGTTCAAGAGCTCAACTACTCTAGGAAGAATGGTTGAAACTATAAATTGAAAAATTTTTGTAAATATTGTTATTACTACATTCAATAGTCTATCAAAAAGACTAAGGAATGCGTGACTTTCAAAAATATCCAATACAGATTCAAAAATGTACAAAATGCTACTAAGTAACATATCTAGCAAAGGGTGGAAGAAGGACATCAAACCTGTGACAATCCAACTAAGTGGATTGACATTAACCGCTGACGAAATGTGGAAAGTCTTCGTAGGAAATTTGTGAGTACTAAACCAAGTGTATGCAAAATTGTGTGTACCGTTGGTACTCGTATTGTACGTCAAAAGAGTGGTATCGTCGAGTGCCAGTTCATAAAACGGTTTTTCAGGATGCAAATTAGATGATCGTTCATCACGGAGGCAATCCAATACATCAACACTGGATTTGACGTCAACTTCAATAGGCAATAGAGTGAAATCCAATTTCGAAATAGGTAATGGAAGTATTTTGCAATGTTCCGAAGGTAAATCAATAGTCACAGAATGATCATTTACAGTGTAGTTTAAAGTCATTATCTCTTTATTGTCGGGACCCACCTGGTACATGTGACCAACACAGTACTTAGAAGAAAGATGGTATTTATTGTTCGAGTCCACGAGTATGAGATAATCAGTGTAGTCCTTCGGAGTGAATTTAGCAAATTGACTCGTAGAACCAGCACTACCACACATTATCCAAAAGTTTGTTTCACCCAAAACTAATTCGTAAGCCGTGTACAAAGGTTCCAGTACGTGGGGAACAGGTATACATACATACAATGAATTAAAGATATGATGTACCAAATAGTACGGAACATGATGTTCGGGACAAGTAATTCCGACAAATTCATTCCAAGCATTAGCATGATAAATTTTAAAATCATTAAATATGTCAGAACGATAAATAGTGGAAAATTGTTTAAATGTTAAAAAAGGCCTACGGTTGGGAGGATTCTGACCAGTCAAGTCATTTTCGGCAGTCTTTTTAAGAAGAGGTAGTGTAAATTTAGCATGATTATCCACGTAGACTGAAAAAGTCAGTGGAAAACCAAGAAAGACGAGAAGAAGTAATCCGTTCATAGTTGTAGATATTTGTTGAACAAGGCTTTAATTTATTTAATAATCATCGGAGTAGCGGACACTGTCTGAGTCCAATACATCCGTAGGAAGACTATAAAATAAGGATTCGAATGCTTCAGTATTTCTAACAACTGAAATTAAATTTAGAATATGGCCTGTACAATCATAAGGAAAACCATATCGTTCTCTAATGGCGGCTGAAATAACCATAACATCCATGTGATCTTTATAGTGACTAAGCAAGTCTTTGACACTAGTATGGAATTCACGCAAATGTTTGATATTTTTGAGATCGGTACGACCCAACTTAATGAGTATTTTTACCGGATCCGGGTAGAACGTAATACGATTTTCTTCAACAACCATAAATTTCGAACAGAAATACGGATTAACGTAGTTAAATTCTTTGACTTCAAGATTGAACATCAAAGAAAATTTTTCAAAGCGAGGGGTGTAAGTGAAGTCGGAAATATCCAGTGTAGAAAGCACAACAGCCATACAGAAACAAGTGTTGCCAAAGTAAGTGGCAGCACTACCAGATTCCATTTGAGGTGTAAGTTTCAGTGTGACTTTGTTAGACGGGTTGGTACAGGTACGGTAGTACATCATTTCGTAATACAGTTGGGCGGTGTAAGGTGGAACTCCTAAGTAGACGAATAATTTACACAAATATTTAAGGGCAAAAATCAACTGTGACTTGTCAAATTTGCTCATGTCCATTTCCTTAAATTTGTGTCCGTTCATCAAAAGGGAGTCGTCACCAGAGAAAAGATATAGCTTACCATAACGCGACCATGTTTCGAAACAGTCGTCACCAAATTCTTCGGTGGTTACTTTAGTAAACATCTTAAAATAGGGCAACATCAATTTCATTAACCGATCTTGAGCGCTTTCAACAATGGAACAAAAGTATGCATTAACGAACTTAGGGTGGCAAGTAATTGTTTGGACCGAGTCATAGATATCCACTGCGTTAGGAGTGATCCTAACTTTTGGGTTACGCTTTAGTGAAAATGAACACCGGGAAAGATCCGCTAATTGTAGCGGAATTTCATCGATAATTTGTTTCAGGACACCACGGTCTTGGCGTTCAAGCCAAGATACAATAGAGTCCGTAGTCGGTACTATCGGTTCCATTTCAGCTAATAACTTACCAGAGTGTGGTACCAATGACTTCTTAAAGTTTTGCATAAGATGGTCGGCCACGTCTTCAGAACATACATTTTCAATCATCTCCGGAGGGTTAAGATTACGTTTTGCAGCGCCAAGTAATAACTCCAAAACGGTAACATCTCTAAGATATGGTGCAGGCGTGCTCAAAACAGGTCGCAAGGTGTCATATACCGGGATCCGATAATTTGAGATTCCAAAATTAGCGGAGACGTTGCTCAAAGTCAATTCCATGTCGTTGTTGTGGACAAAATGGGAATCAAATTGTCTAGGAATGTAAACACAACTTGGGTACAGATGAGACATGAAAGCTTGCAACATTTCGGGTATCGGAATAGTATCAAAAATACTTTCTCTTGTGACCAGTTTTGGTACTTCTGGAGCACGTACTACTTCCAGACGTTCAGAGACAACCGTTGGGATGGCGTTTTTAATCTTATAGTCCTCAACGAGACTAATGACATCAGAATTGTTTGAAAATGGTTCGTTATATACTTTAACATATACCTTTTTAACGTTAGGTGCTAATTTCCGAGTCCATTTCACCATGTCGCTCATAGATAATTTTTTAAAAATGTCTTTAGTGACAAAAATGTCATTGTTTACACCAGATAGTTTCAGAGCGAATTGTTTTTCAGTGTGCACTTTTTGAGTGTTTATTAATGTAAAATCTTTAGTGTACCTGTTTTTAGAGACAAAAAATCGGGACACGTTACCAGTTTCGTATACTGGGTAAGTCATTTCCGACGAGCCGGAATATACGTAATCTATCGAACCTACCATGCAGGACGTGCTGAAACTCTTGATAGTAAGGTCAGTTTCATTACGAACACACTTAATCAATTTGGACAGATAATCATCTTTTTCACACATCGTATAATAAACCAGTTTCTTGGTGTGTCTAGTAATGGCCGTGACACATAGATGTGTATTATTATAGATTTGATCTGCCTCCGAAAGTGATGTACGCAGGATAGCAATATTAGGATTCTCTGATCCTTGGTAGGCGGCGATAGTTGACACGTCAAAACGACTATCCAGTTTCCGTAAGTCATTACACGCTGTATGTGTAAAAGTAAGATACTTAAAAGACTCATTGAATACCGTTTTCATATGTGAAATATCATTGATTCTAACAACATCCATAGATCTTATAACAGGACTAGCAGTTATAACACCCAAATCTCGTCCGCTCTTTTTGTGACACTCGCGATATTCGGCGTCCAAAGCACAAGCCACGTCAGCAGGAATGCGATATGATTTGTTTCGGATTTCAGTCGCTTTAAACAACGACTGTGGAGTGTGATGCGATAGGTGAAAATCACCTAAGGCTGAGTGGAACGGGATTTGAGCAGTATCTCCATACATGTAAACGGTACGTGCATCAGAGTAATACGCTATTGCCAAAATTGATGCAACGTGTACCATAATTGCTTCGTCAAAGTATACGGTATCACTTTTAACATGTCTATTTAGGAGATAAGAATGTTTAGTCCGGTAACAAGTTTTATCGAGGTTGTTAAGGTCAATTTTATAATGTGCTAAGGTACGATCAATGAGTACTGATATCCCAGCCTTCGTTGGGGCTATTACCAAATCTCCACGAGAGGAGACGGTGCTGGGGATGTGTTTACTTACAATCTCCGTAGTTTTACCGTGACCAGCAACACCCTGTACCAAGACGAATTTTACTTTGGTCAATTCTCGGACATCGATACCCATAAGTAATTCAATAATTTGGTCGTCGAACATGCAATAAGTATATTCACCTACGATGTAAAATCGGTCGGGATTATTTGCACATTCACTAAAAGGAACAAACTGTCTAATTTCGCCATCGTAAGCGTGGGTATAACTATCACGCTTGCGAGGATGCACAAATAAGAAGTTGGAACCTTTCATGATCGAAATACTTTGAGGATCAACAGACAGGTTGGCTTTTAGGGTGTGTGTCAACAGGAAATGGTTATTTTTATACGAGAGATATAGTATGGCATAGGCATTAGCGTTAGCTGCTGCCACAGCTTTTAAGTAAGAGGTATACTCAATGATCGATCTTTCAAACATATTTAACGGTATGTTATTTTCGGAGATGGGAGCCTGAATATACAGGCCGTGTTGACTAAATTTATCGGTAACATGTGTCACGATTTTTTCAATAGTATTCTTGTCGCGAATATTCATGACGTCCACGTGTACTCGCAGTTTAAACGTAGCAACTTTCACGGCGACAAACGAGAGACGAGCAAGAAGGTCCACGAGAGGAATAGTACTTAATTCACAATACACAAAATGTTGGTCATGGATAAGGTATGAGGTGTTTTCACCATCTTGTCCGATAAGACAAGTGTCATGTATTACGATTTTTACATCCGGAGACAATTCACTCAGTTGAGGTGAACGAGTACACGATGCCGGAGTGATCATATCGGTAAATTCAAGACGGTTAATAACTTTTATGAGTTGTGATTCAAAAGTATCACACACCACAGGCAATTCTGGTATACCTTCGTCAGACAATCCTTCTATTTCAGGAGCTGATGGTTTAGGATCATCTGTACGTTCGATGGGTACGATGGATACCGGATGGGGAATATTATATTCTTTCTGTAGTGGATATTTTTTAGCTAGTAAGGCTCGACAACTCATAACTACCTTATTGTGGGCAACATTAGGTATATTGCGATAATTAATTGGGTGTAGGTTTTCACGTTCTCTGCGATAATCTTTGCAGACGATATAGTATTCGGTAGAAATGGGTGATGAAAAGTTCGGTTTGCAACAAATCACCTCAGAAAACCGACCGAGTATGGCATTGACTTCTTCCGTAATGGGTACATCAGAGAAGCTTTTAAAGACGGCATTACCTCCTTCAGCTAACCAATAGTGAAGGCTGGTAAAAAACATCCTCTGATACTCCTCAAATACGGGTGCATCAAGTGCGTCGGCGGTGAGTTGGGGAATGTATGCGTCAGACAACATAACGTCCATGTGACCATGGAACATGATGGCGGTGGAAATTTCGTGGAAAGACTCAGTTTGAGTCACGTCGCCATCAGTGCTTTCGTTAAGACATGTAATGTTGTCGGACAAGAACTTAAAATCACATCCACCTTCTCCCGAATAGTGGGAATAATAAAGAGTACTTTGAGAATAATGCAAGTTACAATATTGCAACCAGGATCCAGGGGCAGCTGACAATTCACAAATTTTACCACTTTTAAGTACACCATAATTACCATCAATTTCATGCAACTTTAATGCAGATCTCGCTACATATGGTGATATGCATGCGGTAATGACTTTGTGACTACGGTATTTTTCTTCCTTAGGTAAAATGTAGGCTTGTTCAATTTCGGTATAACCCATTCGTTGGGGATCGAGGCTCGGACAGAATTCAAATGGAGCGATATCAATCTTTTTACGAAGTTCTGAACAATGACCGTCTTTTACCGAAAAGTGGTAAGTCATCGGTGAATTGGTACTATACAATGAACAACCTGATTCACAATGAACGCAGATGTTGACCGAAAACACGCATGCGATCAATTCAAACAAACGTAGATCAGCATATTTTCCTTCAATACTACTTTTCATTAAATTCTTTAAAGTAGGGAAAAGACTATCATACAATGGATCTTTAAGTAGTTTGAGCTTCAGATCGTGTAAAGATATATTGTGCGTGTTGCAAAAACATTTTAATAGACAACTTCCTTTGTAACTATTAGGTACTACTATCAGATTTTCATCGCATTCATGAAATTCTTCTTTGGTACACTGATGTGTATCAACGCGGGACATTTTCAAGTATTCTGAAATCGTTTCGTATACGAGTTCTTGATTGTCCTCAGGAATGACATGTGGGATCGAATCCGACAATTCAGTGACAAATTTGATGTCTTCCTCTAAACTCACTACTCGTGTAATGGGGAAAAACTGTACGTTATATTTGTTCTTTATACGGAACAGCTTCATAACCCATTGCAGAATATTCTTAGAGTGAGTAAGGTGATATTCATTTTGCAATTCGGTTTGTGCGTTGGTAATTGCATCTTCAAATTTTTCCTCTTTAACATATTCCTTAAATCTGCTAGAGAAAACGTATGAACCTACAGACTTAATTAGTGCGACGAACCTATTAAATATAGTGGGATTACGCTTAAGATCTTCGTATTCTTTAAGAGTAGAAAGTACCTTAAGCAGATTAAATCGACGACAGTATACTATGAAGTAAACAGCGTAGGCTACATTATCGACGGTGTCAGTGTCTAATTTGTACGGTTGGGACACATAAGCACCGTTAACAACGGTACGGCTCGCCATAGTTGAGGCAAAACTCATAGCATTCTGTGTCGTAAATTTCCCATCAGGCAGCATAAAGAGAAATTGATACAATTTAGCAAAATATACTGCGGGCACTACCAATCTTTTTGGAATCAAGTTGTGGTAGTTATATTTACTAGGGTCGTCCTGTAATGTATAATAATGTATAATTACATGATCAGGGTCAGAAAATGGTATCATTCTAACGATACTTGAATTCGGTACTTTAAGAAAAGATCCGATAGGAGAAATAGGTTTTATTACGGTAAAAAACAGCAACCCTCCTATTTCTTCTGTGCGTTGGATCAAGTATTCGTTACCTTTAGTAGACACGCATTTAGTATTACGAATGATACCCAAATAAGTATCGAGTTCGTGTACATATGCATTTTGGTAATCGTTGTCAAACCAAAACATGATGTACTGCTTGAACTTTCCTAATTCAAAGGTACCATTTTTGCGTATTTCTACTTTCCAATTGAGACCATTGTCGGAGCCTGATACTAGATTAGATAATATTCTAGGAGAATAGTGAATGAAACCGACACCTCGGTAGGCACATGACGCATCCATGACATCGGCGATTCCACGGGGACTTATGTCATAAGCAGAGTGAGCGAATACAACGTATTTTGCGCGAATTCGACAGTGTTCTGATTTCTGACAACAGCGGTAAATAGGGTCATAAAGGAAACGTTTGGCCAGCATTTTCTGTTGTTTGTTACCATTAACAAGATAAGCTTGTAAAGAGCGAGTAGTGTTGGTGGCTCGTATAACATCATCAACATAAAGTACTGGTGTGCATCCGTGTGAATCGGAACGTTCATATTTTACTAGTTTATTAATATTACTTCCTACTTCCTTAATTAATACATCGTATCCCGGAGGTATTGGTTCATTTCCGAGTAAATCGAAACATCTGAAGGTACCAATTTCATTAAGAGCTCGGTAATAAAGATGTGAACCAATATCATGGGGATTCTTAGAAAAATGAAGTTTGTATGGGGGGGTGAAAAGTTGAATTAACTTGGATTTTTCAGCGTCGGTCAATCGCTGGTCTAGACGCACAGTTTTATTTAATGTGTTGTTAAATTTAATAGTTTGTGATATACTTTCGGTGATGTGCGTTTCGAAAGCGGATGAAAAGACAGCGCTGCGAGACAATAATTTTGATCCAAGTTCAAGACGAATTTGTTCGACACTAACGTCGAGATTTTTAGACAGTTCTGAG</t>
   </si>
   <si>
-    <t>MF281708.1</t>
-  </si>
-  <si>
     <t>TTGCAATTAATTCCAACAAATTATTGCAATCATATTCAACTGATTGATGAATTGTTATTTCTCTTACTTTTTCCATCTTAAGTTATATTGATAAAGATTCAATATAACTTAAGATGGAAAAAGTAAGAGAAATAACAATTCATCAATCAGTTGAATATGATTGCAATAATTTGTTGGAATTAATTGCAAACGACTGTTATAACAACATGTCATCATCATTGGTATCTATTGGTGGTAGTTTAATGACAGTTGATTCTATGAAAATAAACATTGATGAAATTGACATTAACCTGGTTAAGAGAGAAGACAATTCTGTAATCTTTAACCTTTCTGGTCCTGATTACTTTAATGATACTATTTCCACAATTACAAACCTAAGTGAATCAATGTCAATTCCTTACTCTGAAGGCCATAAACTAAGACATGAGTTAGTATGCAAGATAATTGACCCTTGTCAAACAGATGCAGATCTGTCCTCTATCTTTAAGATGCAAATCAATAAGACTCCTGACTTTATTTACTACTGCCCTTGTAGTAATCCATTTTATCTTATAATTGAGGTTTCAACTACAACAAATAGCAACATGGCATACAAAAGAGTGTCAAATAAGATACATAATTATTATGATACTCTGATGACAATTGCAACTCATAAAAATATTAGATTTTTTCTTGCTGTTATAGTAGTAACTCCATATGAAGTTATTAGTAATGTCAATATTGACTCATCAACTGCAAAATTAATGTCTCTAATGTGGAATATTGGAGAAAATATATATATAAAAGGTGTTTCAGAGGGACTGTTCTCTGAAAGAATTCTTGATGAGGATGAAACCTTAGATAATGTTTCAGCCACTATACTAAGAGAGATTGAATCTGCAAAATATAAAGTATTCAATAATAAGGAATTAACTATAACTCAAGATTATGTCAACAAAGTTAAGAACTGTGATCCTGACATAAACAAGTGCTTGAATCATTTTAGCACAGCATTTAAAACTGTTAATAGTGAATATATCAAATTATCCAATAACACAAACAAATTAGCAACTTTTGATGAAAATATGGAATCATATTTTCTAAACACTGATTCTAGAGCACATAATAAGTACAAATCAATAATAAATATGCCATTTATCAAGTCTAGTAGATCAGAAACATTACATATAACAACTGATGACAATACTCCTTTACAAAAGATGTGGATTCATTGTATGGATGCATACTTATCTAATGAAACCAGAATTTTACCAGAAGAAAGAGCAAGGTCTCATATCATGGAGGCAGAATGCAGATTAGAAGAAGAAATCACAATTTATGAAGAAGAGAGAAAGAAATTGAGAAAATCAATGGAATATCCTAATATAATCAGACAAGAACCAGGTATATTATCTTATTTACAGAGTGATGGTCTCTGGGCTAAAGGATCTTATGATCCTTTGGCTCAAAAGGCTTATCAAGAAAGTAAAGTACCATTTTCATCTACATCTCCACTGGAAGATATTGACAACTTTATAGAAAATCAAGAAATATATCAATCATATTTTTCTTTTGATGAAAGTTTGGACAATGCAGTTGATCTCTTAGGTAAAGCTTCATTATTAGTAGGTAATAATTCTGATGTACCTAAAAACATAATTGAAAAATTCTCTAATACTCTTATTTTTGAAGCTTTAATGAACATTTCACTTATTGGTACAGAACTTAGTGCAGAACTCAAACATAACATACCAAGAGGTAATTTAATTGTGAAGAAGGTTCCTAATAGACAAATATACTTGGCAGTATTCCCCACTAAGTGTAGAGAACATATATTTGTTTCAATATTTATGCCTAAGGCTGATAATAATTGTGGTGTTATTGAATCATTTCCATTTAGAGAGTGTGAGGAAACTGAAAGTGGCTATTATTTCCCATTTGTATCATTTAAACAACATAAATTAAAGAACCTAATAATTGCTCCATACATGTTTCTGAATTTGGTTTCTTTTTGGGCACATTTTTATGATATTGATTTACCAACATTAATAGATGAAGATAAATACCATCAGGGATTTACTGAGATGATCAACTTTTGTATACTTGTGTTATTGGAAGACAAAAGTAGAACCGAAGAAGTCATTACACTATCTAGATATTTCTATGTTGATTTAATGAATTCAAAAGGTAGAATTAATATAACCAATCCAACTAAATTAATATCTAAATTACCATCTATCTTCCGTACTAGATTAGAACTATATGTCACAAAGAAATTGCTATCAGCTGTTAGATTAATGATCACAAACCCACCTAAGAAAATAGAAACTGAAATTGATGATGCACTAACTGTTGATGAGATGGATGATATTAGTAAGGATTCATTTGTAGGATTATTAAATTTTATAACACTTGAGGAATTAAAGAAGGGATCAAAGGCAGTACAGCTTATGTATATGGGATATCTTGTAAATAAGAACAAACTCACAGATAAAAATACAGACTTTTCCATGATAAAGAAGTTAGTCTCAGCATCTTTGTCAGTAACAAAGCAGGATGTTTCCAATTTAGGTGATATTGAAGATAATAAAACACCCAAGTCTCAGCAATTTTCATTAGTATGTATTAAAACAGGAACAACATTACTTATAGAAGAACTTAAGAAAAAATATGGTCAAAAATGGCAAAATATATTGCTCTCAAATATATGTAGAAACTTGTCAAAACACATGACTCATGAAATTGCCACCTTAAAAGCATCATGTTCAGCAGGACTAGAAGATATTAATAGAGAAGAGTCAACAAATGAATTGTACAAGGCAAAGAAAGTTTTAGAAACAGTTAATGAGCATATTGATGCTTTTGGTCTAAATCCATTTGTCAACATTATTAAAATTATTGAGATTCTAGAAGACAATAAATGTGGATTAATTATTAAACTCTTCAAGAAAAATCAGCATGGTGGACTGAGAGAAATATCTATATTAGAGATTCATGGTAGAATAGTAGCCCTATTCATAGAAACAATATCTAGAACAATCTGTAAAGAATTTGACTTTGAAGTTCTAACTCATCCTGAAAATAAATTAAGATTATTGGAATCACATAAATGTGATGTTTATGAGAAAGCAAAGAAATCAGGTAGTGTTCTTATTGAATCTTGTAATTCTTCAGATAAAACCAAGTGGAACCAAAATTTTACTATGCATTCATTAATAACTCCATTATTAATTTTCCTTCCAAGCTCTGTGCACAACATATTAATAAGATCATTTAATATATGGGTTAATAAACATATATTATTACCAAAGTCTGTTGTAGATTTATTAGAATCAAAAACAATATTGGATGATGACACATATAAATTGGTATACAAGCAATATACTGGTGATTTTTCAGATGATTGTATTCCAATCTTTGAAGAATCAAAACAGAAATTCTTAAATATTCAATCTTGTATGATGCAAGGTATTTTACATTATACATCATCTTTATTACATTGTGTCTTTATTGCTTTAAGCAAGAACATAATAACACATTTCCTACCTAAAGCCTATGTTACAGGTGTGGTTACATCAGATGATTCAGCCATAATCTCTTCTTTGATTGTACCTAGAAATAAAACAGTTAAGATTACAAAAATGATCAAGACACTATTAGATTTATTAATGATGGGAATTGAGGAATTTTCAAGATGGTTTAGTATGACTCCATCTGTTAAGAGTGTTTTGGCTTGTTCTAATTTTGTAGAATTTAACTCAGAGTTCATTATTGGAAATAACTTAGTTGTACCAACTATTAAATATGTGATTTCCTCATTAAATTTGTCTGAATCTGAGAGTATGATACACAGGTTGGATATATTATATAATCAGTTATCTGATGTCTTTTCAAGAGGATTGCCATCTCAAAATACAATGGTCTGCCAATGGTCTCAAGGATTATTACATTATCATTCTATGGGTGCTAGTGATAATTTTGTCTTTGATTATTATTGTGAGAGAATAAGCAAGTATCCTGATCCTGCATTGGGTTTCTTTCCTGTTGATAATGAATATCTTCCTGGTGTGTTAGGACTATCATATTCAGTATATCAAATTAAAAAGACTGCAAATATTATAAAACTACCATCAAAATCATTAGCTAGTGCAGATATAACAACACACAAATCTGGAATGATTTCTACAAACTATATACTTAAAATGGGAGATTATGCTAGACATACTAAGCTAGTTGAAAGTATAGCAAAAATGTCAAAAGAGGAGGCAGAGAGCTTAGTGGAAAGAAATCCATCAATCATTTACTTATTGCCAAAGAATGAGGAAGATATTAAAATAAAATTAATCATGAAGAGTTTAGCACCAGGAGTAGCCAATTCTTTGAAGCATGGAGATGAATTTATTAAATCTTTTTCAGCAAGTGTATATGGATTGTTCACACATTGCTATACTAATATAATTAGTGAGAAAATAGAAGACAAGATAACTAAAAGAAGTGAAAAGGTTTCAATTTTAGGAGAGTTGAATAGATTGTTAGAAGAGCAGGAGGAAAATCCTGACATATTTGTTGATAAAAATGATTCTGATTCTATAAAGAAAGTCTTTATAAATCACCAGCTATATGATGAAGTGAGAGATGTCTTTGATAATCTAAAAGATAGACATTCTATTAAAAAATATAATAGAAGAAATAGAAAATGCAAATTGTTAATTAGTAGTCCTGTTTTTGACAACTCAATCACATTCTTAGAAATAGTGAAACATAAGTGGTTTGGAACACAATTAACTGCATCAGAGAATAGAATAAAACGAGTTTGGGAAGAATATAAGCTACATAATCCTTGGTTATGTGAGGATATTGAAAAAACACTAGAGTCAAGTCCATTTGACTCTCATTTATCATTGTTTTATTATATATCTTCATCACCAAATAGAACCAGAAGAATCATGCTCAATTGTCCACCAATACGGGCAAAGAAATTCTTATCACAATTATTACTAGTTGCAAAAAGATGTCTAGGAACAAACCTTGAATTATCCTCCAGTGAAAGTCTTTCAAGATATGTGCCAATTGCTAGAAATATGACATCATTGTACTTATCCACATGTTTCCCTGATTCAAGAGCAAGGGATGAAACTTTTGCATATTACACTGAACAGTTAAATATCTCTAGACATGACTTAAGAAATACTGATAGAATGCATTATAAGGATGTGGAATTGTTACATCTACTAGCCTATAAGAAGGACCTTATAACAACAAAAGAATTATTAGATTACTATTTTGCTAAGGGAAATGGTATGATTGTCACTTATATTAAAGAGCAGGAAAAACGGCAAGGAAAATATGTAGGATATGGAATTATTTCATTAAGAACATATGATCTCAGACTAAAACTTAAAGTTGTTGATAAAGAAGTAATGCAAATAATAACTAATAATGTTGACTTATTGGTAAAGTATTCATCATTATTCAATGAGAAAGTTAAGATCTTGCAATTAGAATTTAATGCTTCATGTAGAACTAGAGCTTATGTATCTGGACATGTAATGGAAAATGTTCCTGGAACAGAAGTTATAGAAGATCCTTTGCTTGAAGATACAATTTATGATTATGAAGTTATTAATATTGAGCCTGATTTAATGGCTATAAACACATATCAATTAGTTAAGGGAAAAAACATTTTGTTATCGTCTCTCAAAACACATGATATGTGTATTGCAAGTTTTGAATCTTCAAGAATAGAAAATCATTGGATTAAAGCATGGTGTGAAATGCTATCACTTAATTCAAACGATGCTATTAAATTATTAAGCCATGCTGTTGATAATGACAACTGGGAAGATAAGTTTTTGGTCAGGACTTTTAAGAAACGCTATGAATTTAGATTTTCACAGACTGATTATCTTCCAGAATTTGTACAAAATAGTGCAAAGTTGACTGTTAATATAGAAGAAATAATACAGAATGCCATTGAGAATGCTGCTGATTTTTCTTTCTTAGAAGAAATAGATGCAGAAGATGATGAAGATTTAGACAATTTTGAGACACTACCCATTGATCTATTCTCTGTATGTCATACTTTTGATACTAGTATTACAGATTTTCATAAGGAATCATTCATGTCTGTACATCCATTATGGGATAAATTAATACAAACAATTAATCATTTTGAAGTGAAATCAAAATCAACATATGATGAAAGAATAGAAGTTGTTCAGAAAGCAATTTATGGTAGGTCATATAGGAAAAATCTTGAACGCAGTGGTACATCATGGAGATTGTAAATATTAATAATGAAATTATTCATTTTTGCCTGGTCATTGTGTATTATTTCTTCTATGTTAACAGTCAACTTTGCACTATTTTGTACAAATTCTGGAAGATAATCAGTCTTTGATAA</t>
   </si>
   <si>
     <t>ACCCCCTTTAAACACCTAGACCCCAAAGTAGCCGGTGTTGCCCGAAGGCACCTGCAAAAATTTGGGGTCTAGGTGTTTAAAGGGGGTATACCAGACGCGGCCCCTAGACAGGCGTTAGCCCCATCCCTACCGCGTCAGGAACGTCCCACACACCCCCAAGCACGTGGCATCCATCACACAAGGTCTCGGTCTAGGGTTGAATGAAGGGACAACGCCAGCATCAAAGACAGGCACTGTAGGTTCTTCCTCAGTGGTGTGTCTTGACCTGTTACTAACCCAACCCCCAGAACGCGACCCGGTGTGTCAGACAGCACGTGCTTGCCGTTATAGGGCATGCAAAACGCACCGAGTTTGTCTAAATCGGTAAAATGCGAAGACAGACATAAGATATGAATGTCCCGCCGTCACATTCGGTAAATTAAGGAACATTGTCGATGCCACCCCTGCCAGCGACGTGACAAGATCCGAGTCGTATCGGGTGTCGACGAACAACGACGGTGGACACACACCCTTAAGCGTATCACCGGAAAGCCACTTGGCTAGGTCCAACCATCTGTTCGCCTTTTCTAAAAACCTAGGTCTATGCACGACGGCGCAGGGTCCGGAAGTGCTCCGAAGAAGTCTATCAACAATTGGGGGATAGTTACGACACTTGGCTACCTCCGTCAATAACGTGCGGAAGATATTGGAACCGGCGTCGAAAACCGTCCTCGCGATGTTTGAGACAACCCCGTGATACTTAACTCTAAAAACATTCAAGTCTTCCTTGAATGACCTAAAAACACTGTTCACACTAACAGATCTTTCCCTTACTTTACCAACCCTAGCGATGGTGCTCTTCGCGAATAACTCAATAAACTTTTCATCACCAATAAGCCCAGTGTCCATTTCCATGACACTCATCGTGACGACCTTGGACCCACGGCTCATATTTGCGATGGTACAAGTCTCGTATACACCTAAACCACCCATTGAAATGGGCGTCTCAAGACACCGACGTATATTATGTCGAGATATGGTATTACCAACCCATCCTCGAACGTCATCAACCACCGAGTCCATGAACCACTCCCTACTGCTGGCATCCTTGAACAAACCGTTATGGGTTACTCCAAGCCGAGATAGAAGGGTCCACCACTTACTCGCAACCTCGTCGGGCTTACTAACGGTCTGGCTATCCAACCAAGGGTTAGCGTAAAAGATGGACCTCACCGCACGCGCAGCATAACCCTGAACTTTACCGTATCCGTAACGGTACTTCAAAAACTCACCGAACCTACCAATCGTTGTTTTCTTGGCGTTTGTTATTATACCGAACTCGTCACAACAGTCCAGAACTCTCTGCTGTTCTAGAGGCTGAGGACACAACATGATGATGTCATCCCCTTGGACTATGTATTCAAGCCTGACTCCAAGCCGGTGGTTGATGTGCTCACAAACTAAAGCGGATAGCAGGCTACCAAGAAATGAGGTCATTCTCCAACCGCTCAGGAGGCCATTCTCATACTTAAAAGTCTTGTCCCCGAAAGTGATGCTCATATCTGAAATAGAGTCGATCTCTTCGTTTATCAACGAGGCAAGGTCTGGGTCCACCCTATCACGCAGCTTTGCAAGCACTGTAATTATCCAGCCTTTCGAAACACTGTGGTCAAAAGAAGACGAGTCGATACAAATGAAGTAATCCTTACGAGATGCCGACAACATGTTCACGAGCTTAGGGTTTGACAACGTAGATCGCAAAAACGTTGGGGTACCTAGCCTGTAAAGGATGTAACACTGACGAAGGTAACTGGCTTGCGGAGTCGTTATTACACAACGAGTCTTCACCTCCTCCTTTAAGGCCACATTCGCGTCATTACCCTCCCCTTTCGCTACCTCGTATACGTCGTCACCCTGAGCTAGATGGCTCAAAGCCCAAAACCACTTGTTTCTGCCGACTATCTCCTTCCCACTGATGTCCATCTTGCTTGTCTTGGCACCCCCTCCTGTCGACCATCTCATAGGATCAGAGACGAACTCGCTAAACGAGAGAAACTTCTTTCCGCTGTTCGTCACCCAACCATCAAACCAAGTATCCAATTTGTCGTTCAGGTGGCTCATGTCTTCATAAGGCATACGGCGCTCACCGACGACCCAGTCCACCAGATTCTGCTCAACTGAGTCCTTCGTCCAGCCGCGCGGCCCGCCCATTGTGGCCAAACCGTGCAAGCTCGAGTAAACTAAGCTCAGTGAAGCATTTTTCTGGCAAATCACAAATGTCAACTTATCAATATCGGACAAAAACTGCCTAACAACGTCATCGATAATACCAAATAAACCCTTTTTCACACACCGGGTCTCCAAAATCCTAACACACTTCACTATACCGTTGATCAACCTCTGGGTGAGTTCTCCATTCTTCACACACCCCAACATTTTTGTATAGAACAACAATGGTTTGATAAACGTAGAGTGATCTCCTAACCCCGGTGTGCCTCGTGTGTAGCGTTGCAAACTCGCCAGGGACTTGGGGTTAAAATTATAAAAATAAGACCTCCCACTTGGTCCCTTGATCTCCAACTTGCGCATACACTTCCGCTTCAAGTCTGTATAACGAAAAGTGTCATAAACGTACAAAGTGGCTCCACCTAGTGGGCTAACCTTGATTGTCTCATCCTTAACAGCGCTAACTTTAACCACATCCCTAACGTTAAAGCCGGGCTCATCCAACACCAATCTATCTAGGTCCTCAACATATGAGCTGACCAAATCGGCCACCCCGCTGACGAACGTGACAGACACTTCCTCAGCCTTAGAAAGATCTTTGTTATATACATAAAACTTATCAACTAAGTCCCTAAAACAAGCCTTCCCCCCTATCAGCAAGACACCGCACAATGCGGAGCGAGCCACTGTCCATGAATTACTTAAATTAATCACGAAAGGTATCCTTCCCGTGCACCTTGTCCGACAACCAATCAAGGATTGTCTTGTTCACGTGGTCTAATGCCGCACCGACGGCCCCAACAACATCGAGCCTTAACAAATGAGGTGCGATGGCGAACATTCCCTGTTTCAACCAATCCAAAGGTGGGTCAGGCCAAGTAAGTCCCCTGCG</t>
   </si>
   <si>
-    <t>OL700195.1</t>
-  </si>
-  <si>
     <t>CCGACATCTCGTCAACGTTCACTAAGGGTCTTAACCGACCTCTAGTCTTGCTGAGTGGAGTTCGTCTATACGGAAGATGAATTCGGTGCAAGAGCACCGGGTGTTGAGGGCGGGCTAAGAGTGATGTGCCCGAAAAAGTAGAGCACACTTTGTGCCAATTACGGTAAAAGAGAAAGAAGTAAAGAGAGTGAATTTAGAAAAATTTAAGGGTTTTCCAAGAAATTACTTGACGCGGCGGCAAATCGCAGCGATGCTCGGAGGGAGCTTGAAGTGGTTGCATCTCCATGAGGAGTTCACCGTGAGTTTGCATCAGAGTGATGCAAGGGTGTCGTAAGGACTGGCTACATCTCCAGAAGGGAGTTCACCAATGGCACAAAGTGTGCAGACTACATCTCCTGTGGAGTTCGTCTATACGGAAGTTGAATTCGGTGCAAGAGCACCGGGTGTTGAGGGCGGGCTAAGAGTGATGTGCCCGAAAAAGTAGAGCACACCAACAGCCAAGAGGATGAAGATGCGGGAGTTCTGCAGTGTCACACGGAAGTAAGTGTGAAGTGCGAGAGCCTGGATGACATATTCATAAATGGAGACCGCAGGAATAAGCATCACCCAGAAACATGACGCGAGAGCTACGGCGACGCGGACGTTGTCGGGTGTGTCGAGAACGGCGGGAAGGAAAACGGCGAGTCCAAGAAACCGCACCTGGTTCTGATGGACCCAGAGTGCAAGGGAGTTGGAAGCGGACTTTTCGGCAATCCACTTGCCGACAACTCCGGAGGAGAAGTCAGCATTGTGGGTGACGACGAGGGCAACGACGCAAACGACACTCAGCAAGACTAGAGGTCGGTTAAGACCCTTAGTGAACGTTGACGAGATGTCGGAAATGACGGAGTTAAGATCGAACATAGTGTTCGATCGGTTCCGCTTCGCCGGGGTTGATTTCTTCGGAGCAGTAGGGACAGCAACCTTCTGGGAAGTGGTGGAACGGGCGGCAGCCACAGTCCTGCCTGCAGATTGCTTTCGGGGGGCAGCAGACATTGTACAAGTAGTAAATTAGTACGATTAGGAGAAGAAGATGAATACACATTATATGGAAGAATCTGAATAGATTTTTAAACAATAAACAGCGACGAGGACTGCCAAAGAAATGACGAGGTCGCGCAACATCAAATACGTGAAGGAACAAACAAACAGCGCACTGTAGAAGTGGGAGTTGTAAGGCACAAACGACATGATGATGTCGAAGATTTCGCTTATGATTTTGAACAAAATGAATGCAAGATCGGCGGCGATTTCTTTTAAAAATTCAAGGAGGTATCCCAATTCGTTACGAAAAAACTTGGACACGTTGGAAAGGATGTTTGAAAGCGGAGAAGTGTAATGAGCGGCAAGGTGGAAGCAATAGGGTTTGTCAGTCGGGAGGTAACCATGACTGCGGACAATGAAACGAGGTCCGGAATAGTCCAGTGCATCGTAAGTCACCATATACGAACCTCCAACCTTATCGATAACTCGAGGAGTGCGTGTGAGGTTGTTCGTAGAGTAAGCGTCCGCTCCCATAACTTTGTTATTGGTGGAAGCGAAAGAACCCTGTGAAAATGGTACTCCGTCGAAGTCGATGGGGAAGTCGTGGACAGTGAAAAGTACGGGCAGACTGGGGAAAAGGATGGGATCACATTGAAGGGAGTCATGTGCGAGTTCGACGAAACAAACGTCGTCACCACGATGTTCAATACGCACAGTTTTGGGCAGACGGGAGGAGTGATGGAAGAGTTCGTCACAAATACGTGGTACAATTCCGAACCTGTTGTCGTCGGACTTTACGATATAGTACCACTCAAAGAAAGATACTGGTTTCATATTCTTAAGTTGAGTAAACACTTTACCATAGAGAGTGATAGGTTCGCGGAGTGCGACCGGTCGGGGAGTGAATGAGATGTTGAAGAACTCGAATTCACTCGACTTGTCTTTCCGGGACGAAGAGTGACAGACAACGGTTTCCTGACCGTAAAATGTTTTATCGAGCTTGACGATAGATGGCTCGGAACAATTAGGCGGAAGGGTGCACTCGCCAAACAAATAATCGTTTGTGCGGTAGACATTGAGGCAAGACCGGTCGAACATGTACGGAGAAATACGATGACGACCGAGGGATTTCAAAACAGGATGAAACTTCTGATAAAAGGCGAGTTTTTCTCGCCGCGTTGAGAGCTGGTTGACAACATCGCTGCTGAAAACAGCGCACTCGGCGGTGAAGAAAAGGCAAACGAACAGAAACGGGAGGCGCATGATGATTAACAATGGAAGATCAGTGATTAGATTAGAAATCACGACTGAACACGACTGTGTGGTCAATGCGGTCTCCCAGTTCAGAATAGAACAGCTGGTTGAAATTGCGTTCATCGGTCATGTTCGGAAGCGAGGCAAGGAAGTTTGTGAAGTTTTTGAATACACCATACCGTTCGCACAGGGCATCAGCGACGGCGACGCAAACTGCGTAGTTCTTGTAGTTTTTGACGGTGTCAACAAATGAAATACGGTATTCTTCTACGTGAAGGGGATTGACGAGATCATGTCTACCAAGTTTGGTGATGAATTTTAATGGATCAGGGGTGAAAGTCCAATGGTCGTTGACGACGAGCAAGAACTTTGAGCAGAAGTACGACTTGTCAAACTCGAAAAACTTGATCTCGAGGTTGAACTTGAGTCCGAAATGCTGTGCGTTCTTAAACTGCGAAAGCGAATGTCCGTAAAGGAGTGAGTCGTCACCAGAGAACAAGGCGAGTTCCAATTGAGAAACAGGGATGAGGTCGCAAACCACAGCCATCAAGAACAGTGTGTTCCCTATGAAAGTGGAAGCGTCCCCTGACTTGCGTTGGTACGAGACCAGTGCTTTCAATTTGGTGGTCTTGTCATACACGCGCGTGAGAACATGTGCATTAAACCACAGCTCGACAATGTCTGGAGCGACTCCGAATCGCAGCATGAGTTTGCATTCGAACTCGAGGGCAAGTTCGCGTTGACTTTTGTCGTATTTGCTAATGTCGATCTCTAACTTGTCGCAAGCAGCAGAAAGTTTGGACGGGGGAATATCACGTTGGAGCACTTCTTCGAAATCCTCGGAAGACATATCGCAGAAGATTTTTACATGAGGCAGAAGAGAAGAGGTGACGCGTTTCTTGATCTCACGAAAGATGGAGCAAAACATGGCGTTGATGGACTTTTCGTGATAAACGATGGTCTGCAGCGCAAGATACGAGGCGGTAGCATCAACGGTGAGGTTGGGTTTCGGCTTGCGTTTAATAGAGAAGTTGTACTCATTAAGTGCAAGACAGTGCAATGCAAAATCGGGAACAATCATGGGTCTGACGGAGAGAGGCTGGCCGCTCAACCATTCACCTACCGAGTTCGAGGAAATAGTGATTGGTTCAGCGAGGTGGAAGCGCAAAAGTGCAGGATCAAAGCATTCCTCGAGCAAGGAGTCGAGCATTTCAGAAGATGATACTTCGATGTCGACGACTCCGTTCATGGAAGGTACATTGCGGTTCCGCTTTTCAAGAGCCAACATGAGTTCGCGAGTGTTGTAATCACGGATGTGAGGCATGGGTGTTCGCAAAATCGGACGCATTGTGTCAAACATTTTTCCCAGTTGTACGCAACCGACAGGTGAGAACGAGATTTCCCCGACTTCAATGTTGAGGTCGCTGTTACGTACGTCCCAACCGTCAAAAGACTGGTCAGTGAAAGCGCAAGGCCCGAAGAAACTGGTGATAAAAGTTTGAGCGGTACAGACTGAGAACACGTGAGGGACTTCGTGGACAGGTATGTAGTCGGCGGTGGAGAATTTTGAGGACTCGAACTGGCAGTTCGGAAGAGGATTCATGCCGTTTCGTGTCAGAAGTTCGAAAACCTCGGAAGGCACGTCGTACACATCATTGGTAGAGCAAAGGTACGATTTAGCTCTCAGTGACTTGTACATGGTGTAACCGAGGGCAGCACGGTCGATGTCAGATTCAACGGCACCAGACACGAAGATACGTCCGACACCTCGTTCATGAAGAATGGGCGCGCATTCGCGCAGATTCTTAGTGATTGTGGTGAGGTTGTGTTTCTGGTTCTGGGAAACAGAGGAAACGACATAGACATTGAGTTGACCGCGTGAACTATCGACAACGACGTTGGATCGCATGACCAATGGTTTGTGTTTGCAATCCGACTTCTTTCCGAACTGAGGCACGAAGTAGAGGCGTGGTTCAGTGATAGTGGTGATGGGAGACTTAACGACACTCATAGTGGTGTAAGTAGCGACAGGAAGGTTTTCGGCGATTCGAAACACTTCAGTGTCAGCGACACCGGCGGTGATGTGATGGACACGACGACACTCGTCTTCGGAAACAGCGACATGACATGTGATGCCGTCGACCTTAATAAGCTTAGAGAGCGCGTCGGTGGTAACGCGAGTGTAGTAGGTGAGCTGTTCCGTGTGACGAGTGAGGGCTACGAGAGCGTAATTGAACCGCAAAAACAGTTCTTCCTGGGGGAATGGATTAAGCCTGACGACGCGTATGACCTTTGCTTCTTTACCTTGAAACTCGTGAATTGTGGAAACACGAAGGTGCAGCAGCTCAAGTTTCTTCTTTTCATTCTGAGTAAAAGTAAGGTACTGCACATTCTTGTCGTGAGGGAAGTTCTCATTGCTCAGTCGTACGACTTTGCAGGTGTTGGTAGAGAACTTGACAGATTTCATTCCACATCCGTTGTTGTTGAGTTCGGCATAATGAGAGTCAAGTCTGGCAGCGACGTCAGTAGGACATCGATAAGAAATGTAGAGGGTATCGATGATGGGGACGAAGTCAGCGAGGCGGTGATACTTGGTGGTGTAAGCAGGGGTGCGGTTAACGTACGGAATTTGTAGTACGTCACCGAGAAGTTTGACTTCGGTGGCACCGGAAAGGGCTATGGCATAGAAGATTTGACCCGGATGCGACATAAGCGCTTCATCAATAAACAACGTATCGCTTTTAATATTACGTTTGTAGTTGACGATAAAGCTAGCAAGTGTGCGAATGTGAATTCGGTGTTCCGGTGTCAATTCAACTTTGTATTCCTTCTCAATTCTTCTCGCAAAGTCTTCTTTTCCTTCAACAGTGGAAAGAAGAACATTACTGGCGCATGGCATGTGAGCTGGAACACAATTCTTGACGACGAAGTACGTCTTTCCACAGCCCGCAGCGGCTTGTACAATACCGGTTCCATGTGGGATTACGAATTTAGACACGTCGACAGACTCGCACGCGGCGATCATTTCCTCTTCAATAGCGATAGTGCAGTATTCGGAAAACAGGAATGAGTCCCCGACATTAAGGATACGTTTCATGTCGGTGACACGGTGGAATTTTCCATTAAAGAAAAACTTGTTGTACTTGCGTTCTTCCTTATTTCCGAATCTGTGACGGATTTCGTGACCGATAGCGACGGTGCAATACGTGTACTTTCCGTTCTCCTCTTCGGTGAACGTTTTCGCGAGAGGGAGGGTGGAGATCCTTTGCAGGATGCGTGCGTGGTTCGAAATCTCGCAAGATAGAGTAAGCTTCTGGAGTTCGACGAATTCGTTCATGGCGGCTCTGCAGACGTCATGTTCGACAGTAACTGCTTCCACGATAGCGGGCGTGGAGGGGTTGTCAGGTTTGTGTGTGGGCACGTGGGACTTAGGTTTAACATTGAAGGGAACACTATTGAAGACGAGCGGCGGCGGCGCGGTTATCCCGAGAGATTTACTTTGCCCAATTTCGGTGAAAGTACCGTCAGGTTCAGTCGAGACGAGAAACTTGTCAATTTTTGGTTTCTTCATGTACTCGACGATCCGCGTGACGACACCAGGTGCGGGTTCGGCGACAAGTAGTTCGAGAGGTTCTTCAGCTTCAGCGGGGCTCGAGGGGAAAACGGGGGGAGTGACGACGGGCGGGGTCGTGGCGACCGGTTTGACATCGGCGGGAACATCATAAACGAAGTCTCGCAGTTCAGCGACATAGTCACGTTTTGGACCAGCGATGGTGTAAATGTTGCGAAACGTGCGTTTGACAGCGTCGGTGAGACCACCGGCAGTCACTCGGGAAGCCAGACACAAGACATTACGATATCCCTCGATTTTTTCTTCAGGGAATCGGTTGACATGTTCGTTGTTCTCGCCGGCAGTATTAAAACACTTGCGATACTCGCGAAGCCCGGAAATGATGTGTGCGTCAAACATTTTTTGTGCGTGCATCAAGTTCACCATTGTTGCGTCGGCGACGTCATGGGATTCGCCAAGGATGAGTTTCTCGTAACAAGCAACAGGTAATTCGTTGGTGAGTTTAAATCCACGACAAATGAGGTGCAATTCAGTAGAGGCGGCGCGTGAAGTTTCGAGTTTAACAATTTCAACAGAATCGAAGGAATTGTTAAGAAATTCAATGTTGTAGGGCATTTGGTCACTAAGCAGGTCAAGTACTTTGAAGTAGGCGTCACCACCGTTCTTAAGAACAGTGGTGCAAAGAACGATCTCCCAGGCGACCAACTTTGCGAGTGCGGGAAAGTTGTGGTTACTGTCGCTTTCAGATGTGGCGACGTCACCACCGAAAAAGCAAACACCAGACGAGTAGCAGTTACGGATGGAGTCACGGAATGCGACGAGATTGCATTCTTTGGTGATGTCACCGTCATAAGTGTCTCCGATGAGCTGTGTGAAGAGATGGTGTTTCACTGAGGGGGAGAAATCGATCAGGTCGGTTTTTGTGATACCGAATACGCGTATACCTTTGTTAGTAAGATACTGGACTTCACCACCGGGACCACCAATAGACACGGCAGACTCGTACTCACGAGTGGAAAAATAACGGACGAACATTTCAGCAGTTTTCATACCGGATCTGCAGACGTAATTTCCGTCTCCCAATTCACTAAGAGGGCAGTAGTTATGTTTGGCAGCAATGAGCCGCTTATTGAACTGACTGCGTGAATATTGACTGCGAAGTCCGAAAAATTGGTCGAATTGCTTGTCACGGGAGACGGTTGAGTACTCGATGGGTGGAACGTCTTCGGAGAATTTGTAAGTAGGAATGGCATCGAAGTTGTGGGTAGGTTTGAGGTAGGAACAATGATTGTCACGAATAAGAAAGTGCTTGAAAGGTGCGGCGCCAAACCGCATGGAGATCCCGTTAACGTGGATGCAAACCCCTTGTTGTAATTCCAAGGAGTAAAGAATGAAGGTTGAAAGGTCTCCGTAACCGTCAGGGGATCCGTCAGTGCATTCAAGCAAGCGGCGTTGGGAAGCAACGTCGCGTAGATTGTGAAAGTAAGTACTGGTGAGAAGTCTGTTGCGAATCTGACGTGGTTCGTAGTCGTGCAATTCGGATGCGTCAATCATGGATTGGAAGACGCAGTCTCCGTTAGAGTTGTTTTCGACGACTGCGAGGTCAGACACACAAGCAGTGGTAACGAACGAAGAAGTATCGTAGACAGTCTCGGTTACTTTCACATCTTCAAGTGAACTAATGACGGCTTCACGGACCATCTCGGGGTCAATGTAATCACAGACGGGGGAATCAGAAGTGAATCCGCGATCGCACGGGATGACACCAGCGGACAAACAGTCGAGTTCTTCTTCGACAGTGAGGAAGTTACACATTTTGTCAAGAGTGATGTCAAACCGGCGGTTGACGACGGCGAATGATTTGACTCCGTTGATGATGGTTTTCACATTGCTAGTGGTGAGGTCTTCGTCTTCGGTGAGTTGTGGTTCAAATGATTTCATTTCGTCAATGAGTCTGTCCATCTTTTGTTGGAATTTCTGAACGCGGTGATTCCACGGAAGTCGGATGTGCAAGCGGAACAAGCGGGAGAAGAATCCGCTGCTGGATTCTTCGCGGACTCGGTCTTCATCAGCAATCATAGTAGATAGAGACTTGGTACACTCGTAATTTGAGATGTAAGTGAGGACGTAGATGCAGACAGCGAGCATTTTTAGTTCAGCAGGTTCGATTGGGTCGACGACTCCAATGGACTGTCCGGAAATAACTTCACGGGTGTTGAAACTGGTACCAGCGATGAGAATGTTTTTGACAGTGAACTTGGAGTCGGGAAGAGTGTCAGCGAAGGCACACATCTTGTAGAAGAGTTTACGAGGAACGATGATACGTTGGGGGCGCATTCGAGATATGACACTTGACGAAATGTTGCCAGGGTTAATCGTGTCCCAATGCCATGAGTAGACGATCATCTTGTCAGCAAGAGCTTCGTTAGTGAAGACGCGGAAGGGGTGGGATCGGGGAATGGTTCCACTTATGGATTGTCTAATTACAAAGAAGGCTGTGTCGTCGTCAGTAGTGTCAAATTGGACGTTGTAGTAGCGTGTATCTTTCGAAGTCGATGCGATTCTGAATGTACGAAGTAGAGCGACATAATTAAGGAAGTCGTGTTCGTAACCTTCCTGGCTGTCGTTCGTGTACCAAAACCTGATTCGCATACGACCGTTGACAACGCGTTTCTCAAAATTCATACCGTTGAGGAGTTTGCCTTTCTTTTCGTACAATACACAGGGATTGAAGTGCATGACACCATAAGCGGTTCTGGCATCAGCACGGTGCATAGCGTCAGCGATGTCGGAAAGAGACATGTCGTAAGTGGAGTGAAGGAAGATGAGGACTTCGGCTTTCACGGAACAATTTTGAGACATCCTGTTACAAATGACGCGGGAGTCCTGGGATAGATGCAAATTGAAGCAAGGAGAATGCTTGTGTGTGGAGTAACGGCGAAGTCTTTCTTTGTAAGCGGAATGACGTTTATCATCATTGTTAGAAAGAAGGGGCATGCAAGTGTGGCAGTAACACTCACCTCGAGTGAGGTGTGTAACAGGGTTACCACCAACATCTTTGTACACAGCATCGTAACCTTTAGCGGGACGGGACCCAGGTGTAATTCCCGCTTGGCGGAGCATTTTGCGTTCAGAAAGAGTACGATAAGCACGCCAGAATGGATGGCCGGCGCAATCGTAAGCTTTGGAGAAGTCGAGGTTGAACATGCAAAATGTTTTTCGGAGGCGATCTTGGTCCTCCTTGCTCAGTCTTTGATAGACTGGGACTTTCGTCAATCGGTTCTTGGCATTAAGAGCGTCGACGGTATCGTTAAGCATAGCAGAAACGATGATCTCTTGAGTCTGGGGAGACGTCAGGAGTTGTTTGAGAATGTTACTGTTAACATTCTTCGAGATGTCCTCGTAATCGAGGGCAGTGTTTTGTCTGAGCTGATCAAGAACGCAATTATGCGAATAATCATCAATGCCGAGGGATTTTCCTGTAGCAGCAGACGGGGGTAGCACATCGGGTGAGGATGCGCTGATGGTGGCGGTTGCGGATGAGGCAAGGCCGAATTTGTCTTGCAGAGAAGACATGGTTGTTTAACGGTATTACACGGTTAAACTGGATTACACAACTAATGAAGTTATGTGTGTTGTTTCCGACCCTGGTGAGGGGTAGGAGTTTGGTGGAATTCGGGTGAGGAATTCCTGGTTAAGACTCCGGGTTAGGAAGCCTAGTTTATTCCACCGGGTGAGGATGGAATGACGATAACACAAGATACTTGGACCGGGTGAGGGCTTGAGAATTTTTGTGATATAGTCATTCCATCCTCAC</t>
   </si>
   <si>
-    <t>JQ675605.1</t>
-  </si>
-  <si>
     <t>GGTCCTAGTTCCTAGTCCTGTTTCTGTCATACGATTTAGACTATTCATTTTGTTGGTGTAGCGAGACTCCACAAAGTGGTTGCGTTGCATCATAGTCTGAAAATCGTTGTTAAGTAGGGCCATATCCTCAACGACACATCGTGATTATATAAATGATGATGATGTGTCGTTGAGGAAGTTGGTCCTAGTTCCTAGTCCTGTTTCTGTCATACGATTTAGACTATTCATTTTGTTGGTGTAGCGAGACTCCACAAAGTGGTTGCGTTGCATCATAGTCTGAAAATCGTTGTTAAGTAGGGCCATATCCTGATTGTGATCAAATTGATTCTGTTGCATCTTAGTCTGTTGGTCAAACATGTTACCCTGCATCTTTGTCTCTTGGTCAAATTTATTCTTCTGCATCTTCTCGTCGAATTTGTTATCGCTCACTTTCTGCATCCCTTGACCTATTCCACTTAGTAGTCCAGCTCCTAGAGCCAATGCCGCGTTGGAGGTGGCGTAGCTCTCACTAGACCCTGTGCTGTCGATTACTCTGAGCGTTTGTGCTGTAGTGGAATACCGGGAAAACCATGACGTCGTGTTAGTGGGTTGGAACGCATTGCTGCGATCTATCTCCACCACCGACTGGATCATAATGTTTTCCGTTCCAATGGGGAGCGTTGAGTAAGCATCGTCGGCTGAAATAACAAATAGGCGCCATTCTCTGAAGTATCTAGCTGTAAGGATTAGTCTTTGCGATGTGCTATCTACCATGGTAAATTCCAGACATTGTAGTTCGTCCAGTGCTTCTGACCTTTTATAGAACCAACGTTCTATAACTGAGTCGTCAGAGGCAGTGGGACCTGGATAGCCTTGGATAGTGACGGCAGAAGCAGGAATATCCGAAATGCGCAAAGCTTGATACCCAGCGGGGAGAGCCACGAAGTTTGGTAGCGAACCGAGACTAGAATCAATGTTTAGCAGGGGGTAAGTAGCCATGTCTTTTACGGTCTGGGGAGAGGCGGTCGAATTAACTTGGTTCGTAAGTCCACATCTGTAGTAGAAGTCAAGGTCATTTTGTGCTTCTGATCTTCCTAGTGATAGCGTCAAATACATGAAGAATGTTCCGTGATTGGTTACTACTTTAATTTGGCTAAATCTGAATGAGGTCATAATAAATGATTCGCTGGTTGTCGTCAGGAATACCATCTGGTCATTGTACAAGATAGAATGTATTTTAATGTCGCTGTCTTTAATGTACTGATTGTCCAAAACCCATGCACTTGCCGTTTTCGCTTTATTCCACTCAGCTTCCGACAGAGTTCCTCCTATTCCATTCATACCAGGTAGTGTACAGGCCATAAGCATAGAGGCGTACCTAGCTGAGTCCATCGTGCTTTGCGTGACTACGCAAACCATAGCTTTCTGGTACGAGGTAGAGCTTCCTTTGAGGTACGCGTCCATAGCTGGCCATCTACTAGCAATTTCGTCTGCTGTTACGGGGTCTCCTAGTGTAGGCGTTATGAGTCCTTGATTAGACCTTCTATACGAAACTTTCCTCATCACAGCTGTTGATAGTGAATGAGGGTTGTATGGTTCGTACCTAGTTCCGTAGGTGTAATCTGATCCTCGTCTGAGACTGCCGTCTGTGTAGATATACACAGGTACGTTTATAGTCGATGGGAAGGTGCTGTCGAATGTAGTAGCTGGGGCAACATTGCTAGAAAAATATGTTCTGGTAGCAGTCCTTGCTTCTTCGATCCTACGCGGCAAAGAAAAGTAAAACGGGTTCGGTTCTCTCGCATTGGCTAGCTTTGTAGCCACTCTGAATCGCACAAGGGTGTTGTCTCGGAAAGCGTTATATACATTCATACCTACAAAAACTACCAAGTGGGGTCTGTCGTCAAGTGAACCTGAGTCATCCTTTACCTCCCGGTAGAAATTTTCTTTCCTAGCGTCGTGGAGGGTGTGGATTTCGTTGAACGGCTGGTTAACTCCCTTCATTTCGTACGCGATCTTCTGAGCTTCGGATATGAGTATGGTTGAGGTGGTGATACGTCGTGGTTGCCAACTCGCTCCTACTGCTCCAGAAAGCATTTGGTTACCGATTGCCGTAAGTCTGACTCGAATAGCTCCTGTGTACCTTTCGTGATATTGTGCATATGCTTTGATGTAGTAATTGATATACTGAGACATAATAGCGTAAGGAATTTGGAATATGATAGATCCTGTCGGGGCTGATTCGGTTGTAGAAAACTCAGTGTCACAATCTAGGAATTGTTCATAGATAAGCATCTTAAGGTCAAAACCAATACCACCAACGCTTAGCATGTTGGGGGCTCCCATAGGGTTCAGGGTAGTGTCTTGTGCAATTTGCACTGCAGACATGATGTCATCTCCTGGTCCTGTGACAGCCGGGGCTATAGCAGTCGGTTGCGGATTATTCTGAGAAGGAAGTTCGCTGGCCATTTGGGCAGTCATGGCTTGATTCATTACTGCTGGTTCCACAGGCATGTCAGCGTTTGAGGTCACATTTACTTCTTCTAGAATACAATCCAGGTCACGCATGTCTCTTTCATCTACTGTGTCAGAAAACTCTACTAGCTTCTTATGTAGAACCGGAAGGACGTTGTTGGTTATGTAACCTTCAATAGCAGTCTTGATAGCTGTGATGCACTCCGTTTGCTTGAGTTTATGAACGTTTGCCTCGCTTATGTGCGTAATTGCCGGATACTCGTCTTTTATGTAGTCATTGAATTTTTCGTCGGATGAAAAGGTCCCTATAAGCTTTTGTTCCCAGCACTTAGATGTATGAATCTCAGTCCTACCATGCTTGCAACAAAGCCACTCAATTTCCACATGTTCGGGGTCCAGTTCCTTTCTAATCTTGCTGCAAGCATACTCCTTAGCCTCTGCTTTAGTCCTGCTAGTAGCTGAGACGCAATAAACACGTGGGCCGACTGTTAGTTCTAGTCGACACGCCCATGTCTTTCGCTCATCCGCTCCATAACTGGTAAAAACAAAAACCGGTGGATGTATGCCCTTCTTTTGCACGTACTCGTTAATCCACTTCCTAGCTGTAGCTATTGTCGTGATACAGTTACCATCCACTGCATCCATATTGGACACAGCTTGTACTTCCTCTTTGATACTTGCACACGCCAGCTTCTTAGCCGCTTGTTTAGTGGTTGCTTCTCCCTTACCTTGAACAGGTTCAGACTTGATCTTAATAGAAGCTTTACATTGCCATGACACGGTATTGTCTACAACTACAGGTGAGTAGTCGTAGACAGGCGCGTCAAGCTTGTTCTTTTGTACGTATTCATTCAACCAGATGTCAGCCATTTTTAGAAATTGTTGATTATTATCAGTTGAATTAGTATTCACATTAATAATTCCTGGGTTACTCCTACCCCAAACAGGAGAATCTTTCCACCCTCTTATGTAAGCATACCAGCATTCTTGAACTGCGCCATGACTAGCGGTGTCTACCTTGAATTTAAAGACTTTCGCTAGTTCCATTGTAGCAGACACGACACGATCAAAGAATTCTTTATCCCATAGGCCTGCTTCCATAATAGCGGTGAAACAATGTTGATAAACTTGTTCTGGTTCTTGCCTCTTAAACCAAAATAGGCATGATGTTATAGAACTCTTTTTCAAACGAGGGAAATACACATCTTTATACTTAACATATTCTCTAGAACAAAAGCTGATCTCTCCAGATGTTTTGGCGGGTGTTTGTTGCAATCGATATTTTAAGGCGTCATCGATGAAGTCTTCTTGCGTGAGGGGGTCAGTAAAGATAGTATTATTAACTTTCCTAATTGCATCGTCTCCTAAGATTCTCAATACCAGATTGTCTACTATGTCAGCATAAGACGGTAAAGTATTGTATTCTTCATAATACTTCCTGGTGAATGTGTAAACAGACATTTTAGCAACGACGTAACAATTAAGCAACGTCGTAACAAAGCTACCCGATGCGTTACCGCTGTCTGTAAAATATACATTACCGTTCATGCTATGCAGTCTATAAGTCAAAGTTTTGAAAAGGGCGTCCCTACTCTCGGGTTGAACATGTGGGAGGAAAGCTTCTACGAATTCTTTTATCAATTTAGCTGTTATAGTTTTATCCAAAGCAGAAAAGTCAGCATTTACAAATTCGCCATCAATGTTGTTGAAGTACAACATATGAGCCGAAGCGTCCTTGTAAGGATTCATGCCTATACAGAACATAGTGGTCGTGTGCTTCGCCATGACATTGTCTAGAGCTGCACCAAAGTAAGCTTTCAGCACCATGTTAATGCTAAGATCTATCTCGTTAAAGAGTCTTACTTTACCTTGCGCTACTTTGTCCTTTGGCAGTAATTCCACTTTAGCATTGTCTTTTACCACTATGCATATAGGTTGACCTTGTTTGATGACTGACATATAATAGCTGAAGTCACTGAGTAACATACCACCAGCTGCTGTTTCTTTGTTGATAATATACCAGGGAGTTTCAGTTTTAGATGTGTTTATGAATAAGGCGTCTTCATTACCCACTGGTCGTTTTGTGTGAATGCTAAAGAATTTTTTCAGTTTCGGTCCAGCTGATGTGGTCATGTCCATTGGTTTTAAATTTTGCATGCCGTTTATGATTTCGTGAGGTTTCAAAATCTTTTCTGAACAATATTCTTTCAATATGTAACTTTTTAGAAATTCTGTTGCGTGTTCGTCGATAACGTGATCGTAACTTTCTTTCCGCTGCTGTGATAGTGCATACTTAACAGCCTGCGAAAACAAAGGGTAGTAACTGCCTCTCGTGTCAGGGTACAATTTTGAAAAGTCTGTAACGTCTTTATCAGTCAAAGCTGATCCTATAGTTTCGCACTGTAGAAATTTTCCTGCTACGTCGCAATAGATCTTTTTGTGCTTAGGGTGACTGGGAAACTTTAGCTGATCGTTGTATCCCCACATAGTTAGAGGAGAAACTCCTTCGTATATGCTTTTCTTGTACGACGCTGTAGCTATTTCATGCATCTTGTCATCCATGATCATAGGGGCATTTAGTTTAGGATGAAGTATCGATTTTGAAACTTTAACAGGGCTGGAGTTAGCTGTAATTTCACTAATGTCTTGTTTAGTAACACTTGCGAACCATCCAAAACCTGCTAGGTTAAATGCGTTATGAATACCAATGATGTAGTAATTGTTGTTAGCGAAACCAATAAGGGGGAAACCGCAATCTCCAATTTTGAAAGTCTGTGCACAAGTGGCTATACCTGTCAGCCTATATTTCCAACTTTTACCTTCTACACGGAAGAAAGGGTTGTTGGAGTCAACGATAGTCGCACAATGTCTGTCTATGTATTCTATAGGAGCGTTTACGAACAAGGGTCTTTCTGTAGGTCTTACGTACCAACCTGATGTTAGATCAAGCATATGTCCAGCTGATGGGAATAGTGGTGTGATGTCACTTGCTGCTGGCCATGTTTTGTCTACTACCCTAAACGTACAAAGGTCTCGCTCTCGTGTTACCCTTTGAACACGGGCTGTGTACTGGATACCATTAGACGATATAAGTAGTTCCTTCGTTGTGTTATTTATACAATGGGCCAGGGTTATACCGAGATTGCCTTTTATCATGAGACCATACAAATTTCCGATGTTTGAATGAACCTGTACATAATTCTTCCGTAGTTTTTCAGCTAATTGCTCCAATGGACCGGGGGGTTGATGGTATTCGTCTTTCCTGGTTAACATGTTAGAGAAGTTCGAAGCGAAGACTTGAGATGCTACTGGTGGACATTTCTTTGATAGTTTTATAACTTCAGCCACATCTCCTCTTTCCATTGCCAGAGGTAGAGCATTAGAAATGTCAGGTTCGTTACCTGATCTCCATTCATACTCCCACTGGTTGAATTGTCTAGATAGTCCAGCCTTAGCTACTTCTTCTCTTATGTTCTTGGCTTCCTTAGCATCTTCCAATAGTGCCGTTTTATATCTTCGAGCGAAAATCGAGATCTTTGGATCGTAGTCATTCTCATCGTCTGTACTATTAGATATGGCATTTTGTTTAGAAAATAGCTTGGTTATTAAAGCCGCAATTGATCCTGCTGTCGTCAATGATACGAGACCAATTATAATGGTGAGCACAGGTTTATTTTTAATGAATTCTGATAAATTATTAGCCACATATTTTTCTTTTGCTATTTCTATTGATGCCATTAGAGTCTGATACTTGAAGATAGAGTCTTTAATGTTGTCTGATACATATAAGTTGACCTGTGATAGAGCGTCCAATGGTAGTTCAGTTAAAGAGGCTGGTGTTATACCTGATTGTATGAATCTAGAGTATTCTTTGTATGTGACAGTAAAATGATCTTGTCCATGTCTGATGTTGATCTCTTCCTGCGCTGCACAGTGGCTTATATTCAAAACCTCGTGACCTAGGGGAGTGTTAACGTATAGTACGCGATCTTGAAGGATCAAATTGTCTCGCGTGTCGTCTACTGTGAATCTTGCTGATAAGCCAGGTACTATCCTATTCATAATGACGCAAAAAGCCTCGGCTTGTTCCACTAGACTTTGAGCATCAAGTACGTTACCCGGTAGCAGTTCTCTCTCACTCCTAAAATGTCTAGCTATTTCAGGTATTAGATGAGGTTTGAAGAACACAGTCACGCCCGCTGTAAGTCCCATCCTTGCTCTTGTCAATGTCGAAAAACTTTTAAAGACTTCTTTAACTGCGCTGTATGTAGGTACCTTAACTATTACGTCAAAGTCCGTCGTGTCTTGTGTATATGTTTCGTACCTCACACTGATGACTTCTTTGTTTTTTAGATACGATTGGAATTTGGTCATGACTATCTCTTTAAGCTGGCTTAGTGTGAGTTGTTCGTCGCCGTGTTGAATATCTCCTGGTTTGCTAACGTATACGTGCGTTGCCCTTGGATTCGTAGTCAAGACAGATCCGTCAGAACATTTTACTTCACCTTCGAATCCTAACCTTCTAGCTATGCCACTAGATACTCCTAGCGTGTCAAAGTCCCAGTATTTAGTTGTGGATAGATGGAATATGTTGTACCTTTTCTTCATCTTATACGTATGATTAGAGCTGATGATGTACAGATTGTCCTGGTGTCCTTGGTTTATCCATCTCAGAAACATCTGATAGGAGGTCTTCGTACATTCTATAATGTCGTCTACAATATAAATGCCTTTTATGCTAGGGTTTTTGGGGCTCAGTACTGCGTCTTCGAGTCCTTTAGTATGTATTATAGGCCAATTTGGTAAAAGTCCATGTATGTAGTTAGCTATTTGATTAGCCAACCGAGTCTTCCCTGTGTATTGTGGGCCGTCTATTCGTAGGATGTTAAAATCTTGTCCTGAATTGGATGTGGCTTCGATGGTTTGCTGTTCGTTCCTAGACACTATCCCTTGCAAGAAGAACATTCTCTCTTTCACTTCTTCTGGATTTATAACTTTAGATTCGAGGCCTGATTTCAAGAACTGTAATTCTCTGTTAGCTACTTGGTACAAGCAGATGCCTAGAACTTCTTGTATATTTACATCGATCGTAGTTAGGTTGGCTTCATTAGTCTCGTCAGTTGAAGTTACGAATTTAAAGCTCATATGAGAGAAATTTGGCTTCCTATGTGCATTTACGCCAGATCTTCCTTCTACCAGTTCGTCAATGCATTCAAACCTAAGTATACGATCCCAGGTGGCTTTGGCTGCTTCTATGTCTAGCACCCTCAGTAGATCAGGGCATTTCTTGTTTGCTGTCAGGAATACCACTCTACCTTGGAAAGGTTGTACTTTACCTGCTAGATGAGCTGATTCGAGATTAAAATGATCCCCAGATATAATTTGGTTCAAGTGAGCTAGGTTAGGATCGTTTTCTCTCAGTGCCATCCATTCTTGGATTTCAGCAAAAGCAGCTCCTCCATATGGTCCGTAAAATCCTGTGTCCTTAGATTTGTTAAGGTTGTATATTGTCTTTGGCAAACCCATTATAGATGCTATAAATTCTGCTACATACGTACAAAGCCTAGATTTGCCAATACCTTTCTTTCCTGCAAATAGAACTCCTACAGTCTCTATTCTTTTGCAAGCGTCGTTTATGATTTTAACACCTTCTATTTTGTCTTGCAATTTGGATATATTGGTCAATATTAGTTGGTAAGCTGATCGTGAAGCGTGACTAATGTCCTTGGATACATACTTATTCGTTATGAGCGGAAGTGTATGAGCTACTGCATTGTGAAGTTCAAAGTTCAATTCAGGGTCTTGTATGAATTGAACGACAGATTTGACGGCTAGTTCTGATGTTCTTTTAGCCCAGATGTGTAGTTCTTCGAATGCTTTTTGGTCGCCAGTGACGTCTAGTCCTGCTAGATCTTCCATAATAAATTTAGCTATGTCATTTGATGTCGTGGTCAGAGTTTTAGTGGCTGTTATTAGTCTACTCTTCTCAATTATAGTTTTAATGTCACAGATATTAAAGGTTGTCATACCCGCTAGAATAATTGAAATAAGAGTCGTTATAGCCGGATAGACCCACATCCATGAATTTGAGAAAAATTTTTTACTTAGTATACCAGTGGCCAATTTTGGGAGGTCTTTGAAGACTTTGTCTATATGGTGTTTTATGTTAAACTGATTGAAGATTTTAGTTACGGCCAGTGCAAACGTTGTTAGAGATGAAACTATTGCTACCGAATTTAGTACTTTAGTCGCTGTTGTTGTCTCAGTTGTACATAGGGTATATACGGATGTCCCTATTGATATGACTGAAGAAGCAATAGCGCTTGCCAATAGTGTAGTGTCACATTTTAGTGTCTTAAAGAAGTCCATATTTCCTATTGCTTCAGCTACCAATGTTGGTATAGCTGCTTCCATAGGTTCGTCCATGTCAGTCTTTTCCTTATGTATTATGGGTCTTTCCATAGCCCAGTTTATAGCCGGAGCTATGTCGTATATGCTACGGACTGCCGGTGTGTAGTGTGGTCGTCGTTCTTCGACTACACCTGGTTCGATTGGATTACCACCTAGTTGCCAGATAGGTACTGTACTTGTACTTGCCATCATGTTAGATCTAGTGGCATGTATGTAGTGTTCTGGCATCTGCATAAATTTGCGGTTTTCCAATATAGTCCAATCCAAGTGGGTTTGCGTCGGTTGTTTCCTAAATACCTTAGTAATTCGTGGTCGGGTGTTAGTCTTGAATTTCTGAAGGGAAGTGCCAATAAGTGTAGCCCTGGAGAACACAGTAAAGTGCTCATCCAGAGTTACTTGGATATGTTGTGTTAGGGTTTTTAACCCTTGATTTTGTTGCTTCGACCATGAAAAAGCTTTTTCCAAAGCTACTTCAGGCCAAAGGTTGTTGTCCAATTTGTATTTTGCCAATAGTTGACTGTTGATTTTGTTCAATACAGCCTTCATATTGGTTAGAGTTATACTAATAATATTATGAATTATTAATTATAATGATGATATGATTAATGATATAATTGTGATTGTGATTATGATGATTGTGATTATTATTACAATTATTGCAATAATAGTTGTTGTGATTGTTATTGTGATTGTTGTTGTGATTGTTGTGATTTTGTTGTGATTGTTGTTGTGATTTGTTGTGATTGTTGTTGTGATTTGTTGTGATTGTTGTTGTGATTGTTGTTGTAATT</t>
   </si>
   <si>
-    <t>MH703060.1</t>
-  </si>
-  <si>
     <t>AGTTTGTGGTGCCGAAGATATTGAATTTGCTGTGCCTATACAGCCAAATTTATGTCCGCGAGCTAAACCCGAACGTAATCGAAGGAGGAATGTAATGGACATGCTAACGAATAGCGTAGCACAAGTTGGTACGGATACTGGTGACACTCCATTAGAAGTGTCGCGTACAGAACCTACAGATTTTGCTGAAGTGCCTTTACAACCACGAACAACTACCTATAATGAAGCAATGTTAACTATGGGAGAGAAAATTACATCATTTAGACAACTAATAAAACGATTTCACATGATAACACCAAATACACCTAAGCATGTCCATTACATTCCTCCTTCGATTACGTTCGGGTTTAGCTCGCGGACATAAATTTGGCTGTATAGGCACAGCAAATTCAATATCTTCGGCACCACAAACTTCAACCAAAACTTCAACAGTGTCAGATACGGTAGATGTATTAACCAATTCATTCAAAACTTCCATATAAACAGAACCACATACTTGCGTTTGATTAAAATTTCCAACCCACGGACTCTCTTTTATATGGAGCCATGGAACGGTTGCAACATAAGGTAAGTTAAATTCAACGTCAGTATCAGATCTTAAATCGACTACGGTAGAATAATTAGCGTCATGTTCAAAATTAGGTGGTAATGTTGATTCAAACAAGCCGGGAACGTAAAATATACGCACTCGGCCTGAATGAAACTTGGTTTTGACAAATTTAAATTTTATATTTATTCCGCCGCGCCACAACACAAAATTTGTTGCACAGTAAAATAAATGAGGAACGCATAATCCAGTGTTTCCAGTTTTGGCAAACCAAGAGACAGGCGATACAGTGTGACTATACAATTGTGTACCAGGCCCCATCCCTTTGTTCCACTTAAACCTTCCCACGTAATTATACGTTCTAGCGACATAATCGATTGACATTTCATCAACTTCAGTACGAAACAGCGATTGTAAATGTTCTAGCTCATTGGTGGCAGACATACCTAAATTGGTAGCCATATCCGAACCATCTGAGTTACACATAAATCTGGCTGGTGCTTGCTTAAAAAGTTGTATATTTGCGGTGTTATGTGGTTTGGACCAACCATGGGTAGCCGCGACAGAGTGAAGTGCATCAACGCCTGTCTTAGCATAACCTATCATTTGTCCAACAAGTGGGAGATTCGTCAAAGGTTCCAAAATCGTGGAATAAGCAGAAGTTTGCTTTGTAATGAAACCTTGCTGTTGTTGAGTTTCGTCTTCCTTTCCAACCTGCGCCACGGAAGTAGGCATGCCGGTAGGGAATTCGGCTCTCACGTTAGTCATATTAACCCATATCGTATAATCGATGTTACCTCCAGAGACTAAATCTACCAATGGCGAGTAGACAATAAGTTGAAATGTACCTATGTCTCCTGCACCAGTGACAAGATTATAATATAAGAAGGGTGATACAAATGGTATGGTCATGGTTGCCTCAGTGGTAGTTGATAAATCAATTTCCACACGAGGGTTACCACTAACGGGTGTCAAAAAATCTTGTTCAGTATTTGTGTAATAATAAGTCCTATTAGTTCCTAAGTAGTTTAAAAAAGGTGTCCATGATAGCATTAACCTACCAGCATGAAAAGGTTGGGCGTTAACTTGAACGCGCACAACCAAATCAGCTCGCAAGGCTAAAAAGTTTTGCAACTTCTTACTATACATGGGATTCTTAACTACATCAGATGGATAATTAAAAGAGGTCAATCGCGCACCGGCTGCTTGATTCCCCCAACTCGCAGTCCTAAAATTGATAGGGCGCTCGAGAAAAGAAGTCACTGTGTGATTCTTTCCATCGCGCGCACAATCTAATAAAGGATTATTGAGCATGGAGGGTTTAGAAACAGTCTGAGAACGCGGAGCCTCTCCTTCAGAACTAAATGATAAAATTTGTTGTTGGAATGTTGTCGTTTTATTTTCTTGTATATTAGCAGGTCAAATTTTAGCGATATGCACGACCTAATGCTATACCACTTGCGACGTATCTAGACTTTGGTGGGCTGCACGCTGGCGTCTTGATGAGTAAAGCTAAATAACTAACCAACTACAACAGCAATGTGTAACGTTTTCACGTCAGCATTTATTACACAAGATCACGTTGTAGCAAGATATTTGTTTTAATACGCGTTCTAACTATTGAATAGAGTTTACGATGCTGGTGGACCGGTGTTAGCGGATTGACCCAGTAGAGCGTTCTCTAAATGAGACTATAGTTATAGTTCGTATGTTAACGTATTTAATCATATTACTAAGAGTTTACGATGCAGATGGACCGGTATTAACGGATTGACTCTGTAGAGCGTTCTCTTAATTAGACTATAATCATAAATACAACAGATTTTAAGGAAGAGGTTTAGATTAGCGAGGGTTCACTTGCTGGTGGACCGGCAAAAGCACGGATTGACCCAGTAGAGGTGTCCTCAACTTAGACTATCTAAACATTCCAGACTGTCTGTTTCAAGGTTCTTTATCGCCAAGAGTGTCGCGTACCTAGTATCAGGTATAAACAACTCTCCTGGTATAGACTCTGTAACCTTGAGTCCCAGTCTTGTTATTCTTGGTCTCCAACGATTGTCAATATCGGTAGGGTGTAGCGCTAATTCTCGTAAGCATGCTCTAAGAGTATCTCTTACAACGATTATCGCAGAACTCTTACCTATTTTGTACCAATTCGTGGAATCCAATATAACGGTTAAGTCTAGTGGTGCAGTGTATTCTTGAATAGATGTGTTAAAATAGAAAGCGCGCTTGAGAAAATTAACTTCTTGCAAAGTTCTCGATTTTACGCACTCGCCAGTTTTAGCTTCATCCGTCATAACCATGTCCAAATATTTAGACATCGCTTCTGTAATTGTCAACTGATTATATTGATCAATCACATTAGCTCGAATATTCATTACGAAATCATCTCCGTAAAAAACACTCGAGGTATGTTCAAAAAACTCTTTTACACTAGCCTTGTCACTTCCTTCGTATATCTTAAACCAACAATATATGAGGGCCATTTGATTAACTATGGAATTTAAGGGTGCAGTGACTGGACACCCTGAAGGTATGCCATTTCTGACATAGTATAGCAACGCTCCAGAATCGTAATTAGTAATATGTAAGTGATGTACACATTCATAATACAATTTACGACAATACAACAAAAACTGATCCTTGTCTAGGTACTCTCCTGCAATATAGTTACGTTTGTGAGCTTCAACAAAATCCCAGTTCAGGTCGTACCAATCAGACATGATTTCTGTGGCCGCATATACAAGTTGTGCTGGTAAAGTCCCGTCAAAATTTGAGTAATCGCCAGCTATAACATCCCGGCCTTTAACACTCAACTTGCGTGCAACCTCTCCCCACTCAGTGGAAAAAGGATTCACACCCACACATATCGTATTCCTTATACGCATACGCGATAAATGAGCGACAAAGGGCGCGCATATCTTACGCAGCGCTATAGCATAATGCATAGGAGCTGCAGAAAACAAGCGCGTTTTACCAAGATTTGCTTTAGCAATGGCTATCTTCTGATCTTTTAAGGTGTCAGTCCATACAATTTCGGGTCGTTGGCCTTGCAATATATCGAATTCCAATTTAATAACATCTTCTTTCAAACTAAGCGCATCTGGTCCAGTAAGGTCGTATTCCATACTGTCTCCAAACCAGAGTGTTTTACCTTTCTTTCCTTTACGCATTTGCGAATAAGGGTATCCAGGTGCTGTCGTTCTATCAAGAGAATTAATAAATGGGTCTCCATCTATACCTACTATGGCTTGTTCATATGTCAAGGGATATTTATAATATTCAGGTTCATATTCATGCGACTGATAATACACGCATTTTACACCTTCCTTGATATCTTCCACTAAGTCTTGCTCCAAGACTGGTCGGGGTACTCCATATTTCTTCCGTTGTAACACACGAGGATCTATAGTTACGCCCTTCGAAGTGAAAGGTCCAAGGGGTCCAGGTTTATTAGGCGTTTTAATCAATTCTCCATGAATTGGT</t>
   </si>
   <si>
     <t>TATCGTACTATGATTAAAAAGATCTACGAAAAGGAATCTTCATAGAAAGTTATCATGTGCATTCGTGCCTATGATAAAGAGTCTAGAAGATAAAGGTGAAACTCTCTTACCAGTTTGAATCCCATTCATACATACTTTCACTCCGACTTAAGACAACGGGCTTGCGCGCGCTCACCTTACGGTGCTAGACCAACTCGGTCATGCTGTCTTAAGTCTTGTTCACATACATACTTTATATTTGAGACATAATCTCAGGCGGTGACTCCCTTAAATTCAACAACTTACACTCTGGGCTTTTTCCTTGTTAACTGGGATTCAAACTGGTAAGAGAGTTTCACCTTTATCTTCTAGACTCTTTATCATAGGCACGAATGCACATGATAACTTTCTATGAAGATTCCTTTTCGTAGATCTTTTTAATCATAGTACGATAATCCACGAAGCAATATCGTTTCTGGTGTCTTGCGAAAGCAGTATTGATTTTGCTTCGAATTTCATCATAGTATGATTGACCCCACATAGCAGCTTCTATCATCATCGAGTCGACGGAGGCTACCATAAGATCCCAAGGGTCTTGTGTGTTTCTTACCCAATTTAGTTGTTCTTCAATAGATACCTTATCAAGTGGGGCAAGACACTGATTAGGTACAGTTGGATCGAATCGAAAACTTCTTTTCAAAAACGTTGCTTCCTTAAGAGTCACTTTTTCAATGATTTCACTAGATTTTGAGGCATTAGTAAATTTGATATTATGTCTTGCCAAAAACTCTGAAATCGTTCTGATGTTAAATTGTTCTATATACTCATCACTGACTGACATAATTACATCGTCACCGTAAGTATACAAAACAACATTAGCATCAAAAGTGGCTAGATCTTTGTTAGTGGTTCCCATCCATGCTATTCTCGTGTATATTTTGTTAATTTCTGAATTAATTTCAGCTGTAGCAAAACTGCCTGAAATTATTCCCGAAATTGTAGAATATACATAATTATTGCATATATGAATACCATTAACAAGTTCTTCTCTTAAAGCTCTTAGTTGCGTAAGATGTGTAAAAGAAGCATCGTTAAATTCGTACCATTCTATAATGTTCGTAATTGCCGCTGAAGCAACGTCTGAATCTGCTTGTGGTCCAAAACCTGAATAATCTCCTTCCAGAATGTTAGGAAAAGTTTTCAGCCTTTGGGCTAGCTGCATCCAGTCGTTACTGAGCGGATTGATAGAAATGGCATGTTCCGATAAGATCCAATTTGAACGGTAACTCATTAGCCAATCACCCATAAGTCTCTTTCCAGCTATAACCTGTTGGACAGGTGAAGTGGAAAAAACTCTAGTTCCACCGATTTTCCTAGCTTTCTCAGTTTTCAATAGCTCATCTTTCAGACAATCAATTGCCGGAGAGAAACAAGCTATTCCCTGAGATCGCTGATGTTCTTCGTAGGAAAGGATACGGTGCAGATCTGGATGGAGACCAAGGAGTTTACGTTCACTATTTGTTTGATCCAAGTGAAAAAGGAAGGCTTTACCTGATTGGTTTCGCTGTCTTATTACGTTTAGAGGAAATCCTGGGCTGGTTGACATATCCAAAGGTTTGAATTTTAACTCAGGAATCCCCAATACAGCTTCATCAATCGACAATATTCCTACCTGATTTCTTGGAGGAGGACAACTCTGTTGTAGAAGTTCTTTCGTTGCTTCAGCCGATGCAAGAAGGAGTTCACGCTCAAAACCTTTGGGTGGATTTGAGTGTTTCTTAACTCCTTCTTTCATCGGAGACCAGTCATAATTTACTCTTTCATCTGAAGATGAGAGAGGAGCTGGTTCTTTCCGAACTTCGAAAACAGTGTTGGCAAGGGGGGAGGGGACAAAGACCGTTTTATTTCCTTGTTTTTTCACCTGGTGATCAGGAATTTTACCCAACATTTTGAGATATTGAGGAAAGTTTCTGATCTCTTCAGGAGAAAGAGTTCCCAATTCAATTGTTTCATATCCTGGTTCTACAATGTTTTCAGTCTCTAGGTCTTCACGAAAGACTAGTTCACCGAAACCAATTTTACCATCATCACTACCCATAGTATGAATAGCAACAAGAGTGCTTAGGTTTCTAGAGAAAACTAGTGATCCACAAAAACCAGGTTTACTATAACCATCATATGCGACGAGATGATTATACTGACTGACATCGTAGTACTTAGAGTTGAAATTATTGAAGCGGGTTAAAACACAGGGTGATGTTAAGTCCGTGAAACAGGGCACAATAAAGCACTCATTGTTCATTCTAGCTAATTTGCTTCTAGAACCACAGTGAGTCAATATGTTAGCTACTAAGTGTGTCCTGGCAGGGGCTTCCCATACTCCGAGTTCCGACAAGGAGTCCTCATTATACCGCCATTTCAAAAGAGTTTCACAAAAATCGTTCATCGATAGAGGAACGTGAATGTGACCATCATATAAAGTGGCGATATATTTCACATCAGGATGAGTAAGTGCTTTGGTAATTGTTTGAATATAATGTAAAATAACCAAGTAAGATCTGTCGTGAACACCCAAGATGGGAAACAACATGCGTTCAAAGTTGGGGTTTGTAGCCTCAGCTTCTGGACACACTGTTATCCATCTCAGATTACGTCTCACTTTAGTTACTACATCTTCAAAGTTACCAGACTGTAGAGTTACTGCTCTTGAAGTGAATGAGGTTACGTTGGTCTTAGTTTGGGAGGATTTCTTAGCCTCTTTGGAAGAGGTGCCGGGGGAATAGTGACCGGATTGGAACATAAAAGTTTTGTGAAAATCTTTATCAATTCCATCCTTGTCTCCATTCCATTTAGCTGTCAACCAGTTAAAAACTAGTTTAAATACAGCTCCGGTGGCAACAATTCCAATGAGTACTAGCGTACCCTTAAGGATAGGATTCATGGAGGACCAAATTGTTTCATAAAATGATTTTAATTTGGATATGGCCAGGCTGTTCCAATCTTTTATACGAGAAGCAAAAGTTTGTAAAGACTTTTTGTGAATAGCGTACATTTTCACGAAACACTTATTCTCCTCACAGAAAAGATTAGCATCCAAGGCTTCCTCTTCACATCTACAATTTGAAATATGCAATCCTTTCGCTAATTCACAAGTGCGAACTGCACGAACGAACGCGTGATGAGGATATTTCAAAGCTGCAGGTGCAAAGTATCCACTAATCATATCCTTAAGTTTTTCAGTTTCACCTGGAACAAATTCACAGCATTCCCAAAGTCCTGTTAGAACTTTGTGCATACTAAGAATTTCCTCACAGGAGGTCCTAATTGGGGGTCCTTGTAGTGACACGGAACTACCTTCCGACATAGTCCAGGATGTTATTTTCTTCAACATCTCAGTTACAGGAGTTTCAACTTTAGCGTAAAACTTGTTGAAGGTTTCCTTTAACGTGAGCGTGTGGGGAGCTAATAACTTCCTGAAATCGTAGGAAAATATTCCGCGCTCATTGTCCAGCGTATCTAGGGTATCAAGATATTCGCGAATTTTGTCTTCGACAAAAGAGTCGTTTTGTAAATCTTCATATGTAATGTTATTCAAACCAAGGGATTTAGCTTGAAGTTCACATAGCATACGTCGATTTACACTCTCTTGTGCAGCAATTCGCCATGCCTTGAAATCCGCAATAGCCATTTCAATGAGTTCCGGATACGTCATCCAATCTGTGTAGCGAGGAGCTAACACATTCCACGGATTAAGTGTTCTTCTAAATTTGAGGTGTTCGAATTTTTCCAAAATTGATTTTGGAACTGTCTTTGCGGTTTCATGCCTAGCATCGACTAATTCGTCAGTTAGGGCTGCCTCGATTTTAAAATGAAAACGTCTGTGGAATGCATTTTTGTCAGGGATAGAGTCATGTTCAATAAATTCGAAATTGCTATTAATGTATAATATCTCGTTCTCAACTTCCATATCTTTGTCTTCTATGGCCGGTTTATTGGGCTTAAAAGAGGCGCAAGTTGCGTTTTCAAAGATCAAAGAAAGCCAAGTTCGGAGCGATTCAGGAAGAACCACAGACATTATATCATCAACAGAAATAACCTTTTGTTTACGAAGATCCGTCATATATGGGGAAATCGTAGGTACATTATAAGTCATGGCTCCATCAACAACAATATTCTCGGCCCGCAGGAGGCGGGAACACAGATCGCTTTGTAATTGAGATTTTCCAATGCAAGTTTTACCATATACGTAAATAACCCAAGGTTCTTTACGTATGTGACTGGCAAAACCATTTACGGCAAAATCCTCATAAAGTTTTTTAATTAAATTGAAATAATAAACTAAAGGAGAAGTTTTCCGATCATTGGCTAAAATCAATTGTGCGTGTAGACGTCTTCCTACTATATAGGCGACACGTACACGTAGTTGAAGCGAAGGATCAGTGTTTACGGATTCACGGATTGAGCGGTCAGTCAAGAAATCTACTTCTTTCATCCAGTTAGCAATTAAAGAGTCTGTCACAGCAATAGCTTTTACGGAAACGGCGTCGGGTTTTTCAGAGATATACCAAAAATAAGCTTTTTGAAATATAGCTTTGAAAGCTCCTCTAGTCGCCTTCATAAAAGCATTGAGTGTCGTTCCCATTTGAAGAGCTGACCTGAATGTAGAAGTGAATTCCTTGGCTGTGCGATTGTCACTGTCTTTCCACTCCTTTATACCGAAGAGGGTTGCTATTCCAGTAATAAGGATGGTGATAAATTCAGTGGGATGGGGGTCGGGGTCCGGTTGGTTACCTTGAAGGGATACTGCACCTGTTGATGGTTGAGACGATGCAGCAGCCACTCTAGCTAACCAGGCTGTTAGAGCAGCAAATACTTTCGCAGCTCCTTGAAGGCCTAGAATACCAAGTCGTTGGAGAATAATTCCAAACGACCACAGGAATGTCTTCCAGCTCGGATTTAGAATACAATGTCCTGACTGTTGAAAGAGAACAGTCAGGATATTGGTTAAGCTAAAATCCGGGGTGGAAACCACTCCCTTTTCGGCAAGTTTAGTTTTTACTAAACCTTCAAGGTTAGTGGCTAGCTCGCTGAAGTAAGTCTCGACTCCTTGGAACATACCTTGGGCGAATCCTTCACCTGCTGTTTCCGCTGTCGTGTGTACGAAACGAGAAAAAACAGGTCCAGGATTCTCCTCGATATCTGCCATGGAGGAGTTACGAGCTATCACAGGTGGGTGTTCTGCGAAGAAAACGACGGGAGGAAATCCTCTGAAGAAATACAAGGCTGCATCATCTCCAAAAGATCTCATCACGACGGCTCTAAGTGTAGCGGGGAGGTCGGAGGTTCTATTCACATCTAGACCATATGTCACTGATCCCATAGAATTTACCAAAGCGTTGTCTCCTTGTTTACCAAGGGTAGACCACGTGAAGATAAATTCCGAAGGATTATAATATGGTATAGCTGTTCTAATTGCACTGTTGATTCCCAAGTTAAATGTTTGTTTTGGTGCGGTAGAAACTAGTCTCTGATTGTTTGTCGCAGTAGGATATTGCACAATATCTTTACTGGGAAAAGCATCAGGGAAATAGTTTGTCCACACACTAGCATTTTGTACTGTGGGAAACAAGGCATGCATTATAATAGAACCTTTAAATCCAATAAAACCCTTGAGAACGATATCAGCAGCAGAAGCTGAATATGCGTAATCAAGAGAATTTATTGGGGGAGGGGTTGTCCGGGGTAGGGCTGGGGAAACATTAACACGAAAAGCGGCGTTAGGATAAGAAGCACTGCGAGCAGTTTCTATCCCTATGTTAATATCTCCGTAGGGTCGCTTAAGCACATTTGTTATACTGGAAAAATCTTCACCAAAGTCTTTCTTTCCCCATCCACGCATAGTGGTAGATGGAAAGGGAGAATCGACGTTAGTAGAAGTTATTCCGGTATAACCCATTTGCTTAGAGACAGTTGGGATTGGGTTGTTTGGAGTCCAAAGTACGTGAAAAGCGTAAGTTGGGCCATACGTGAAGGCATTAGTCATTTCAGTACTTACGAGATACTGGGCCAGTGCATCAAATGTCGACTGTGTGTAGTTATTAGAAAAATTTCTAATAGCTGTGTACACAGCCGCCACAGGAGCTGACGTTGCATCAAGTACTGAAACGAGCAACACCGAGGTGTCAGGTTGGTTCAGGGGGACGTAACCTACTGCATGTCTGCGGTTTCCATACCCAGGAATAGAAGGTCCTGAAGTAGGGGTGTCACCATAGTACAGCAAAACGGCTCGGAAGTTGGAAACGGGGTTGGTAAACCACATATTCCAAATCCAATCCGCGCTAGCAGGTTTCCCACCGGGTGCCAAAGTTGAGAAAGTGAATGTTATATCACTTGCCCAATGGTAACCGGCGAGTTTGAGTCCAGGATACGTAACCGGATTCGAATACGGTTGTACTGACAGGGAGGGGGATTTCACGACCGACAACTCAAAGTCCGGGCCGGCCCTTTCAAAGATACTAAGTGTAACCGAAGAAGGAACACCAGTTGCGTAAGAAAGAGTCGTCATGAGGTATAAATAGCAATACGAAGGCGAATAGGATGCTGTTTGGCAATCCGAATTCACATAAGCATTACTAGGTACACGAATCCATGACTTAGGATTAAAGTAGGGGGCTACTACTTCGTTCGTGAATTTTCCGTTAGTGTAGTTAAGTTCTGTAAATTTCGAGTTTCTCAAGTATGTAAGGTCTATAGGTTGTGTAGGGCTGATCGGGGTAGGCAAAACTCCAAACATAAGTTTGAAGTTGTGCTTATCCGTCATAGCGGCATAAACCTCATATACTGAAGAACCTTTTGCATTTTCGAAAATAGAAGCAACTACACCAACGGGAGGTACGTGTCGGCGGTTAGGATCTGTAGCATAGGGGACATAGTCGTTATACGGTTTCAACGGTTGGTTAGTCCATGAAGTAAGGAGCTTTGGGGAGTCCGCGGAGGTTATAGTCACTTGTCGAAATAGTCCAGGTCGATGGACTAGGTCTTCAAATGTCTCCGTAGGTGGAAAGTTGTGAGTAACTGTTCCCAAAGGGTCCATTCTAAATGAATTGACCGGATTCTCAATGTTCGTTACCGAAGATTGAGAAGGCAAGGCTTGAGGTATAACAAATTGTCCAGGGGAAGGGTTAATAGGGTGGTCAGCATTCTTATTGTTAATAAGACTTTTGGCCACCTTATTAAGCATGTTAAAGGTCGGGTCGGGGTTTCCATTCATCAGTGAGAGACCAGCATGAAGCGTGTCTCCCATTTTACCGAAAAGTCCACTCTGCATATTAACTCTCTGATCAATTTTACCAACAAACTCTACAGAATCGAAATGAATGAAAGCATTCAAATCGCAAGTGCGAGTTCCTTGGTCACCAATTGCAAGATTTACAATTGGGAAATAAATCAGAGCGCCAAGAGAGCGTTGAGGTAGATAATTCGGGGATGAAATGTGGGGCACATAGTTCAATGGATAAGTGAAATTAATGGGTACTACTACTTCGTTATTAGAACAAGCGTTAATCATAGTAAACGGTAGCTGTGTAAGTGAATACTTATTCAACCATAATTTTTGGTCTTCAGGAGTCCACATATTCCATAGAGGAACAAATGTAACTCCCATAAGACCAACATTAAAGTTCACAGCGTTAGGTTTAATGGTAACTCTTGCAGTCAATTTCGAAATAGCGTGTACTTGAAATGATTTCACAATAGCGGCGTTGGCGCTGACGTCATTAAACATTATGTTGTAGAGGTCAAAGACTTGAATTTGAGAGGATGTAGACCAGGTGACTTTATTAAGCCACCAAGCGACACCAGCCAAATTCAAATCAGTGAACGGTTGTTCAGAAAGAGTTCTCTCTGAGGGTTCGTCGGGGTACGGTTCAATTTCTTCTACTTCTCCTACTGCTACGAGTTGGGTGTTTTGTGTTTCTGAAGTGCTAGATTCTGCAGCACCTACAGCGCCTTGAAGGCCAGATTGTAGGGATACAGAACCGAGTTCTTCAGCAAGCATGTTCTCGTAGTTTTCACGTTCAATTTCTTCTGCTTCCTGTTCATCATAAGTTTTCTTCCTTTGGAAGAATGGTGAAGGAGCAGGGGTCCAGGGTTTTGTTTTTCTAATGGTGTCCGTTGTGATGGTCATAGCCACATAGATAAAGAAGCTACGGAAAGCAACTTCTTCAGCCAATGAAAGCTTAGAGTGTTCACCAATAAAAATACATTCCCAATGGGGGTCAAAGGCAGGAACGTGTAGACGTACTTGATGTTCGAGGTCAAACTTTTGTCTTAGGTAATAAGTCAATTGATAGGCACCGAACTCAGGCAAGGCAAGGACTAGTTCATTATACACACTACGCGCTGAAAAGCAATACTTGGCTGGTTTAGAGACATGATCGCCTTCATAACGAGTAGCACGTTCAAGGAAATAGTCGAACGTCTTTTTAGGAGGAAGTGTGGCAGGAACACCAGGAGTACGATGAAAGTACTCTTGGGTCATGTCAGATTCCATGAGAAAGAATTTCCGGTTTGGGGGTTTGCGGGTGGTTCTTGACGAT</t>
   </si>
   <si>
-    <t>Top BLASTn hit
-accession number</t>
-  </si>
-  <si>
     <t>Contig BLASTn coverage (%)</t>
   </si>
   <si>
-    <t>KX883772.1</t>
-  </si>
-  <si>
-    <t>MT498831.1</t>
-  </si>
-  <si>
-    <t>KM817681.1</t>
-  </si>
-  <si>
     <t>Lengthiest contig (bp)</t>
-  </si>
-  <si>
-    <t>Lengthiest
-contig sequence</t>
-  </si>
-  <si>
-    <t>KY933255.1</t>
-  </si>
-  <si>
-    <t>NC_040587.1</t>
-  </si>
-  <si>
-    <t>Contig length / accession length (%)</t>
   </si>
   <si>
     <t>ZWA2 improvement section</t>
@@ -290,6 +234,63 @@
   <si>
     <t>Virus accession
 length (bp)</t>
+  </si>
+  <si>
+    <t>Virus accession length increase (%)</t>
+  </si>
+  <si>
+    <t>Negev-like virus #174 partial RdRp gene for polymerase</t>
+  </si>
+  <si>
+    <t>Hubei virga-like virus 2 strain mosHB235832 RdRp and putative coat protein genes, complete cds</t>
+  </si>
+  <si>
+    <t>MAG: Xanthi chryso-like virus isolate CB1 segment 1 genomic sequence, sequence</t>
+  </si>
+  <si>
+    <t>Asum virus isolate OTU76 RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Rinkaby virus isolate OTU75 hypothetical protein, RNA-dependent RNA polymerase, and hypothetical protein genes, complete cds</t>
+  </si>
+  <si>
+    <t>MAG: Hubei mosquito virus 4 isolate CMS001_057_ALCO genomic sequence, sequence</t>
+  </si>
+  <si>
+    <t>Dezidougou virus strain ArA 20086 hypothetical protein 1 gene, partial cds; and hypothetical protein 2 and hypothetical protein 3 genes, complete cds</t>
+  </si>
+  <si>
+    <t>Broome reo-like virus 1 isolate BRLV1/pool-4 RNA-dependent RNA polymerase gene, partial cds</t>
+  </si>
+  <si>
+    <t>Biggievirus Mos11 strain 258719/2008 ORF1 gene, partial cds; and ORF2 and ORF3 genes, complete cds</t>
+  </si>
+  <si>
+    <t>Shuangao Insect Virus 3 strain QSA04 RNA-dependent RNA polymerase (L) gene, complete cds</t>
+  </si>
+  <si>
+    <t>MAG: XiangYun toti-like virus 6 isolate XY161838 capsid protein gene, partial cds; and RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Negev virus strain EO-329 hypothetical protein 1, hypothetical protein 2, and hypothetical protein 3 genes, complete cds</t>
+  </si>
+  <si>
+    <t>Yongsan picorna-like virus 2 strain 16-0305/ROK/2016 polyprotein gene, complete cds</t>
+  </si>
+  <si>
+    <t>Big Sioux River virus isolate S37 nonstructural polyprotein (GP1) and structural protein precursor (GP2) genes, complete cds</t>
+  </si>
+  <si>
+    <t>Yongsan iflavirus 1 strain A16.2047/ROK/2016 polyprotein gene, complete cds</t>
+  </si>
+  <si>
+    <t>Top BLASTn hit
+description</t>
+  </si>
+  <si>
+    <t>Lengthiest
+contig
+sequence</t>
   </si>
 </sst>
 </file>
@@ -362,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -385,13 +386,18 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,72 +714,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBC339-F5A8-964F-93DB-F9712EC76291}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="64.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,17 +800,17 @@
       <c r="F3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>46</v>
+      <c r="G3" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="H3" s="10">
         <v>99</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>297.54353233830801</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,19 +827,19 @@
         <v>10639</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="10">
         <v>95</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>354.27905427905398</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,19 +856,19 @@
         <v>3371</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="H5" s="10">
         <v>99</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <v>117.12995135510771</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -877,19 +885,19 @@
         <v>7254</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="H6" s="10">
         <v>99</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <v>143.90001983733387</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -906,19 +914,19 @@
         <v>14768</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="H7" s="10">
         <v>99</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>380.22657054582902</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -935,19 +943,19 @@
         <v>3807</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="10">
         <v>100</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <v>148.01710730948679</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -964,19 +972,19 @@
         <v>9152</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="10">
         <v>99</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>140.2820355610055</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -993,19 +1001,19 @@
         <v>4382</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="H10" s="10">
         <v>89</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>167.95707167497125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1022,19 +1030,19 @@
         <v>9045</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="H11" s="10">
         <v>99</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>366.6396432914471</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1051,19 +1059,19 @@
         <v>6382</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="H12" s="10">
         <v>98</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>132.21462606173606</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1080,19 +1088,19 @@
         <v>3097</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="H13" s="10">
         <v>98</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>145.12652296157452</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1109,19 +1117,19 @@
         <v>9665</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="H14" s="10">
         <v>99</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>207.13673381911701</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1138,19 +1146,19 @@
         <v>9656</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="H15" s="10">
         <v>97</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <v>171.29678907220151</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1167,15 +1175,15 @@
         <v>4036</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="H16" s="10">
         <v>91</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="14">
         <v>143.68102527589889</v>
       </c>
     </row>
@@ -1196,15 +1204,15 @@
         <v>8576</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>78</v>
+        <v>59</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H17" s="10">
         <v>99</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <v>222.9269560696647</v>
       </c>
     </row>

--- a/Supplementary/Supplementary_file_6.xlsx
+++ b/Supplementary/Supplementary_file_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B76770-5084-0F4D-98C3-76FDB5498EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6078F10-5B78-5148-8B71-EA7EEB6BEAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1A9DF13C-39FD-8D42-A3FB-5F0FC33523B0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>OP264879.1</t>
   </si>
@@ -33,18 +33,12 @@
     <t>Negev-like virus #174</t>
   </si>
   <si>
-    <t>GCCACAGTTTGGAAAGAAGTCTGATTGTAAGCATAAACCGCTTGTCATGCGTTCCAACGTAGTCGTCGATAGTTCACGTGGTCAGCTCAATGTCTATGTGGTTTCATCTGTGTCGCAGAATCAGAAACACAACCTCACCACAATCACCAGGAATTTGCGCGAATGCGCGCCCGTTCTTCACGAACGAGGTGTCGGACGTATCTTTGTTTCTGGTGCTGTTGAATCTGACATCGACCGCGCTGCACTCGGTTACACCATGTACAAATCCTTGAGAGCAAAATCATATCTTTGCTCTACCAACGATGTGTACGATGTACCTTCCGAAGTCTTTGAACTCCTCACACGCAACGGCATGAATCCACTTCCCAATTGTCAGTTTCAAACTTCCAAATTCTCCACCGCTGATTACATACCCGTTCACGAGGTCCCTCACATCTTTTCTGTATGCACCGCTCAAACCTTCATTACCAGTTTTTTCGGTCCTTGTGCATTTACCGATCAGTCGTTCGACGGCTGGGACGTGCGCAATAGTGATCTCAACATTGAAGTCGGTGAAATATCGTTCTCGCCTGTTGGTTGCGTGCAACTGGGTAAGTTGTACGACACAATGCGTCCGATCTTGCGAACACCCATGCCTCACATTCGTGACTACAACACTCGCGAACTTATGCTGGCTCTCGAGAAACGGAACCGCAACGTGCCTTCCATGAACGGAGTTGTCGACATTGAAGTCTCATCTTCTGAAATGCTCGACTCCTTGCTCGAAGAATGTTTTGATCCTGCGCTTTTGCGTTTCCATCTCGCCGATCCGATCACTATCTCATCGAACTCAGTCGGTGAATGGTTGAGCGGTCAACCCCTTTCAGTCAGAACCATGATAGTCCCCGACTTCGCATTGCATTGTCTTGCTCTTAATGAATACAATTTTTCCATCAAGCGCAAGCCGAAACCTAACCTCACTGTTGATGCCACAGCATCGTACCTTGCGTTGCAAACTATCGTCTATCACGAGAAGTCTGTCAACGCTATGTTTTGCTCCGTTTTTCGTGAAATCAAGAAACGTGTCACTTCTTCACTTCTGCCTCATGTAAAAATCTTCTGTGACATGTCGTCTGAAGATTTCGAAGAAGTGCTTCAACGTGACATTCCCCCTTCCAAATTGTCCGCCCTCTGCGACAAGCTGGAGATCGACATCAGCAAATACGACAAAAGTCAGCGCGAATTGGCTCTTGAGTTCGAGTGTAAACTCATGCTGCGTTTCGGAGTCGCCCCGGATATTGTCGAGTTGTGGTTCAATGCGCACGTGCTCACACGCGTATACGACAAAACCACCAAACTGAAAGCACTGGTCTCGTACCAGCGCAAATCAGGAGACGCTTCTACCTTCATCGGGAACACACTGTTCTTGATGGCCGTCGTCTGCGATCTTATTCCTGTTTCTCAGTTGGAACTCGCTCTATTCTCCGGTGATGACTCACTGCTCTACGGACACTCTCTCTCGCAGTTCAAGAACGCCCAGCATTTTGGACTCAAGTTCAACCTCGAAATCAAGTTCTTCGAATTTGATAAATCGTACTTTTGCTCAAAATTTTTGCTTGTCGTCAATGACCATTGGACATTCACCCCTGACCCCTTGAAATTCGTCACCAAACTTGGTCGACATGACCTCGTCAACTCCCTACACGTCGAAGAATATCGCATTTCCTTTGTCGACACCGTCAAGAATTACAAGAATTATGCAGTCTGCATCGCCGTCGCTGACGCACTGCGTGAACGGTACGGTGTGTTCAAAGACTTTACGAACTTCTTGGCTTCACTTCCGAACATGACCGACGAACGCAATTTCAGCCAACTGTTCTATTCTGAAATAGGAGACCGTATCGACCATACAGTTGTGTTCAGTCGTGATTTCTAATCTAATCACTATTCTTCCATTGTATACCATCATGCGCCTCCCGTTTCTGTTCGTTTGCCTTTTCTTCACCGCTGAGTGTGCGGTTTTCAGCAGTGATGTTGTTAACCAGCTCTCAACGCGGCGTGAGAAACTCGCCTTTTATCAGAAGTTCCATCCAGTTTTGAATTCTCTCGGTCGTCATCGTATTTCTCCGTACATGTTCGATCGATCGTGCCTCAATGTTTACCGCACGAACGATTATTTGTTCGGTGAATGCACCCTCCCTTCCAACTGTTCCGAACCATCTGTCGTCAAACTCGATAAAACATTTTACGGCCAGGAAACCGTCGTCTGTCATTCGTCTTCCCGAATTGACAAATCAAGTGAATTCGAGTTCTTTAATGTCTCATTTACGCCCAGACCTGTCGCACTCCGCGAACCTATCACTCTCTACGGTAAAGTGTTCACTCAGCTTAAGAACATGAAACCAGTGTCTTTCTTTGAGTGGTACTATATCGTGAAGTCTGACGATAACAGGTTTGGAATCGTACCACGCATTTGCGACGAACTCTTCCATCACTCGTCACGTCTTCCCAAAACCGTGCGTATCGAGCATCGAGGTGACGACGTTTGTTTCGTTGAACTCACACACGACTCCCTTCAATGTGATCCCGTCCTTTACCCCAGTCTGCCCGTGCTCTTCACTGTTCACGACTTCCCTATCGAATTCGATGGAGTACCATTCTCGCAAGGTTCATTCGCTTCCACTAACAACAGAGTTATGGGAGCGGATGCTTACTCTACAAACAACCTTACACGCACTCCCCGAGTTATTGATAAAGTCGGAGGATCGTACATGGTGACCTACGACGTGCTGGGATACTCCGGACCTCTGTTCATTGTCCGCAGTCATGGGTACCTCCCAACTGACAAGCCCTACTGCTTTCACCTCACCACTCATTACACCTCTCCTCTTTCAAGCATTCTTTCCAACGTATCCAAGTTTTTTCGCAACGAATTGGGATATCTTCTTGAATTTTTAAAAGAAATCGCCGCTGACCTTGCATTTATTTTGTTCAAAGTCATAAGCGAAGTTTTCGACATCATTATGTCTTTTGTTCCGTACAATTCTCACTTTTACAGTGCGCTTTTTGTATGTTTTTTCACTTATTTGATGTTGCGCGACCTCGTCATTTCTTTGGCCGTTCTCGTTGCTGTTTATTGTGTAAAAATCTATTCAGATTCTTCCATATAATGTGTATTCATCTTCTTCTCCTAATCGTACTAATTTATTACTTGTACAATGTCTGCTGCCCCCCGAA</t>
-  </si>
-  <si>
     <t>OP264882.1</t>
   </si>
   <si>
     <t>Hubei virga-like virus 2</t>
   </si>
   <si>
-    <t>GATCGCGAACACATGTGTAAGCTCCAGTACGAGACGCCCGCCGTATTCGCTGACGTAACGTCGGTGAAAGAAATAACGTACCGGTGTCCCATGGATGTGACTTACGCGATCTCGGATCTCTACCCGAACCTGTGTACCATGAGTCTCGTGACTGTGTCTGTCAACCAGAAGCCTTGGTCTTCCAACAACACGCACGTCACTAAGACGGTTGAGGGTTGCCTGTACCTTACGCACACTCAACCGGACAAGGACGCACTGATCAAGGCGGGTTATGGAAAGGGAGCGGGTTCTGCGGTCATGACGATCCACGAAGCCCAAGGCCTAACGTATGCACACGTCATCTGCATACGCAGTCAGCCGAAGGCCCTCGCGATCTACTCGCGCTCCGAGTACGCCCTGGTTGCCATATCCAGGCACACCAAGAGCTTTGTCTATTACACCGACACTGACGATGCGTTGACGAAGCTCATACGCAAAGCGCAGTCGAAAGACCCGGCTGCCCTGCAGACATGGAATGCCCCGCGCCTGATTGCGGCCAAGAAGAAGTTGAATCCGCTTGCGGCGGGTGGTTTGCTCTGGGAGGCCGACACTGTATTGTCCCCGCTCGCTAATCCCACTACTGGGGACTACACGGCGGGTTTGCCCGACGTATCGCATGCCCCTCTAATGCCACTTGCGCCCGAACGAATTGCGGAATCCTCCTTCAGAAAGTTGCCGAAGTTCAGGCCTAACGTCGACACGGACGTTGCATTTCTGCAGACCTTTTACGACGACGTCATGGCTGAGGCGATAACAGTTGAGTACAAGTACGACCAAATGATGATGGAGATGGAGGACACGTACCTTGTGTCTACTCCCATCACAGTTGACCCGCTGCTGGGTTTACCTGTCGATCGTAAGTACGGTAAGCTGCGCCCGTTGCTTAGGACAAACATGCGCGCGGAGAAGCAACCCTCGCAGAAGGAGTCCATACTGGGTGCGATAAAACGCAACCTGAACGCTCCCCTGTTGCGTAACGCTGCTTTGTCCGAAGAAGCAATTGGAGAACTGCTCTTTAAGAACTTTGAGCGGTCGGCCATAGACGAGACGAAAGTCACCATATACGAGTCGTACGCCGACGATCCGATCAACATCAACTCTCAGGTTGTATCTGCCTGGCTGGAAAAGCAGCCCCCCTCCCGCAGGAAGCAGATTGTGTCGGACTTACCGCTGCACCTGCGTCCCTTCAACAAGTTCGAGTTCATGGTAAAGAAAGACGTCAAGCCTCAACTGACGCCTGACTCCATGTATTCGTACCCCAGCGTGCAGACCATCGTTTACAACGATGCCTCTGTTAACGCTGTGAGTTGTCCGATATACAACTTGTTGTGGGAACGTTTGTTGGCGGTGCTGGATCCTCGTATATTGGTGATGACTGGGATGTCTCCAGTTGAGTTCGAGGCTGAGTTTAACGCTAGGTTGTGTCCGGAAGTCGCGTCAGTGCTGCGTACGCTGGAGAATGACTTCAGCAAGTACGATAAGGCTCAGGCTGGCGCCCTACGTCGGTTGGAACACTTGGTTTGGACGAAGCTCGGACTAGACCCGGAGATCGCTCTAATTTGGGACAGGTCCCGTCGAACAAGCGACGTGAGGGACAGGAAGAACGGAGTTAGTTTCGTGACGGAATACCAACGTAAGTCAGGTGAGGCGACCACATTCAGCGGTAACACCTTGGTCGCGATGTGCGTGATGCTGGCGGTGATAGACATCGACGATATTGTGTTGATGTTAGCTGCCGGCGACGATACCCTCATCTACCTACGCCCCGGAACTGATTTCTCCGATTCTTCTGCTCTCGTCGCCGACCTGTTCAACTTGGAGTGCAAGCTCTTGGAGTGCTACGAGGTACCATACTTCTGCTCCAAGTTCTTGATCTCTACACCCGATTGGACGTACTTCGTTCACGATCTGTTGAAGTTCGTGACGAAGTTGGGGAGACACGACATGTCGAATTACACTCACGTCGAGAACTACCGTGTTTCGTGTGTCGACACAATGAGATCTTTGTTCAACCCTGTGGTTGCTCCCGGACTGACTGTCGGAATGCAGGAACGTTACCACAGCACCTTCTGTGATGTGACGAAAGTGTTGGCCGTACTTCGTACTCTTTGTCATGACCCGAAAAAATTCGCGGCCTTGTATCTTCATGACAAAGGGGTTATTCTCTGTAATGACCCCAGTGCGAGTAGGTTACATTAATCACCCTGTCCGGCGGGTGGCGTTAAGTTTGATGGACATTTACAATGTTTTCTCCGAACTTTTATCGAGTCTTTGAAGTTGACTTACGCACGCTCTTTAGTCCCTTGCACCCATCTCGGTCCCCGTCTCTCCTATCCCTCGAAACTGACGACGACGTCCCAGCAGCTATGCAGTACGTTAACTGGAACACCTGCCAACATCGCCCGGCGCTCACTGCCGCCGCTCGCCGGCACAAGTGGTGCTCGCTTGTGGACCTGTGCAATTTTGTGGAAGCCCACAAGATGAACGGGTTTCACACCCACGCATCACGCAACGTTGTCGTTGCCGCGATCGCTCGCCTCCGGACCCACGCCCCTTTCTCTCGTACTGAGAGATTTCCGGAGGACGTGGAGTTCGTCGACTTGGACGCCACTTCGGTGCTTCCTTACATCGACCAGCTCCACCAAGCGTGCGACCTCAACGACCGTGCCGTCAACGTCGGCAACGCGCAGCCGAACGGTTCCACCAACGACGCAAAGCGCGCTTTCGACGTCGCTTTCACGAAAATTCGTGACTTCGCCACCGCCGTGGACTACCCAGATGGTTCCGGTGTGTGGACTCGCGAGACTTTCGAGGCTCGCTACGGTCTGGTCTGGGCCAACCCACCAGCCGACAATGCCTAGGTATGTGTAATGCTACACTAGCTAGCCCCTTTCTCTTCCCTACCTCCAGCCCCTAACTACTTCTGTTAATCATTACCTCTTGATCTGATTACAAACCAATGAA</t>
-  </si>
-  <si>
     <t>Asum virus</t>
   </si>
   <si>
@@ -54,114 +48,75 @@
     <t>Eskilstorp virus</t>
   </si>
   <si>
-    <t>ATCTGGAGTTAAACTGAGGAAAAAATACTGTGTTACGTTGGATGATTCGCCCTGTTCTTTTGACTCAAACTCGTTTGATTGTAGCTTTGGTTTTGGGCGTTTAGGATCGACTAGCTTCACCATGTTGTCAGACAGATACAAGGCTGTGGAAATACCCGGGTTGTATGCTATCGTTATACCAGCGGGTGGAGGTAAAACAACATTAGCCAATTTCTTCAAGCAGCTGGACGTAGACAAGGTGCTGCCTTCGGCTTTCGAAAGTGAGTTGAGGAAGATAAGGATGAATACCTTTAACTCTGTTTTTGGTGGTGGTACGCGCGCATCCTGGCTGAGGCACAATTCTATTTGGGCCAGGTACCTGAGCTTGTCGCTCGGCAACTTCGATTTTAGTGAGACACCGAGGATACTATTCATTCATTCGCACGAGATAGCCACAGTAATAGGGGCCAAGGTGGTGGGTATCCTTCTGCCGGAGGAGGAGCTGCATCAGAGGTGGACCTCAGACAGGGACTATGAGGCGAAGGCGCTTAGCCATGAGAATAGGGAATTCTTGTTAAAATACGCGAGTGACATGCCAAACATGTTCACGTATGGCAGTAGCTTGGAATTATATAGGTTGGCGGCTAATATCATAGCGAACACCATAGGATACGCTCCCGGCATCTCCGAGTATCTAAACGTCTCTGAGATCGATATGGTGATGTTAAAACAAGGGTATGATATTACTATACCGACGCGAATAAAAGTGGGTAAATTTGATTATGACGACTTGGACAGCATCATTGAATGGTGTAAAACTACAAGGTGCCCGTGGTGGTATGTCAGTATGTGGTGTGAAAAACATTCACCAGGTCTGATGGCCGACGGTGCGTACTCCTTGGAGTCGTATCCCTGGTTACATTTGTGCCATACGATCAACACTATACTTAGGAATCGGAGAGTGTCCTGCAACATATCAAGGTCTATGGTTAAAACAAACTTGGATTGGTTCGGTTTCTTCCCGCATGTTGATACATTAACCGAGTCGCGGGCGGGAGTTTCTCTTAGATCTGTGTTTAAGTACTTGGACCCTGCGTACATAGATGACTATCTAATACTATTACTCAATTGTCACGTTGGTAGTCACCACTCGTTTGTCACGTCCCTAGTGGTGTACTATCTTGGTGTGGTACAACCAATGCGAGAGAAGCTGAAGGAAAAAGTGTTGGATTGTGGTATGTTACTAATACCCGAAGAACACTGGGTGGCTGTGCACGGTGACATACATAAACTGGTCCGTGCTAGTCAATCATTTTTTGGTGTGAGCCTGAAGGATAAGGAGTATGCATGCCTGCAGTACACTGCGTCGTTGTACGGTAGGAGGAATTATTCACTTGACCCTGAGGCAGAGATAGTCAAGAGGCAGCAGACACGGTTAGATAGTAAGTGCGCACAGTTGCACGATGGTGCTAATGCGGAAGCGTACATAGAGGACTTCAAGACAGGGGTGCGATTGGCGTATTCAAGGCTGGGTAAGAGAAGTGGTTTGCGCTGGACAAATTTTGGTGAGTTCTACCATCAAAGGTACCAGTGGGCCGCTGCGGGAAGTGTGACTAATGTGCCCGCGGATATGCGCAAGTTCAAGGAGGTAATAGAAGTGGTGGCCGAGGTCAAGGACCAGATAGTCAAACTTTCTATGGATAGTAACAAGAAAAGAGCAATGGAGAAATTGGCGGGGCCAGCGGAGTTAGCGAGATATCTTAGTGATAATTGGGCTTACAATGTAACGTCACTTGCCCCCAAACCTAATGAGCCAGCTAAGAACAGGGTGCTAATGCCGGGCTCCTTTCTGCACTATGTGGCGATGTCATATATACTAGGAATGGTAGAGAGAACCGGTGATGTAGGTGCTGTAAGGGTAGGCGATCCAGATGACAATAATCTTAGCCACTTTGATCTGCGTTTAACATCGGGCACGTACAATTTCATGCTTGATTTTGCCGATCATAACGCCCAACACTCAAGCCTAGAAATGGGTCTGATAATTGCTTTACTGGAGGAGAAATTTGCTAGCAAATCTGATTCATCGGATTTGAATTTCTTTATCAATTGGGTTGTAGACTCGTTTGCCAACATGCAGATAAGAGTTGGGCTTGATAATCACAAAGTGATATCGGGATTGTTCACAGGTTGGAGAGGCACTACCTGGATAAATTCGGTCGCGTGCCAAGCGTATGTCTATGTTGGGACACAGGCATGTAAGAGGAAATATGGCTCAATAGGTGTGGAGTACTTCGAGGGCGCAGGTGACGACGTACTGATGAAGTTCAATTCGGCAAAGGACGCTTTCAGGTTCTATGGTGCGATGCAGTCTTGCGGCTTTGATATGCAGTCAGTCAAGCAAATGGCTTCCCACCGTCGAACTGAATTCCTGAGGACAATAAGCAGTGACGGCCACTTAGTGTGTTGTGTCAACAGGGTATTACCAAACTTTGTGTGTGGTGACTTGGAGAGATCTAGCGATGGCATGATCGATAGGTTAGGAGGTTGTTATGCTACAGTTAAGATGCTGTTCCGCCGTGGCTTAGCTGAGCACATAACAAAGGTAATCTACAAAAGTTATCTGGACAAGTGGGCCAGGATTAAGGATGGGGATGTTTATAAAGATATCGACAGAACATACTTACATGCACCGACTGAACAAGGTGGAATAGGGCTTCCTGATGCGGATGATAACCTATGGTACTTAGATAGGGCAATAGATTTACGCGCGCGCAAGACCCGGATTGTGAGTGGCCCGAATAATGCATCGGTGGACTACGCTAGGCATCTAAGGGATGACCTATCAAATAAGGGGATACATGTACATGAGGGCGACCCATTTATAGTTTGAGAATAG</t>
-  </si>
-  <si>
     <t>OP264885.1</t>
   </si>
   <si>
-    <t>AAATAGACAAAGAGATAAGATTCAAATGAGAGAAATAATTCTTGCAGAAGATGATATAGTACAAAAAGGACTTGACACTAGTAAGCGTGATCTGACATCAATTTGGTTTCAAGGGATGGTGAACATCAAAGAGTACATCCACCAGATCTACCAACCATTTTACTTGAATGCAAAGGGACTCCATGAGAAAAATCATGTAATGATGGATTTAGTCCAGACAGTCTTGCAATTGGAACAAGATTCTTTAAATAGAAAGACATTTGAAAATCCCTGGTCTGAAACCCCTAGGAAACAGACAGTTAATCTGAAAGTTTACCTTCATGCCTTAGCTGTCTCACTAAGACAAGATGTTGCAAGGCATTCTGAACTACGTGCACAAATAGAAAGACAAGGTAATTTTTTACGAACACCTTTTACTATTTCAACTTTGACAAGTTCTAAATCATGTATCAAAATTGGAGATTGGGAGCACCTCAAATCTACAAGTAATACAACATTTCAGAAAATGGCATCCAATTTCCAGCAAAACTTAAGACTGGCTAATCCAGAATTTGTGGAAGATCAATCTAGCAAAGATCTACACAGGAGGGCAACATATGAGGACCTCAAAAACAGATTTGGAAGCAATTTTATTGATGTTATGAGCACAAAAGTCTTTGATGAACTCTACACTATGGTAACAAAAGGTAAGGTTGACAATACTCCTACTATCTCACAAATTTTTAAGATTATTCGAGATATGAAGGATCTTTATATAACACTCTTTGATAAAGGCCAGAAAACATTTAAAGATAGAGAAATCTTCATCGTTGAGATGGAAACTAAAATGGCCTTATATGCCTTAGAGAGAGTTATGAGGCCTTTGTGTAAATCTAACCCAGAAGAAATGATTAGTGAACCTGGGGACAAAAAAATGATGAAGATGGAACACATCAGCACAAACTCTATAAAGAATATAATCTTCAAAACAAAACAATACAACAGAGAGGCCTACGGGAAAATATCCAAATTGTTAGGAGTTGTATCAAAAACAAAAGAAGAGGAAAAAGATCCAACCAAATCAAGCCCTCTCAAATTATCAGAACTAGGACATAGCTTGATTGAGACTTTTAGATCTGATATAAGGAAAGGTTACAATTTTGAAATAAATGCAGATATGTCAAAATGGAGCGCGGAAGATGTAATTCAAAAATATTTCTGGCTGATTGTAATGCACCCCTGCCTTTATCGTGAAGAAAAAGAACATTTCATTTATTTCCTATGCAAATACACTTCAAAGAGACTTGTCATACCAGACCAAGTAATGTATACAATAATGAATCAGAAAATACCAAGAGAGGAAGACCTTTTGAGAGCTATGACAGATGAATACAAAAAGAACTGGGTTACAATCAAGACAAATTGGCTGCAAGGGAATTTGAACTACACCAGTAGTTATGTACATACTATCAGTATGAAGATTTTCAGGGACATCATGTCTAGATCATCCAAACTTGTAGAAGGAGAGGTTCACACAAACTCTCTAGTACACTCAGATGATAATCAAACAAGTGTCTATTACATTCAAAACAAAATACCAGAAATCCAGCTTGGGAAGTTTATCATGGATGCATTCTCCACATCATTGTACACCACAGGCAACCAATTAAATTCCAAGAAGACATATGTTACAAAGAATATTAAGGAATTTGTTTCATTCTTTGTCCTAGCAGGTGAGCCTTTCAGTGTGCCTGCAAGATATTTGTTACCCACAGTTGGAGATTGTGCATTCATAGGTCCATATGAAGATTATGCTAGCAGGCTAGGGGGCACTCAAACAGCCATAAAGCATGGCTGCCCTCCAAGCCAGGCCTGGGTATCCATTGCATTAAACACGTGGGTGACATACATGATATATAGCATGCTACCTGGTCAGGCAAATGATCCATCAAAATGTTTAAAATTCCAAGATCGTAGGGATATTCCAATTGAGATGGGTGGATTTCTGACAACAGATCTTTCCACACTTGCACTACTAGGCCCTGAAGCCCATAACATACATAAACTCATTCATATTTTAAAGAAGATTGTCCCGGTTAGAATGCAAAACAGCACAATTCAGGAGATGGTTCAAAATATCAATAACTGGGACATAGAAAAGTTGAATGATGTTGACAAATTTTGGCTGAAATCACTTCGGTATATATACCTAGAGAATGAAGTTGGAGCAGACTCTGAACTGGGTGCAACAACTGAAATGAGGAAAAGGACAATTCTCACACCAAGAAAGTTTACCACTTTTAAATCCATAAAGAAATTAAATAGTTATAATGATTTTGATGTTGGTCAAAAAACAGGTGCAGCATACGAAGAAACCATTCTAGAATACATGGCTGAACACCCGGAATTATTAGTGTCAAAATGCGAAACTAGTGAGGAATATTTGAATGTGATCCAATTTAGGTACTTCTCTAAAAAGTTTAGAGAGTCCCTTTCTGTCCAGACTACATGCCAACTTTTTATAGAACAAATATTATTTTCGAGGAAGCCCACCATTGAATACAGGTATATAAAAGAAAGATTTGCTGAAAAAACTACTTTAGTTGATGAAAATATACCACCTCAGGGTAATGTCACAATATGTGAAGCTCTTGATCTAATCAAGAGAGACTTGGACCATCTCCAGTTGACAACCCATGATATAGGCGTTGTTTTTAAATATATTGTTCTCAATGACCCGATCATTGTTGCTGCAGTGAATGGGCAAATGCTTCAAAGAGTTACCAGCACTATGAAGAAAACTGATGCAACCTGTTCTATGTTTCCAGATTTCAAAAATGTTCGAGTGACTGAAAACGTACCTGCCATAGTGATAAGGAAATACATTCATGGAGATAGGTACACTGCACCCTCGGTGATAGATCCATCAGGGCTGTCACGAGATGTCAACTACCTGAAGGCATTTATCACTGAGTTAAAATTAAAAGAGACTATGGAGGCTAATATTGCAAGAAATGCCATGATTGCTGGGCCAAATACAAAATTTAAAGTTATGGAACTTACAAGATTCTATCAGATGTGTTATGATTATCTAAAGTCAACTGATCACAAAATTAAAGTTTACATCTTACCAAGAAAAGCCTATACACCCACTGAATTTTGCTCAATTACTATGGGAGCATTACAATCTGACGACAGCTTTAAAAACATCATCTTCCACAAACCCATTCTGAGTACAACCCATAAAGCGCAATTTGCTACCCCTCTTGACTACAATGTTGTAGTAGGTGATATGGTTTTAAGAATGATCGTGCACTTTGCAGACACTTTCTTAATTGACTATGAGCGAGAAGGGTTTATAAAAACAATAATAGAGAATTTCAGTTATGATGGAGTTCAGATTATGGACTTATATAATGCTGTCATGAACTCAAATAGAAGACAAAATTTCTTGCCTCTCATCTATAGGTTTGAGGGAATCACAGAAAAGTTAATAGAAGACGTAAATCAGAAGAGGAAATCTACAGAAGCCTTTTGGTTGGCTAGACAAGACATTCCTAAAATGAATGAAGGCCCACTTGAGGTTTTAATTACCATGAACAATGCAGATCTACTGCTGAAGGGGCAAGATGCAAAGATTGAATATGCAGAACTTCGAACAAAGAACAGGTATGCAAAGCTAGCAAAAATTGGGAAAGACATGTTCAAAAGCTGGAGAGGTATCCATTTTGATAAATTCAAAACATTAAATTGGGAAACTGTTAAGAATACAACAGTATATCTTACATATAAAAGAATGCCTGGATCCAATAGATCAAGAGATTTTCTCTCATTTATGGAAGGGAGGTTAATACTGACCAAAAATCAAGAGATAAAACAAAGAGTTTCGGAATACAAATCTTTTTATATGCCACTTGCTGAGGTCACAGTTGCAAAACTTGACGAGAGAGATGAAATCACTAGGGAAGACCTGGAAGTATACAATGAAGAAAATATGCAAATGGCAAAATTGATACTTTCTCAAGAAGAAACAATATTTATGAGGAGATCCTACTTCTCTAAAATGACAGGAATTCAGGGACCTGAGCTCAAATTTGGTTCTATAAGTATGAACAAATTCTTTAACAATCAAATCATGCTCATAGAAAATTATGAGTCCTTGCTAAAGTGCTCTGTCCTGGATATTGCTGATATAATAGAATGTACAGGAGATCAGAAGGGTGATATCTTCAAATTCGCAACTGAAGATCCTATGATCACTAATATTCCAGACACTGTAGACATGGTTCCAGCACTAGTTATCCAGAAACAAGTTAGGGCTAAAGAGGGAAGATCATACAAACAAGGCTTAAACAAAATTCTTGAAAAAGACTTAGCTACCTTTGAATTGGAGTTTAAAGCAAAGAAAGGAGAGTTTAGAAATCCGTCCAATCTTGGATTTTGGAGAGTCCTAATCAGCATTGCACGATTAGATATGGAGAAAGAAACAAAACTGCAAAAAATATTTCATATTTATGCTATAATGCATAATTTTGACCATCATTACCATATGTACAGGATGCCAGATTTTTATGTTAAGCAGGCAATTGGGGAAATCTATGATTATGACAAACTGCATGAAATAGTTGACATGTGCCCCCAACCCAAGATAGAACCATGGAAGACCATATCCAAGGAGTTTGTAATGCATTGTCACAGTGCTCTCCAAAAAGATCAAAAATCAAAATCAGAATTTATTATCAAAGAAGAAGCAAGAGAAGATTTCTTTGCGCAATTTGGCCATTCAGCAAAATTAGATTTTAGCTATGATTAAATTATACTAACTAAGTTGAGTAGTCTTATTCAGTGGTGTATATATTAACATGGTTGGTGGATGTGTGTGTTGTGTGTGCAGTGACGTGTTGAGATGTACATGATTAGCATATGTATATATACAATGGTGTGTGTGTGGATTGTGTGTGTTGCTTGTATTGTGTGTAGACTTATCTGCTTGTATTGTGTGTAGACTTATCTGCTAGAATTGTGTACTTGAATCGATGAAAGAATGAATGTTTACGTTTCT</t>
-  </si>
-  <si>
     <t>OP264894.1</t>
   </si>
   <si>
     <t>Rinkaby virus</t>
   </si>
   <si>
-    <t>CGAAGCCATTGCTTACCAAAGCTCGATATCTGATCTTCAATACGACTTACCTAACGGATCTACATTTTCACCAGACAAACACGTTGAACTGAAACTAAACAAATCAACCGGTTTTTACGAAACCATAAAACCCAAACCCGTTGATTTGCAACAAATCCCTTACATAAATAGAGTCGCAGGTTATAACGCCAAACACTTTAAGCTTAAGGTTAACGTACACAGTAGGCTCGATGTTACGCATCGTTGCCCGAAAGACGTGGTAAGACTTCTGAATCCACACTACGAGCGTAAACTTACTGGTACTAACCCACGAGACGACACCATGAGTACCACTGCACTTGATAATATTGAAATGCTGCCGATTAAACCTGGCTATCAATATCTCGTCTTTACACAAGATGAGAAAAACAAATTAATTGAGTATTTCAAGAAGAAAAATATCAAGGCTAACGTCATGAGCGTACACGAGTCTCAAGGAAGTCAGTTTAGTGACGTGATCATCGTCCGGACTAACATTATTAAGTCTACATCGACGTTCTCGTCGTTGCATCACATCATTGTCGCGGTTTCTCGTCATACAACGAGTATGCAGTACATCCTAGTTGGCATTAAGACTGACATGTTATCGACGATGATTAAGAACAACTTAAGATCAAACATGAAATCCGAGGGTATACCTAAACTGTCAGGTGGAGCTTCCTCCGAAGTACACGCTTCTTTACCGGTAGTGAACCACGGTGGGCATAAGTACGCGACGTTGCTCGAACAGAACTTTCCAATGGGGGGTGCACACGTCAGCAGTCACTGAAGTGGCAAAGTTGATGGTGAGTGCACCCCCGCCGATTGACTCCGTACTTGAAACACCCCATTACGCAATCATCCAAGAATTTCTCGACACCGCTTTTCCCGGCGGAGCTATCGTAGATATCGAAGCCATTGCTTACCAAAGCTCGATATCTGATCTTCAATACGACTTACCTAACGGATCTACATTTTCACCAGACAAACACGTTGAACTGAAACTAAACAAATCAACCGGTTTTTACGAAACCATAAAACCCAAACCAGTATCTGTGAAACCCGTCTTGGTCACCAACATCCAACCCAATCGGGAAAGGAATCAGCAGAATTCTGTGGAAGCACTATTAGGTAGAAATGCCGACGTACCACAAAATTCTGTGGCTGTTAATAACAAGCGAGTCGCCGAACTATCAGTACTTAAGTTCTTTGATTCCTACGTACGACCCGATGCTGTTGACGCCATAAAGAGTTTCACAGAGTTGCCGATATCCATCAATCAGCAAGACCTTTATGATTGGTCTCAACGATCTGGAAAAAATATAACAGATTGGTCTATAGACAACATCGGTATCCACGAACGTCTACCTAAAGACGCTATGAATGTCTATTCTTTTCAGATCAAGCCAGAAGTTAAACCGAAATTGGACTCCACTTCACATATGACTGTACAAGTACTTCAGACCATTGCATGCCATCCTCAAACTGTAACTCAAATAATGTCACCCATTTTCAAAGTGGTTGCCAAGAGAATAAACTCCGTACTTAAAAGTAATGTTTTAATATTTTCTGACGCCTCACCTGACGAACTGATACAACAGATCAACGATCATAAGCAGGTCAAGTTTGGCGAGGAATTATACGTTACTGAGATCGACATAAGTAAGTACGATAAATCTCAAGGTGAACTTGCTCTAGAGATCGATTTACTCCTGCTCAAATTATTCGGTGTCGACGACTTTTTCTTAGAACTGTGGAGGACAGCCCACGTCAAAGCACGACTTGTCGGCACTGCAGCAGGTATTTCATCGCCGACTCTATATCAACGCAAATCTGGTGACGCTTGGACATTTGGCGGTAACACATGCTTGACTATGTGTGTAGTTGCAGCAACCTTAGATCTCGCTTCAGACGATTTTTATTCAAGACAGTCGCAACGCCTTTGGGGTATTACTCGAGGCGTCTCCGTCCCGACTAAACCTTTTGTTTCCTACGCAATGTTTGCTGGCGATGATAGTTTAATTATGTCATCAGTCAAAATGACAGACGATTCGCAGAAGATGATGTCCGACTTTTTCAATTTCGAAACTAAGGTGTTTTCCTTCGTTAACTCCTATTACTTCTGCTCGAAATTCATCATTGATATTTGCGAACAAATGTACATCGTCGCTGATCCAATTAAAACTTTCTTCAAACTTGGACGCACTTCTATGCAAGACTTCAGTCATGTCGAGGAGTATCGCGTATCCTTGTACGACCTCTTCAAAAGGTTACAAGATCCTAACATACGGCGCTATGTTGCAGCCGCTTGCGTCGACCGTTATTCTCTGAAAGTAGATCCGGAAGCTGCTATAGCAGCGCTTTCGTATTTGGTCTGCAATCCCCGTAAGTTTTCCGAACTCTTCGTTTACCCGGAGAAAGTAAATAAAGTGTACGCTGTCGATAGTGCCGTTTATGGTAAAGTTCCTTCTTTACATCGCGGGTATTTCAAGAAAAACAAAATACCCATAAATCCTCGAAAAGGCGACTATATCTATAAATATTCTTACGAAGAACTCCCTAACCGTATCTGTCTCTACGCAGAATACCCATTGGTTGTAGTCCCTACAGCCGGTAGGGAACTCCGTTACAAATTGGCCAATGTTTCTTAATTCTATATTACTTTTAAAGTATAAATGGATATTCGTAGGTACCTACTCCGGGAGTTTTCAACCCTCTCCTGGATTGCTATCGTAATCTTCATTAACGTTATTATTCTGGTTATAAACTATCCCTCCCCACAGTACATAGGCGAAGGTCGCATTACTTGGCGTGGTATAGTTTACACCCAGCAGGATATTACTTTTGTCTGTCGCACTAGTACCACCGTTTGCGTTTTTCAATCGCTCATTTCGCTAATCATCGCTCTGGGTTACCCTTTGTACCCAATTGGAATTGTTGCTGCTTTTATTTATCTGCTTAATAAGTGGATTTATTTCCTAAAGCTTCGTTATGCAGTCGATAACGATCCTTCTTTGCCTACTTATTACTCCACACGCGACACTAGCGGTACTTCGGGAAATCTTTCCCAGGTACAGTGTAGCTAAAGGAGACTTCGACGAAGAATCACTTGCAAATCTTTATGACCGCGGCTCTGTTGTTAACGAAGCCGATCTCAATGCAACCTGTAATGATAACGGATGTTCGGCTGAATTTTCCCACTCATTCAATTTCAACGCTGCTCGAGCTTCAGGAGTTAAACTAACTCTTGAGAACAATGGACTACAAAATTCAACTATCGTCTTGTCCGTTGCTGAACCATCGTACACTATCAAGCTCGACTACATCTACACTATCTACCCCGCCTATCTTTTTGTTGGTTGGGCTTCGTATAATTATGAGGAAGACAATTACAACCAGTGTATGAATCAACCAAATTGGTACGACATGATTAACGCCCGTCACGAACCTATCAGGTCGTACACTGATACCTATCGTAGGTATCAGATTGTAACCTCCCAAGCAAAGCGTATTGACTATTCTGCTTGGGGCCACACTGCCACATCGGTTTGCAACCATCATTGGGCCACGACTTACGTCATGTGCGAGCGTCGTTCACTTGTTGTCGACTACGCACAAGGCATCGCCGTATTTTCGATAGCACCCGAGTCCGAATTGTCTATGACTATGAATTTAGCTATCAACGACGATGTAAAAAATTTTGTCGTTCAACCATCTATTGATGTGCCCTTCGAAATTGATCTAGACAAGATCACATTTTCTGTATCACCCGCGGGCACTATTATTTCACCATTGGCTGGAAAATACTACCTCGCCCGCTTTCAAAGGGAAGACATGTTTTCTAACATTAATGTCACTAATTGGTA</t>
-  </si>
-  <si>
     <t>OP264895.1</t>
   </si>
   <si>
     <t>Hubei mosquito virus 4</t>
   </si>
   <si>
-    <t>GGAACGGTCTGTAAACCAGGGAGTGCAACGAAATCAGCACTCTCCTCCCTTTTACAGACGCGGGTGGGGTTGCACCCTACTGCCAAGTAGGGCGGCCACATTCTCCAAGGGATCTGTATGAAAGGTAGAGCTATATCCGATAGCCAACTACCTGGCAGTTCCCTTCGCACGGGGGAATGTGGACACAGCTGCAAGCGGTACACGCGGAAAATGTTTGATTACGACACAGACTTTGGAGGTAGTGGGTCCGTGGTGAAGACACACCTTTCATGTGTATGTAACGAAGTTCTAGCTTTGAAGAACCGCCACCAGCTTGACGACGGCGCGAGGTTCACGTTCAAGGGCGACCTGACCAAGTGGGTTAGGCGTCGCGTGAAACCCATGCGCCCCTGGAGTGAGGATATGGTCATAGAGCATGCCATACCAAGCAAGAAGAGATTGCTAATTTCAGCTAAGGATTCACTCTCTGTGTATCCCTTGGTTGAACGAGACGGAGCCATTAAAATGTTCCTTAAGGATGACAAATATCATGGGGAGTTGAAGGATCCAAGGTGTATACAATACCGAAATAAACGGTATGGGCTGCGCCTGGCGACCTACCTGCACCCTCTTGAGAAATACGTCATGTCCTGGACCCGCAACGGAACGCATATATTTGCTAAGGGTAGGAACATGAGGCAGCGCGGTAGAGACATTGCACACAAATTTAACAGGTATGAAGAATGCGCTGTGGTTTCTTTGGATCACAGCAAGTTTGACTGCCATGTTAACGAGTCTTTACTACGCGCTGAGCACTGGTTTTACAATCAGTGCTATGGCTCAGAGGAGTTGGAATTCTTGCTCGAGCTCCAGGTTCGCAATAAAGGGACGACCAAGAATGGCACCAAGTATACCACAAAGGCTACTCGGATGTCAGGTGATCAAAACACTGGTCTGGGTAACTGCTTGATCAACTATATGATGACCAAGCAGCTACTCAGTAAGTTGGGAGTGGGGTACGATCTGTACATAGATGGTGACGATTTTCTAATCTTTATGGAGAAGAGACACGTCCCACTCATCGACCCCAGCGCCTATTCAGTCTTCGGCATGTCAACTAAGCTGGAGAGTGTGGCTCACATCATTGAGCACGTGGACTTCTGCCAATGCAGACCAGTCTTCGATGGTGTGGGGTATACAATGGTGCGGAACCCAGAGAGGATGCTCGCTCGGCTACCATGGATAGTTGGACCTATCGAGGACAGCCGAGCTTTGGATATAGTATTCTCGACAGGACAGTGTGAGATCGCCCAGGGCTTGGGTCTACCTATTGGCCAGTTCATCGGCCAGCGAATGTGTCAAAGAGGTGGAAAGATGGTTCGCATCAGACATAGGGCGTGGTTGGAGAAAATGAAGCCAGGAAAACTCCAACCTATAGAGCCCGTGGGTGGTGTGCGTGAGAGCTATGAAAGAGCTTGGGGTCTGTCAATCGCTGACCAACTGCTGATTGAACAGACTGGTTTGGTGGAGCCCGAGGAGCATTTCGCTCCGGGTGTTCTACAATGGTGAATAAAAGCAACACCAGACGAGGCCCTAAACAGGCCGCCAAGCCACGCAAACAGCGTGTGAAGCAGCGTAGGAGGGGCGGGACCACCGACGCACCAGCTATTGTCAACACTGGTGCCACGGTTAGGTCCCAGGCCAAGAAAACCATGCGGATGACGGGATCTGACCGTCTAGCGGGGTTGACCTTCAAAGCAAGCACTTCCCCGGGAACTATCCTTTATGAGCGCTTTATTGACGCTCAGATGTTCCCAAGCTTGTCTGAGAGGGCGCGCACTTTTCAGCGCATCAAGTACTCGAAGCTCGTTTTCAAGCTAGTGTCCGAGTCCGGCACCAACGTTACCGGTGGAATTGCTGCAGCCTTCTATAAGGATGCGTATTCCCAGGTGGTCGATGGTGACGCGGGGCTCACGAACCTCATGACACAGGCTGGAGCTAAAGCCACCAAAGCGTGGCAAGAACTTGTAATTTCCACTAACTCCCCGGAACAATTCTATGTTACGCCTGGTTCCGACCTCCGTCTTTATAGCCCAGGAAAGTTCGTCGTCATGACGAGTGGGCCTGTTGACAAAGACTCTCCACTGTCACTGTACTGTGATTGGACTGTGGAGCTGTCCAAACCGGGGCGCAATGCCCCCCAAAAGCAGGTTGAACAGCCAGTTGTGACCTGCTCCTACATTTTGTCTGGGGTAAACTCTCAAGACAAGCTGCATGGCCGTAACTGGGATCCCAGTACGGATACAGAAACGGTCCTTCAGGATCCTGATGATCTGTTTCATAGTCTCGGCAATGTCGAGAACACTGACTTCACCTCGGCTAAATTCTATCGGCTGCCACATCCAATGGCAATCGATCAGACGAATGCTGAGGATGACCATTACGTTCTGGTAGTCAGATTCATGCAGCTCGTACTTGAAGATGGCAAACTAGTAGGTCGCCTCTGCCACCGTCCGTCCACCAAGGCGGATGAGATCAAATGGGCCACAGCCGTGGACATGGTTCTCATGCAGGGCGACATACTGGAGCCGGT</t>
-  </si>
-  <si>
     <t>OP264896.1</t>
   </si>
   <si>
     <t>Dezidougou virus</t>
   </si>
   <si>
-    <t>CACATGGTTCTCGTATGCGGAGGTTACAGCCGCAGAGCGAGTAAGCAGTTTGACAGCGAGATCTGAACGTATTTGGTCGATGTCAACGTTCAGTTGTTTTGAAAGTTTTGACACTACGAGTCCTGTTAAGCTGCAACCCCTTAATATGGCTCTCAACTCGCAACAAGTTGACAACGGAGTAGCAACCAACTCCATTCTTTTTGTGTCCGAACTTTCTAAACAACTGAACGTTGACATCGACCAAATACGTTCAGATCTCGCTGTCAAACTGCTTACTCGCTCTGCGGCTGTAACCTCCGCATACGAGAACCATGTGGTTGATAGCGTCACCGACACTATCGCACAATTTAAAAATTTGAACAAAGAAATTCATTTGAATCAACGTCTTTCTGATAGTGAAAAAACGAAATTGATGCAATTGTTTTCCCCTCCATATAAACTAGTCTTCTCCCGTAATCCTACTGATATCGGTGCCCATCTATTTTATCGGTCTTTGAACGAAATCGCCACTTATCGTTGTTACGATCTACTTGGCGTAGATGAACCTGTGCCCATTGGGTATGATGTATTGATCAAAGAAGTAGGTGCATCTGTCGCCAAACTTGTGAAATATTGTCGTCCTAATGTTCATGCTTGTACCCCTAATCTGAACTATGATGACACCCTCCGTTTGGCCAATACAGTTAGCACTCTAGATCGCTATATCAACCCTACCGGCCAATTTTGCCGAAAACGCCAACATTTGGCGAGATTGTATTCTACTGATCCGATCTTTAGATGTTATAATAAATCAGAACATTGTTTTATTAAAGCCAAATACTTGGTTTTTGCCCATTCTAGTTATGATTGTACACTAACCAGTATGGCTAATATGATGGATTCAGCTCTGGCTTTTCGAGCCATGGGTTTTATTCATTATAGTCCTAAAATTCTGTCTAATTTGAATTCTGGCTCCGATAATGGATTGAATTGGAGATTAGAATGTAGGTCTATGTGTAGTGGAAAATTGCATTACTCTACAATTGGAAATCCCGACGATATATCTGACAAATATTACATCACATTTTGGTTTGATAATGATTATCAAAATTCATATGTGCACGAATTAGATACGTACTTGGGTATCATACGCAGTTCTATTTGCACTTCTCGCAAAGGAAATAGTTATATGATTCGTCGTCTGGAAGAAATAGGAGGATTGCTATTTTATGAAATTATCAAACCTTTTCACTCAATACCTTCATCATTGATTATTCGTAATATCCCCTTATCTGATCCAGATTCCGTTATTATACACTATTATAGTCTGCAAAATGACCCGAGCAAGTATCATTATCATGATTTAATTCCTGCTAGATTAGTTCTCCCGAGAAAATTTTTCGAAAAGCTATATTATTACTTGCAAAGTCTTCCAGAAGGAAAGTTTACTACCCAGAATGCTATTATCATGGCATCTACAATGGCGAGTCGTACGGTCGTTAACGGCGCCTACGTATCCCAACCTTATGATTTATCTGTTGAAGAAATAGATATGGCCGCTTACGCCGTTTACTTCATCGTTTATTGTAGACGTTATGATTTCATGGAAGTGTTAAAGAAGTTGAAGAATTTTGAAGATTTAAAACGTAATCCCACACTGTTTAATCGCCTCGCGTGTCTGTTCCGCGGAATTAAAAACTACATATTATCTTCTACGTTTGAGGAATTTAAAGAAGAAGTCGAATTAGAAGATGTCACTGATAATGCTAAAGCTCAGATTCGTAATGACATACATACGAAAATGACTTATAACATCTTTCAATGGATAATGCGCTTATTTCGCATTAAAAATAGATATAATGTTAGATTCATTCCCGTAACACGTGTCGTTACTATTGAAGAAGACATAGACGCTATTAAAGCGATGAATACGACTCTTCCTAAAATTGTTTCTATTCCGAATCCGGCTGAACTCAGAGAAACGGTAGCTGAAAAATTGAAGATTACTCGAGTTGATGCTGACGTTTGCGAATTGCGTGAAGATTATTGTTGTAAAGCTAATCTCTATGAGTCCCGGAACAATTACGATAAATCTTGTGTGTTATTATGTTTCTGTAATCGTCGTAATATGACATTACATGATTTGAAGCATACTCTTCTGAATTCTACTTATTTCAACAATTTGTTTGTCACTGCTAAAATAGCTATGAAGGATAGTATTGAAAATGCTCGTGCCGATTCGAAGATATTTGAATTACTAGCTTGCGAGTTTCATGTAAATATTTGCGTACACTATGAAACCACTTGTACTTTTCATGATGTAAAATCTGTCACAACATATCATTTTTCTGTTAAAGATAACCATTGCGTAGAAATGCGTGAGAAGTTAACTATTGCACCATTTGAATTTCCTCACATGCCAGACTTACCCGCAATCACCGATGATTCGCCTCTTACTCAAGCGTATCAACAACCTGCTGCTAATAAATATAAGATGCATAAAGTAACTGTAGATAGTTATAGTCCATTCGTCTGTCGCTCCGCTTTGAAATTACACGAAATGGATTCAACCTACGGTGTTATTATTCCCGGTAATGTTTGTGAGTTGTCGTGTGCCCCAGGTTCCTGGATGCAATATGTACATATGAATTTCTCTCAGTCTAAATTGTTTTATTCTCACTATGCGGATGGTCTTGAGTTGAAATATGATCATGAGGACATGACCTGTCTTAATACAATCACAGACGGTGATTTAACCGACTTTGATTGTATTACTGAAGTCACCCACATGATTGAACGCAATGATCGTATGGATGTTGTTCTTTCTGATGCCGCAATATTAAAAGCTGACGAAGATTGTGTTGACACCGTTAAGTTTTTTGAATATCAAAGGATGTTTTTTGCTAACATATCGAACTGGTTAAATGATAAGGGAAACGTAGTGTTCAAGTCATTTGCTGACGTGAAAGTGTGCTCGGAGATGAATTGGGCTTTAAATCATTTTGAAAATGTGATTTTCTGTAAGCCAAATTTTTCTTCTCCGATTTCTACTGAATATTACGTTGTGGCTTTGAATTTTGATGCCAACAAGGAAGTTATCGTTCCAGTCTCTTATTATAATTATCCGGTTCTTGTTAAAAATAAAACGATTCAAACTTGTAAATCGTTTTTAAGAAAACAATTTCCTCCACAAACAAAATATGTGTTACCACAACCAGCTTCCATACATCCCGGCGTTACTCAACCTCCTCCTAGTGTTAATATTCCGGTCACCCCGATACCTAGTTCAGATGATGATGAACTTCCTGTAGTTATTCTTCCGATAGACACTTTCGAGACTCGTATTATCAAAAAATTATCGACATTAGAACTTCACGACGTTACTGTTCCGCCATCGTGTACCGTAGTACATGAACACTCTGATGTTAATCCCGATGTGTTCATTCAAATTTCTGACACACCTTTGATAGCGGATGAAATTTCTAATGCTATAGTTTATGATCTCCCTATGTTGAGAGTTGACCTTAGCATTGTTCAACGTCGAAATGCTTTCTCATACATATCTTTTATTGCTACTAAGATCGCTACGTTCAAACTTCGTATTGTAGTTGATTTGACCGCGATTCAAGATGTTGATGAGATAAAGAAAGTTCAATCGCATGTCGCTACTGAATTTGGTAAACACGAACTCATCATTGTGTCTAATTACACGGATTGTGCGTATCCCATACATCTCTATGAAAAATCAATTAATGAGTATGTAGCTTATAATCGCTCGCTCCGCGCTTCGAATTCGAATAACTACAATTACGTATATCGTTCTCTATGTAACAACAATTTCCAGGTTACGCAATCATTCTTAGCCAATGTCGCCGTTAACAAACAAAATATGTCCATTTTAATGGGTAATGTCTACAAATATAAGCACCCTAACAGAAAAGATGAGTATACACATGCTTATGATGGTGCAGCTGGTAAGTTCCTACCATTCGATCAATGTACGGATATTACCAAACACTATCTCGTCGGTGATTATACTCACCTTATGTTTGATGAACCGACTGTTGAAGCTGTTTCTCAGATTGATATTGAACAATTGAAGAATGTTCAATTCGTTTTGGTTCAAGGAGTTGCAGGTCACGGTAAAACTCGTGAAATTGTAGAAAAACATAAACCTAGTTTGAGAATGGGCGGCAGAGGTGATTTGATTGTGGCTCCTACGAAAGCTGGTATTAATGTGTTGTGGGAAAGAACCTTGGCTCACCATAAGTTGGACGTCAACAATCTTGACGTCAAATGTTATCGCACTGTTTCATCATATTTGCTCAACAACAAAACGGCCAAACAACATGATACCGTATTTGTTGATGAAGCGATTATGATGCATGTTGCCCAGGTTTTAGCTGTGGCTTACTATAGCGGTGCTAAAACAGTTTATATGTATGGTGATTCAGCTCAGATTCCGGCTCACAGCGCTCTTGGTGACTTTGAATTTTTCTATCATTCTCCGCAATCGTTATTTACTGCCAAAGCCATTAGAGATAAGTCGTATCGTATTCCAGCTGATGTTGCAGCGGCGTTGGACCCGGAGTATAGAGCCTGTCACGCCCGATTTGGCTCTAACACCGGTATCAAGACCGCTAGCACTGTCATTCGTTCTCTAAAAATAGTTCGCATTAATGACGTTTCACAGATGAAGAATTTTTATAATGAAGATGTTAAGTATCTTACTTTTACCCATAGTACTTGTAGTGAACTCAAGAAACTGGACCCTAAATTTGATCCTAAAACTGTTGCTGCGTATCAAGGCTCTGAACATCCTAGAATTGCTATTGTACGCACCTCTGTTTCAGAAGCAGATCAGATATATAATAATGCTAATTTGTGTGTTACCGCTCTTACTCGGCACACTAAAGAACTCACATATTACACAATGTGTGATAAAGATGATTACTTGTCCCGAGTCATCAAACACGCATTATCATGTACTGATTTAAATATCAAATCGTTCAGTACCAGTGAAAATATTGGATCCACCATCGTCCCTACTTTTGGTTCAGCAACTGTGAATAGGTTCTTTAAATCTAGACAGAAGTTGACTTCAAGTTTTACGATGGTTGATCATAAGCATATGGTCACTGAAAAAGAATTCGCTACAAGTTTGGTGGGTATCAGAAATGATATATTCGTTGATAAATCAGTCTTTAAGAAATTCGATATGGGTGAGATGATTCGATGGATTAAGAAGTTAGCTCCGCAAGTTAAAGAAGTTTTTGTGAGAGTACGTAGTGAACCATTTGAATCAAATTCATCCGTTATCGATTTGGTAGAGGAATATAAATGCGCTAATACAATATCGACTACAGTTACTGAGAAATTGGTAGCTGTTGTTGAACCTTATATTCCTGAACCGATACAATTGACTAATTTTATTCGAATCTCTCCTAACATCGAATTATTGCAAACTTTTATGAGTCATTTGTTTCCTAATTCTGTATATATTTCTAACCAATTTGATGCATATTTTGTGCATACCAACGATATTCACTACACATTGAAGGATGTATCGTTTTCCCCCCTATGGGATAGATACACTCCTTCTTCGTATGCTTGTTTGAGACCAGTTTTGAGCACTCCTGCTCCAGCTGTTCGAGATGTGTCTCAACGTGAGATATTGTTGGGTATTCAGAAACGTAATTTGAATCCACCTGAACTTATTGAAAATGTATGTTCGGAAGACGTTGCTGATCATTTGATACAAAATTTTGCAAAAATGTTGGTTCCTGGATATAGAAAAGTGATACACGAAATGGAACCTATTCTTCCTACCACGAATTCTATTGTTTCGTGGTTGGAGAGACAAGACAGGTCGGTATTAAAGAATATTCGAAACGATATTCCTATCTGTCTTCAAAGTTTGTCTAATTGTTCTTTGTCTCTGAAACGTAATCCCAAGGTTCGTATCTCTCCAACAGCTATCGACATCTATGATTCAGTTCAGACTATCACGTGTCATCCCAAATTTATTAACGCCTACTTTTGTTCTATAGTTGAAATGGCGCAGGATCGTCTCATGAAGCTTATGTTGCCGTATTTCAAATTTTTCACCAAATGTACCACTGAGAAATTTGGCGAAGAGTGTTATGAAATATGGAGCAAATATGGTAAATTATATTTGTTCTCTGGTGACGATTCTTTGCTTATTAATGGGAACACATTCAAGGAAATGGATATGAGTAAATTTGATAAATCTCAACTTATTTTTGCTCTCTCTTTCCTGTGCAAGGTTTTCGTTAATTTGGGTGTACCTAGTTATGTGGCTCAATTATATTATGAAATGATGTACTATCGTATTTGTACGGATGTTCATAATAAAGTTACTATGGTCCTAACTCCTCAAATGGAATCCGGATCTGCTGCCACGTACTTTGGTAACACGTGTTTTTGTGCTGCAGTCGTTCTGTCTACGTTGGATATGGGTGATTTTTCTTATACGCCTAGATTTGAAAAGTTTTCATTGATGTTCAATCTTGAAGTCAAAGAAT</t>
-  </si>
-  <si>
     <t>OP264897.1</t>
   </si>
   <si>
     <t>Broome reo-like virus 1</t>
   </si>
   <si>
-    <t>GTCTCTGTGGCTTCTCGAATACTTGAGCAACGACCACGACAATGACAAGACAATGGAATAGAGAGCTATTGAAAAAGATGCAATTCTTTTGCAGTCGAATAACCCAACAGACGTTACGGAATTTCAGAAAGACAACTAAGATTAGTGATAAAAGAGTGGTTGAAAATATTCTTTCAACTATATCACAGGCCGACAAAGATAAGGTAGATATCGTCACCGCCTATGACGACATCTGTACTTACCTGAGTGCCGGGCCAGGTGATGAAGCCCTTGATCTTAGTAAGATTACGTTACTAGATAATGCCTCAAAAGCATTATATATGAACTCGAACCAGATATTATTATACTTAAAATTTATAGAGCCTCACGAAACATGGAAATTGCCAGAGGGATTTTTCAGTCAGATAGTTCCTACCGTATTCGAGAAGCCACAGAGACTAAATTTAAGATTGTTCGGTTATGACGTCTATTCTGGAAAGTTTATTCGTCCTAAAAATAGATATATAGCTAATTCTTCAGCTCATGAAGCGATGAATTATTTGTTAGATAAAGACGATTCGAAAATTGATCCATTAACTGGACAATTAAAGGAAAGAGATGTTGTATTAGGAGGACACTCACGGATGTTCAAACTATTATGTAGTCAGGAAAGAATTGGTTCAGCAGAGATTCAGATTTTAACTGTACTATTCTCAAAACAAAGTAAAAATGAAGAGACTTTGGCTAATTCTCAGTTTTCTAAAGGTCATCAAGGGCCGATGAAACGGGGATGTGACCTAGTAGGGATGCAAGCGATTGCATATTTACTCAGAGATAGAGAAATTTTTCCATATACTACGGCGGCAAGACGAATGCATGTAGTAGATATATCGAATGATTTCTCTTGTACATTACCACAAGTTATAATTGTACTATTAAACATAAGTGTAATGGAACTTCTAGGAGTATACACCCATGAATACGCTAAATTAGTTGTTGAATATATGTTCGATAAAACATCAGTATCAATATGTCAGGCTTACTTAGAACAAGGTAGTACATTGAGAGATTTAGGCCCTGCGCTTTATCTTGATATACCCCACTGCCACACAGTTCTAAGAGAGCCAGACGGGGTACCATCAGGGAAAACTTCTTTAAATAATTTCAGAGATTGGGATTATGAGAACAAGAAGAAAATGTATACTAAAAAGATATCGGAACTAAGAGGTATAGATAGAAAGGTTTGGAAGTATGTGTCATCCCTGGTAACGGGAACAGGTAGTGAACGGTCCGTAAGGATCAGACATGCTATCATGTTACTAAATGGCATTACTTCCCCTGCGATATTTAATAAAACTAGTTTAATCTTAGAATACGAGAAATCAGCCGCACCAGTTCAGAACATCACAGTACCTTATCCGTCGATTAAACAGAGAATGTATGATATCGACGGACACGGACAGGCAATAACCTGGAATTGGGACGATTTACCAGATTTAGTTAAAGGAGTTCATCGAGTTTTTAAAAGGAAATATCATCAAAGAATTGTTGAAGTTTTAAAAACGAAGGACTTCGAGAAGGAATTTGCTGAAGCAATGACTAATCGGAGTGAAGGTATTAAAGTTGAAGATCCTGATCTTCCAAAAAGATTACAGAATATATCAAATACTAGAGTGATTAGTCTAGCATTAAATCCAGACGATTTAAATGACTATGTTAAATGTCTGAATAAGTTGAGATCTGGAGGATTTTGTGCAATCAGATTTCAAATTAGAAGACGTGCTCGAGTAGTAGTGATGGTAATCAAACAGAAACAGGCACAACAAATAGTTGTGTTAAGAGGATTCGAACAGTTGAAAAAGATGTGTGATGTAATTGATGTTGGACAACAGAAAGGAGACATCCGAAATTGTTCATCAATGTTACACGGATCTAGCGGCATATATGGAATTAATAATTCTAGTGATCTGAAAGGACAAGATGCCCATACAATGCCGGTAATGTCAGACTTTGTTAATTCACTATATACTGATACAGTGTTTGAAAATGAACCCGAAAGATATTATTGTCATAATACATCTGAAAAGTTAATATCGACGGGAGATAAAGAACCTGTTAAGAAGAAAGTATCAGCAGTCTTCCAATACTGTGCTATGGTTACAAGAGAAGGAAGACCTTCGAAATACGTTCTAAAAGATGAATGTTTCAAATTATTAACAGACTTCGTAGTTAGTGACACTACTTACGAAAGTGGCTTATATGGAACTACAGCCCAACATACTACTCTATTTTCTTTAGAGCATGAGGCTAAGGTTGAAGAATTTAACCAATTACTTGGAAATAAAAGTAAGCTAATAAGTCATGGAAAATCAGTTGGTGATGATTACTGGGAACTTATAAGAGCTGATGAAGAAGATATTATCAAGTATCTCGATTTTTGTAAAAAGAGACTAGAAGCGGTAAACTTTGAATTGGAAGCTAGTGTATCTAAGATATTCTCAACTTTTCTTCAAAACGACTGTTTACTAGGTATGTATGTACCTAAACCAGACCGTATGTCCCTGTTTTGCGAGGAAAAACACGAAGTAAGGAATAGGGAGAGACTCGATGTGGCTAAGATCTTAGCTTCA</t>
-  </si>
-  <si>
     <t>OP264905.1</t>
   </si>
   <si>
     <t>Biggievirus Mos11</t>
   </si>
   <si>
-    <t>CACATGGATGTTATGGTTATTTCGGCCGCAAGGTATCATATACCGGAATCCGCTAATTTTGGAATATCAAATTATCGGATTCCGGTATATGATACCTTGCGACCTGTTTTGAGCACACCTGCACCATATCTTAGAGATGTGACTGTTTTGGAGTTACTACTTGGCGCTGCAAAACGTAATCTTAACCCTCCGGAGATGATTGAAAATGTATGTTCTGAAGACGTGGCTGACCACCTTATGCAAAATTTTAAGAAGTCATTGATACCACACTCTGGTAAGTTACTTGCTGAAATGGAACCTATCGTACCGACTACGGACTCTATTGTATCTTGGCTTGAACGCCAGGATCGTGGTGTCCTGAAACAGATTATCGATGAAATTCCGTTACAACTAGCGGATCTTTCTCGGTGTTCATTTTCATTGAAGCGTAACCCAAAAGTTAGGATTACACCTAACGCTGTGGATATCTACGACTCGGTCCAGACGATCACTTGCCACCCTAAATTCGTTAATGCATACTTTTGTTCCATTGTTGAAAGCGCTCAAGATCGGTTAATGAAATTGATGTTGCCCTATTTTAAGATGTTTACTAAAGTAACCACCGAAGAATTTGGTGACGACTGTTTCGAAACATGGTCGCGTTATGGTAAGCTATATCTTTTCTCTGGTGACGACTCCCTTTTGATGAACGGACACAAATTTAAGGAAATGGACATGAGCAAATTTGACAAGTCACAGTTGATTTTTGCCCTTAAATATTTGTGTAAATTATTCGTCTACTTAGGAGTTCCACCTTACACCGCCCAACTGTATTACGAAATGATGTACTACCGTACCTGTACCAACCCGTCTAACAAAGTCACACTGAAACTTACACCTCAAATGGAATCTGGTAGTGCTGCCACTTACTTTGGCAACACTTGTTTCTGTATGGCTGTTGTGCTTTCTACACTGGATATTTCCGACTTCACTTACACCCCTCGCTTTGAAAAATTTTCTTTGATGTTCAATCTTGAAGTCAAAGAATTTAACTACGTTAATCCGTATTTCTGTTCGAAATTTATGGTTGTTGAAGAAAATCGTATTACGTTCTACCCGGATCCGGTAAAAATACTCATTAAGTTGGGTCGTACCGATCTCAAAAATATCAAACATTTGCGTGAATTCCATACTAGTGTCAAAGACTTGCTTAGTCACTATAAAGATCACATGGATGTTATGGTTATTTCAGCCGCCATTAGAGAACGATATGGTTTTCCTTATGATTGTACAGGCCATATTCTAAATTTAATTTCAGTTGTTAGAAATACTGAAGCATTCGAATCCTTATTTTATAGTCTTCCTACGGATGTATTGGACTCAGACAGTGTCCGCTACTCCGATGATTATTAAATAAATTAAAGCCTTGTTCAACAAATATCTACAACTATGAACGGATTACTTCTTCTCGTCTTTCTTGGTTTTCCACTGACTTTTTCAGTCTACGTGGATAATCATGCTAAATTTACACTACCTCTTCTTAAAAAGACTGCCGAAAATGACTTGACAGGTCAGAATCCTCCCAACCGTAAGCCTTTTTTAACATTTAAACAATTTTCCACTATTTATCGTTCTGACATATTTAATGATTTTAAAATTTATCATGCTAATGCTTGGAACGAATTTGTCGGAATTACTTGTCCCGAACATCATGTTCCGTACTATTTGGTACATCATATCTTTAATTCATTGTATGTATGTATACCTGTTCCCCACGTACTGGAACCTTTGTACACGGCTTACGAATTAGTTTTGGGTGAAACAAACTTTTGGATAATGTGTGGTAGTGCTGGTTCTACGAGTCAATTTGCTAAATTCACTCCGAAGGACTACACTGATTATCTCATACTCGTGGACTCGAACAATAAATACCATCTTTCTTCTAAGTACTGTGTTGGTCACATGTACCAGGTGGGTCCCGACAATAAAGAGATAATGACTTTAAACTACACTGTAAATGATCATTCTGTGACTATTGATTTACCTTCGGAACATTGCAAAATACTTCCATTACCTATTTCGAAATTGGATTTCACTCTATTGCCTATTGAAGTTGACGTCAAATCCAGTGTTGATGTATTGGATTGCCTCCGTGATGAACGATCATCTAATTTGCATCCTGAAAAACCGTTTTATGAACTGGCACTCGACGATACCACTCTTGTGACGTACAACACGAGTACCAACGGTACACACAATTTTGCATACACATGGTTTAGTACTCACAAATTTCCTACGAAAACTTTCCACATTTCGTCAGCGGTTAATGTCAATCCAATTAGTTGGATTGTCACGGGGTTGATGTCCTTCTTCCATCCATTGCTAGATATGTTACTTAGTAGCATTTTGTATATTTTCGAGGCGGTACAACCATATTTTTCCTTGGCTGAGACATAACTGGGCTTTGACGGGTAAAGAAGGTAGACGA</t>
-  </si>
-  <si>
     <t>OP264906.1</t>
   </si>
   <si>
     <t>Shuangao Insect Virus 3</t>
   </si>
   <si>
-    <t>TTAATTCCAATAAATTATTGCAATCATATTCAACTGATTGATGAATTGTTATTTCTCTTACTTTTTCCATCTTAAGTTATATTGATAAAGATTCAATATAACTTAAGATGGAAAAAGTAAGAGAAATAACAATTCATCAATCAGTTGAATATGATTGCAATAATTTATTGGAATTAATTGCAAACGACTGTTATAACAACATGTCATCATCATTGGTATCTATTGGTGGTAGTTTAATGACAGTTGATTCTATGAAAATAAACATTGATGAAATTGACATTAACCTGGTTAAGAGAGAAGACAATTCTGTAATCTTTAACCTTTCTGGTCCTGATTACTTTAATGATACTATTTCCACAATTACAAACCTAAGTGAATCAATGTCAATTCCTTACTCTGAAGGCCATAAACTAAGACATGAGTTAGTATGCAAGATAATTGACCCTTGTCAAACAGATGCAGATCTGTCCTCTATCTTTAAGATGCAAATCAATAAGACTCCTGACTTTATTTACTACTGCCCTTGTAGTAATCCATTTTATCTTATAATTGAGGTTTCAACCACAACAAATAGTAATATGGCATACAAAAGAGTGTCAAATAAGATACACAATTATTATGATACTCTGATGACAATTGCAACTCATAAAAATATTAGATTTTTTCTTGCTGTTATAGTAGTAACTCCATATGAAGTTATTAGTAATGTCAATATTGACTCATCAACTGCAAAATTAATGTCTCTAATGTGGAATATTGGAGAAAATATATATATAAAAGGTGTTTCAGAGGGACTGTTCTCTGAAAGAATTCTTGATGAGGATGAAACCTTAGACAATGTTTCAGCCACTATACTAAGAGAGATTGAATCTGCAAAATATAAAGTATTCAATAATAAGGAATTAACTATAACTCAAGATTATGTCAACAAAGTTAAGAACTGTGATCCTGACATAAACAAGTGCTTGAATCATTTTAGCACAGCATTTAAAACTGTTAATAGTGAATACATCAAATTATCCAATAACACAAACAAATTAGCAACTTTTGATGAAAATATAGAATCATATTTTCTAAACACTGATTCTAGAGCACATAATAAGTACAAATCAATAATAAATATGCCATTTATCAAATCTAGTAGATCAGAAACATTACATATAACAACTGATGACAATACTCCTTTACAAAAGATGTGGATTCATTGTATGGATGCATACTTATCTAATGAAACCAGAATTTTACCAGAAGAAAGAGCAAGATCTCATATCATGGAAGCAGAATGCAGACTAGAAGAAGAAATCACAATTTATGAAGAAGAGAGAAAGAAATTGAGAAAATCAATGGAATATCCTAATATAATCAGACAAGAACCAGGTATATTATCTTATTTACAGAGTGATGGTCTCTGGGCTAAAGGATCTTATGATCCTTTGGCTCAAAAGGCTTATCAAGAAAGTAAAGTACCATTTTCATCTACATCTCCATTGGAAGATATTGACAACTTTATAGAAAATCAAGAAATATATCAATCATATTTTTCTTTTGATGAAAGTTTGGATAATGCAGTTGATCTCTTAGGTAAAGCTTCATTATTAGTAGGTAATAATTCTGATGTACCTAAAAACATAATTGAAAAATTCTCTAATACTCTTATTTTTGAAGCTTTAATGAACATTTCACTTATTGGTACAGAACTTAGTGCAGAACTCAAACATAATATACCAAGAGGTAATTTAATTGTGAAGAAGGTTCCTAATAGACAAATATACTTGGCAGTATTCCCCACTAAGTGTAGAGAACATATATTTGTCTCAATATTTATGCCTAAGGCTGATAATAATTGTGGTGTTATTGAATCATTTCCATTTAGAGAGTGTGAAGAAACTGATAGTGGCTATTATTTCCCATTTGTATCATTTAAACAACATAAATTAAAGAACCTAATAATTGCTCCATACATGTTTCTGAATTTGGTTTCTTTTTGGGCACATTTTTATGATATTGATTTACCAACATTAATAGATGAAGATAAATACCATCAGGGATTCACTGAGATGATCAACTTTTGTATACTTGTGTTATTGGAAGACAAAAGTAGAACTGAAGAAGTCATTACACTGTCTAGATATTTCTATGTTGATTTAATGAATTCAAAAGGTAGAATCAATATAACCAATCCAACTAAATTAATATCTAAATTACCATCTATCTTCCGTACTAGATTAGAACTATATGTTACAAAGAAATTGCTATCAGCTGTTAGATTAATGATCACAAATCCACCTAAGAAAATAGAAACTGAAATTGATGATGCACTAACTGTTGATGAGATGGATGATATTAGTAAGGATTCATTTGTAGGATTATTAAATTTTATAACACTTGAGGAATTAAAGAAGGGATCAAAGGCAGTACAGCTTATGTATATGGGATATCTTGTAAATAAGAACAAACTCACAGATAAAAATACAGACTTTTCCATGATAAAGAAGTTAGTCTCAGCATCTTTGTCAGTAACAAAGCAGGATGTTTCCAATTTAGGTGATATTGAAGATAATAAAACACCCAAGTCTCAGCAATTTTCATTAGTATGTATTAAAACAGGAACAACTTTACTTATAGAAGAACTTAAGAAAAAATATGGTCAAAAATGGCAAAATATATTGCTCTCAAATATATGTAGAAACTTGTCAAAACATATGACTCATGAAATTGCCACCTTGAAAGCATCATGTTCAGCAGGATTAGAAGATATTAATAGAGAAGAGTCAACAAATGAATTGTATAAGGCAAAGAAAGTTTTAGAAACAGTTAATGAGCATATTGATGCTTTTGGTCTAAATCCATTTGTCAACATTATTAAAATTATTGAGATTCTAGAAGACAATAAATGTGGATTAATTATTAAACTCTTCAAGAAAAATCAGCATGGTGGACTGAGAGAAATATCTATATTAGAGATTCATGGTAGAATAGTAGCCCTATTCATAGAAACAATATCTAGAACAATCTGTAAAGAATTTGATTTTGAAGTTCTAACTCATCCTGAAAATAAATTAAGATTATTGGAATCACATAAATGTGATGTTTATGAGAAAGCAAAGAAATCAGGTAGTGTTCTTATTGAATCTTGTAATTCTTCAGATAAAACCAAGTGGAACCAAAATTTTACTATGCATTCATTAATAACTCCATTATTAATTTTCCTTCCAAGCTCTGTGCACAACATATTAATAAGATCATTTAATATATGGGTTAATAAACATATATTATTACCAAAGTCTGTTGTAGATTTATTAGAATCAAAGACAATATTGGATGATGACACATATAAATTGGTATACAAGCAATACACTGGTGATTTTTCAGATGATTGTATCCCAATCTTTGAAGAATCAAAACAGAAATTCTTAAATATTCAATCTTGTATGATGCAAGGTATTTTACATTATACATCATCTTTATTACATTGTGTCTTTATTGCTTTAAGCAAGAACATAATAACACATTTCCTACCTAAAGCCTATGTTACAGGTGTGGTTACATCAGATGATTCAGCCATAATCTCTTCTTTGATTGTACCTAGAAATAAAACAGTTAAGATTACAAAAATGATCAAGACACTATTAGATTTATTAATGATGGGAATTGAGGAATTTTCAAGATGGTTTAGTATGACTCCATCTGTTAAGAGTGTTTTGGCTTGTTCTAATTTTGTAGAATTTAACTCAGAGTTCATTATTGGAAATAACTTAGTTGTACCAACTATTAAATATGTGATTTCCTCATTAAATTTGTCTGAATCTGAGAGTATGATACACAGGTTGGATATATTATATAATCAGTTATCTGATGTCTTTTCAAGAGGATTGCCATCTCAAAATACAATGGTCTGCCAATGGTCTCAAGGATTATTACATTATCATTCTATGGGTGCTAGTGATAATTTTGTCTTTGATTATTATTGTGAGAGAATAAGCAAGTATCCTGATCCTGCATTGGGTTTCTTTCCTGTTGATAATGAATATCTTCCTGGTGTGTTAGGACTATCATATTCAGTATATCAAATTAAAAAAACTGCAAATATTATAAAACTACCATCAAAATCATTAGCTAGTGCAGATATAACAACACACAAATCTGGAATGATTTCTACAAACTATATACTTAAAATGGGAGATTATGCTAGACATACTAAGCTAGTTGAAAGTATAGCAAAAATGTCAAAAGAGGAGGCAGAGAGCTTAGTGGAAAGAAATCCATCAATCATTTACTTATTGCCAAAGAATGAGGAAGATATTAAAATAAAATTAATCATGAAGAGTTTAGCACCAGGAGTAGCCAATTCTTTGAAGCATGGAGATGAATTTATTAAATCTTTTTCAGCAAGTGTATATGGATTGTTCACACATTGCTATACTAATATAATTAGTGAGAAAATAGAAGACAAGATAACTAAAAGAAGTGAAAAGGTTTCAATTTTAGGAGAATTAAATAGATTGTTAGAAGAGCAGGAGGAAAATCCTGACATATTTGTTGATAAAAATGATTCTGATTCTATAAAGAAAGTCTTTATAAATCACCAGCTATTTGATGAAGTGAGAGATGTCTTTGATAATCTAAAAGATAGACATTCTATTAAAAAATATAATAGAAGAAATAGAAAATGCAAATTGTTAATTAGTAGTCCTGTTTTTGACAACTCAATCACATTCTTAGAAATAGTGAAACATAAGTGGTTTGGAACACAATTAACTGCATCAGAGAATAGAATAAAACGAGTTTGGGAAGAATATAAGCTACATAATCCTTGGTTATGTAGCT</t>
-  </si>
-  <si>
     <t>OP264907.1</t>
   </si>
   <si>
     <t>Culex modestus totivirus</t>
   </si>
   <si>
-    <t>CAAATTGGATACTTGGTTTGATGGTTGGGTGACGAACAGCGAAAAGAAGTTTCTCTCATTTAGCGAGTTCGTCTCTGATCCTATGAGATGGTCGACAGGAGGGGGTGCCAAGACGAGCAAGATGGACATCAGTGGGAAGGAGATAGTCGGCAGAAACAAGTGGTTTTGGGCTTTGAGCCATCTAGCTCAGGGTAACGACGTATACGAGGTAGCGAAAGGGGAGGGTAATGACGCGAATGTGGCCTTAAAGGAGGAGGTGAAGACTCGTTGTGTAATAACGACTCCGCAAGCCAGTTACCTTCGTCAGTGTTACATCCTTTACAGGCTAGGTACCCCAACGTTTTTGCGATCTACATTGTCAAACCCTAAGCTCGTGAACATGTTGTCGGCATCTCGTAAGGATTACTTCATTTGTATCGACTCGTCTTCTTTTGACCACAGTGTTTCGAAAAGCTGGATAATTACAGTGCTTGCAAAGCTGCGTGATAGGGTGGACCCAGACCTTGCCTCGTTGATAAACGAAGAGATCGACTCTATTTCAGATATGAGCATCACTTTCGGGGACAAGACTTTTAAGTATGAGAATGGCCTCCTGAGCGGTTGGAGAATGACCTCATTTCTTGGTAGTTTGCTATCCGCTTTAGTTTGTGAGCACATCAACCACCGGCTTGGAGTCAGGCTTGAATACATAGTCCAAGGGGATGACATCATCATGTTGTGTCCTCAGCCTCTAGAACAGCAGAGAGTTCTGGACTGTTGTGACGAGTTCGGTATAATAACAAACGCCAAGAAAACAACGATTGGTAGGTTCGGTGAGTTTTTGAAGTACCGTTACGGATACGGTAAAGTTCAGGGTTATGCTGCGCGTGCGGTGAGGTCCATTTTTTACGCTAACCCTTGGTTGGATAGCCAGACCGTTAGTAAGCCCGATGAGGTTGCGAGTAAGTGGTGGACCCTTCTATCTCGGCTTGGAGTAACCCATAATGGCTTGTTCAAGGATGCCAGCAGTAGGGAGTGGTTCATGGACTCGGTGGTTGATGACGTTCGAGGATGGGTTGGTAATACCATATCTCGTCATAATATACGTCGGTGTCTTGAAACGCCCATTTCAATGGGTGGTTTAGGTGTATACGAGACTTGTACCATCGCAAATATGAGCCGTGGGTCCAAGGTCGTCACGATGAGTGTCATGGAAATGGACACTGGGCTTATTGGTGATGAAAAGTTTATTGAGTTATTCGCGAAGAGCACCATCGCTAGGGTTGGTAAGGTAAGGGAAAGATCTGTTAGTGTGAACAGTGTTTTTAGGTCATTCAAGGAAGACTTGAATGTTTTTAGAGTTAAGTATCACGGGGTTGTCTCAAACATCGCGAGGACGGTTTTCGACGCCGGTTCTAATATCTTCCGCACGTTATTGACGGAGGTAGCCAAGTGTCGTAACTATCCTCCAATTGTTGATAGACTTCTTCGGAGCACTTCCGGACCCTGCGCCGTCGTGCATAGACCTAGGTTTTTAGAAAAGGCGAACAGATGGTTGGACCTAGCCAAGTGGCTTTCCGGTGATACGCTTAAGGGTGTGTGTCCACCGTCGTTGTTCGTCGACACCCGATACGACTCGGATCTTGTCACGTCGCTGGCAGGGGTGGCATCGACAATGTTCCTTAATTTACCGAATGTGACGGCGGGGCATTCATATCTTATGTCTGTCTTCGCATTTTACCGATTTAGACAAACTCGGTGCGTTTTGCATGCCCTATAACGGCAAGCACGTGCTGTCTGACACACCGGGTCGCGTTCTGGGGGTTGGGTTAGTAACAGGTCAAGACACACCACTGAGGAAGAACCTACAGTGCCTGTCTTTGATGCTGGCGTTGTCCCTTCATTCAACCCTAGACCGAGACCTTGTGTGATGGATGCCACGTGCTTGGGGGTGTGTGGAACGTTCCTGACGCGGTAGGGATGGGGCTAACGCCTGTCTAGGGGCCGCGTCTGGTATACCCCCTTTAAACACCTAGACCCCAATTTTTTGCAGGTGCCTTCGGGCAACACCGGCTACTTTGGGGTCTAGGTGTTTAAAGGGGGGGTGTGTATGAGACTTGTACCATCGCAAATATGAGCCGTGGGTCCAAGGTCG</t>
-  </si>
-  <si>
     <t>OP264910.1</t>
   </si>
   <si>
     <t>Negev virus</t>
   </si>
   <si>
-    <t>TAACGAACGAAGAAGTATCGTAGACAGTCTCGGTTACTTTCACATCTTCAAGTGAACTAATGACGGCTTCACGGACCATCTCGGGGTCAATGTAATCACAGACGGGGGAATCAGAAGTGAATCCGCGATCGCACGGGATGACATCACTCTTGACAAGATGTGTAACTTCCTCACTGTTGAAGAAGAACTCGACTGTTTGTCTGCTGGTGTCATCCCGTGCGATCGCGGATTCACTTCCGATTCCCCCGTCTGTGATTACATTGACCCCGAGATGGTCCGTGAAGCCGTCATCAGTTCACTTGAAGATGTGAAAGTAACCGAGACTGTCTACGATACTTCTTCGTTCGTTACCACTGCTTGTGTGTCTGACCTCGCAGTCGTCGAAAACAACTCTAACGGAGACTGCGTCTTCCAATCCATGATTGACGCATCCGAATTGCACGACTACGAACCACGTCAGATTCGCAACAGACTTCTCACCAGTACTTACTTTCACAATCTACGCGACGTTGCTTCCCAACGCCGCTTGCTTGAATGCACTGACGGATCCCCTGACGGTTACGGAGACCTTTCAACATTCATTCTTTACTCCTTGGAATTACAACAAGGGGTTTGCATCCACGTTAACGGGATCTCCATGCGGTTTGGCGCCGCACCTTTCAAGCACTTTCTTATTCGTGACAATCATTGTTCCTACCTCAAACCTACCCACAACTTCGATGCCATTCCTACTTACAAATTCTCCGAAGACGTTCCACCCATCGAGTACTCAACCGTCTCCCGTGACAAGCAATTCGACCAATTTTTCGGACTTCGCAGTCAATATTCACGCAGTCAGTTCAATAAGCGGCTCATTGCTGCCAAACATAACTACTGCCCTCTTAGTGAATTGGGAGACGGAAATTACGTCTGCAGATCCGGTATGAAAACTGCTGAAATGTTCGTCCGTTATTTTTCCACTCGTGAGTACGAGTCTGCCGTGTCTATTGGTGGTCCCGGTGGTGAAGTCCAGTATCTTACTAACAAAGGTATACGCGTATTCGGTATCACAAAAACCGACCTGATCGATTTCTCACCCTCAGTTAAACACCATCTCTTCACACAGCTCATCGGAGACACATATGACGGCGACATCACCAAAGAATGCAATGTCGTTGCATTCCGTGACTCCATCCGTAACTGCTACTCGTCTGGTGTTTGCTTTTTCGGTGGTGACGTCGCCACATCTGAAAGCGACAGTAACCACAACTTTCCCGCACTTGCAAAGTTGGTCGCCTGGGAGATCGTTCTTTGCACCACTGTTCTTAAGAACGGTGGTGACGCCTACTTCAAAGTCCTTGACCTGCTTAGTGACCAAATGCCCCACAACATTGAATTTCTTAACAATTCCTTCGACTCTGTTGAAATTGTGAAACTCGAAACTTCACGCGCCGCTTCTACTGAATTGCACCTCATTTGTCGTGGATTTAAACTCACCAACGAATTACCTGTTGCTTGTTACGAGAAACTCATCCTTGGCGAATCCCATGACGTCGCCGACGCAACAATGGTGAACTTGATGCACGCACAAAAAATGTTTGACGCACACATCATTTCCGGGCTTCGCGAGTATCGCAAGTGTTTTAACACTGCTGGCGAGAACAACGAACATGTCAACCGATTCCCTGAAGAAAAAATCGAGGGATATCGTAATGTCTTGTGTCTGGCTTCCCGAGTGACTGCCGGTGGTCTCACTGACGCTGTCAAACGCACGTTTCGCAACATTTACACCATCGCTGGTCCAAAACGTGACTATGTTGCTGAACTGCGAGACTTCGTGTATGATGTTCCCGCCGATGTCAAACCGGTCGCCACGACCCCGCCCGTTGTCACTCCCCCCGTGTTCCCCTCAAGCCCCGCTGAAGCTGAAGAACCTCTCGAACTACTTGTCGCCGAACCTGCACCTAGTGTCGTCACGCGGATCGTCGAGTATATGAAGAAACCAAAAATTGACAAGTTTCTCGTTTCGACTGAACCTGACGGTACTTTTACAGAAATAGGGCAAAGTAAATCTCTCGGGATAACCGCGCCGCCGCCGCTCGTCTTCAATAGTGTTCCCTTCAATGTCAAACCAAAGTCCCATGTACCCACACACAAACCTGACAACCCCTCCACGCCCGCTATCGTGGAAGAAGTTACCGTCGAAGATGACGTCTGCAGAGCCGCCATGAACGAATTCGTCGAACTCCAGAAGCTTACTCTATCTTGCGAGATTTCGAACCACGCACGCATCCTGCAAAGGATCTCCACCCTCCCTCTCGCGAAAACGTTCACCGAAGAGGAGAACGGAAAGTACACGTATTGCACCGTCGCTATCGGTCACGAAATCCGTCACAGATTCGGAAATAAGGAAGAACGCAAGTACAACAAGTTTTTCTTTAATGGAAAATTCCACCGTGTCACCGACATGAAACGTATCCTTAATGTCGGGGACTCATTCCTGTTTTCCGAATACTGCACTATCGCTATTGAAGAGGAAATGATCGCCGCGTGCGAGTCTGTCGACGTGTCTAAATTCGTAATCCCACATGGAACCGGTATTGTACAAGCCGCTGCGGGCTGTGGAAAGACGTACTTCGTCGTCAAGAATTGTGTTCCAGCTCACATGCCATGCGCCAGTAATGTTCTTCTTTCCACTGTTGAAGGAAAAGAAGACTTTGCGAGAAGAATTGAGAAGGAATACAAAGTTGAATTGACACCGGAACATCGAATTCACATCCGCACACTCGCTAGCTTTATCGTCAACTACAAACGTAATGTTAAAAGTGATACGTTGTTCATCGACGAAGCGCTCATGTCGCATCCGGGTCAAATCTTCTACGCCATAGCCCTTTCCGGTGCCACCGAAGTCAAACTTCTCGGTGACGTACTGCAAATTCCGTATGTTAACCGCACTCCTGCTTACACTACCAAGTATCATCGCCTCGCTGACTTCGTCCCCATCATCGATACCCTCTACATATCTTATCGATGTCCTACTGACGTCGCTGCCAGACTCGACTCTCATTACGCCGAACTCAACAACAACGGATGTGGAATGAAATCTGTCAAGTTCTCTACCAACACCTGCAAAGTCGTACGACTGAGCAATGAGAACTTCCCTCACGACAAGAATGTGCAGTACCTTACTTTTACTCAGAATGAAAAGAAGAAACTTGAGCTGCTGCACCTTCGTGTTTCCACAATTCACGAGTTTCAAGGTAAAGAAGCAAAGGTCATACGCGTCGTCAGACTTAATCCTTTCCCCCAGGAAGAACTGTTTTTGCGGTTCAATTACGCTCTCGTTGCTCTCACTCGTCACACGGAACAGCTCACCTACTACACTCGCGTTACCACCGACGCGCTCTCTAAGCTTATTAAGGTCGACGGCATCACATGTCATGTCGCTGTTTCCGAAGACGAGTGTCGTCGTGTCCATCACATCACCGCCGGTGTCGCTGACACTGAAGTGTTTCGAATCGCCGAAAACCTTCCTGTCGCTACTTACACCACTATGAGTGTCGTTAAGTCTCCCATCACCACTATCACTGAACCACGCCTCTACTTCGTGCCTCAGTTCGGAAAGAAGTCGGATTGCAAACACAAACCATTGGTCATGCGATCCAACGTCGTTGTCGATAGTTCACGCGGTCAACTCAATGTCTATGTCGTTTCCTCTGTTTCCCAGAACCAGAAACACAACCTCACCACAATCACTAAGAATCTGCGCGAATGCGCGCCCATTCTTCATGAACGAGGTGTCGGACGTATCTTCGTGTCTGGTGCCGTTGAATCTGACATCGACCGTGCTGCCCTCGGTTACACCATGTACAAGTCACTGAGAGCTAAATCGTACCTTTGTTCTACCAATGATGTGTACGATGTGCCTTCCGAGGTTTTCGAACTTCTGACACGAAACGGCATGAATCCTCTTCCGAATTGCCAGTTCGAGTCCTCAAAATTCTCCACCGCTGACTATATACCTGTTCACGAAGTCCCTCATGTGTTCTCTGTCTGTACCGCTCAAACTTTTATCACCAGTTTCTTCGGGCCTTGCGCTTTCACTGACCAGTCTTTTGACGGTTGGGACGTACGTAACAGCGACCTCAACATTGAAGTCGGGGAAATCTCGTTCTCACCTGTTGGTTGCGTACAACTGGGAAAAATGTTTGACACAATGCGTCCGATTTTGCGAACACCCATGCCTCACATCCGTGATTACAACACTCGCGAACTCATGTTGGCTCTTGAAAAGCGGAACCGCAATGTACCTTCCATGAACGGAGTCGTCGACATTGAAGTATCATCTTCTGAAATGCTCGACTCCTTGCTCGAGGAATGCTTTGATCCTGCACTTTTGCGCTTCCACCTCGCTGAACCAATTACTATTTCCTCGAACTCGGTAGGTGAGTGGTTGAGTGGTCAGCCTCTCTCCGTCAGACCCATGATTGTTCCCGATTTTGCATTGCACTGTCTTGCACTTAATGAGTACAACTTCTCTATTAAGCGCAAGCCGAAACCCAACCTCACCGTTGATGCTACCGCCTCGTATCTTGCGCTGCAGACCATCGTTTATCACGAAAAGTCCATCAACGCCATGTTTTGCTCCATCTTTCGTGAGATCAAGAAACGCGTCACCTCTTCTCTT</t>
-  </si>
-  <si>
     <t>OP264911.1</t>
   </si>
   <si>
     <t>Yongsan picorna-like virus 2</t>
   </si>
   <si>
-    <t>TTCATATTGGTTAGAGTTATACTAATAATATTATGAATTATTAATTATAATGATGATATGATTAATGATATAATTGTGATTGTGATTATGATGATTGTGATTATTATTACAACAATCACAATAACAATCACAACAACTATTATTGCAATAATTGTAATAATAATCACAATCATCATAATCACAATCACAATTATATCATTAATCATATCATCATTATAATTAATAATTCATAATATTATTAGTATAACTCTAACCAATATGAAGGCTGTATTGAACAAAATCAACAGTCAACTATTGGCAAAATACAAATTGGACAACAACCTTTGGCCTGAAGTAGCTTTGGAAAAAGCTTTTTCATGGTCGAAGCAACAAAATCAAGGGTTAAAAACCCTAACACAACATATCCAAGTAACTCTGGATGAGCACTTTACTGTGTTCTCCAGGGCTACACTTATTGGCACTTCCCTTCAGAAATTCAAGACTAACACCCGACCACGAATTACTAAGGTATTTAGGAAACAACCGACGCAAACCCACTTGGATTGGACTATATTGGAAAACCGCAAATTTATGCAGATGCCAGAACACTACATACATGCCACTAGATCTAACATGATGGCAAGTACAAGTACAGTACCTATCTGGCAACTAGGTGGTAATCCAATCGAACCAGGTGTAGTCGAAGAACGACGACCACACTACACACCGGCAGTCCGTAGCATATACGACATAGCTCCGGCTATAAACTGGGCTATGGAAAGACCCATAATACATAAGGAAAAGACTGACATGGACGAACCTATGGAAGCAGCTATACCAACATTGGTAGCTGAAGCAATAGGAAATATGGACTTCTTTAAGACACTAAAATGTGACACTACACTATTGGCAAGCGCTATTGCTTCTTCAGTCATATCAATAGGGACATCCGTATATACCCTATGTACAACTGAGACAACAACAGCGACTAAAGTACTAAATTCGGTAGCAATAGTTTCATCTCTAACAACGTTTGCACTGGCCGTAACTAAAATCTTCAATCAGTTTAACATAAAACACCATATAGACAAAGTCTTCAAAGACCTCCCAAAATTGGCCACTGGTATACTAAGTAAAAAATTTTTCTCAAATTCATGGATGTGGGTCTATCCGGCTATAACGACTCTTATTTCAATTATTCTAGCGGGTATGACAACCTTTAATATCTGTGACATTAAAACTATAATTGAGAAGAGTAGACTAATAACAGCCACTAAAACTCTGACCACGACATCAAATGACATAGCTAAATTTATTATGGAAGATCTAGCAGGACTAGACGTCACTGGCGACCAAAAAGCATTCGAAGAACTACACATCTGGGCTAAAAGAACATCAGAACTAGCCGTCAAATCTGTCGTTCAATTCATACAAGACCCTGAATTGAACTTTGAACTTCACAATGCAGTAGCTCATACACTTCCGCTCATAACGAATAAGTATGTATCCAAGGACATTAGTCACGCTTCACGATCAGCTTACCAACTAATATTGACCAATATATCCAAATTGCAAGACAAAATAGAAGGTGTTAAAATCATAAACGACGCTTGCAAAAGAATAGAGACTGTAGGAGTTCTATTTGCAGGAAAGAAAGGTATTGGCAAATCTAGGCTTTGTACGTATGTAGCAGAATTTATAGCATCTATAATGGGTTTGCCAAAGACAATATACAACCTTAACAAATCTAAGGACACAGGATTTTACGGACCATATGGAGGAGCTGCTTTTGCTGAAATCCAAGAATGGATGGCACTGAGAGAAAACGATCCTAACCTAGCTCACTTGAACCAAATTATATCTGGGGATCATTTTAATCTCGAATCAGCTCATCTAGCAGGTAAAGTACAACCTTTCCAAGGTAGAGTGGTATTCCTGACAGCAAACAAGAAATGCCCTGATCTACTGAGGGTGCTAGACATAGAAGCAGCCAAAGCCACCTGGGATCGTATACTTAGGTTTGAATGCATTGACGAACTGGTAGAAGGAAGATCTGGCGTAAATGCACATAGGAAGCCAAATTTCTCTCATATGAGCTTTAAATTCGTAACTTCAACTGACGAGACTAATGAAGCCAACCTAACTACGATCGATGTAAATATACAAGAAGTTCTAGGCATCTGCTTGTACCAAGTAGCTAACAGAGAATTACAGTTCTTGAAATCAGGCCTCGAATCTAAAGTTATAAATCCAGAAGAAGTGAAAGAGAGAATGTTCTTCTTGCAAGGGATAGTGTCTAGGAACGAACAGCAAACCATCGAAGCCACATCCAATTCAGGACAAGATTTTAACATCCTACGAATAGACGGCCCACAATACACAGGGAAGACTCGGTTGGCTAATCAAATAGCTAACTACATACATGGACTTTTACCAAATTGGCCTATAATACATACTAAAGGACTCGAAGACGCAGTACTGAGCCCCAAAAACCCTAGCATAAAAGGCATTTATATTGTAGACGACATTATAGAATGTACGAAGACCTCCTATCAGATGTTTCTGAGATGGATAAACCAAGGACACCAGGACAATCTGTACATCATCAGCTCTAATCATACGTATAAGATGAAGAAAAGGTACAACATATTCCATCTATCCACAACTAAATACTGGGACTTTGACACGCTAGGAGTATCTAGTGGCATAGCTAGAAGGTTAGGATTCGAAGGTGAAGTAAAATGTTCTGACGGATCTGTCTTGACTACGAATCCAAGGGCAACGCACGTATACGTTAGCAAACCAGGAGATATTCAACACGGCGACGAACAACTCACACTAAGCCAGCTTAAAGAGATAGTCATGACCAAATTCCAATCGTATCTAAAAAACAAAGAAGTCATCAGTGTGAGGTACGAAACATATACACAAGACACGACGGACTTTGACGTAATAGTTAAGGTACCTACATACAGCGCAGTTAAAGAAGTCTTTAAAAGTTTTTCGACATTGACAAGAGCAAGGATGGGACTTACAGCGGGCGTGACTGTGTTCTTCAAACCTCATCTAATACCTGAAATAGCTAGACATTTTAGGAGTGAGAGAGAACTGCTACCGGGTAACGTACTTGATGCTCAAAGTCTAGTGGAACAAGCCGAGGCTTTTTGCGTCATTATGAATAGGATAGTACCTGGCTTATCAGCAAGATTCACAGTAGACGACACGCGAGACAATTTGATCCTTCAAGATCGCGTACTATACGTTAACACTCCCCTAGGTCACGAGGTTTTGAATATAAGCCACTGTGCAGCGCAGGAAGAGATCAACATCAGACATGGACAAGATCATTTTACTGTCACATACAAAGAATACTCTAGATTCATACAATCAGGTATAACACCAGCCTCTTTAACTGAACTACCATTGGACGCTCTATCACAGGTCAACTTATATGTATCAGACAACATTAAAGACTCTATCTTCAAGTATCAGACTCTAATGGCATCAATAGAAATAGCAAAAGAAAAATATGTGGCTAATAATTTATCAGAATTCATTAAAAATAAACCTGTGCTCACCATTATAATTGGTCTCGTATCATTGACGACAGCAGGATCAATTGCGGCTTTAATAACCAAGCTATTTTCTAAACAAAATGCCATATCTAATAGTACAGACGATGAGAATGACTACGATCCAAAGATCTCGATTTTCGCTCGAAGATATAAAACGGCACTATTGGAAGATGCTAAGGAAGCCAAGAACATAAGAGAAGAAGTAGCTAAGGCTGGACTATCTAGACAATTCAACCAGTGGGAGTATGAATGGAGATCAGGTAACGAACCTGACATTTCTAATGCTCTACCTCTGGCAATGGAAAGAGGAGATGTGGCTGAAGTTATAAAACTATCAAAGAAATGTCCACCAGTAGCATCTCAAGTCTTCGCTTCGAACTTCTCTAACATGTTAACCAGGAAAGACGAATACCATCAACCCCCCGGTCCATTGGAGCAATTAGCTGAAAAACTACGGAAGAATTATGTACAGGTTCATTCAAACATCGGAAATTTGTATGGTCTCATGATAAAAGGCAATCTCGGTATAACCCTGGCCCATTGTATAAATAACACAACGAAGGAACTACTTATATCGTCTAATGGTATCCAGTACACAGCCCGTGTTCAAAGGGTAACACGAGAGCGAGACCTTTGTACGTTTAGGGTAGTAGACAAAACATGGCCAGCAGCAAGTGACATCACACCACTATTCCCATCAGCTGGACATATGCTTGATCTAACATCAGGTTGGTACGTAAGACCTACAGAAAGACCCTTGTTCGTAAACGCTCCTATAGAATACATAGACAGACATTGTGCGACTATCGTTGACTCCAACAACCCTTTCTTCCGTGTAGAAGGTAAAAGTTGGAAATATAGGCTGACAGGTATAGCCACTTGTGCACAGACTTTCAAAATTGGAGATTGCGGTTTCCCCCTTATTGGTTTCGCTAACAACAATTACTACATCATTGGTATTCATAACGCATTTAACCTAGCAGGTTTTGGATGGTTCGCAAGTGTTACTAAACAAGACATTAGTGAAATTACAGCTAACTCCAGCCCTGTTAAAGTTTCAAAATCGATACTTCATCCTAAACTAAATGCCCCTATGATCATGGATGACAAGATGCATGAAATAGCTACAGCGTCGTACAAGAAAAGCATATACGAAGGAGTTTCTCCTCTAACTATGTGGGGATACAACGATCAGCTAAAGTTTCCCAGTCACCCTAAGCACAAAAAGATCTATTGCGACGTAGCAGGAAAATTTCTACAGTGCGAAACTATAGGATCAGCTTTGACTGATAAAGACGTTACAGACTTTTCAAAATTGTACCCTGACACGAGAGGCAGTTACTACCCTTTGTTTTCGCAGGCTGTTAAGTATGCACTATCACAGCAGCGGAAAGAAAGTTACGATCACGTTATCGACGAACACGCAACAGAATTTCTAAAAAGTTACATATTGAAAGAATATTGTTCAGAAAAGATTTTGAAACCTCACGAAATCATAAACGGCATGCAAAATTTAAAACCAATGGACATGACCACATCAGCTGGACCGAAACTGAAAAAATTCTTTAGCATTCACACAAAACGACCAGTGGGTAATGAAGACGCCTTATTCATAAACACATCTAAAACTGAAACTCCCTGGTATATTATCAACAAAGAAACAGCAGCTGGTGGTATGTTACTCAGTGACTTCAGCTATTATATGTCAGTCATCAAACAAGGTCAACCTATATGCATAGTGGTAAAAGACAATGCTAAAGTGGAATTACTGCCAAAGGACAAAGTAGCGCAAGGTAAAGTAAGACTCTTTAACGAGATAGATCTTAGCATTAACATGGTGCTGAAAGCTTACTTTGGTGCAGCTCTAGACAATGTCATGGCGAAGCACACGACCACTATGTTCTGTATAGGCATGAATCCTTACAAGGACGCTTCGGCTCATATGTTGTACTTCAACAACATTGATGGCGAATTTGTAAATGCTGACTTTTCTGCTTTGGATAAAACTATAACAGCTAAATTGATAAAAGAATTCGTAGAAGCTTTCCTCCCACATGTTCAACCCGAGAGTAGGGACGCCCTT</t>
-  </si>
-  <si>
     <t>OP264913.1</t>
   </si>
   <si>
     <t>Big Sioux River virus</t>
   </si>
   <si>
-    <t>ACCAATTCATGGAGAATTGATTAAAACGCCTAATAAACCTGGACCCCTTGGACCTTTCACTTCGAAGGGCGTAACTATAGATCCTCGTGTGTTACAACGGAAGAAATATGGAGTACCCCGACCAGTCTTGGAGCAAGACTTAGTGGAAGATATCAAGGAAGGTGTAAAATGCGTGTATTATCAGTCGCATGAATATGAACCTGAATATTATAAATATCCCTTGACATATGAACAAGCCATAGTAGGTATAGATGGAGACCCATTTATTAATTCTCTTGATAGAACGACAGCACCTGGATACCCTTATTCGCAAATGCGTAAAGGAAAGAAAGGTAAAACACTCTGGTTTGGAGACAGTATGGAATACGACCTTACTGGACCAGATGCGCTTAGTTTGAAAGAAGATGTTATTAAATTGGAATTCGATATATTGCAAGGCCAACGACCCGAAATTGTATGGACTGACACCTTAAAAGATCAGAAGATAGCCATTGCTAAAGCAAATCTTGGTAAAACGCGCTTGTTTTCTGCAGCTCCTATGCATTATGCTATAGCGCTGCGTAAGATATGCGCGCCCTTTGTCGCTCATTTATCGCGTATGCGTATAAGGAATACGATATGTGTGGGTGTGAATCCTTTTTCCACTGAGTGGGGAGAGGTTGCACGCAAGTTGAGTGTTAAAGGCCGGGATGTTATAGCTGGCGATTACTCAAATTTTGACGGGACTTTACCAGCACAACTTGTATATGCGGCCACAGAAATCATGTCTGATTGGTACGACCTGAACTGGGATTTTGTTGAAGCTCACAAACGTAACTATATTGCAGGAGAGTACCTAGACAAGGATCAGTTTTTGTTGTATTGTCGTAAATTGTATTATGAATGTGTACATCACTTACATATTACTAATTACGATTCTGGAGCGTTGCTATACTATGTCAGAAATGGCATACCTTCAGGGTGTCCAGTCACTGCACCCTTAAATTCCATAGTTAATCAAATGGCCCTCATATATTGTTGGTTTAAGATATACGAAGGAAGTGACAAGGCTAGTGTAAAAGAGTTTTTTGAACATACCTCGAGTGTTTTTTACGGAGATGATTTCGTAATGAATATTCGAGCTAATGTGATTGATCAATATAATCAGTTGACAATTACAGAAGCGATGTCTAAATATTTGGACATGGTTATGACGGATGAAGCTAAAACTGGCGAGTGCGTAAAATCGAGAACTTTGCAAGAAGTTAATTTTCTCAAGCGCGCTTTCTATTTTAACACATCTATTCAAGAATACACTGCACCACTAGACTTAACCGTTATATTGGATTCCACGAATTGGTACAAAATAGGTAAGAGTTCTGCGATAATCGTTGTAAGAGATACTCTTAGAGCATGCTTACGAGAATTAGCGCTACACCCTACCGATATTGACAATCGTTGGAGACCAAGAATAACAAGACTGGGACTCAAGGTTACAGAGTCTATACCAGGAGAGTTGTTTATACCTGATACTAGGTACGCGACACTCTTGGCGATAAAGAACCTTGAAACAGACAGTCTGGAATGTTTAGATAGTCTAAGTTGAGGACACCTCTACTGGGTCAATCCGTGCTTTTGCCGGTCCACCAGCAAGTGAACCCTCGCTAATCTAAACCTCTTCCTTAAAATCTGTTGTATTTATGATTATAGTCTAATTAAGAGAACGCTCTACAGAGTCAATCCGTTAATACCGGTCCATCTGCATCGTAAACTCTTAGTAATATGATTAAATACGTTAACATACGAACTATAACTATAGTCTCATTTAGAGAACGCTCTACTGGGTCAATCCGCTAACACCGGTCCACCAGCATCGTAAACTCTATTCAATAGTTAGAACGCGTATTAAAACAAATATCTTGCTACAACGTGATCTTGTGTAATAAATGCTGACGTGAAAACGTTACACATTGCTGTTGTAGTTGGTTAGTTATTTAGCTTTACTCATCAAGACGCCAGCGTGCAGCCCACCAAAGTCTAGATACGTCGCAAGTGGTATAGCATTAGGTCGTGCATATCGCTAAAATTTGACCTGCTAATATACAAGAAAATAAAACGACAACATTCCAACAACAAATTTTATCATTTAGTTCTGAAGGAGAGGCTCCGCGTTCTCAGACTGTTTCTAAACCCTCCATGCTCAATAATCCTTTATTAGATTGTGCGCGCGATGGAAAGAATCACACAGTGACTTCTTTTCTCGAGCGCCCTATCAATTTTAGGACTGCGAGTTGGGGGAATCAAGCAGCCGGTGCGCGATTGACCTCTTTTAATTATCCATCTGATGTAGTTAAGAATCCCATGTATAGTAAGAAGTTGCAAAACTTTTTAGCCTTGCGAGCTGATTTGGTTGTGCGCGTTCAAGTTAACGCCCAACCTTTTCATGCTGGTAGGTTAATGCTATCATGGACACCTTTTTTAAACTACTTAGGAACTAATAGGACTTATTATTACACAAATACTGAACAAGATTTTTTGACACCCGTTAGTGGTAACCCTCGTGTGGAAATTGATTTATCAACTACCACTGAGGCAACCATGACCATACCATTTGTATCACCCTTCTTATATTATAATCTTGTCACTGGTGCAGGAGACATAGGTACATTTCAACTTATTGTCTACTCGCCATTGGTAGATTTAGTCTCTGGAGGTAACATCGATTATACGATATGGGTTAATATGACTAACGTGAGAGCCGAATTCCCTACCGGCATGCCTACTTCCGTGGCGCAGGTTGGAAAGGAAGACGAAACTCAACAACAGCAAG</t>
-  </si>
-  <si>
     <t>OP264915.1</t>
   </si>
   <si>
     <t>Yongsan iflavirus 1</t>
   </si>
   <si>
-    <t>GACAAACTATTTCCCTGATGCTTTTCCCAGTAGAGATATTGTACAATATCCTACTGCGACAAACAATCAGAGACTAGTTACGAGCTATCACAGGGGGGTGTTCTGCGAAGAATACGACGGGAGGAAATCCTCTGAAGAAATACAAAGCTGCATCATCTCCAAAAGATCTCATCACGACGGCTCTAAGTGTAGCGGGGAGGTCGGAGGTTCTATTCACATCTAGACCATATGTCACTGATCCCATAGAGCCGTCGTGATGAGATCTTTTGGAGATGATGCAGCCTTGTATTTCTTCAGAGGATTTCCTCCCGTCGTTTTCTTCGCAGAACACCCACCTGTGATAGCTCGTAACTCCTCCATGGCAGATATTGAGGAGAATCCTGGACCTGTTTTTTCTCGTTTCGTACACACGACAGCGGAAACAGCAGGTGAAGGATTCGCCCAAGGTATGTTCCAAGGAGTCGAGTCTTACTTCAGCGAGCTAGCCACTAACCTTGAAGGTTTAGTAAAAACTAAACTTGCCGAAAAGGGAGTGGTTTCCACCCCGGATTTTAGCTTAACCAATATCCTGACTGTTCTCTTTCAAGAGTCAGGACATTGTATCCTAAATCCGAGCTGGAAAACATTCCTCTGGTCGTTTGGAATCATTCTACAACGACTTGGTATTCTAGGCCTTCAAGGAGCTGCGAAAGTATTTGCTGCTCTAACAGCCTGGTTAGCTAGAGTGGCTGCTGCATCGTCTCAACCATCAACAGGTGCAGTATCCCTTCAAGGTAACCAACCCGACCCCGACCCCCATCCCACTGAATTTATCACTATCCTTATTACTGGAATAGCAACCCTCTTCGGTATAAAGGAGTGGAAAGACAGTGACAATCGCACAGCCAAAGAATTTACTGCTACATTTAAGGCAGCTCTTCAAATGGGAACGACACTCAATGCTTTCATGAAAGCGACTCGAGGTGCTTTCAAAGCTATATTTCAAAAAGCTTATTTTTGGTATATTTCTGAAAAGCCCGATGCCGCTTCCGTTAAAGCTATTGCAGTGACAGACTCTTTGATCGCTAACTGGATGAAAGAAGTAGATTTTTTGACCGACCGCTCAATCCGTGAATCCGTAAACACAGATCCTTCGCTACAACTGCGTGTTCGCGTCGCCTACATAGTAGGAAGACGTCTACATGCACAATTGATTTTAGCCAATGATCGGAAAACTTCTCCTCTAGTTTATTATTTCAATTTGATTAAAAAACTTTATGAGGATTTTGCCGTAAATGGTTTTGCCAGTCATATACGTAAAGAACCTTGGGTTATTTACGTACACGGTAAAACTTGCATTGGAAAATCTCAATTACAAAGCGATCTGTGTTCACGCCTATTGCGAGCTGAGAATATTGTCGTTGATGGAGCCATGACATATAATGTACCTACGATTTCCCCATTTATGACGGATCTTCGTAAACAAAAGGTTATTGCTGTCGATGATATAATGTCAGTGGTTCTTCCCGAATCACTCCGAACTTGGCTTTCTTTGATCTTTGAAAACGCAACCTGCGCCTCTTTCAAGCCTAACAAACCGGCTATAGAAGACAAAGATATGGAAGTTGAGAATGAGATATTATACATCAATAGTAATTTCGAATTTATTGAACATGACTCTATCCCTGACAAAAACGCATTCCACAGACGTTTTCATTTTAAAATTGAGGCCGCTCTAACTGACGAATTGGTCGATGCTAGGCATGAAACCGCAAAGACAGTTCCAAAATCAATTTTGGAAAAATTCGAACACCTCAAGTTTAGAAGAACACTTAACCCGTGGAATGTGTTAGCTCCTCGCTACACAGATTGGATGACGTACCCGGAACTCATTGAAATGGCTATTGCAGATTTCAGGGCATGGCGAATTGCTGCGCAAGAGAGTGTAAATAGGCGTATGTTGTGTGAACTTCAAGCCAAGTCCCTTGGTTTGAATAATATTACATATGAAGATTTACAAAATGACTCTTTTGTTGAAGACAAAATTCGCGAATATCTTGAAACCCTCGATACTATGGACAATGAGCGCGGAATATTTTCCTACGATTTCAGGAAGTTGCTTTCTCCTCATACACTCACGTTAAAGGAAACTTTCAACAAGTTTTACGCTAAAGTTGAAACTCCTGTAACTGAGATGTTGAAGAAAATAACATCCTGGACTATGTCGGAAGGTAGTTCCGTGTCACTACAAGGACCCCCGATTAGGACCTCCTGTGAGGAAATTCTTAGTATGCACAAAGTTCTAACAGGACTTTGGCAATGCTGTGAATTTGCTCCAGGTGAAACTGAAAAACTTAAGGATATGATTAGTGGATACTTTGCACCTGCAGCTTTGAAATATCCCCATCACGCGTTCGTTCGCGCAGTTCGCACTTGTGAATTAGCGAAAGGATTGCATATTTCAAATTGTAGATGTGAAGAGGAAGCCTTGGACGCTAATCTTTTCTGTGAGGAGTCTAAATGTTTCGTAAAGATGTATGCTATACACAAAAAGTCTTTGCAAACATTTACTTCTCGCATAAAAGATTGGAATAACCTGGCTATATCCAAATTGAAATCATTTTATGAAACAATTTGGTCTTCCATGAATCCTATTCTTAAGGGTACGTTAGTACTCATTGGAATTGTTGCCACCGGAGCAGTCTTTAAACTAGTTTTTAACTGGTTGACAGCTAAATGGAATGGAGACAAGGATGGAATTGATAAAGATTTTCACAAAACTTTTATGTTCCAATCCGGTCACTATTCCCCCGGCACCTCTTCCAAGGAGGCTAAGAAATCCTCCCAAACTAAGACCAACGTAACCTCATTTTCATCAAGAGCAGTAACTCTACAGTCTGGTAATTTTGAAGATGTAGTAACTAAAGTAAGACGTAATCTGAGATGGATAACAGTGTGTCCAGAAGCTGAGGCTACAAACCCCAACTTTGAACGCATGTTGTTTCCCATCTTGGGTGTTCACGACAGATCTTACTTGGTTATTTTACATTACATTCAAACAATTACCAAAGCACTTACTCATCCTGATGTGAAATATATCGCCACTTTATATGATGGTCACATTCACGTTCCTTTATCAATGAACGATTTTTGTGAAACTCTTCTAAAATGGCGATATAGTGAGGACTCCTTGTCGGAACTCGGAGTATGGGAAGCCCCTGCCAGGACACACTTAGTAGCTAATATATTGACTCACTGTGGTTCTAGAAGTAAACTAGCTAGAATGAACAATGAGTGCTTTATTGTGCCCTGTTTCACGGACTTAACATCACCCTGTGTTCTAACCCGCTTCAATAATTTCAACTCTAAGTACTACGATGTCAGTCAATATAATCATCTCGTTGCATATGATGGTTATAGTAAACCTGGTTTTTGTGGATCACTAGTTTTCTCTAGAAACCTAAGCACTCTTGTTGCTATCCATACTATGGGTAGTGATGATGGTAAAATTGGTTTCGGTGAACTAGTCTTTCGTGAAGACCTAGAAACTGAAAATATTGTAGAACCGGGATACGAAACAATTGAATTGGGAACTCCCTCTCCTGAAGAGATCAGAAACTTTCCTCAATATCTCAAGATGTTGGGTAAAATTCCTGATCATCAGGTGAAAAAACAAGGAAATAAAACGGTCTTTGTCCCCTCCCCCCTTGCCAACACTGTTTTCGAAGTTCGGAAAGAACCAGCTCCTCTCTCGTCCTCAGATGAAAGAGTAAATTATGACTGGTCCCCGATGAAAGAAGGAATTAAGAAACACTCAAATCCTCCCAAAGGTTTTGAGCGTGAACGCCTTCTTGCATCGGCTGAAGCA</t>
-  </si>
-  <si>
     <t>CATTATTTTAATTTTTTTTTTATTTTTTTTATTTTATCTTTTTTCTTTTTTTTGCCAATTATGGTAAAAGAGAAAGAAGTAAAGGGAGTGAATATAGAAAAATTTAAGAGTTTTCCAAGAAATTACTTGACGCGGCGGCAAATCGCAGCGATGCTCGGAAGGAGCTTGAAGTGGTTACGTCTCCATGAGGAGTTCACCAGAGTTTCACATCAAAGTGATGTGAGGTTGTCGTATGGACAGGCTACATCTCCAGAAGGGAGTTCACCAATTGCACAAAGTGTGCAGACTACGTCTCCTGTGGAGTTCGTCTAAGCGGAAGTTGTGTTCGGCGCGAGCGCGCCGGGTGTTGAGGGGGGGCTAAGGGTGATGTGCCCGAAAAAGTAGAGCACTCCGACAGCCATGAGGATGAAAATGCGGGAGTTCTGCAGTTGCACACGGAAATAAGTGTGAAGTGCGAGGGCCTGGATGACATATTCATAAATTGAGACAGCGGGAATGAGCATCACCCAGAAGCATGATGAGAGAGCGACGGCAATGCGGACATTATCGGGTGTGTCGAGGACAGCAGGAAGAAAAACGGCGAGCCCTAGGAAACGCACTTGGTTCTGGTGAACCCAGAGCGCGAGAGAGTTGGAGGCGGATTTTTCGGCGATCCACTTGCCGACAACTCCGGAAGAGAAGTCAGCGTTGTGGGTAACGACGAGAGCAACGACACAAACGACACTCAGCAGGACCAGAGGTCGGTTAAGACCTTTAGTGAATGTTGACGAGATGTCGGAGATGACGGAGTTAAGATCGAACATAGTGTTCGATCGGTTCCGCTTCGCCGGGGTTGATTTCTTCGAAGCAGTAGGGACAGCAACCTTCTGGGAAGTGGTGGAACGGGCGGCAGCCACAGTCTTGCCTGCAGATCGCTTTCGGGGGGCAGCAGACATTGTACAAAAAGTAAATCAGTACGATTAGGATAAGAAGATGAATACACATTATATGGAAGAATCTGAATAGATTTTTACACAATAAACAGCAACGAGAACGGCCAAAGAAATGACGAGGTCGCGCAACATTAAATAAGTGAAAAAACATACAAAAAGCGCACTGTAAAAGTGAGAATTGTACGGAACAAAAGACATGATAATGTCGAAAACTTCGCTTATGACTTTGAACAAGATAAATGCAAGGTCAGCGGCGATTTCTTTTAAAAATTCAAGAAGATATCCCAATTCGTTACGAAAAAACTTGGATACGTTGGAAAGGATGCTTGATAGAGGAGAGGTGTAATGAGTGGTGAGGTGAAAGCAGTAGGGCTTGTCAGTTGGGAGGTACCCATGACTGCGGACAATGAACAGAGGTCCGGAGTATCCCAGCACGTCGTAGGTCACCATGTACGATCCTCCGACTTTATCAATAACTCGGGGAGTGCGTGTAAGGTTGTTTGTAGAGTAAGCATCCGCTCCCATAACTCTGTTGTTAGTGGAAGCGAATGAACCTTGCGAAAATGGTACTCCATCGAATTCGATAGGGAAGTCGTGAACAGTGAAGAGCACGGGCAGACTGGGGTAAAGGACGGGATCACATTGAAGGGAGTCGTGTGTGAGTTCAACGAAACAAACGTCGTCACCTCGATGCTCGATACGCACGGTTTTGGGAAGACGTGAAGAGTGATGGAAGAGTTCGTCACAAATACGTGGTACGATTCCAAACCTGTTATCGTCAGACTTCACGATATAGTACCACTCAAAGAAAGACACTGGTTTCATGTTCTTAAGCTGAGTGAACACTTTACCGTAGAGAGTGATAGGTTCGCGGAGTGCGACAGGTCTGGGCGTAAATGAGACATTAAAGAACTCGAATTCACTTGATTTGTCGATTCGGGAAGACGAATGACAGACGACGGTTTCCTGGCCGTAAAATGTTTTATCGAGTTTGACGACAGATGGTTCGGTACAGTTGGAAGGGAGGGTACATTCACCGAACAAATAATCGTTCGTGCGGTAAACATTGAGGCACGACCGATCGAACATGTACGGAGAAATACGATGACGACCGAGAGAATTCAAAACAGGATGGAACTTCTGATAAAAGGCGAGTTTCTCACGCCGCGTTGAGAGCTGGTTAACAACATCACTGCTGAAAACCGCACACTCAGCGGTGAAGAAAAGGCAAACGAACAAAAACGGAAGGCGCATGATGGTATACAATGGAAGAATAGTGATTAGATTAGAAATCACGACTGAACACAACTGTATGGTCGATACGGTCTCCTATTTCAGAATAGAACAGTTGGCTGAAATTGCGTTCGTCGGTCATGTTCGGAAGTGAAGCCAAGAAGTTCGTAAAGTCTTTGAACACACCGTACCGTTCACGCAGTGCGTCAGCGACGGCGATGCAGACTGCATAATTCTTGTAATTCTTGACGGTGTCGACAAAGGAAATGCGATATTCTTCGACGTGTAGGGAGTTGACGAGGTCATGTCGACCAAGTTTGGTGACGAATTTCAAGGGGTCAGGGGTGAATGTCCAATGGTCATTGACGACAAGCAAAAATTTTGAGCAAAAGTACGATTTATCAAATTCGAAGAACTTGATTTCGAGGTTGAACTTGAGTCCAAAATGCTGGGCGTTCTTGAACTGCGAGAGAGAGTGTCCGTAGAGCAGTGAGTCATCACCGGAGAATAGAGCGAGTTCCAACTGAGAAACAGGAATAAGATCGCAGACGACGGCCATCAAGAACAGTGTGTTCCCGATGAAGGTAGAAGCGTCTCCTGATTTGCGCTGGTACGAGACCAGTGCTTTCAGTTTGGTGGTTTTGTCGTATACGCGTGTGAGCACGTGCGCATTGAACCACAACTCGACAATATCCGGGGCGACTCCGAAACGCAGCATGAGTTTACACTCGAACTCAAGAGCCAATTCGCGCTGACTTTTGTCGTATTTGCTGATGTCGATCTCCAGCTTGTCGCAGAGGGCGGACAATTTGGAAGGGGGAATGTCACGTTGAAGCACTTCTTCGAAATCTTCAGACGACATGTCACAGAAGATTTTTACATGAGGCAGAAGTGAAGAAGTGACACGTTTCTTGATTTCACGAAAAACGGAGCAAAACATAGCGTTGACAGACTTCTCGTGATAGACGATAGTTTGCAACGCAAGGTACGATGCTGTGGCATCAACAGTGAGGTTAGGTTTCGGCTTGCGCTTGATGGAAAAATTGTATTCATTAAGAGCAAGACAATGCAATGCGAAGTCGGGGACTATCATGGTTCTGACTGAAAGGGGTTGACCGCTCAACCATTCACCTACTGAGTTCGACGAGATAGTGATCGGATCGGTGAGATGGAAACGCAAAAGCGCAGGATCAAAACATTCTTCGAGCAAGGAGTCGAGCATTTCAGAAGATGAGACTTCAATGTCGACAACTCCGTTCATGGAAGGCACGTTGCGGTTCCGTTTCTCGAGAGCCAGCATAAGTTCGCGAGTGTTGTAGTCACGAATGTGAGGCATGGGTGTTCGCAAGATCGGACGCATTGTGTCGTACAACTTACCCAGTTGCACGCAACCAACAGGCGAGAATGATATTTCACCGACCTCAATGTTGAGATCACTATTGCGCACGTCCCAGCCGTCGAACGACTGATCGGTAAATGCACAAGGACCGAAAAAACTGGTAATGAAGGTTTGAGCGGTGCATACAGAAAAGATGTGAGGGACCTCGTGAACGGGTATGTAATCAGCGGTGGAGAATTTGGAAGTTTGAAACTGACAATTGGGAAGTGGATTCATGCCGTTGCGTGTGAGGAGTTCAAAGACTTCGGAAGGTACATCGTACACATCGTTGGTAGAGCAAAGATATGATTTTGCTCTCAAGGATTTGTACATGGTGTAACCGAGTGCAGCGCGGTCGATGTCAGATTCAACAGCACCAGAAACAAAGATACGTCCGACACCTCGTTCGTGAAGAACGGGCGCGCATTCGCGCAAATTCCTGGTGATTGTGGTGAGGTTGTGTTTCTGATTCTGCGACACAGATGAAACCACATAGACATTGAGCTGACCACGTGAACTATCGACGACTACGTTGGAACGCATGACAAGCGGTTTATGCTTACAATCAGACTTCTTTCCAAACTGTGGCACAAAGTAAAGGCGGGGTTCAGTAATAGTGGCGATGGAGGACTTGACGACACTCATAGTGGTGTACGTTGCGACAGGAAGGTTTTCGGCGACCCGAAACACTTCGGTGTCAGCGACACCAGCAGCTATGTGGTGGACACGACGACACTCATCTTCAGAAACGGCGACATGACAAGTAACACCATCGACCTTGATAAGCTTTGAAAGAGCGTCGGTGGTGACACGAGTGTAGTAGGTGAGTTGCTCGGTATGGCGGGTGAGAGCGACAAGAGCGTAATTGAAGCGCAGAAACAGTTCCTCCTGAGGGAAGGGATTAAGTCTGACGACACGTATGACCTTCGCCTCTTTACCCTGAAACTCGTGAATTGTGGAGACACGAAGGTGCATCAGTTCGAGTTTCTTCTTTTCGTTCTGGGTGAAGGTGAGGTACTGCACATTCTTGTCGTGAGGGAAGTTCTCGTTGCTAAGTCGCACGACTTTGCAGGTGTTGGTAGAGAACTTGACAGATTTCATCCCACAACCGTTGTTATTGAGTTCGGCGTAGTGTGAGTCGAGTCTAGCAGCGACGTCAGTAGGACATCGATAGGAAATGTAAAGAGTATCGATGATGGGAACGAAATCGGCGAGGCGGTGGTATTTCGTAGTGTAAGCGGGAGTGCGGTTGACATATGGGATTTGCAAGACATCACCGAGAAGTTTAACTTCGGTGGCACCGGAAAGGGCTATGGCATAAAAGATTTGACCTGGATGTGACATGAGCGCCTCGTCGATGAACAATGTATCGCTTTTGATGTTACGCTTGTAATTGACAATAAAACTGGCGAGTGTGCGAATGTGAATCCGGTGTTCTGGTGTCAGTTCAACCCTGTATTCCTTCTCAATTCTTCTCGCGAAATCTTCTTTTCCTTCGACAGTGGAAAGAAGAACATTACTTGCGCAAGGCATGTGAGCAGGAACACAATTTTTGACAACGAAGTATGTCTTTCCGCAACCTGCAGCAGCCTGAACAATGCCAGTTCCTCGTGGAATTTCGAATTTCGACACATCGACGGATTCGCACGCGGTGATCATCTCCTCTTCAATAGCGATAGTGCAATATTCGGAAAACAGGAACGAGTCTCCAACACTCAGGATACGTTTGATGTCGGCGACACGATGAAACTTTCCGTTGAAGAAGAATTTGTTGTACTTGCGTTCTTCCTTATTTCCGAATCTGTGACGGATCTCGTGGCCAATAGCGACGGTGCAATATGTGTACTTTCCATTCTCCTCCTCGGTGAATGTCTTCGCGAGAGGGAGGGTGGAGATTCGTTGCAAAACACGTGCGTGGTTCGAAATCTCGCAGGACAGAGTCAGCTTCTGGAGTTCGACGAATTCATTCATGGCTGCCCTGCAGATGTCACGTTCGACGGTGATTTCTTCCACGATAGCAGGTGTGGGGGGTTTTTCAGGTTTCAATGTGGATGTGTGGGTTTTCGGTTTAACATTGAAGGGAGTGCTTTTAAACACGAGTGGAGGTGGTGCGGTTATTCCCAGGGATTTACACTGTCCTATTTCTGTGAAGGTGCGGTCAGGTTCAGTAGAGATGAGAAACTTGTCAATCTTAGGTTTCTTCATGTACTCGACGAATCGCGTGACGACACCAGGTGCTGGTTCGGCGACGAGCAGTTCAAGAGGTTCTTCAGCTTCGGTGGGGCTTGAGGGAAAAACAGGAGGGATGACGGCAGGCGGGGCTGTGGTGACTGGTTTGGCTTCGACGGGGACATCGTACACGAAGTCTCGCAGTTCAGCGACGAAGTCACGTTTAGGGCCGGCGATGGTGTAGATGTTGCGAAACGTACGTTTGACAGCATCAGTGAGACCACCGGCGGTGACTCGGGATGCCATGCATAAGACGTTACGATATCCTTCAATCTTTTCTTCAGGAAATCGGTTGACGTGTTCGTTATTTTCACCAGCGGTGTTGAAGCATTTGCGATATTCACGAAGTCCAGAGATTATGTGTGCATCGAACATCTTCTGTGCGTGCATCAAGTTCATCATTGTAGAGTCGACGACGTCGTGAGATTCACCAAGGATGAGTTTCTCGTAGCAAGCAACTGGCAACTCGTTGGTGAGTTTGAACCCACGACAAATGAGATGTAGTTCGGTGGAGGCGGCGCGTGAGGTTTCGAGCTTCACGATTTCGACGGACTCGAAGGAGGCATTGAGAAATTCGATGTTATGAGGCATTTGGTCGCTAAGCAGGTCGAGGACTTTGAAGTAAGCATCACCACCGTTCTTGAGAACAGTGGTGCACAGGACGATCTCCCAAGCGACCAACTTCGCAAGTGCAGGAAAGTTGTGGTTGCTGTCACTTTCAGAAGTGGCAACATCACCACCAAAGAAACAGACGCCGGATGAGTAGCAGTTACGAATAGAGTCGCGGAAGGCGACGACATTGCATTCTTTAGTAATGTCACCGTCGTAGGTATCGCCGATGAGCTGAGTGAAGAGGTGATGTTTGACGGAGGGCGAAAAGTCGATCAGATCGGTTTTTGTGACACCGAAAACGCGTATGCCTTTGTTAGTAAGAAACTGAACTTCACCACCGGGACCACCGATGGATACGGCGGACTCGTATTCGCGGGTGGAAAAATAGCGAACGAACATTTCAGCAGTTTTCATACCGGATCTGCAAACGTAATTTCCGTCCCCCAGTTCACTGAGAGGGCAGTAGTTATGTTTGGCGGCGATGAGTCGTTTGTTGAACTGGCTACGCGAATACTGACTGCGGAGACCGAAGAATTGGTCGAATTGTTTGTCACGAGAAGCAGTGGAATATTCGATAGCCGGCACATCTTCGGAGAATTTGTATGTGGGGACGGCGTCGAAGTTGTGAGTGGGTCTGAGGTAGGAGCAGTGATTGTCGCGAATAAGAAAGTGTTTGAAAGGTGCGGCACCAAACCGCAAAGAGATTCCATTGACGTGAATACAAACGCCCTGTTGCAATTCTAAGGAGTACAGAATAAAAGTTGAGAGGTCTCCGTAACCATCGGGAGAACCGTCAGTGCATTCGAGCAAGCGACGTTGTGAAGCGACATCGCGTAGGTTGTGAAAGTAGGTACTCGTGAGAAGTCTGTTGCGAATCTGACGCGGTTCGAAGTCGTGCAATTCAGAAGCGTCAATCATGGATTGGAAGACGCAATCTCCGTTGGAATTGTTTTCGACAATAGCAAGGTCAGACGCGCATGCAGTAGTGACAAAAGAAGAGGTGTCATAGACGGTTTCGGTCACTTTCACATCTTCAAGTGAGCTGATGACAGCTTCGCGGACCATTTCAGGGTCAATGTAATCGCAGACGGGGGAGTCGGAAGTAAATCCGCGGTCGCACGGGATAACACCGGCGGACAAACAGTCGAGTTCTTCTTCGACAGTGAGGAAGTTGCACATTTTGTCGAGGGTGATATCAAATCGGCGGTTAACGACGGCGAATGATTTGACTCCGTTGATGATGGTCTTGACATTACTGGTAGTAAGGTCTTCGTCTTCGGTGAGTTGTGGTTCGAATGACTTCATCTCGTCGATGAGTCTGTCCATTTTTTGTTGGAATTTCTGGACACGGTGATTCCACGGAAGTCGGATGTGCAAACGAAACAAGCGGGAAAAGAAACCGCTGCTGGATTCTTCGCGAACTCGGTCTTCGTCGGCGATCATAGTGGACAAGGACTTGGTACATTCATAGTTAGAAATGTAAGTGAGGACGTAGATACAGACAGCAAGCATCTTGAGTTCAGCGGGTTCGATTGGGTCAACGACACCGATGGACTGTCCGGAGATAACTTCACGGGTGTTGAAACTGGTGCCGGCGATAAGGATGTTTTTGACAGTGAACTTGGAATCAGGGAGGGTATCAGCGAAAGCGCACATCTTGTAGAAGAGCTTGCGAGGAACGATGATACGCTGGGGGCGCATTCGGGAGATGACACTAGACGAAATATTACCAGGATTTATCGTGTCCCAATGCCATGAATAGACGATCATCTTGTCAGCGAGTGCGTCATTAGTGAACACGCGGAAGGGGTGGGAACGGGGAATGGTTCCGCTTATGGATTGTCTTATCACGAAAAAGGCTGTGTCGTCATCGGTGGTGTCAAACTGAACGTTGTAGTAGCGAGTGTCTTTCGAAGTCGATGCGATTCTGAATGTACGAAGTAGAGCGACGTAGTTGAGGAAATCGTGTTCGTAACCTTCTTGACTGTCGTTTGTGTACCAAAATCTGATTCGCATACGACCATTGACGACGCGTTTCTCAAAGTTCATACCATTGAGGAGCTTGCCTTTCTTTTCGTACAGCACGCAGGGGTTGAAGTGCATGACACCATAAGCGGTTCTGGCATCTGCACGGTGCATGGCGTCAGCAATGTCGGAGAGAGACATGTCGTAAGTGGAGTGAAGGAAGATGAGAACTTCAGCCTTCACGGAACAATTTTGAGACATTCTGTTGCAAATGACGCGGGAGTCCTGAGAGAGGTGCAAATTGAAGCAGGGAGAATGTTTGTGTGTGGAGTAACGGCGAAGTCTTTCTTTGTAAGCGGAATGACGCTTGTCGTCATTGTTAGAAAGAAGAGGCATACAGGTGTGGCAGTAACACTCACCTCGAGTGAGGTGCGTGATGGGGTTACCACCGACGTCCTTGTACACAGCGTCGTAGCCTTTGGCGGGACGGGATCCTGGAGTGATTCCCGCTTGGCGGAGCATTTTGCGTTCAGAAAGAGTACGATAAGCACGCCAGAATGGATGACCGGCGCAATCGTAGGCTTTGGAGAAGTCGAGATTGAACATGCAAAATGTTTTTCGGAGGCGGTCTTGGTCCTCCTTGCTCAGTCTTTGATAGACTGGGACTTTCGTCAATCGACTCTTGGCATTAAGAGCGTCGACGGTATCGTTAAGCATAGCAGAAACGATGATCTCCTGAGTCTGCGGAGACGTCAGGAGTTGTTTGAGAATGTTACTATTAACATTCTTAGAGATGTCCTCGTAATCGAGGGCAGTGTTTTGTCTGAGCTGATCAAGAACGCAATTACGCGAAAAATCATCAATGCCGAGGGTTTTTCCTGTAGCAGCAGACGAGGGTAGTGCGTCGGGTGAGGATGCACTGATGGTGGCGGTTGCGGATGAGGCAAGGCCGAATTTGTCTTGTAGAGAAGACATGGTTGTTTAACGGTTTTACACAGTTAAACTGGAGTACACAACTGATGAAGTTGTGTGTGTTGTTTCCGACCCTGGTGAGGGGTAGGAGTTTGGTGGAATTCGGGTGAGGAATTCCTGTTTAAGACTCCGGGTTAGGAAGTCTAATTTGTTCCACCGGGTGAGGATGGAATGACGATAGCACAAGATACTTAGACCGGGTGCAAGGACGTCGGTGGAGTAACGGCGAAGTCTTTCTTTGTAAGCGG</t>
   </si>
   <si>
@@ -205,9 +160,6 @@
   </si>
   <si>
     <t>TATCGTACTATGATTAAAAAGATCTACGAAAAGGAATCTTCATAGAAAGTTATCATGTGCATTCGTGCCTATGATAAAGAGTCTAGAAGATAAAGGTGAAACTCTCTTACCAGTTTGAATCCCATTCATACATACTTTCACTCCGACTTAAGACAACGGGCTTGCGCGCGCTCACCTTACGGTGCTAGACCAACTCGGTCATGCTGTCTTAAGTCTTGTTCACATACATACTTTATATTTGAGACATAATCTCAGGCGGTGACTCCCTTAAATTCAACAACTTACACTCTGGGCTTTTTCCTTGTTAACTGGGATTCAAACTGGTAAGAGAGTTTCACCTTTATCTTCTAGACTCTTTATCATAGGCACGAATGCACATGATAACTTTCTATGAAGATTCCTTTTCGTAGATCTTTTTAATCATAGTACGATAATCCACGAAGCAATATCGTTTCTGGTGTCTTGCGAAAGCAGTATTGATTTTGCTTCGAATTTCATCATAGTATGATTGACCCCACATAGCAGCTTCTATCATCATCGAGTCGACGGAGGCTACCATAAGATCCCAAGGGTCTTGTGTGTTTCTTACCCAATTTAGTTGTTCTTCAATAGATACCTTATCAAGTGGGGCAAGACACTGATTAGGTACAGTTGGATCGAATCGAAAACTTCTTTTCAAAAACGTTGCTTCCTTAAGAGTCACTTTTTCAATGATTTCACTAGATTTTGAGGCATTAGTAAATTTGATATTATGTCTTGCCAAAAACTCTGAAATCGTTCTGATGTTAAATTGTTCTATATACTCATCACTGACTGACATAATTACATCGTCACCGTAAGTATACAAAACAACATTAGCATCAAAAGTGGCTAGATCTTTGTTAGTGGTTCCCATCCATGCTATTCTCGTGTATATTTTGTTAATTTCTGAATTAATTTCAGCTGTAGCAAAACTGCCTGAAATTATTCCCGAAATTGTAGAATATACATAATTATTGCATATATGAATACCATTAACAAGTTCTTCTCTTAAAGCTCTTAGTTGCGTAAGATGTGTAAAAGAAGCATCGTTAAATTCGTACCATTCTATAATGTTCGTAATTGCCGCTGAAGCAACGTCTGAATCTGCTTGTGGTCCAAAACCTGAATAATCTCCTTCCAGAATGTTAGGAAAAGTTTTCAGCCTTTGGGCTAGCTGCATCCAGTCGTTACTGAGCGGATTGATAGAAATGGCATGTTCCGATAAGATCCAATTTGAACGGTAACTCATTAGCCAATCACCCATAAGTCTCTTTCCAGCTATAACCTGTTGGACAGGTGAAGTGGAAAAAACTCTAGTTCCACCGATTTTCCTAGCTTTCTCAGTTTTCAATAGCTCATCTTTCAGACAATCAATTGCCGGAGAGAAACAAGCTATTCCCTGAGATCGCTGATGTTCTTCGTAGGAAAGGATACGGTGCAGATCTGGATGGAGACCAAGGAGTTTACGTTCACTATTTGTTTGATCCAAGTGAAAAAGGAAGGCTTTACCTGATTGGTTTCGCTGTCTTATTACGTTTAGAGGAAATCCTGGGCTGGTTGACATATCCAAAGGTTTGAATTTTAACTCAGGAATCCCCAATACAGCTTCATCAATCGACAATATTCCTACCTGATTTCTTGGAGGAGGACAACTCTGTTGTAGAAGTTCTTTCGTTGCTTCAGCCGATGCAAGAAGGAGTTCACGCTCAAAACCTTTGGGTGGATTTGAGTGTTTCTTAACTCCTTCTTTCATCGGAGACCAGTCATAATTTACTCTTTCATCTGAAGATGAGAGAGGAGCTGGTTCTTTCCGAACTTCGAAAACAGTGTTGGCAAGGGGGGAGGGGACAAAGACCGTTTTATTTCCTTGTTTTTTCACCTGGTGATCAGGAATTTTACCCAACATTTTGAGATATTGAGGAAAGTTTCTGATCTCTTCAGGAGAAAGAGTTCCCAATTCAATTGTTTCATATCCTGGTTCTACAATGTTTTCAGTCTCTAGGTCTTCACGAAAGACTAGTTCACCGAAACCAATTTTACCATCATCACTACCCATAGTATGAATAGCAACAAGAGTGCTTAGGTTTCTAGAGAAAACTAGTGATCCACAAAAACCAGGTTTACTATAACCATCATATGCGACGAGATGATTATACTGACTGACATCGTAGTACTTAGAGTTGAAATTATTGAAGCGGGTTAAAACACAGGGTGATGTTAAGTCCGTGAAACAGGGCACAATAAAGCACTCATTGTTCATTCTAGCTAATTTGCTTCTAGAACCACAGTGAGTCAATATGTTAGCTACTAAGTGTGTCCTGGCAGGGGCTTCCCATACTCCGAGTTCCGACAAGGAGTCCTCATTATACCGCCATTTCAAAAGAGTTTCACAAAAATCGTTCATCGATAGAGGAACGTGAATGTGACCATCATATAAAGTGGCGATATATTTCACATCAGGATGAGTAAGTGCTTTGGTAATTGTTTGAATATAATGTAAAATAACCAAGTAAGATCTGTCGTGAACACCCAAGATGGGAAACAACATGCGTTCAAAGTTGGGGTTTGTAGCCTCAGCTTCTGGACACACTGTTATCCATCTCAGATTACGTCTCACTTTAGTTACTACATCTTCAAAGTTACCAGACTGTAGAGTTACTGCTCTTGAAGTGAATGAGGTTACGTTGGTCTTAGTTTGGGAGGATTTCTTAGCCTCTTTGGAAGAGGTGCCGGGGGAATAGTGACCGGATTGGAACATAAAAGTTTTGTGAAAATCTTTATCAATTCCATCCTTGTCTCCATTCCATTTAGCTGTCAACCAGTTAAAAACTAGTTTAAATACAGCTCCGGTGGCAACAATTCCAATGAGTACTAGCGTACCCTTAAGGATAGGATTCATGGAGGACCAAATTGTTTCATAAAATGATTTTAATTTGGATATGGCCAGGCTGTTCCAATCTTTTATACGAGAAGCAAAAGTTTGTAAAGACTTTTTGTGAATAGCGTACATTTTCACGAAACACTTATTCTCCTCACAGAAAAGATTAGCATCCAAGGCTTCCTCTTCACATCTACAATTTGAAATATGCAATCCTTTCGCTAATTCACAAGTGCGAACTGCACGAACGAACGCGTGATGAGGATATTTCAAAGCTGCAGGTGCAAAGTATCCACTAATCATATCCTTAAGTTTTTCAGTTTCACCTGGAACAAATTCACAGCATTCCCAAAGTCCTGTTAGAACTTTGTGCATACTAAGAATTTCCTCACAGGAGGTCCTAATTGGGGGTCCTTGTAGTGACACGGAACTACCTTCCGACATAGTCCAGGATGTTATTTTCTTCAACATCTCAGTTACAGGAGTTTCAACTTTAGCGTAAAACTTGTTGAAGGTTTCCTTTAACGTGAGCGTGTGGGGAGCTAATAACTTCCTGAAATCGTAGGAAAATATTCCGCGCTCATTGTCCAGCGTATCTAGGGTATCAAGATATTCGCGAATTTTGTCTTCGACAAAAGAGTCGTTTTGTAAATCTTCATATGTAATGTTATTCAAACCAAGGGATTTAGCTTGAAGTTCACATAGCATACGTCGATTTACACTCTCTTGTGCAGCAATTCGCCATGCCTTGAAATCCGCAATAGCCATTTCAATGAGTTCCGGATACGTCATCCAATCTGTGTAGCGAGGAGCTAACACATTCCACGGATTAAGTGTTCTTCTAAATTTGAGGTGTTCGAATTTTTCCAAAATTGATTTTGGAACTGTCTTTGCGGTTTCATGCCTAGCATCGACTAATTCGTCAGTTAGGGCTGCCTCGATTTTAAAATGAAAACGTCTGTGGAATGCATTTTTGTCAGGGATAGAGTCATGTTCAATAAATTCGAAATTGCTATTAATGTATAATATCTCGTTCTCAACTTCCATATCTTTGTCTTCTATGGCCGGTTTATTGGGCTTAAAAGAGGCGCAAGTTGCGTTTTCAAAGATCAAAGAAAGCCAAGTTCGGAGCGATTCAGGAAGAACCACAGACATTATATCATCAACAGAAATAACCTTTTGTTTACGAAGATCCGTCATATATGGGGAAATCGTAGGTACATTATAAGTCATGGCTCCATCAACAACAATATTCTCGGCCCGCAGGAGGCGGGAACACAGATCGCTTTGTAATTGAGATTTTCCAATGCAAGTTTTACCATATACGTAAATAACCCAAGGTTCTTTACGTATGTGACTGGCAAAACCATTTACGGCAAAATCCTCATAAAGTTTTTTAATTAAATTGAAATAATAAACTAAAGGAGAAGTTTTCCGATCATTGGCTAAAATCAATTGTGCGTGTAGACGTCTTCCTACTATATAGGCGACACGTACACGTAGTTGAAGCGAAGGATCAGTGTTTACGGATTCACGGATTGAGCGGTCAGTCAAGAAATCTACTTCTTTCATCCAGTTAGCAATTAAAGAGTCTGTCACAGCAATAGCTTTTACGGAAACGGCGTCGGGTTTTTCAGAGATATACCAAAAATAAGCTTTTTGAAATATAGCTTTGAAAGCTCCTCTAGTCGCCTTCATAAAAGCATTGAGTGTCGTTCCCATTTGAAGAGCTGACCTGAATGTAGAAGTGAATTCCTTGGCTGTGCGATTGTCACTGTCTTTCCACTCCTTTATACCGAAGAGGGTTGCTATTCCAGTAATAAGGATGGTGATAAATTCAGTGGGATGGGGGTCGGGGTCCGGTTGGTTACCTTGAAGGGATACTGCACCTGTTGATGGTTGAGACGATGCAGCAGCCACTCTAGCTAACCAGGCTGTTAGAGCAGCAAATACTTTCGCAGCTCCTTGAAGGCCTAGAATACCAAGTCGTTGGAGAATAATTCCAAACGACCACAGGAATGTCTTCCAGCTCGGATTTAGAATACAATGTCCTGACTGTTGAAAGAGAACAGTCAGGATATTGGTTAAGCTAAAATCCGGGGTGGAAACCACTCCCTTTTCGGCAAGTTTAGTTTTTACTAAACCTTCAAGGTTAGTGGCTAGCTCGCTGAAGTAAGTCTCGACTCCTTGGAACATACCTTGGGCGAATCCTTCACCTGCTGTTTCCGCTGTCGTGTGTACGAAACGAGAAAAAACAGGTCCAGGATTCTCCTCGATATCTGCCATGGAGGAGTTACGAGCTATCACAGGTGGGTGTTCTGCGAAGAAAACGACGGGAGGAAATCCTCTGAAGAAATACAAGGCTGCATCATCTCCAAAAGATCTCATCACGACGGCTCTAAGTGTAGCGGGGAGGTCGGAGGTTCTATTCACATCTAGACCATATGTCACTGATCCCATAGAATTTACCAAAGCGTTGTCTCCTTGTTTACCAAGGGTAGACCACGTGAAGATAAATTCCGAAGGATTATAATATGGTATAGCTGTTCTAATTGCACTGTTGATTCCCAAGTTAAATGTTTGTTTTGGTGCGGTAGAAACTAGTCTCTGATTGTTTGTCGCAGTAGGATATTGCACAATATCTTTACTGGGAAAAGCATCAGGGAAATAGTTTGTCCACACACTAGCATTTTGTACTGTGGGAAACAAGGCATGCATTATAATAGAACCTTTAAATCCAATAAAACCCTTGAGAACGATATCAGCAGCAGAAGCTGAATATGCGTAATCAAGAGAATTTATTGGGGGAGGGGTTGTCCGGGGTAGGGCTGGGGAAACATTAACACGAAAAGCGGCGTTAGGATAAGAAGCACTGCGAGCAGTTTCTATCCCTATGTTAATATCTCCGTAGGGTCGCTTAAGCACATTTGTTATACTGGAAAAATCTTCACCAAAGTCTTTCTTTCCCCATCCACGCATAGTGGTAGATGGAAAGGGAGAATCGACGTTAGTAGAAGTTATTCCGGTATAACCCATTTGCTTAGAGACAGTTGGGATTGGGTTGTTTGGAGTCCAAAGTACGTGAAAAGCGTAAGTTGGGCCATACGTGAAGGCATTAGTCATTTCAGTACTTACGAGATACTGGGCCAGTGCATCAAATGTCGACTGTGTGTAGTTATTAGAAAAATTTCTAATAGCTGTGTACACAGCCGCCACAGGAGCTGACGTTGCATCAAGTACTGAAACGAGCAACACCGAGGTGTCAGGTTGGTTCAGGGGGACGTAACCTACTGCATGTCTGCGGTTTCCATACCCAGGAATAGAAGGTCCTGAAGTAGGGGTGTCACCATAGTACAGCAAAACGGCTCGGAAGTTGGAAACGGGGTTGGTAAACCACATATTCCAAATCCAATCCGCGCTAGCAGGTTTCCCACCGGGTGCCAAAGTTGAGAAAGTGAATGTTATATCACTTGCCCAATGGTAACCGGCGAGTTTGAGTCCAGGATACGTAACCGGATTCGAATACGGTTGTACTGACAGGGAGGGGGATTTCACGACCGACAACTCAAAGTCCGGGCCGGCCCTTTCAAAGATACTAAGTGTAACCGAAGAAGGAACACCAGTTGCGTAAGAAAGAGTCGTCATGAGGTATAAATAGCAATACGAAGGCGAATAGGATGCTGTTTGGCAATCCGAATTCACATAAGCATTACTAGGTACACGAATCCATGACTTAGGATTAAAGTAGGGGGCTACTACTTCGTTCGTGAATTTTCCGTTAGTGTAGTTAAGTTCTGTAAATTTCGAGTTTCTCAAGTATGTAAGGTCTATAGGTTGTGTAGGGCTGATCGGGGTAGGCAAAACTCCAAACATAAGTTTGAAGTTGTGCTTATCCGTCATAGCGGCATAAACCTCATATACTGAAGAACCTTTTGCATTTTCGAAAATAGAAGCAACTACACCAACGGGAGGTACGTGTCGGCGGTTAGGATCTGTAGCATAGGGGACATAGTCGTTATACGGTTTCAACGGTTGGTTAGTCCATGAAGTAAGGAGCTTTGGGGAGTCCGCGGAGGTTATAGTCACTTGTCGAAATAGTCCAGGTCGATGGACTAGGTCTTCAAATGTCTCCGTAGGTGGAAAGTTGTGAGTAACTGTTCCCAAAGGGTCCATTCTAAATGAATTGACCGGATTCTCAATGTTCGTTACCGAAGATTGAGAAGGCAAGGCTTGAGGTATAACAAATTGTCCAGGGGAAGGGTTAATAGGGTGGTCAGCATTCTTATTGTTAATAAGACTTTTGGCCACCTTATTAAGCATGTTAAAGGTCGGGTCGGGGTTTCCATTCATCAGTGAGAGACCAGCATGAAGCGTGTCTCCCATTTTACCGAAAAGTCCACTCTGCATATTAACTCTCTGATCAATTTTACCAACAAACTCTACAGAATCGAAATGAATGAAAGCATTCAAATCGCAAGTGCGAGTTCCTTGGTCACCAATTGCAAGATTTACAATTGGGAAATAAATCAGAGCGCCAAGAGAGCGTTGAGGTAGATAATTCGGGGATGAAATGTGGGGCACATAGTTCAATGGATAAGTGAAATTAATGGGTACTACTACTTCGTTATTAGAACAAGCGTTAATCATAGTAAACGGTAGCTGTGTAAGTGAATACTTATTCAACCATAATTTTTGGTCTTCAGGAGTCCACATATTCCATAGAGGAACAAATGTAACTCCCATAAGACCAACATTAAAGTTCACAGCGTTAGGTTTAATGGTAACTCTTGCAGTCAATTTCGAAATAGCGTGTACTTGAAATGATTTCACAATAGCGGCGTTGGCGCTGACGTCATTAAACATTATGTTGTAGAGGTCAAAGACTTGAATTTGAGAGGATGTAGACCAGGTGACTTTATTAAGCCACCAAGCGACACCAGCCAAATTCAAATCAGTGAACGGTTGTTCAGAAAGAGTTCTCTCTGAGGGTTCGTCGGGGTACGGTTCAATTTCTTCTACTTCTCCTACTGCTACGAGTTGGGTGTTTTGTGTTTCTGAAGTGCTAGATTCTGCAGCACCTACAGCGCCTTGAAGGCCAGATTGTAGGGATACAGAACCGAGTTCTTCAGCAAGCATGTTCTCGTAGTTTTCACGTTCAATTTCTTCTGCTTCCTGTTCATCATAAGTTTTCTTCCTTTGGAAGAATGGTGAAGGAGCAGGGGTCCAGGGTTTTGTTTTTCTAATGGTGTCCGTTGTGATGGTCATAGCCACATAGATAAAGAAGCTACGGAAAGCAACTTCTTCAGCCAATGAAAGCTTAGAGTGTTCACCAATAAAAATACATTCCCAATGGGGGTCAAAGGCAGGAACGTGTAGACGTACTTGATGTTCGAGGTCAAACTTTTGTCTTAGGTAATAAGTCAATTGATAGGCACCGAACTCAGGCAAGGCAAGGACTAGTTCATTATACACACTACGCGCTGAAAAGCAATACTTGGCTGGTTTAGAGACATGATCGCCTTCATAACGAGTAGCACGTTCAAGGAAATAGTCGAACGTCTTTTTAGGAGGAAGTGTGGCAGGAACACCAGGAGTACGATGAAAGTACTCTTGGGTCATGTCAGATTCCATGAGAAAGAATTTCCGGTTTGGGGGTTTGCGGGTGGTTCTTGACGAT</t>
-  </si>
-  <si>
-    <t>Contig BLASTn coverage (%)</t>
   </si>
   <si>
     <t>Lengthiest contig (bp)</t>
@@ -221,10 +173,6 @@
   <si>
     <t>Virus accession
 number</t>
-  </si>
-  <si>
-    <t>Virus accession
-sequence</t>
   </si>
   <si>
     <t>Virus 
@@ -284,13 +232,15 @@
     <t>Yongsan iflavirus 1 strain A16.2047/ROK/2016 polyprotein gene, complete cds</t>
   </si>
   <si>
-    <t>Top BLASTn hit
-description</t>
-  </si>
-  <si>
-    <t>Lengthiest
-contig
+    <t>Lengthiest contig
 sequence</t>
+  </si>
+  <si>
+    <t>Lengthiest contig top
+BLASTn hit description</t>
+  </si>
+  <si>
+    <t>Lengthiest contig BLASTn coverage (%)</t>
   </si>
 </sst>
 </file>
@@ -390,14 +340,14 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,76 +662,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBC339-F5A8-964F-93DB-F9712EC76291}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="79.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,443 +736,398 @@
       <c r="C3" s="1">
         <v>3216</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="11">
         <v>9569</v>
       </c>
+      <c r="E3" s="14">
+        <v>297.54353233830801</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="H3" s="10">
         <v>99</v>
       </c>
-      <c r="I3" s="14">
-        <v>297.54353233830801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>3003</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="11">
         <v>10639</v>
       </c>
+      <c r="E4" s="14">
+        <v>354.27905427905398</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="H4" s="10">
         <v>95</v>
       </c>
-      <c r="I4" s="14">
-        <v>354.27905427905398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>2878</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="11">
         <v>3371</v>
       </c>
+      <c r="E5" s="14">
+        <v>117.12995135510771</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="H5" s="10">
         <v>99</v>
       </c>
-      <c r="I5" s="14">
-        <v>117.12995135510771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>5041</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="11">
         <v>7254</v>
       </c>
+      <c r="E6" s="14">
+        <v>143.90001983733387</v>
+      </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>72</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="H6" s="10">
         <v>99</v>
       </c>
-      <c r="I6" s="14">
-        <v>143.90001983733387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>3884</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="11">
         <v>14768</v>
       </c>
+      <c r="E7" s="14">
+        <v>380.22657054582902</v>
+      </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="H7" s="10">
         <v>99</v>
       </c>
-      <c r="I7" s="14">
-        <v>380.22657054582902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>2572</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="11">
         <v>3807</v>
       </c>
+      <c r="E8" s="14">
+        <v>148.01710730948679</v>
+      </c>
       <c r="F8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="H8" s="10">
         <v>100</v>
       </c>
-      <c r="I8" s="14">
-        <v>148.01710730948679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>6524</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="11">
         <v>9152</v>
       </c>
+      <c r="E9" s="14">
+        <v>140.2820355610055</v>
+      </c>
       <c r="F9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="10">
         <v>99</v>
       </c>
-      <c r="I9" s="14">
-        <v>140.2820355610055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>2609</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="11">
         <v>4382</v>
       </c>
+      <c r="E10" s="14">
+        <v>167.95707167497125</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="H10" s="10">
         <v>89</v>
       </c>
-      <c r="I10" s="14">
-        <v>167.95707167497125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>2467</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="11">
         <v>9045</v>
       </c>
+      <c r="E11" s="14">
+        <v>366.6396432914471</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="H11" s="10">
         <v>99</v>
       </c>
-      <c r="I11" s="14">
-        <v>366.6396432914471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>4827</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="11">
         <v>6382</v>
       </c>
+      <c r="E12" s="14">
+        <v>132.21462606173606</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="H12" s="10">
         <v>98</v>
       </c>
-      <c r="I12" s="14">
-        <v>132.21462606173606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>2134</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="11">
         <v>3097</v>
       </c>
+      <c r="E13" s="14">
+        <v>145.12652296157452</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="H13" s="10">
         <v>98</v>
       </c>
-      <c r="I13" s="14">
-        <v>145.12652296157452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>4666</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="11">
         <v>9665</v>
       </c>
+      <c r="E14" s="14">
+        <v>207.13673381911701</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="H14" s="10">
         <v>99</v>
       </c>
-      <c r="I14" s="14">
-        <v>207.13673381911701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>5637</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="11">
         <v>9656</v>
       </c>
+      <c r="E15" s="14">
+        <v>171.29678907220151</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="H15" s="10">
         <v>97</v>
       </c>
-      <c r="I15" s="14">
-        <v>171.29678907220151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>2809</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="11">
         <v>4036</v>
       </c>
+      <c r="E16" s="14">
+        <v>143.68102527589889</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="H16" s="10">
         <v>91</v>
       </c>
-      <c r="I16" s="14">
-        <v>143.68102527589889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>3847</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="11">
+        <v>8576</v>
+      </c>
+      <c r="E17" s="14">
+        <v>222.9269560696647</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="11">
-        <v>8576</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>83</v>
+      <c r="G17" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="H17" s="10">
         <v>99</v>
       </c>
-      <c r="I17" s="14">
-        <v>222.9269560696647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J21" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Supplementary/Supplementary_file_6.xlsx
+++ b/Supplementary/Supplementary_file_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6078F10-5B78-5148-8B71-EA7EEB6BEAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05942329-7055-5844-BB23-64E900B39E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1A9DF13C-39FD-8D42-A3FB-5F0FC33523B0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>OP264879.1</t>
   </si>
@@ -236,11 +236,61 @@
 sequence</t>
   </si>
   <si>
-    <t>Lengthiest contig top
-BLASTn hit description</t>
-  </si>
-  <si>
-    <t>Lengthiest contig BLASTn coverage (%)</t>
+    <t>HF913429.2</t>
+  </si>
+  <si>
+    <t>KX883772.1</t>
+  </si>
+  <si>
+    <t>MW520400.1</t>
+  </si>
+  <si>
+    <t>MK440651.1</t>
+  </si>
+  <si>
+    <t>MK440650.1</t>
+  </si>
+  <si>
+    <t>MW434930.1</t>
+  </si>
+  <si>
+    <t>JQ675604.1</t>
+  </si>
+  <si>
+    <t>MT498831.1</t>
+  </si>
+  <si>
+    <t>MF281708.1</t>
+  </si>
+  <si>
+    <t>KM817681.1</t>
+  </si>
+  <si>
+    <t>OL700195.1</t>
+  </si>
+  <si>
+    <t>JQ675605.1</t>
+  </si>
+  <si>
+    <t>MH703060.1</t>
+  </si>
+  <si>
+    <t>KY933255.1</t>
+  </si>
+  <si>
+    <t>NC_040587.1</t>
+  </si>
+  <si>
+    <t>Top BLASTn hit
+accession number</t>
+  </si>
+  <si>
+    <t>Lengthiest contig
+BLASTn coverage (%)</t>
+  </si>
+  <si>
+    <t>Top BLASTn hit
+description</t>
   </si>
 </sst>
 </file>
@@ -286,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,11 +359,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -345,8 +415,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,11 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBC339-F5A8-964F-93DB-F9712EC76291}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,12 +752,13 @@
     <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="79.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
@@ -693,13 +767,14 @@
       <c r="D1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -718,15 +793,18 @@
       <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>68</v>
+      <c r="G2" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,13 +824,16 @@
         <v>30</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,13 +853,16 @@
         <v>31</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,13 +882,16 @@
         <v>32</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,13 +911,16 @@
         <v>33</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,13 +940,16 @@
         <v>34</v>
       </c>
       <c r="G7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,13 +969,16 @@
         <v>35</v>
       </c>
       <c r="G8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -902,13 +998,16 @@
         <v>36</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -928,13 +1027,16 @@
         <v>37</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -954,13 +1056,16 @@
         <v>38</v>
       </c>
       <c r="G11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -980,13 +1085,16 @@
         <v>39</v>
       </c>
       <c r="G12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1006,13 +1114,16 @@
         <v>40</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1032,13 +1143,16 @@
         <v>41</v>
       </c>
       <c r="G14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1058,13 +1172,16 @@
         <v>42</v>
       </c>
       <c r="G15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1084,9 +1201,12 @@
         <v>43</v>
       </c>
       <c r="G16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
         <v>91</v>
       </c>
     </row>
@@ -1110,9 +1230,12 @@
         <v>44</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
         <v>99</v>
       </c>
     </row>
@@ -1127,7 +1250,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Supplementary/Supplementary_file_6.xlsx
+++ b/Supplementary/Supplementary_file_6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/HYBRID_READS-ZWA/RESULTS/PAPER/ORIGINAL/ZWA2_COMPANION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05942329-7055-5844-BB23-64E900B39E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865AB75-E8A1-3F4D-B9C2-C15F4601A0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1A9DF13C-39FD-8D42-A3FB-5F0FC33523B0}"/>
   </bookViews>
@@ -383,33 +383,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,8 +405,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,68 +746,71 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="92.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -814,22 +822,22 @@
       <c r="C3" s="1">
         <v>3216</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>9569</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="9">
         <v>297.54353233830801</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <v>99</v>
       </c>
     </row>
@@ -843,22 +851,22 @@
       <c r="C4" s="1">
         <v>3003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>10639</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>354.27905427905398</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>95</v>
       </c>
     </row>
@@ -872,22 +880,22 @@
       <c r="C5" s="1">
         <v>2878</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>3371</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>117.12995135510771</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <v>99</v>
       </c>
     </row>
@@ -901,22 +909,22 @@
       <c r="C6" s="1">
         <v>5041</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>7254</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>143.90001983733387</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="5">
         <v>99</v>
       </c>
     </row>
@@ -930,22 +938,22 @@
       <c r="C7" s="1">
         <v>3884</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>14768</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>380.22657054582902</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="5">
         <v>99</v>
       </c>
     </row>
@@ -959,22 +967,22 @@
       <c r="C8" s="1">
         <v>2572</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>3807</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>148.01710730948679</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="5">
         <v>100</v>
       </c>
     </row>
@@ -988,22 +996,22 @@
       <c r="C9" s="1">
         <v>6524</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>9152</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>140.2820355610055</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1017,22 +1025,22 @@
       <c r="C10" s="1">
         <v>2609</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>4382</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <v>167.95707167497125</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>89</v>
       </c>
     </row>
@@ -1046,22 +1054,22 @@
       <c r="C11" s="1">
         <v>2467</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>9045</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="9">
         <v>366.6396432914471</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1075,22 +1083,22 @@
       <c r="C12" s="1">
         <v>4827</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>6382</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="9">
         <v>132.21462606173606</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="5">
         <v>98</v>
       </c>
     </row>
@@ -1104,22 +1112,22 @@
       <c r="C13" s="1">
         <v>2134</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>3097</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="9">
         <v>145.12652296157452</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="5">
         <v>98</v>
       </c>
     </row>
@@ -1133,22 +1141,22 @@
       <c r="C14" s="1">
         <v>4666</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>9665</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="9">
         <v>207.13673381911701</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1162,22 +1170,22 @@
       <c r="C15" s="1">
         <v>5637</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="6">
         <v>9656</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="9">
         <v>171.29678907220151</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="5">
         <v>97</v>
       </c>
     </row>
@@ -1191,22 +1199,22 @@
       <c r="C16" s="1">
         <v>2809</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>4036</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="9">
         <v>143.68102527589889</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="5">
         <v>91</v>
       </c>
     </row>
@@ -1220,32 +1228,32 @@
       <c r="C17" s="1">
         <v>3847</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="6">
         <v>8576</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="9">
         <v>222.9269560696647</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J20" s="12"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I21" s="13"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Supplementary/Supplementary_file_6.xlsx
+++ b/Supplementary/Supplementary_file_6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/ZWA2/RESULTS/PAPER/ORIGINAL/ZWA2_COMPANION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/ZWA2/RESULTS/PAPER/SUBMISSIONS/Bioinformatics/ViRAE_COMPANION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3CE9E5-D5A9-D741-A9B5-6350CE6697E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894527EC-3B15-7F4C-B698-90D8F4A7E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{1A9DF13C-39FD-8D42-A3FB-5F0FC33523B0}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Lengthiest contig (bp)</t>
   </si>
   <si>
-    <t>ZWA2 improvement section</t>
-  </si>
-  <si>
     <t>Database information section</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   <si>
     <t>Top BLASTn hit
 description</t>
+  </si>
+  <si>
+    <t>ViRAE improvement section</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,12 +768,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
@@ -784,31 +784,31 @@
     </row>
     <row r="2" spans="1:11" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="K2" s="19"/>
     </row>
@@ -832,10 +832,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="5">
         <v>99</v>
@@ -861,10 +861,10 @@
         <v>31</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5">
         <v>95</v>
@@ -890,10 +890,10 @@
         <v>32</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="5">
         <v>99</v>
@@ -919,10 +919,10 @@
         <v>33</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5">
         <v>99</v>
@@ -948,10 +948,10 @@
         <v>34</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="5">
         <v>99</v>
@@ -977,10 +977,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5">
         <v>100</v>
@@ -1006,10 +1006,10 @@
         <v>36</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="5">
         <v>99</v>
@@ -1035,10 +1035,10 @@
         <v>37</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="5">
         <v>89</v>
@@ -1064,10 +1064,10 @@
         <v>38</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="5">
         <v>99</v>
@@ -1093,10 +1093,10 @@
         <v>39</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="5">
         <v>98</v>
@@ -1122,10 +1122,10 @@
         <v>40</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5">
         <v>98</v>
@@ -1151,10 +1151,10 @@
         <v>41</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="5">
         <v>99</v>
@@ -1180,10 +1180,10 @@
         <v>42</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="5">
         <v>97</v>
@@ -1209,10 +1209,10 @@
         <v>43</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="5">
         <v>91</v>
@@ -1238,10 +1238,10 @@
         <v>44</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="5">
         <v>99</v>
